--- a/CSS.xlsx
+++ b/CSS.xlsx
@@ -2,14 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E3A180-0018-4B21-B7FD-829B14F3A2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alice\Document\MyDocument\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A139037C-3916-47B4-AA4F-C064230FA4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="750" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13956" yWindow="2088" windowWidth="19224" windowHeight="12216" tabRatio="750" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CSS" sheetId="4" r:id="rId1"/>
-    <sheet name="Display" sheetId="50" r:id="rId2"/>
+    <sheet name="Property" sheetId="50" r:id="rId2"/>
+    <sheet name="Value" sheetId="52" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1168,8 +1174,103 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+    <author>Dell</author>
+  </authors>
+  <commentList>
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{987684DA-CF4A-4090-AF4B-114107CB1E36}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>each line is stretched so that every line has equal width</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{8D779AE0-A315-412E-B8F5-9528436BE911}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>each line is stretched so that every line has equal width</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{903EA186-82D5-4918-B52E-567E7B9B9F8A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>used together with the</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> direction property</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> to set or return whether the text should be overridden to support multiple languages in the same document</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="1" shapeId="0" xr:uid="{67195DA8-2A35-47F8-A3F5-3F1DDCB587A7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Can be negative</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C45" authorId="0" shapeId="0" xr:uid="{D42E27AC-B867-4204-817F-04960552095D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>horizontally center</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="661">
   <si>
     <t>CSS</t>
   </si>
@@ -7257,14 +7358,628 @@
 }</t>
   </si>
   <si>
-    <t>Contains</t>
+    <t>display</t>
+  </si>
+  <si>
+    <t>Posible values</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>inline</t>
+  </si>
+  <si>
+    <t>hsl(9, 100%, 64%)</t>
+  </si>
+  <si>
+    <t>rgba(255, 99, 71, 0.5)</t>
+  </si>
+  <si>
+    <t>hsla(9, 100%, 64%, 0.5)</t>
+  </si>
+  <si>
+    <t>rgb(r, g, b)</t>
+  </si>
+  <si>
+    <t>#hex</t>
+  </si>
+  <si>
+    <t>url("paper.gif")</t>
+  </si>
+  <si>
+    <t>url("img_tree.gif"), url("paper.gif")</t>
+  </si>
+  <si>
+    <t>repeat-x</t>
+  </si>
+  <si>
+    <t>repeat-y</t>
+  </si>
+  <si>
+    <t>no-repeat</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>scroll</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>border-style</t>
+  </si>
+  <si>
+    <t>dotted</t>
+  </si>
+  <si>
+    <r>
+      <t>dashed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>solid</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>groove</t>
+  </si>
+  <si>
+    <t>ridge</t>
+  </si>
+  <si>
+    <t>inset</t>
+  </si>
+  <si>
+    <t>outset</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>top right bottom left</t>
+  </si>
+  <si>
+    <t>0.0 ~ 1.0</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>px</t>
+  </si>
+  <si>
+    <t>pt</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>em</t>
+  </si>
+  <si>
+    <t>ex</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>rem</t>
+  </si>
+  <si>
+    <t>vw</t>
+  </si>
+  <si>
+    <t>vh</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>margin</t>
+  </si>
+  <si>
+    <t>margin-[dir]</t>
+  </si>
+  <si>
+    <t>border-[dir]-style</t>
+  </si>
+  <si>
+    <t>padding</t>
+  </si>
+  <si>
+    <t>padding-[dir]</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>[max/min]-width</t>
+  </si>
+  <si>
+    <t>[max/min]-height</t>
+  </si>
+  <si>
+    <t>outline</t>
+  </si>
+  <si>
+    <t>outline-style</t>
+  </si>
+  <si>
+    <t>outline-offset</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> url("img_tree.png") no-repeat right top</t>
+    </r>
+  </si>
+  <si>
+    <t>text-align</t>
+  </si>
+  <si>
+    <t>text-align-last</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>justify</t>
+  </si>
+  <si>
+    <t>ltr</t>
+  </si>
+  <si>
+    <t>rtl</t>
+  </si>
+  <si>
+    <t>bidi-override</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>text-top</t>
+  </si>
+  <si>
+    <t>middle</t>
+  </si>
+  <si>
+    <t>text-bottom</t>
+  </si>
+  <si>
+    <t>text-decoration</t>
+  </si>
+  <si>
+    <t>text-decoration-line</t>
+  </si>
+  <si>
+    <t>text-decoration-color</t>
+  </si>
+  <si>
+    <t>text-decoration-style</t>
+  </si>
+  <si>
+    <t>text-decoration-thickness</t>
+  </si>
+  <si>
+    <t>underline</t>
+  </si>
+  <si>
+    <t>overline</t>
+  </si>
+  <si>
+    <t>line-through</t>
+  </si>
+  <si>
+    <t>combine-2</t>
+  </si>
+  <si>
+    <t>combine-↑</t>
+  </si>
+  <si>
+    <t>linestyle</t>
+  </si>
+  <si>
+    <t>length linestyle color</t>
+  </si>
+  <si>
+    <r>
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>linestyle color</t>
+    </r>
+  </si>
+  <si>
+    <t>decoration color style thickness</t>
+  </si>
+  <si>
+    <r>
+      <t>color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (text)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>direction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (text)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>unicode-bidi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (text)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>vertical-align</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (text)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>opacity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (background)</t>
+    </r>
+  </si>
+  <si>
+    <t>text-transform</t>
+  </si>
+  <si>
+    <t>uppercase</t>
+  </si>
+  <si>
+    <t>lowercase</t>
+  </si>
+  <si>
+    <t>capitalize</t>
+  </si>
+  <si>
+    <t>text-indent</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">letter-spacing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(text)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">line-height </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(text)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">word-spacing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(text)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">white-space </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(text)</t>
+    </r>
+  </si>
+  <si>
+    <t>0.0 ~ ↑</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>nowrap</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>pre-line</t>
+  </si>
+  <si>
+    <t>pre-wrap</t>
+  </si>
+  <si>
+    <t>text-shadow</t>
+  </si>
+  <si>
+    <r>
+      <t>horizontal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> vertical-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> blur-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>color</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">font-family </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(text)</t>
+    </r>
+  </si>
+  <si>
+    <t>"Times New Roman", Times, serif;</t>
+  </si>
+  <si>
+    <t>italic</t>
+  </si>
+  <si>
+    <t>bold</t>
+  </si>
+  <si>
+    <t>oblique</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">font-style </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(text)</t>
+    </r>
+  </si>
+  <si>
+    <t>small-caps</t>
+  </si>
+  <si>
+    <r>
+      <t>font-size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (text)</t>
+    </r>
+  </si>
+  <si>
+    <t>font</t>
+  </si>
+  <si>
+    <t>size/line-height family style variant weight</t>
+  </si>
+  <si>
+    <t>list-style-type</t>
+  </si>
+  <si>
+    <t>list-style-position</t>
+  </si>
+  <si>
+    <t>outside</t>
+  </si>
+  <si>
+    <t>inside</t>
+  </si>
+  <si>
+    <t>list-style-image</t>
+  </si>
+  <si>
+    <t>url('')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="69">
+  <fonts count="73">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7658,37 +8373,61 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="14"/>
       <color rgb="FFC00000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color rgb="FF293742"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF394B59"/>
+      <sz val="9"/>
+      <color rgb="FFDC143C"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFDB2C6F"/>
+      <sz val="14"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="5"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF00B0F0"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7785,20 +8524,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF66"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC5C5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="89">
+  <borders count="94">
     <border>
       <left/>
       <right/>
@@ -8758,19 +9485,19 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="mediumDashed">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="double">
         <color indexed="64"/>
-      </left>
-      <right/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -8782,12 +9509,65 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top style="dashDot">
         <color indexed="64"/>
       </top>
-      <bottom style="mediumDashed">
+      <bottom style="dashDot">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="dashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -8796,7 +9576,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="385">
+  <cellXfs count="395">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -9403,45 +10183,319 @@
     <xf numFmtId="49" fontId="63" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="18" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="18" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="65" fillId="17" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="65" fillId="17" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="53" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="67" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="9" borderId="64" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9450,334 +10504,88 @@
     <xf numFmtId="49" fontId="4" fillId="9" borderId="64" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="36" fillId="8" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="36" fillId="8" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="65" fillId="8" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="65" fillId="8" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="68" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="68" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="70" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="69" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="72" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="67" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="53" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="88" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9790,15 +10598,15 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF0066"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFCFAFE7"/>
       <color rgb="FFFFC5C5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFCDEDFF"/>
       <color rgb="FFFFF7CD"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFFFFF66"/>
       <color rgb="FFFFF7F7"/>
-      <color rgb="FFFF0066"/>
       <color rgb="FFFFFFEB"/>
     </mruColors>
   </colors>
@@ -10170,6 +10978,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -10435,7 +11247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AS227"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
@@ -10477,23 +11289,23 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="27.6" customHeight="1">
-      <c r="A3" s="314" t="s">
+      <c r="A3" s="351" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="314"/>
+      <c r="B3" s="351"/>
       <c r="C3" s="52"/>
-      <c r="D3" s="316" t="s">
+      <c r="D3" s="353" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="316"/>
-      <c r="F3" s="316"/>
+      <c r="E3" s="353"/>
+      <c r="F3" s="353"/>
       <c r="G3" s="52"/>
-      <c r="H3" s="316" t="s">
+      <c r="H3" s="353" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="316"/>
-      <c r="J3" s="316"/>
-      <c r="K3" s="316"/>
+      <c r="I3" s="353"/>
+      <c r="J3" s="353"/>
+      <c r="K3" s="353"/>
       <c r="L3" s="13"/>
       <c r="M3" s="49"/>
       <c r="N3" s="54" t="s">
@@ -10513,10 +11325,10 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="27.6" customHeight="1">
-      <c r="A4" s="315" t="s">
+      <c r="A4" s="352" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="315"/>
+      <c r="B4" s="352"/>
       <c r="C4" s="51" t="s">
         <v>18</v>
       </c>
@@ -10615,36 +11427,36 @@
       <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" thickTop="1">
-      <c r="A7" s="324" t="s">
+      <c r="A7" s="355" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="324"/>
-      <c r="C7" s="324"/>
-      <c r="D7" s="325"/>
-      <c r="E7" s="317" t="s">
+      <c r="B7" s="355"/>
+      <c r="C7" s="355"/>
+      <c r="D7" s="356"/>
+      <c r="E7" s="354" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="318"/>
-      <c r="G7" s="318"/>
-      <c r="H7" s="319"/>
-      <c r="I7" s="318" t="s">
+      <c r="F7" s="333"/>
+      <c r="G7" s="333"/>
+      <c r="H7" s="334"/>
+      <c r="I7" s="333" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="318"/>
-      <c r="K7" s="318"/>
-      <c r="L7" s="319"/>
-      <c r="M7" s="340" t="s">
+      <c r="J7" s="333"/>
+      <c r="K7" s="333"/>
+      <c r="L7" s="334"/>
+      <c r="M7" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="341"/>
-      <c r="O7" s="341"/>
-      <c r="P7" s="342"/>
-      <c r="Q7" s="340" t="s">
+      <c r="N7" s="331"/>
+      <c r="O7" s="331"/>
+      <c r="P7" s="332"/>
+      <c r="Q7" s="330" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="341"/>
-      <c r="S7" s="341"/>
-      <c r="T7" s="342"/>
+      <c r="R7" s="331"/>
+      <c r="S7" s="331"/>
+      <c r="T7" s="332"/>
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
       <c r="W7" s="21"/>
@@ -10654,10 +11466,10 @@
       <c r="AA7" s="21"/>
     </row>
     <row r="8" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="324"/>
-      <c r="B8" s="324"/>
-      <c r="C8" s="324"/>
-      <c r="D8" s="325"/>
+      <c r="A8" s="355"/>
+      <c r="B8" s="355"/>
+      <c r="C8" s="355"/>
+      <c r="D8" s="356"/>
       <c r="E8" s="33" t="s">
         <v>33</v>
       </c>
@@ -10695,10 +11507,10 @@
       <c r="AA8" s="21"/>
     </row>
     <row r="9" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="324"/>
-      <c r="B9" s="324"/>
-      <c r="C9" s="324"/>
-      <c r="D9" s="325"/>
+      <c r="A9" s="355"/>
+      <c r="B9" s="355"/>
+      <c r="C9" s="355"/>
+      <c r="D9" s="356"/>
       <c r="E9" s="34" t="s">
         <v>31</v>
       </c>
@@ -10732,10 +11544,10 @@
       <c r="AA9" s="21"/>
     </row>
     <row r="10" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="324"/>
-      <c r="B10" s="324"/>
-      <c r="C10" s="324"/>
-      <c r="D10" s="325"/>
+      <c r="A10" s="355"/>
+      <c r="B10" s="355"/>
+      <c r="C10" s="355"/>
+      <c r="D10" s="356"/>
       <c r="E10" s="34" t="s">
         <v>32</v>
       </c>
@@ -10769,10 +11581,10 @@
       <c r="AA10" s="21"/>
     </row>
     <row r="11" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="324"/>
-      <c r="B11" s="324"/>
-      <c r="C11" s="324"/>
-      <c r="D11" s="325"/>
+      <c r="A11" s="355"/>
+      <c r="B11" s="355"/>
+      <c r="C11" s="355"/>
+      <c r="D11" s="356"/>
       <c r="E11" s="35" t="s">
         <v>13</v>
       </c>
@@ -10806,10 +11618,10 @@
       <c r="AA11" s="21"/>
     </row>
     <row r="12" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="324"/>
-      <c r="B12" s="324"/>
-      <c r="C12" s="324"/>
-      <c r="D12" s="325"/>
+      <c r="A12" s="355"/>
+      <c r="B12" s="355"/>
+      <c r="C12" s="355"/>
+      <c r="D12" s="356"/>
       <c r="E12" s="36"/>
       <c r="F12" s="21"/>
       <c r="G12" s="26"/>
@@ -10835,10 +11647,10 @@
       <c r="AA12" s="21"/>
     </row>
     <row r="13" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="324"/>
-      <c r="B13" s="324"/>
-      <c r="C13" s="324"/>
-      <c r="D13" s="325"/>
+      <c r="A13" s="355"/>
+      <c r="B13" s="355"/>
+      <c r="C13" s="355"/>
+      <c r="D13" s="356"/>
       <c r="E13" s="39" t="s">
         <v>35</v>
       </c>
@@ -10870,10 +11682,10 @@
       <c r="AA13" s="21"/>
     </row>
     <row r="14" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A14" s="326"/>
-      <c r="B14" s="326"/>
-      <c r="C14" s="326"/>
-      <c r="D14" s="327"/>
+      <c r="A14" s="357"/>
+      <c r="B14" s="357"/>
+      <c r="C14" s="357"/>
+      <c r="D14" s="358"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
@@ -10901,12 +11713,12 @@
       <c r="AA14" s="27"/>
     </row>
     <row r="15" spans="1:27" ht="18" customHeight="1" thickTop="1">
-      <c r="A15" s="320" t="s">
+      <c r="A15" s="324" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="320"/>
-      <c r="C15" s="320"/>
-      <c r="D15" s="321"/>
+      <c r="B15" s="324"/>
+      <c r="C15" s="324"/>
+      <c r="D15" s="325"/>
       <c r="E15" s="45" t="s">
         <v>44</v>
       </c>
@@ -10944,10 +11756,10 @@
       <c r="AA15" s="13"/>
     </row>
     <row r="16" spans="1:27" ht="18" customHeight="1">
-      <c r="A16" s="322"/>
-      <c r="B16" s="322"/>
-      <c r="C16" s="322"/>
-      <c r="D16" s="323"/>
+      <c r="A16" s="326"/>
+      <c r="B16" s="326"/>
+      <c r="C16" s="326"/>
+      <c r="D16" s="327"/>
       <c r="E16" s="45" t="s">
         <v>49</v>
       </c>
@@ -10985,10 +11797,10 @@
       <c r="AA16" s="13"/>
     </row>
     <row r="17" spans="1:45" ht="18" customHeight="1">
-      <c r="A17" s="322"/>
-      <c r="B17" s="322"/>
-      <c r="C17" s="322"/>
-      <c r="D17" s="323"/>
+      <c r="A17" s="326"/>
+      <c r="B17" s="326"/>
+      <c r="C17" s="326"/>
+      <c r="D17" s="327"/>
       <c r="E17" s="45" t="s">
         <v>53</v>
       </c>
@@ -11026,10 +11838,10 @@
       <c r="AA17" s="13"/>
     </row>
     <row r="18" spans="1:45" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A18" s="338"/>
-      <c r="B18" s="338"/>
-      <c r="C18" s="338"/>
-      <c r="D18" s="339"/>
+      <c r="A18" s="328"/>
+      <c r="B18" s="328"/>
+      <c r="C18" s="328"/>
+      <c r="D18" s="329"/>
       <c r="E18" s="62" t="s">
         <v>57</v>
       </c>
@@ -11067,12 +11879,12 @@
       <c r="AA18" s="27"/>
     </row>
     <row r="19" spans="1:45" s="74" customFormat="1" ht="18" customHeight="1" thickTop="1">
-      <c r="A19" s="320" t="s">
+      <c r="A19" s="324" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="320"/>
-      <c r="C19" s="320"/>
-      <c r="D19" s="321"/>
+      <c r="B19" s="324"/>
+      <c r="C19" s="324"/>
+      <c r="D19" s="325"/>
       <c r="E19" s="67" t="s">
         <v>61</v>
       </c>
@@ -11124,22 +11936,22 @@
       <c r="AS19" s="73"/>
     </row>
     <row r="20" spans="1:45" ht="18" customHeight="1">
-      <c r="A20" s="322"/>
-      <c r="B20" s="322"/>
-      <c r="C20" s="322"/>
-      <c r="D20" s="323"/>
+      <c r="A20" s="326"/>
+      <c r="B20" s="326"/>
+      <c r="C20" s="326"/>
+      <c r="D20" s="327"/>
       <c r="E20" s="79" t="s">
         <v>107</v>
       </c>
       <c r="F20" s="76"/>
-      <c r="G20" s="334" t="s">
+      <c r="G20" s="361" t="s">
         <v>83</v>
       </c>
-      <c r="H20" s="335"/>
-      <c r="I20" s="334" t="s">
+      <c r="H20" s="362"/>
+      <c r="I20" s="361" t="s">
         <v>84</v>
       </c>
-      <c r="J20" s="335"/>
+      <c r="J20" s="362"/>
       <c r="K20" s="80"/>
       <c r="L20" s="80"/>
       <c r="M20" s="80"/>
@@ -11173,18 +11985,18 @@
       <c r="AC20" s="5"/>
     </row>
     <row r="21" spans="1:45" ht="18" customHeight="1">
-      <c r="A21" s="322"/>
-      <c r="B21" s="322"/>
-      <c r="C21" s="322"/>
-      <c r="D21" s="323"/>
-      <c r="E21" s="347" t="s">
+      <c r="A21" s="326"/>
+      <c r="B21" s="326"/>
+      <c r="C21" s="326"/>
+      <c r="D21" s="327"/>
+      <c r="E21" s="345" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="348"/>
-      <c r="G21" s="329" t="s">
+      <c r="F21" s="346"/>
+      <c r="G21" s="335" t="s">
         <v>79</v>
       </c>
-      <c r="H21" s="337"/>
+      <c r="H21" s="336"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -11207,32 +12019,32 @@
       <c r="AC21" s="5"/>
     </row>
     <row r="22" spans="1:45" ht="18" customHeight="1">
-      <c r="A22" s="322"/>
-      <c r="B22" s="322"/>
-      <c r="C22" s="322"/>
-      <c r="D22" s="323"/>
-      <c r="E22" s="349"/>
-      <c r="F22" s="350"/>
-      <c r="G22" s="332" t="s">
+      <c r="A22" s="326"/>
+      <c r="B22" s="326"/>
+      <c r="C22" s="326"/>
+      <c r="D22" s="327"/>
+      <c r="E22" s="347"/>
+      <c r="F22" s="348"/>
+      <c r="G22" s="337" t="s">
         <v>81</v>
       </c>
-      <c r="H22" s="333"/>
-      <c r="I22" s="336" t="s">
+      <c r="H22" s="338"/>
+      <c r="I22" s="342" t="s">
         <v>88</v>
       </c>
-      <c r="J22" s="333"/>
-      <c r="K22" s="336" t="s">
+      <c r="J22" s="338"/>
+      <c r="K22" s="342" t="s">
         <v>92</v>
       </c>
-      <c r="L22" s="333"/>
-      <c r="M22" s="336" t="s">
+      <c r="L22" s="338"/>
+      <c r="M22" s="342" t="s">
         <v>97</v>
       </c>
-      <c r="N22" s="333"/>
-      <c r="O22" s="330" t="s">
+      <c r="N22" s="338"/>
+      <c r="O22" s="359" t="s">
         <v>93</v>
       </c>
-      <c r="P22" s="331"/>
+      <c r="P22" s="360"/>
       <c r="Q22" s="61"/>
       <c r="S22" s="85"/>
       <c r="T22" s="85"/>
@@ -11247,33 +12059,33 @@
       <c r="AC22" s="5"/>
     </row>
     <row r="23" spans="1:45" ht="18" customHeight="1">
-      <c r="A23" s="322"/>
-      <c r="B23" s="322"/>
-      <c r="C23" s="322"/>
-      <c r="D23" s="323"/>
-      <c r="E23" s="349"/>
-      <c r="F23" s="350"/>
-      <c r="G23" s="329" t="s">
+      <c r="A23" s="326"/>
+      <c r="B23" s="326"/>
+      <c r="C23" s="326"/>
+      <c r="D23" s="327"/>
+      <c r="E23" s="347"/>
+      <c r="F23" s="348"/>
+      <c r="G23" s="335" t="s">
         <v>82</v>
       </c>
-      <c r="H23" s="329"/>
-      <c r="I23" s="328" t="s">
+      <c r="H23" s="335"/>
+      <c r="I23" s="339" t="s">
         <v>89</v>
       </c>
-      <c r="J23" s="337"/>
-      <c r="K23" s="328" t="s">
+      <c r="J23" s="336"/>
+      <c r="K23" s="339" t="s">
         <v>95</v>
       </c>
-      <c r="L23" s="329"/>
-      <c r="M23" s="328" t="s">
+      <c r="L23" s="335"/>
+      <c r="M23" s="339" t="s">
         <v>96</v>
       </c>
-      <c r="N23" s="337"/>
-      <c r="O23" s="343" t="s">
+      <c r="N23" s="336"/>
+      <c r="O23" s="340" t="s">
         <v>94</v>
       </c>
-      <c r="P23" s="344"/>
-      <c r="Q23" s="344"/>
+      <c r="P23" s="341"/>
+      <c r="Q23" s="341"/>
       <c r="S23" s="85"/>
       <c r="T23" s="85"/>
       <c r="U23" s="85"/>
@@ -11287,16 +12099,16 @@
       <c r="AC23" s="5"/>
     </row>
     <row r="24" spans="1:45" ht="18" customHeight="1">
-      <c r="A24" s="322"/>
-      <c r="B24" s="322"/>
-      <c r="C24" s="322"/>
-      <c r="D24" s="323"/>
-      <c r="E24" s="351"/>
-      <c r="F24" s="352"/>
-      <c r="G24" s="332" t="s">
+      <c r="A24" s="326"/>
+      <c r="B24" s="326"/>
+      <c r="C24" s="326"/>
+      <c r="D24" s="327"/>
+      <c r="E24" s="349"/>
+      <c r="F24" s="350"/>
+      <c r="G24" s="337" t="s">
         <v>87</v>
       </c>
-      <c r="H24" s="333"/>
+      <c r="H24" s="338"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -11319,26 +12131,26 @@
       <c r="AC24" s="5"/>
     </row>
     <row r="25" spans="1:45" ht="18" customHeight="1">
-      <c r="A25" s="322"/>
-      <c r="B25" s="322"/>
-      <c r="C25" s="322"/>
-      <c r="D25" s="323"/>
-      <c r="E25" s="347" t="s">
+      <c r="A25" s="326"/>
+      <c r="B25" s="326"/>
+      <c r="C25" s="326"/>
+      <c r="D25" s="327"/>
+      <c r="E25" s="345" t="s">
         <v>109</v>
       </c>
-      <c r="F25" s="348"/>
-      <c r="G25" s="329" t="s">
+      <c r="F25" s="346"/>
+      <c r="G25" s="335" t="s">
         <v>76</v>
       </c>
-      <c r="H25" s="337"/>
-      <c r="I25" s="328" t="s">
+      <c r="H25" s="336"/>
+      <c r="I25" s="339" t="s">
         <v>90</v>
       </c>
-      <c r="J25" s="337"/>
-      <c r="K25" s="328" t="s">
+      <c r="J25" s="336"/>
+      <c r="K25" s="339" t="s">
         <v>106</v>
       </c>
-      <c r="L25" s="337"/>
+      <c r="L25" s="336"/>
       <c r="O25" s="4"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
@@ -11355,16 +12167,16 @@
       <c r="AC25" s="5"/>
     </row>
     <row r="26" spans="1:45" ht="18" customHeight="1">
-      <c r="A26" s="322"/>
-      <c r="B26" s="322"/>
-      <c r="C26" s="322"/>
-      <c r="D26" s="323"/>
-      <c r="E26" s="349"/>
-      <c r="F26" s="350"/>
-      <c r="G26" s="332" t="s">
+      <c r="A26" s="326"/>
+      <c r="B26" s="326"/>
+      <c r="C26" s="326"/>
+      <c r="D26" s="327"/>
+      <c r="E26" s="347"/>
+      <c r="F26" s="348"/>
+      <c r="G26" s="337" t="s">
         <v>77</v>
       </c>
-      <c r="H26" s="333"/>
+      <c r="H26" s="338"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -11387,20 +12199,20 @@
       <c r="AC26" s="5"/>
     </row>
     <row r="27" spans="1:45" ht="18" customHeight="1">
-      <c r="A27" s="322"/>
-      <c r="B27" s="322"/>
-      <c r="C27" s="322"/>
-      <c r="D27" s="323"/>
-      <c r="E27" s="349"/>
-      <c r="F27" s="350"/>
-      <c r="G27" s="329" t="s">
+      <c r="A27" s="326"/>
+      <c r="B27" s="326"/>
+      <c r="C27" s="326"/>
+      <c r="D27" s="327"/>
+      <c r="E27" s="347"/>
+      <c r="F27" s="348"/>
+      <c r="G27" s="335" t="s">
         <v>80</v>
       </c>
-      <c r="H27" s="329"/>
-      <c r="I27" s="329" t="s">
+      <c r="H27" s="335"/>
+      <c r="I27" s="335" t="s">
         <v>78</v>
       </c>
-      <c r="J27" s="329"/>
+      <c r="J27" s="335"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
@@ -11421,20 +12233,20 @@
       <c r="AC27" s="5"/>
     </row>
     <row r="28" spans="1:45" ht="18" customHeight="1">
-      <c r="A28" s="322"/>
-      <c r="B28" s="322"/>
-      <c r="C28" s="322"/>
-      <c r="D28" s="323"/>
-      <c r="E28" s="349"/>
-      <c r="F28" s="350"/>
-      <c r="G28" s="332" t="s">
+      <c r="A28" s="326"/>
+      <c r="B28" s="326"/>
+      <c r="C28" s="326"/>
+      <c r="D28" s="327"/>
+      <c r="E28" s="347"/>
+      <c r="F28" s="348"/>
+      <c r="G28" s="337" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="333"/>
-      <c r="I28" s="336" t="s">
+      <c r="H28" s="338"/>
+      <c r="I28" s="342" t="s">
         <v>99</v>
       </c>
-      <c r="J28" s="333"/>
+      <c r="J28" s="338"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
@@ -11455,20 +12267,20 @@
       <c r="AC28" s="5"/>
     </row>
     <row r="29" spans="1:45" ht="18" customHeight="1">
-      <c r="A29" s="322"/>
-      <c r="B29" s="322"/>
-      <c r="C29" s="322"/>
-      <c r="D29" s="323"/>
-      <c r="E29" s="349"/>
-      <c r="F29" s="350"/>
-      <c r="G29" s="329" t="s">
+      <c r="A29" s="326"/>
+      <c r="B29" s="326"/>
+      <c r="C29" s="326"/>
+      <c r="D29" s="327"/>
+      <c r="E29" s="347"/>
+      <c r="F29" s="348"/>
+      <c r="G29" s="335" t="s">
         <v>105</v>
       </c>
-      <c r="H29" s="337"/>
-      <c r="I29" s="329" t="s">
+      <c r="H29" s="336"/>
+      <c r="I29" s="335" t="s">
         <v>86</v>
       </c>
-      <c r="J29" s="337"/>
+      <c r="J29" s="336"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -11489,16 +12301,16 @@
       <c r="AC29" s="5"/>
     </row>
     <row r="30" spans="1:45" ht="18" customHeight="1">
-      <c r="A30" s="322"/>
-      <c r="B30" s="322"/>
-      <c r="C30" s="322"/>
-      <c r="D30" s="323"/>
-      <c r="E30" s="349"/>
-      <c r="F30" s="350"/>
-      <c r="G30" s="332" t="s">
+      <c r="A30" s="326"/>
+      <c r="B30" s="326"/>
+      <c r="C30" s="326"/>
+      <c r="D30" s="327"/>
+      <c r="E30" s="347"/>
+      <c r="F30" s="348"/>
+      <c r="G30" s="337" t="s">
         <v>104</v>
       </c>
-      <c r="H30" s="333"/>
+      <c r="H30" s="338"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -11522,20 +12334,20 @@
       <c r="AC30" s="5"/>
     </row>
     <row r="31" spans="1:45" ht="18" customHeight="1">
-      <c r="A31" s="322"/>
-      <c r="B31" s="322"/>
-      <c r="C31" s="322"/>
-      <c r="D31" s="323"/>
-      <c r="E31" s="349"/>
-      <c r="F31" s="350"/>
-      <c r="G31" s="329" t="s">
+      <c r="A31" s="326"/>
+      <c r="B31" s="326"/>
+      <c r="C31" s="326"/>
+      <c r="D31" s="327"/>
+      <c r="E31" s="347"/>
+      <c r="F31" s="348"/>
+      <c r="G31" s="335" t="s">
         <v>98</v>
       </c>
-      <c r="H31" s="337"/>
-      <c r="I31" s="328" t="s">
+      <c r="H31" s="336"/>
+      <c r="I31" s="339" t="s">
         <v>102</v>
       </c>
-      <c r="J31" s="337"/>
+      <c r="J31" s="336"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
@@ -11557,20 +12369,20 @@
       <c r="AC31" s="5"/>
     </row>
     <row r="32" spans="1:45" ht="18" customHeight="1">
-      <c r="A32" s="322"/>
-      <c r="B32" s="322"/>
-      <c r="C32" s="322"/>
-      <c r="D32" s="323"/>
-      <c r="E32" s="349"/>
-      <c r="F32" s="350"/>
-      <c r="G32" s="332" t="s">
+      <c r="A32" s="326"/>
+      <c r="B32" s="326"/>
+      <c r="C32" s="326"/>
+      <c r="D32" s="327"/>
+      <c r="E32" s="347"/>
+      <c r="F32" s="348"/>
+      <c r="G32" s="337" t="s">
         <v>100</v>
       </c>
-      <c r="H32" s="333"/>
-      <c r="I32" s="336" t="s">
+      <c r="H32" s="338"/>
+      <c r="I32" s="342" t="s">
         <v>101</v>
       </c>
-      <c r="J32" s="333"/>
+      <c r="J32" s="338"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -11592,16 +12404,16 @@
       <c r="AC32" s="5"/>
     </row>
     <row r="33" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="322"/>
-      <c r="B33" s="322"/>
-      <c r="C33" s="322"/>
-      <c r="D33" s="323"/>
-      <c r="E33" s="351"/>
-      <c r="F33" s="352"/>
-      <c r="G33" s="329" t="s">
+      <c r="A33" s="326"/>
+      <c r="B33" s="326"/>
+      <c r="C33" s="326"/>
+      <c r="D33" s="327"/>
+      <c r="E33" s="349"/>
+      <c r="F33" s="350"/>
+      <c r="G33" s="335" t="s">
         <v>91</v>
       </c>
-      <c r="H33" s="337"/>
+      <c r="H33" s="336"/>
       <c r="R33" s="59"/>
       <c r="S33" s="59"/>
       <c r="T33" s="59"/>
@@ -11614,27 +12426,27 @@
       <c r="AA33" s="59"/>
     </row>
     <row r="34" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A34" s="338"/>
-      <c r="B34" s="338"/>
-      <c r="C34" s="338"/>
-      <c r="D34" s="339"/>
+      <c r="A34" s="328"/>
+      <c r="B34" s="328"/>
+      <c r="C34" s="328"/>
+      <c r="D34" s="329"/>
       <c r="E34" s="81" t="s">
         <v>110</v>
       </c>
       <c r="F34" s="77"/>
-      <c r="G34" s="345" t="s">
+      <c r="G34" s="343" t="s">
         <v>103</v>
       </c>
-      <c r="H34" s="346"/>
+      <c r="H34" s="344"/>
       <c r="K34" s="78"/>
     </row>
     <row r="35" spans="1:27" ht="18" customHeight="1" thickTop="1">
-      <c r="A35" s="320" t="s">
+      <c r="A35" s="324" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="320"/>
-      <c r="C35" s="320"/>
-      <c r="D35" s="321"/>
+      <c r="B35" s="324"/>
+      <c r="C35" s="324"/>
+      <c r="D35" s="325"/>
       <c r="E35" s="67" t="s">
         <v>61</v>
       </c>
@@ -11655,10 +12467,10 @@
       </c>
     </row>
     <row r="36" spans="1:27" ht="18" customHeight="1">
-      <c r="A36" s="322"/>
-      <c r="B36" s="322"/>
-      <c r="C36" s="322"/>
-      <c r="D36" s="323"/>
+      <c r="A36" s="326"/>
+      <c r="B36" s="326"/>
+      <c r="C36" s="326"/>
+      <c r="D36" s="327"/>
       <c r="E36" s="55" t="s">
         <v>111</v>
       </c>
@@ -11678,10 +12490,10 @@
       <c r="O36" s="82"/>
     </row>
     <row r="37" spans="1:27" ht="18" customHeight="1">
-      <c r="A37" s="322"/>
-      <c r="B37" s="322"/>
-      <c r="C37" s="322"/>
-      <c r="D37" s="323"/>
+      <c r="A37" s="326"/>
+      <c r="B37" s="326"/>
+      <c r="C37" s="326"/>
+      <c r="D37" s="327"/>
       <c r="E37" s="55" t="s">
         <v>114</v>
       </c>
@@ -11701,10 +12513,10 @@
       <c r="O37" s="82"/>
     </row>
     <row r="38" spans="1:27" ht="18" customHeight="1">
-      <c r="A38" s="322"/>
-      <c r="B38" s="322"/>
-      <c r="C38" s="322"/>
-      <c r="D38" s="323"/>
+      <c r="A38" s="326"/>
+      <c r="B38" s="326"/>
+      <c r="C38" s="326"/>
+      <c r="D38" s="327"/>
       <c r="E38" s="55" t="s">
         <v>117</v>
       </c>
@@ -11724,10 +12536,10 @@
       <c r="O38" s="82"/>
     </row>
     <row r="39" spans="1:27" ht="18" customHeight="1">
-      <c r="A39" s="322"/>
-      <c r="B39" s="322"/>
-      <c r="C39" s="322"/>
-      <c r="D39" s="323"/>
+      <c r="A39" s="326"/>
+      <c r="B39" s="326"/>
+      <c r="C39" s="326"/>
+      <c r="D39" s="327"/>
       <c r="E39" s="55" t="s">
         <v>120</v>
       </c>
@@ -11747,10 +12559,10 @@
       <c r="O39" s="82"/>
     </row>
     <row r="40" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A40" s="338"/>
-      <c r="B40" s="338"/>
-      <c r="C40" s="338"/>
-      <c r="D40" s="339"/>
+      <c r="A40" s="328"/>
+      <c r="B40" s="328"/>
+      <c r="C40" s="328"/>
+      <c r="D40" s="329"/>
       <c r="E40" s="87" t="s">
         <v>123</v>
       </c>
@@ -11770,12 +12582,12 @@
       <c r="O40" s="88"/>
     </row>
     <row r="41" spans="1:27" ht="18" customHeight="1" thickTop="1">
-      <c r="A41" s="320" t="s">
+      <c r="A41" s="324" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="320"/>
-      <c r="C41" s="320"/>
-      <c r="D41" s="321"/>
+      <c r="B41" s="324"/>
+      <c r="C41" s="324"/>
+      <c r="D41" s="325"/>
       <c r="E41" s="67" t="s">
         <v>61</v>
       </c>
@@ -11796,10 +12608,10 @@
       </c>
     </row>
     <row r="42" spans="1:27" ht="18" customHeight="1">
-      <c r="A42" s="322"/>
-      <c r="B42" s="322"/>
-      <c r="C42" s="322"/>
-      <c r="D42" s="323"/>
+      <c r="A42" s="326"/>
+      <c r="B42" s="326"/>
+      <c r="C42" s="326"/>
+      <c r="D42" s="327"/>
       <c r="E42" s="55" t="s">
         <v>127</v>
       </c>
@@ -11825,10 +12637,10 @@
       <c r="U42" s="90"/>
     </row>
     <row r="43" spans="1:27" ht="18" customHeight="1">
-      <c r="A43" s="322"/>
-      <c r="B43" s="322"/>
-      <c r="C43" s="322"/>
-      <c r="D43" s="323"/>
+      <c r="A43" s="326"/>
+      <c r="B43" s="326"/>
+      <c r="C43" s="326"/>
+      <c r="D43" s="327"/>
       <c r="E43" s="55" t="s">
         <v>130</v>
       </c>
@@ -11854,10 +12666,10 @@
       <c r="U43" s="90"/>
     </row>
     <row r="44" spans="1:27" ht="18" customHeight="1">
-      <c r="A44" s="322"/>
-      <c r="B44" s="322"/>
-      <c r="C44" s="322"/>
-      <c r="D44" s="323"/>
+      <c r="A44" s="326"/>
+      <c r="B44" s="326"/>
+      <c r="C44" s="326"/>
+      <c r="D44" s="327"/>
       <c r="E44" s="55" t="s">
         <v>133</v>
       </c>
@@ -11883,10 +12695,10 @@
       <c r="U44" s="90"/>
     </row>
     <row r="45" spans="1:27" ht="18" customHeight="1">
-      <c r="A45" s="322"/>
-      <c r="B45" s="322"/>
-      <c r="C45" s="322"/>
-      <c r="D45" s="323"/>
+      <c r="A45" s="326"/>
+      <c r="B45" s="326"/>
+      <c r="C45" s="326"/>
+      <c r="D45" s="327"/>
       <c r="E45" s="55" t="s">
         <v>136</v>
       </c>
@@ -11912,10 +12724,10 @@
       <c r="U45" s="90"/>
     </row>
     <row r="46" spans="1:27" ht="18" customHeight="1">
-      <c r="A46" s="322"/>
-      <c r="B46" s="322"/>
-      <c r="C46" s="322"/>
-      <c r="D46" s="323"/>
+      <c r="A46" s="326"/>
+      <c r="B46" s="326"/>
+      <c r="C46" s="326"/>
+      <c r="D46" s="327"/>
       <c r="E46" s="55" t="s">
         <v>139</v>
       </c>
@@ -11941,10 +12753,10 @@
       <c r="U46" s="90"/>
     </row>
     <row r="47" spans="1:27" ht="18" customHeight="1">
-      <c r="A47" s="322"/>
-      <c r="B47" s="322"/>
-      <c r="C47" s="322"/>
-      <c r="D47" s="323"/>
+      <c r="A47" s="326"/>
+      <c r="B47" s="326"/>
+      <c r="C47" s="326"/>
+      <c r="D47" s="327"/>
       <c r="E47" s="55" t="s">
         <v>142</v>
       </c>
@@ -11970,10 +12782,10 @@
       <c r="U47" s="90"/>
     </row>
     <row r="48" spans="1:27" ht="18" customHeight="1" thickBot="1">
-      <c r="A48" s="322"/>
-      <c r="B48" s="322"/>
-      <c r="C48" s="322"/>
-      <c r="D48" s="323"/>
+      <c r="A48" s="326"/>
+      <c r="B48" s="326"/>
+      <c r="C48" s="326"/>
+      <c r="D48" s="327"/>
       <c r="E48" s="55" t="s">
         <v>145</v>
       </c>
@@ -12017,17 +12829,17 @@
       <c r="N49" s="10"/>
     </row>
     <row r="50" spans="1:27" ht="18" customHeight="1">
-      <c r="A50" s="286" t="s">
+      <c r="A50" s="267" t="s">
         <v>168</v>
       </c>
-      <c r="B50" s="286"/>
-      <c r="C50" s="287"/>
-      <c r="D50" s="369" t="s">
+      <c r="B50" s="267"/>
+      <c r="C50" s="268"/>
+      <c r="D50" s="320" t="s">
         <v>169</v>
       </c>
-      <c r="E50" s="370"/>
-      <c r="F50" s="370"/>
-      <c r="G50" s="371"/>
+      <c r="E50" s="321"/>
+      <c r="F50" s="321"/>
+      <c r="G50" s="322"/>
       <c r="H50" s="22" t="s">
         <v>170</v>
       </c>
@@ -12062,13 +12874,13 @@
       <c r="AA50" s="21"/>
     </row>
     <row r="51" spans="1:27" ht="18" customHeight="1">
-      <c r="A51" s="286"/>
-      <c r="B51" s="286"/>
-      <c r="C51" s="287"/>
-      <c r="D51" s="278"/>
-      <c r="E51" s="279"/>
-      <c r="F51" s="279"/>
-      <c r="G51" s="280"/>
+      <c r="A51" s="267"/>
+      <c r="B51" s="267"/>
+      <c r="C51" s="268"/>
+      <c r="D51" s="314"/>
+      <c r="E51" s="315"/>
+      <c r="F51" s="315"/>
+      <c r="G51" s="316"/>
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
       <c r="J51" s="21"/>
@@ -12101,13 +12913,13 @@
       <c r="AA51" s="21"/>
     </row>
     <row r="52" spans="1:27" ht="18" customHeight="1">
-      <c r="A52" s="286"/>
-      <c r="B52" s="286"/>
-      <c r="C52" s="287"/>
-      <c r="D52" s="278"/>
-      <c r="E52" s="279"/>
-      <c r="F52" s="279"/>
-      <c r="G52" s="280"/>
+      <c r="A52" s="267"/>
+      <c r="B52" s="267"/>
+      <c r="C52" s="268"/>
+      <c r="D52" s="314"/>
+      <c r="E52" s="315"/>
+      <c r="F52" s="315"/>
+      <c r="G52" s="316"/>
       <c r="H52" s="101"/>
       <c r="I52" s="102" t="s">
         <v>182</v>
@@ -12134,13 +12946,13 @@
       <c r="AA52" s="102"/>
     </row>
     <row r="53" spans="1:27" ht="18" customHeight="1">
-      <c r="A53" s="286"/>
-      <c r="B53" s="286"/>
-      <c r="C53" s="287"/>
-      <c r="D53" s="278"/>
-      <c r="E53" s="279"/>
-      <c r="F53" s="279"/>
-      <c r="G53" s="280"/>
+      <c r="A53" s="267"/>
+      <c r="B53" s="267"/>
+      <c r="C53" s="268"/>
+      <c r="D53" s="314"/>
+      <c r="E53" s="315"/>
+      <c r="F53" s="315"/>
+      <c r="G53" s="316"/>
       <c r="H53" s="24" t="s">
         <v>201</v>
       </c>
@@ -12165,13 +12977,13 @@
       <c r="AA53" s="13"/>
     </row>
     <row r="54" spans="1:27" ht="18" customHeight="1">
-      <c r="A54" s="286"/>
-      <c r="B54" s="286"/>
-      <c r="C54" s="287"/>
-      <c r="D54" s="278"/>
-      <c r="E54" s="279"/>
-      <c r="F54" s="279"/>
-      <c r="G54" s="280"/>
+      <c r="A54" s="267"/>
+      <c r="B54" s="267"/>
+      <c r="C54" s="268"/>
+      <c r="D54" s="314"/>
+      <c r="E54" s="315"/>
+      <c r="F54" s="315"/>
+      <c r="G54" s="316"/>
       <c r="H54" s="24" t="s">
         <v>202</v>
       </c>
@@ -12196,13 +13008,13 @@
       <c r="AA54" s="13"/>
     </row>
     <row r="55" spans="1:27" ht="18" customHeight="1">
-      <c r="A55" s="286"/>
-      <c r="B55" s="286"/>
-      <c r="C55" s="287"/>
-      <c r="D55" s="278"/>
-      <c r="E55" s="279"/>
-      <c r="F55" s="279"/>
-      <c r="G55" s="280"/>
+      <c r="A55" s="267"/>
+      <c r="B55" s="267"/>
+      <c r="C55" s="268"/>
+      <c r="D55" s="314"/>
+      <c r="E55" s="315"/>
+      <c r="F55" s="315"/>
+      <c r="G55" s="316"/>
       <c r="H55" s="24" t="s">
         <v>203</v>
       </c>
@@ -12227,13 +13039,13 @@
       <c r="AA55" s="13"/>
     </row>
     <row r="56" spans="1:27" ht="18" customHeight="1">
-      <c r="A56" s="286"/>
-      <c r="B56" s="286"/>
-      <c r="C56" s="287"/>
-      <c r="D56" s="366"/>
-      <c r="E56" s="367"/>
-      <c r="F56" s="367"/>
-      <c r="G56" s="368"/>
+      <c r="A56" s="267"/>
+      <c r="B56" s="267"/>
+      <c r="C56" s="268"/>
+      <c r="D56" s="317"/>
+      <c r="E56" s="318"/>
+      <c r="F56" s="318"/>
+      <c r="G56" s="319"/>
       <c r="H56" s="24" t="s">
         <v>204</v>
       </c>
@@ -12258,15 +13070,15 @@
       <c r="AA56" s="13"/>
     </row>
     <row r="57" spans="1:27" ht="18" customHeight="1">
-      <c r="A57" s="286"/>
-      <c r="B57" s="286"/>
-      <c r="C57" s="287"/>
-      <c r="D57" s="306" t="s">
+      <c r="A57" s="267"/>
+      <c r="B57" s="267"/>
+      <c r="C57" s="268"/>
+      <c r="D57" s="311" t="s">
         <v>194</v>
       </c>
-      <c r="E57" s="307"/>
-      <c r="F57" s="307"/>
-      <c r="G57" s="308"/>
+      <c r="E57" s="312"/>
+      <c r="F57" s="312"/>
+      <c r="G57" s="313"/>
       <c r="H57" s="110" t="s">
         <v>190</v>
       </c>
@@ -12297,13 +13109,13 @@
       <c r="AA57" s="111"/>
     </row>
     <row r="58" spans="1:27" ht="18" customHeight="1">
-      <c r="A58" s="286"/>
-      <c r="B58" s="286"/>
-      <c r="C58" s="287"/>
-      <c r="D58" s="278"/>
-      <c r="E58" s="279"/>
-      <c r="F58" s="279"/>
-      <c r="G58" s="280"/>
+      <c r="A58" s="267"/>
+      <c r="B58" s="267"/>
+      <c r="C58" s="268"/>
+      <c r="D58" s="314"/>
+      <c r="E58" s="315"/>
+      <c r="F58" s="315"/>
+      <c r="G58" s="316"/>
       <c r="H58" s="114"/>
       <c r="I58" s="21"/>
       <c r="J58" s="21"/>
@@ -12334,13 +13146,13 @@
       <c r="AA58" s="21"/>
     </row>
     <row r="59" spans="1:27" ht="18" customHeight="1">
-      <c r="A59" s="286"/>
-      <c r="B59" s="286"/>
-      <c r="C59" s="287"/>
-      <c r="D59" s="366"/>
-      <c r="E59" s="367"/>
-      <c r="F59" s="367"/>
-      <c r="G59" s="368"/>
+      <c r="A59" s="267"/>
+      <c r="B59" s="267"/>
+      <c r="C59" s="268"/>
+      <c r="D59" s="317"/>
+      <c r="E59" s="318"/>
+      <c r="F59" s="318"/>
+      <c r="G59" s="319"/>
       <c r="H59" s="109"/>
       <c r="I59" s="102"/>
       <c r="J59" s="102"/>
@@ -12369,9 +13181,9 @@
       <c r="AA59" s="102"/>
     </row>
     <row r="60" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A60" s="286"/>
-      <c r="B60" s="286"/>
-      <c r="C60" s="287"/>
+      <c r="A60" s="267"/>
+      <c r="B60" s="267"/>
+      <c r="C60" s="268"/>
       <c r="D60" s="117" t="s">
         <v>198</v>
       </c>
@@ -12410,15 +13222,15 @@
       <c r="AA60" s="102"/>
     </row>
     <row r="61" spans="1:27" ht="18" customHeight="1">
-      <c r="A61" s="286"/>
-      <c r="B61" s="286"/>
-      <c r="C61" s="287"/>
-      <c r="D61" s="275" t="s">
+      <c r="A61" s="267"/>
+      <c r="B61" s="267"/>
+      <c r="C61" s="268"/>
+      <c r="D61" s="297" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="276"/>
-      <c r="F61" s="276"/>
-      <c r="G61" s="277"/>
+      <c r="E61" s="298"/>
+      <c r="F61" s="298"/>
+      <c r="G61" s="299"/>
       <c r="H61" s="24" t="s">
         <v>377</v>
       </c>
@@ -12449,13 +13261,13 @@
       <c r="AA61" s="13"/>
     </row>
     <row r="62" spans="1:27" ht="18" customHeight="1">
-      <c r="A62" s="286"/>
-      <c r="B62" s="286"/>
-      <c r="C62" s="287"/>
-      <c r="D62" s="278"/>
-      <c r="E62" s="279"/>
-      <c r="F62" s="279"/>
-      <c r="G62" s="280"/>
+      <c r="A62" s="267"/>
+      <c r="B62" s="267"/>
+      <c r="C62" s="268"/>
+      <c r="D62" s="314"/>
+      <c r="E62" s="315"/>
+      <c r="F62" s="315"/>
+      <c r="G62" s="316"/>
       <c r="H62" s="24" t="s">
         <v>206</v>
       </c>
@@ -12482,13 +13294,13 @@
       <c r="AA62" s="13"/>
     </row>
     <row r="63" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A63" s="286"/>
-      <c r="B63" s="286"/>
-      <c r="C63" s="287"/>
-      <c r="D63" s="281"/>
-      <c r="E63" s="282"/>
-      <c r="F63" s="282"/>
-      <c r="G63" s="283"/>
+      <c r="A63" s="267"/>
+      <c r="B63" s="267"/>
+      <c r="C63" s="268"/>
+      <c r="D63" s="306"/>
+      <c r="E63" s="307"/>
+      <c r="F63" s="307"/>
+      <c r="G63" s="308"/>
       <c r="H63" s="101" t="s">
         <v>208</v>
       </c>
@@ -12515,9 +13327,9 @@
       <c r="AA63" s="102"/>
     </row>
     <row r="64" spans="1:27" s="28" customFormat="1" ht="18.600000000000001" thickBot="1">
-      <c r="A64" s="294"/>
-      <c r="B64" s="294"/>
-      <c r="C64" s="295"/>
+      <c r="A64" s="269"/>
+      <c r="B64" s="269"/>
+      <c r="C64" s="270"/>
       <c r="D64" s="126" t="s">
         <v>210</v>
       </c>
@@ -12550,11 +13362,11 @@
       <c r="AA64" s="27"/>
     </row>
     <row r="65" spans="1:27" s="136" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A65" s="284" t="s">
+      <c r="A65" s="265" t="s">
         <v>216</v>
       </c>
-      <c r="B65" s="284"/>
-      <c r="C65" s="285"/>
+      <c r="B65" s="265"/>
+      <c r="C65" s="266"/>
       <c r="D65" s="132"/>
       <c r="E65" s="133"/>
       <c r="F65" s="133"/>
@@ -12583,9 +13395,9 @@
       <c r="AA65" s="135"/>
     </row>
     <row r="66" spans="1:27" ht="18" customHeight="1">
-      <c r="A66" s="286"/>
-      <c r="B66" s="286"/>
-      <c r="C66" s="287"/>
+      <c r="A66" s="267"/>
+      <c r="B66" s="267"/>
+      <c r="C66" s="268"/>
       <c r="D66" s="104"/>
       <c r="E66" s="105"/>
       <c r="F66" s="105"/>
@@ -12614,9 +13426,9 @@
       <c r="AA66" s="102"/>
     </row>
     <row r="67" spans="1:27" ht="18" customHeight="1">
-      <c r="A67" s="286"/>
-      <c r="B67" s="286"/>
-      <c r="C67" s="287"/>
+      <c r="A67" s="267"/>
+      <c r="B67" s="267"/>
+      <c r="C67" s="268"/>
       <c r="D67" s="97"/>
       <c r="E67" s="98"/>
       <c r="F67" s="98"/>
@@ -12645,9 +13457,9 @@
       <c r="AA67" s="102"/>
     </row>
     <row r="68" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A68" s="286"/>
-      <c r="B68" s="286"/>
-      <c r="C68" s="287"/>
+      <c r="A68" s="267"/>
+      <c r="B68" s="267"/>
+      <c r="C68" s="268"/>
       <c r="D68" s="104"/>
       <c r="E68" s="105"/>
       <c r="F68" s="105"/>
@@ -12676,9 +13488,9 @@
       <c r="AA68" s="102"/>
     </row>
     <row r="69" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A69" s="294"/>
-      <c r="B69" s="294"/>
-      <c r="C69" s="295"/>
+      <c r="A69" s="269"/>
+      <c r="B69" s="269"/>
+      <c r="C69" s="270"/>
       <c r="D69" s="139"/>
       <c r="E69" s="87"/>
       <c r="F69" s="87"/>
@@ -12707,11 +13519,11 @@
       <c r="AA69" s="27"/>
     </row>
     <row r="70" spans="1:27" s="136" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A70" s="284" t="s">
+      <c r="A70" s="265" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="284"/>
-      <c r="C70" s="285"/>
+      <c r="B70" s="265"/>
+      <c r="C70" s="266"/>
       <c r="D70" s="132"/>
       <c r="E70" s="133"/>
       <c r="F70" s="133"/>
@@ -12740,9 +13552,9 @@
       <c r="AA70" s="135"/>
     </row>
     <row r="71" spans="1:27" ht="18" customHeight="1">
-      <c r="A71" s="286"/>
-      <c r="B71" s="286"/>
-      <c r="C71" s="287"/>
+      <c r="A71" s="267"/>
+      <c r="B71" s="267"/>
+      <c r="C71" s="268"/>
       <c r="D71" s="104"/>
       <c r="E71" s="105"/>
       <c r="F71" s="105"/>
@@ -12771,9 +13583,9 @@
       <c r="AA71" s="102"/>
     </row>
     <row r="72" spans="1:27" ht="18" customHeight="1">
-      <c r="A72" s="286"/>
-      <c r="B72" s="286"/>
-      <c r="C72" s="287"/>
+      <c r="A72" s="267"/>
+      <c r="B72" s="267"/>
+      <c r="C72" s="268"/>
       <c r="D72" s="97"/>
       <c r="E72" s="98"/>
       <c r="F72" s="98"/>
@@ -12802,9 +13614,9 @@
       <c r="AA72" s="102"/>
     </row>
     <row r="73" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A73" s="286"/>
-      <c r="B73" s="286"/>
-      <c r="C73" s="287"/>
+      <c r="A73" s="267"/>
+      <c r="B73" s="267"/>
+      <c r="C73" s="268"/>
       <c r="D73" s="104"/>
       <c r="E73" s="105"/>
       <c r="F73" s="105"/>
@@ -12835,9 +13647,9 @@
       <c r="AA73" s="102"/>
     </row>
     <row r="74" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A74" s="294"/>
-      <c r="B74" s="294"/>
-      <c r="C74" s="295"/>
+      <c r="A74" s="269"/>
+      <c r="B74" s="269"/>
+      <c r="C74" s="270"/>
       <c r="D74" s="139"/>
       <c r="E74" s="87"/>
       <c r="F74" s="87"/>
@@ -12870,11 +13682,11 @@
       <c r="AA74" s="27"/>
     </row>
     <row r="75" spans="1:27" s="136" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A75" s="284" t="s">
+      <c r="A75" s="265" t="s">
         <v>223</v>
       </c>
-      <c r="B75" s="284"/>
-      <c r="C75" s="285"/>
+      <c r="B75" s="265"/>
+      <c r="C75" s="266"/>
       <c r="D75" s="132"/>
       <c r="E75" s="133"/>
       <c r="F75" s="133"/>
@@ -12905,9 +13717,9 @@
       <c r="AA75" s="135"/>
     </row>
     <row r="76" spans="1:27" ht="18" customHeight="1">
-      <c r="A76" s="286"/>
-      <c r="B76" s="286"/>
-      <c r="C76" s="287"/>
+      <c r="A76" s="267"/>
+      <c r="B76" s="267"/>
+      <c r="C76" s="268"/>
       <c r="D76" s="104"/>
       <c r="E76" s="105"/>
       <c r="F76" s="105"/>
@@ -12938,9 +13750,9 @@
       <c r="AA76" s="102"/>
     </row>
     <row r="77" spans="1:27" ht="18" customHeight="1">
-      <c r="A77" s="286"/>
-      <c r="B77" s="286"/>
-      <c r="C77" s="287"/>
+      <c r="A77" s="267"/>
+      <c r="B77" s="267"/>
+      <c r="C77" s="268"/>
       <c r="D77" s="97"/>
       <c r="E77" s="98"/>
       <c r="F77" s="98"/>
@@ -12971,9 +13783,9 @@
       <c r="AA77" s="102"/>
     </row>
     <row r="78" spans="1:27" s="103" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A78" s="286"/>
-      <c r="B78" s="286"/>
-      <c r="C78" s="287"/>
+      <c r="A78" s="267"/>
+      <c r="B78" s="267"/>
+      <c r="C78" s="268"/>
       <c r="D78" s="104"/>
       <c r="E78" s="105"/>
       <c r="F78" s="105"/>
@@ -13004,9 +13816,9 @@
       <c r="AA78" s="102"/>
     </row>
     <row r="79" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A79" s="286"/>
-      <c r="B79" s="286"/>
-      <c r="C79" s="287"/>
+      <c r="A79" s="267"/>
+      <c r="B79" s="267"/>
+      <c r="C79" s="268"/>
       <c r="D79" s="104"/>
       <c r="E79" s="105"/>
       <c r="F79" s="105"/>
@@ -13037,9 +13849,9 @@
       <c r="AA79" s="102"/>
     </row>
     <row r="80" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A80" s="294"/>
-      <c r="B80" s="294"/>
-      <c r="C80" s="295"/>
+      <c r="A80" s="269"/>
+      <c r="B80" s="269"/>
+      <c r="C80" s="270"/>
       <c r="D80" s="139"/>
       <c r="E80" s="87"/>
       <c r="F80" s="87"/>
@@ -13068,11 +13880,11 @@
       <c r="AA80" s="27"/>
     </row>
     <row r="81" spans="1:27" s="136" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A81" s="284" t="s">
+      <c r="A81" s="265" t="s">
         <v>236</v>
       </c>
-      <c r="B81" s="284"/>
-      <c r="C81" s="285"/>
+      <c r="B81" s="265"/>
+      <c r="C81" s="266"/>
       <c r="D81" s="132"/>
       <c r="E81" s="133"/>
       <c r="F81" s="133"/>
@@ -13103,9 +13915,9 @@
       <c r="AA81" s="135"/>
     </row>
     <row r="82" spans="1:27" ht="18" customHeight="1">
-      <c r="A82" s="286"/>
-      <c r="B82" s="286"/>
-      <c r="C82" s="287"/>
+      <c r="A82" s="267"/>
+      <c r="B82" s="267"/>
+      <c r="C82" s="268"/>
       <c r="D82" s="104"/>
       <c r="E82" s="105"/>
       <c r="F82" s="105"/>
@@ -13136,9 +13948,9 @@
       <c r="AA82" s="102"/>
     </row>
     <row r="83" spans="1:27" ht="18" customHeight="1">
-      <c r="A83" s="286"/>
-      <c r="B83" s="286"/>
-      <c r="C83" s="287"/>
+      <c r="A83" s="267"/>
+      <c r="B83" s="267"/>
+      <c r="C83" s="268"/>
       <c r="D83" s="97"/>
       <c r="E83" s="98"/>
       <c r="F83" s="98"/>
@@ -13167,9 +13979,9 @@
       <c r="AA83" s="102"/>
     </row>
     <row r="84" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A84" s="286"/>
-      <c r="B84" s="286"/>
-      <c r="C84" s="287"/>
+      <c r="A84" s="267"/>
+      <c r="B84" s="267"/>
+      <c r="C84" s="268"/>
       <c r="D84" s="104"/>
       <c r="E84" s="105"/>
       <c r="F84" s="105"/>
@@ -13200,9 +14012,9 @@
       <c r="AA84" s="102"/>
     </row>
     <row r="85" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A85" s="294"/>
-      <c r="B85" s="294"/>
-      <c r="C85" s="295"/>
+      <c r="A85" s="269"/>
+      <c r="B85" s="269"/>
+      <c r="C85" s="270"/>
       <c r="D85" s="139"/>
       <c r="E85" s="87"/>
       <c r="F85" s="87"/>
@@ -13255,17 +14067,17 @@
       <c r="V86" s="159"/>
     </row>
     <row r="87" spans="1:27" s="12" customFormat="1" ht="18" customHeight="1">
-      <c r="A87" s="364" t="s">
+      <c r="A87" s="309" t="s">
         <v>150</v>
       </c>
-      <c r="B87" s="364"/>
-      <c r="C87" s="365"/>
-      <c r="D87" s="369" t="s">
+      <c r="B87" s="309"/>
+      <c r="C87" s="310"/>
+      <c r="D87" s="320" t="s">
         <v>151</v>
       </c>
-      <c r="E87" s="370"/>
-      <c r="F87" s="370"/>
-      <c r="G87" s="371"/>
+      <c r="E87" s="321"/>
+      <c r="F87" s="321"/>
+      <c r="G87" s="322"/>
       <c r="H87" s="100" t="s">
         <v>157</v>
       </c>
@@ -13290,13 +14102,13 @@
       <c r="AA87" s="25"/>
     </row>
     <row r="88" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A88" s="286"/>
-      <c r="B88" s="286"/>
-      <c r="C88" s="287"/>
-      <c r="D88" s="281"/>
-      <c r="E88" s="282"/>
-      <c r="F88" s="282"/>
-      <c r="G88" s="283"/>
+      <c r="A88" s="267"/>
+      <c r="B88" s="267"/>
+      <c r="C88" s="268"/>
+      <c r="D88" s="306"/>
+      <c r="E88" s="307"/>
+      <c r="F88" s="307"/>
+      <c r="G88" s="308"/>
       <c r="H88" s="101" t="s">
         <v>158</v>
       </c>
@@ -13321,9 +14133,9 @@
       <c r="AA88" s="102"/>
     </row>
     <row r="89" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A89" s="286"/>
-      <c r="B89" s="286"/>
-      <c r="C89" s="287"/>
+      <c r="A89" s="267"/>
+      <c r="B89" s="267"/>
+      <c r="C89" s="268"/>
       <c r="D89" s="104" t="s">
         <v>152</v>
       </c>
@@ -13354,9 +14166,9 @@
       <c r="AA89" s="102"/>
     </row>
     <row r="90" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A90" s="286"/>
-      <c r="B90" s="286"/>
-      <c r="C90" s="287"/>
+      <c r="A90" s="267"/>
+      <c r="B90" s="267"/>
+      <c r="C90" s="268"/>
       <c r="D90" s="104" t="s">
         <v>153</v>
       </c>
@@ -13391,9 +14203,9 @@
       <c r="AA90" s="102"/>
     </row>
     <row r="91" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A91" s="286"/>
-      <c r="B91" s="286"/>
-      <c r="C91" s="287"/>
+      <c r="A91" s="267"/>
+      <c r="B91" s="267"/>
+      <c r="C91" s="268"/>
       <c r="D91" s="97" t="s">
         <v>154</v>
       </c>
@@ -13426,9 +14238,9 @@
       <c r="AA91" s="102"/>
     </row>
     <row r="92" spans="1:27" ht="18" customHeight="1">
-      <c r="A92" s="286"/>
-      <c r="B92" s="286"/>
-      <c r="C92" s="287"/>
+      <c r="A92" s="267"/>
+      <c r="B92" s="267"/>
+      <c r="C92" s="268"/>
       <c r="D92" s="94" t="s">
         <v>155</v>
       </c>
@@ -13459,9 +14271,9 @@
       <c r="AA92" s="102"/>
     </row>
     <row r="93" spans="1:27" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A93" s="294"/>
-      <c r="B93" s="294"/>
-      <c r="C93" s="295"/>
+      <c r="A93" s="269"/>
+      <c r="B93" s="269"/>
+      <c r="C93" s="270"/>
       <c r="D93" s="122" t="s">
         <v>156</v>
       </c>
@@ -13496,11 +14308,11 @@
       <c r="AA93" s="27"/>
     </row>
     <row r="94" spans="1:27" s="136" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A94" s="284" t="s">
+      <c r="A94" s="265" t="s">
         <v>246</v>
       </c>
-      <c r="B94" s="284"/>
-      <c r="C94" s="285"/>
+      <c r="B94" s="265"/>
+      <c r="C94" s="266"/>
       <c r="D94" s="133" t="s">
         <v>265</v>
       </c>
@@ -13531,9 +14343,9 @@
       <c r="AA94" s="135"/>
     </row>
     <row r="95" spans="1:27" ht="18" customHeight="1">
-      <c r="A95" s="286"/>
-      <c r="B95" s="286"/>
-      <c r="C95" s="287"/>
+      <c r="A95" s="267"/>
+      <c r="B95" s="267"/>
+      <c r="C95" s="268"/>
       <c r="D95" s="129" t="s">
         <v>264</v>
       </c>
@@ -13564,9 +14376,9 @@
       <c r="AA95" s="102"/>
     </row>
     <row r="96" spans="1:27" ht="18" customHeight="1">
-      <c r="A96" s="286"/>
-      <c r="B96" s="286"/>
-      <c r="C96" s="287"/>
+      <c r="A96" s="267"/>
+      <c r="B96" s="267"/>
+      <c r="C96" s="268"/>
       <c r="D96" s="129" t="s">
         <v>248</v>
       </c>
@@ -13603,9 +14415,9 @@
       <c r="AA96" s="143"/>
     </row>
     <row r="97" spans="1:27" s="103" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A97" s="286"/>
-      <c r="B97" s="286"/>
-      <c r="C97" s="287"/>
+      <c r="A97" s="267"/>
+      <c r="B97" s="267"/>
+      <c r="C97" s="268"/>
       <c r="D97" s="129" t="s">
         <v>249</v>
       </c>
@@ -13646,9 +14458,9 @@
       <c r="AA97" s="143"/>
     </row>
     <row r="98" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A98" s="286"/>
-      <c r="B98" s="286"/>
-      <c r="C98" s="287"/>
+      <c r="A98" s="267"/>
+      <c r="B98" s="267"/>
+      <c r="C98" s="268"/>
       <c r="D98" s="129" t="s">
         <v>247</v>
       </c>
@@ -13681,9 +14493,9 @@
       <c r="AA98" s="143"/>
     </row>
     <row r="99" spans="1:27" s="164" customFormat="1" ht="18" customHeight="1">
-      <c r="A99" s="286"/>
-      <c r="B99" s="286"/>
-      <c r="C99" s="287"/>
+      <c r="A99" s="267"/>
+      <c r="B99" s="267"/>
+      <c r="C99" s="268"/>
       <c r="D99" s="129" t="s">
         <v>262</v>
       </c>
@@ -13720,9 +14532,9 @@
       <c r="AA99" s="143"/>
     </row>
     <row r="100" spans="1:27" s="164" customFormat="1" ht="18" customHeight="1">
-      <c r="A100" s="286"/>
-      <c r="B100" s="286"/>
-      <c r="C100" s="287"/>
+      <c r="A100" s="267"/>
+      <c r="B100" s="267"/>
+      <c r="C100" s="268"/>
       <c r="D100" s="129" t="s">
         <v>269</v>
       </c>
@@ -13757,9 +14569,9 @@
       <c r="AA100" s="143"/>
     </row>
     <row r="101" spans="1:27" s="164" customFormat="1" ht="18" customHeight="1">
-      <c r="A101" s="286"/>
-      <c r="B101" s="286"/>
-      <c r="C101" s="287"/>
+      <c r="A101" s="267"/>
+      <c r="B101" s="267"/>
+      <c r="C101" s="268"/>
       <c r="D101" s="129" t="s">
         <v>270</v>
       </c>
@@ -13796,15 +14608,15 @@
       <c r="AA101" s="143"/>
     </row>
     <row r="102" spans="1:27" s="164" customFormat="1" ht="18" customHeight="1">
-      <c r="A102" s="286"/>
-      <c r="B102" s="286"/>
-      <c r="C102" s="287"/>
-      <c r="D102" s="296" t="s">
+      <c r="A102" s="267"/>
+      <c r="B102" s="267"/>
+      <c r="C102" s="268"/>
+      <c r="D102" s="289" t="s">
         <v>269</v>
       </c>
-      <c r="E102" s="297"/>
-      <c r="F102" s="297"/>
-      <c r="G102" s="298"/>
+      <c r="E102" s="290"/>
+      <c r="F102" s="290"/>
+      <c r="G102" s="291"/>
       <c r="H102" s="145" t="s">
         <v>275</v>
       </c>
@@ -13831,13 +14643,13 @@
       <c r="AA102" s="143"/>
     </row>
     <row r="103" spans="1:27" ht="18" customHeight="1">
-      <c r="A103" s="286"/>
-      <c r="B103" s="286"/>
-      <c r="C103" s="287"/>
-      <c r="D103" s="296"/>
-      <c r="E103" s="297"/>
-      <c r="F103" s="297"/>
-      <c r="G103" s="298"/>
+      <c r="A103" s="267"/>
+      <c r="B103" s="267"/>
+      <c r="C103" s="268"/>
+      <c r="D103" s="289"/>
+      <c r="E103" s="290"/>
+      <c r="F103" s="290"/>
+      <c r="G103" s="291"/>
       <c r="H103" s="145" t="s">
         <v>276</v>
       </c>
@@ -13864,13 +14676,13 @@
       <c r="AA103" s="143"/>
     </row>
     <row r="104" spans="1:27" ht="18" customHeight="1">
-      <c r="A104" s="286"/>
-      <c r="B104" s="286"/>
-      <c r="C104" s="287"/>
-      <c r="D104" s="296"/>
-      <c r="E104" s="297"/>
-      <c r="F104" s="297"/>
-      <c r="G104" s="298"/>
+      <c r="A104" s="267"/>
+      <c r="B104" s="267"/>
+      <c r="C104" s="268"/>
+      <c r="D104" s="289"/>
+      <c r="E104" s="290"/>
+      <c r="F104" s="290"/>
+      <c r="G104" s="291"/>
       <c r="H104" s="145" t="s">
         <v>278</v>
       </c>
@@ -13895,13 +14707,13 @@
       <c r="AA104" s="143"/>
     </row>
     <row r="105" spans="1:27" ht="18" customHeight="1">
-      <c r="A105" s="286"/>
-      <c r="B105" s="286"/>
-      <c r="C105" s="287"/>
-      <c r="D105" s="296"/>
-      <c r="E105" s="297"/>
-      <c r="F105" s="297"/>
-      <c r="G105" s="298"/>
+      <c r="A105" s="267"/>
+      <c r="B105" s="267"/>
+      <c r="C105" s="268"/>
+      <c r="D105" s="289"/>
+      <c r="E105" s="290"/>
+      <c r="F105" s="290"/>
+      <c r="G105" s="291"/>
       <c r="H105" s="145" t="s">
         <v>279</v>
       </c>
@@ -13926,13 +14738,13 @@
       <c r="AA105" s="143"/>
     </row>
     <row r="106" spans="1:27" ht="18" customHeight="1">
-      <c r="A106" s="286"/>
-      <c r="B106" s="286"/>
-      <c r="C106" s="287"/>
-      <c r="D106" s="296"/>
-      <c r="E106" s="297"/>
-      <c r="F106" s="297"/>
-      <c r="G106" s="298"/>
+      <c r="A106" s="267"/>
+      <c r="B106" s="267"/>
+      <c r="C106" s="268"/>
+      <c r="D106" s="289"/>
+      <c r="E106" s="290"/>
+      <c r="F106" s="290"/>
+      <c r="G106" s="291"/>
       <c r="H106" s="145" t="s">
         <v>280</v>
       </c>
@@ -13957,15 +14769,15 @@
       <c r="AA106" s="143"/>
     </row>
     <row r="107" spans="1:27">
-      <c r="A107" s="286"/>
-      <c r="B107" s="286"/>
-      <c r="C107" s="287"/>
-      <c r="D107" s="296" t="s">
+      <c r="A107" s="267"/>
+      <c r="B107" s="267"/>
+      <c r="C107" s="268"/>
+      <c r="D107" s="289" t="s">
         <v>285</v>
       </c>
-      <c r="E107" s="297"/>
-      <c r="F107" s="297"/>
-      <c r="G107" s="298"/>
+      <c r="E107" s="290"/>
+      <c r="F107" s="290"/>
+      <c r="G107" s="291"/>
       <c r="H107" s="138" t="s">
         <v>283</v>
       </c>
@@ -13994,13 +14806,13 @@
       <c r="AA107" s="143"/>
     </row>
     <row r="108" spans="1:27" s="28" customFormat="1" ht="18.600000000000001" thickBot="1">
-      <c r="A108" s="294"/>
-      <c r="B108" s="294"/>
-      <c r="C108" s="295"/>
-      <c r="D108" s="358"/>
-      <c r="E108" s="359"/>
-      <c r="F108" s="359"/>
-      <c r="G108" s="360"/>
+      <c r="A108" s="269"/>
+      <c r="B108" s="269"/>
+      <c r="C108" s="270"/>
+      <c r="D108" s="300"/>
+      <c r="E108" s="301"/>
+      <c r="F108" s="301"/>
+      <c r="G108" s="302"/>
       <c r="H108" s="141" t="s">
         <v>284</v>
       </c>
@@ -14025,17 +14837,17 @@
       <c r="AA108" s="144"/>
     </row>
     <row r="109" spans="1:27" s="136" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A109" s="284" t="s">
+      <c r="A109" s="265" t="s">
         <v>286</v>
       </c>
-      <c r="B109" s="284"/>
-      <c r="C109" s="285"/>
-      <c r="D109" s="361" t="s">
+      <c r="B109" s="265"/>
+      <c r="C109" s="266"/>
+      <c r="D109" s="303" t="s">
         <v>289</v>
       </c>
-      <c r="E109" s="362"/>
-      <c r="F109" s="362"/>
-      <c r="G109" s="363"/>
+      <c r="E109" s="304"/>
+      <c r="F109" s="304"/>
+      <c r="G109" s="305"/>
       <c r="H109" s="24" t="s">
         <v>287</v>
       </c>
@@ -14062,9 +14874,9 @@
       <c r="AA109" s="135"/>
     </row>
     <row r="110" spans="1:27" ht="18" customHeight="1">
-      <c r="A110" s="286"/>
-      <c r="B110" s="286"/>
-      <c r="C110" s="287"/>
+      <c r="A110" s="267"/>
+      <c r="B110" s="267"/>
+      <c r="C110" s="268"/>
       <c r="D110" s="104" t="s">
         <v>290</v>
       </c>
@@ -14101,9 +14913,9 @@
       <c r="AA110" s="102"/>
     </row>
     <row r="111" spans="1:27" ht="18" customHeight="1">
-      <c r="A111" s="286"/>
-      <c r="B111" s="286"/>
-      <c r="C111" s="287"/>
+      <c r="A111" s="267"/>
+      <c r="B111" s="267"/>
+      <c r="C111" s="268"/>
       <c r="D111" s="97" t="s">
         <v>291</v>
       </c>
@@ -14138,9 +14950,9 @@
       <c r="AA111" s="102"/>
     </row>
     <row r="112" spans="1:27" s="103" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A112" s="286"/>
-      <c r="B112" s="286"/>
-      <c r="C112" s="287"/>
+      <c r="A112" s="267"/>
+      <c r="B112" s="267"/>
+      <c r="C112" s="268"/>
       <c r="D112" s="104" t="s">
         <v>292</v>
       </c>
@@ -14175,9 +14987,9 @@
       <c r="AA112" s="102"/>
     </row>
     <row r="113" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A113" s="286"/>
-      <c r="B113" s="286"/>
-      <c r="C113" s="287"/>
+      <c r="A113" s="267"/>
+      <c r="B113" s="267"/>
+      <c r="C113" s="268"/>
       <c r="D113" s="104" t="s">
         <v>293</v>
       </c>
@@ -14216,15 +15028,15 @@
       <c r="AA113" s="102"/>
     </row>
     <row r="114" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A114" s="286"/>
-      <c r="B114" s="286"/>
-      <c r="C114" s="287"/>
-      <c r="D114" s="296" t="s">
+      <c r="A114" s="267"/>
+      <c r="B114" s="267"/>
+      <c r="C114" s="268"/>
+      <c r="D114" s="289" t="s">
         <v>307</v>
       </c>
-      <c r="E114" s="297"/>
-      <c r="F114" s="297"/>
-      <c r="G114" s="298"/>
+      <c r="E114" s="290"/>
+      <c r="F114" s="290"/>
+      <c r="G114" s="291"/>
       <c r="H114" s="168" t="s">
         <v>309</v>
       </c>
@@ -14251,15 +15063,15 @@
       <c r="AA114" s="102"/>
     </row>
     <row r="115" spans="1:27">
-      <c r="A115" s="286"/>
-      <c r="B115" s="286"/>
-      <c r="C115" s="287"/>
-      <c r="D115" s="275" t="s">
+      <c r="A115" s="267"/>
+      <c r="B115" s="267"/>
+      <c r="C115" s="268"/>
+      <c r="D115" s="297" t="s">
         <v>286</v>
       </c>
-      <c r="E115" s="276"/>
-      <c r="F115" s="276"/>
-      <c r="G115" s="277"/>
+      <c r="E115" s="298"/>
+      <c r="F115" s="298"/>
+      <c r="G115" s="299"/>
       <c r="H115" s="169" t="s">
         <v>314</v>
       </c>
@@ -14290,13 +15102,13 @@
       <c r="AA115" s="102"/>
     </row>
     <row r="116" spans="1:27" ht="18.600000000000001" thickBot="1">
-      <c r="A116" s="286"/>
-      <c r="B116" s="286"/>
-      <c r="C116" s="287"/>
-      <c r="D116" s="281"/>
-      <c r="E116" s="282"/>
-      <c r="F116" s="282"/>
-      <c r="G116" s="283"/>
+      <c r="A116" s="267"/>
+      <c r="B116" s="267"/>
+      <c r="C116" s="268"/>
+      <c r="D116" s="306"/>
+      <c r="E116" s="307"/>
+      <c r="F116" s="307"/>
+      <c r="G116" s="308"/>
       <c r="H116" s="141"/>
       <c r="I116" s="111"/>
       <c r="J116" s="189"/>
@@ -14323,17 +15135,17 @@
       <c r="AA116" s="111"/>
     </row>
     <row r="117" spans="1:27" s="136" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A117" s="284" t="s">
+      <c r="A117" s="265" t="s">
         <v>431</v>
       </c>
-      <c r="B117" s="284"/>
-      <c r="C117" s="285"/>
-      <c r="D117" s="372" t="s">
+      <c r="B117" s="265"/>
+      <c r="C117" s="266"/>
+      <c r="D117" s="323" t="s">
         <v>432</v>
       </c>
-      <c r="E117" s="362"/>
-      <c r="F117" s="362"/>
-      <c r="G117" s="363"/>
+      <c r="E117" s="304"/>
+      <c r="F117" s="304"/>
+      <c r="G117" s="305"/>
       <c r="H117" s="24" t="s">
         <v>433</v>
       </c>
@@ -14358,9 +15170,9 @@
       <c r="AA117" s="135"/>
     </row>
     <row r="118" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A118" s="294"/>
-      <c r="B118" s="294"/>
-      <c r="C118" s="295"/>
+      <c r="A118" s="269"/>
+      <c r="B118" s="269"/>
+      <c r="C118" s="270"/>
       <c r="D118" s="139" t="s">
         <v>437</v>
       </c>
@@ -14391,11 +15203,11 @@
       <c r="AA118" s="27"/>
     </row>
     <row r="119" spans="1:27" s="226" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A119" s="301" t="s">
+      <c r="A119" s="368" t="s">
         <v>435</v>
       </c>
-      <c r="B119" s="301"/>
-      <c r="C119" s="302"/>
+      <c r="B119" s="368"/>
+      <c r="C119" s="369"/>
       <c r="D119" s="219" t="s">
         <v>437</v>
       </c>
@@ -14426,11 +15238,11 @@
       <c r="AA119" s="223"/>
     </row>
     <row r="120" spans="1:27" s="103" customFormat="1" ht="17.399999999999999" customHeight="1" thickTop="1">
-      <c r="A120" s="284" t="s">
+      <c r="A120" s="265" t="s">
         <v>12</v>
       </c>
-      <c r="B120" s="284"/>
-      <c r="C120" s="285"/>
+      <c r="B120" s="265"/>
+      <c r="C120" s="266"/>
       <c r="D120" s="205" t="s">
         <v>438</v>
       </c>
@@ -14471,9 +15283,9 @@
       <c r="AA120" s="102"/>
     </row>
     <row r="121" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A121" s="286"/>
-      <c r="B121" s="286"/>
-      <c r="C121" s="287"/>
+      <c r="A121" s="267"/>
+      <c r="B121" s="267"/>
+      <c r="C121" s="268"/>
       <c r="D121" s="205" t="s">
         <v>441</v>
       </c>
@@ -14506,15 +15318,15 @@
       <c r="AA121" s="102"/>
     </row>
     <row r="122" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A122" s="286"/>
-      <c r="B122" s="286"/>
-      <c r="C122" s="287"/>
-      <c r="D122" s="296" t="s">
+      <c r="A122" s="267"/>
+      <c r="B122" s="267"/>
+      <c r="C122" s="268"/>
+      <c r="D122" s="289" t="s">
         <v>444</v>
       </c>
-      <c r="E122" s="297"/>
-      <c r="F122" s="297"/>
-      <c r="G122" s="298"/>
+      <c r="E122" s="290"/>
+      <c r="F122" s="290"/>
+      <c r="G122" s="291"/>
       <c r="H122" s="24" t="s">
         <v>443</v>
       </c>
@@ -14543,15 +15355,15 @@
       <c r="AA122" s="102"/>
     </row>
     <row r="123" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A123" s="294"/>
-      <c r="B123" s="294"/>
-      <c r="C123" s="295"/>
-      <c r="D123" s="355" t="s">
+      <c r="A123" s="269"/>
+      <c r="B123" s="269"/>
+      <c r="C123" s="270"/>
+      <c r="D123" s="294" t="s">
         <v>452</v>
       </c>
-      <c r="E123" s="356"/>
-      <c r="F123" s="356"/>
-      <c r="G123" s="357"/>
+      <c r="E123" s="295"/>
+      <c r="F123" s="295"/>
+      <c r="G123" s="296"/>
       <c r="H123" s="125" t="s">
         <v>451</v>
       </c>
@@ -14576,17 +15388,17 @@
       <c r="AA123" s="27"/>
     </row>
     <row r="124" spans="1:27" ht="18" customHeight="1" thickTop="1">
-      <c r="A124" s="284" t="s">
+      <c r="A124" s="265" t="s">
         <v>9</v>
       </c>
-      <c r="B124" s="284"/>
-      <c r="C124" s="285"/>
-      <c r="D124" s="303" t="s">
+      <c r="B124" s="265"/>
+      <c r="C124" s="266"/>
+      <c r="D124" s="275" t="s">
         <v>168</v>
       </c>
-      <c r="E124" s="304"/>
-      <c r="F124" s="304"/>
-      <c r="G124" s="305"/>
+      <c r="E124" s="276"/>
+      <c r="F124" s="276"/>
+      <c r="G124" s="277"/>
       <c r="H124" s="109" t="s">
         <v>453</v>
       </c>
@@ -14611,13 +15423,13 @@
       <c r="AA124" s="102"/>
     </row>
     <row r="125" spans="1:27" ht="18" customHeight="1" thickBot="1">
-      <c r="A125" s="286"/>
-      <c r="B125" s="286"/>
-      <c r="C125" s="287"/>
-      <c r="D125" s="366"/>
-      <c r="E125" s="367"/>
-      <c r="F125" s="367"/>
-      <c r="G125" s="368"/>
+      <c r="A125" s="267"/>
+      <c r="B125" s="267"/>
+      <c r="C125" s="268"/>
+      <c r="D125" s="317"/>
+      <c r="E125" s="318"/>
+      <c r="F125" s="318"/>
+      <c r="G125" s="319"/>
       <c r="H125" s="138" t="s">
         <v>10</v>
       </c>
@@ -14644,17 +15456,17 @@
       <c r="AA125" s="102"/>
     </row>
     <row r="126" spans="1:27" ht="18" customHeight="1" thickTop="1">
-      <c r="A126" s="284" t="s">
+      <c r="A126" s="265" t="s">
         <v>471</v>
       </c>
-      <c r="B126" s="284"/>
-      <c r="C126" s="285"/>
-      <c r="D126" s="303" t="s">
+      <c r="B126" s="265"/>
+      <c r="C126" s="266"/>
+      <c r="D126" s="275" t="s">
         <v>473</v>
       </c>
-      <c r="E126" s="304"/>
-      <c r="F126" s="304"/>
-      <c r="G126" s="305"/>
+      <c r="E126" s="276"/>
+      <c r="F126" s="276"/>
+      <c r="G126" s="277"/>
       <c r="H126" s="24" t="s">
         <v>472</v>
       </c>
@@ -14689,13 +15501,13 @@
       <c r="AA126" s="102"/>
     </row>
     <row r="127" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A127" s="286"/>
-      <c r="B127" s="286"/>
-      <c r="C127" s="287"/>
-      <c r="D127" s="281"/>
-      <c r="E127" s="282"/>
-      <c r="F127" s="282"/>
-      <c r="G127" s="283"/>
+      <c r="A127" s="267"/>
+      <c r="B127" s="267"/>
+      <c r="C127" s="268"/>
+      <c r="D127" s="306"/>
+      <c r="E127" s="307"/>
+      <c r="F127" s="307"/>
+      <c r="G127" s="308"/>
       <c r="H127" s="24" t="s">
         <v>484</v>
       </c>
@@ -14726,9 +15538,9 @@
       <c r="AA127" s="102"/>
     </row>
     <row r="128" spans="1:27" s="103" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A128" s="286"/>
-      <c r="B128" s="286"/>
-      <c r="C128" s="287"/>
+      <c r="A128" s="267"/>
+      <c r="B128" s="267"/>
+      <c r="C128" s="268"/>
       <c r="D128" s="206" t="s">
         <v>474</v>
       </c>
@@ -14765,9 +15577,9 @@
       <c r="AA128" s="102"/>
     </row>
     <row r="129" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A129" s="294"/>
-      <c r="B129" s="294"/>
-      <c r="C129" s="295"/>
+      <c r="A129" s="269"/>
+      <c r="B129" s="269"/>
+      <c r="C129" s="270"/>
       <c r="D129" s="139" t="s">
         <v>482</v>
       </c>
@@ -14798,42 +15610,42 @@
       <c r="AA129" s="27"/>
     </row>
     <row r="130" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1" thickTop="1">
-      <c r="A130" s="284" t="s">
+      <c r="A130" s="265" t="s">
         <v>488</v>
       </c>
-      <c r="B130" s="284"/>
-      <c r="C130" s="285"/>
-      <c r="D130" s="306" t="s">
+      <c r="B130" s="265"/>
+      <c r="C130" s="266"/>
+      <c r="D130" s="311" t="s">
         <v>461</v>
       </c>
-      <c r="E130" s="307"/>
-      <c r="F130" s="307"/>
-      <c r="G130" s="308"/>
+      <c r="E130" s="312"/>
+      <c r="F130" s="312"/>
+      <c r="G130" s="313"/>
       <c r="H130" s="138" t="s">
         <v>462</v>
       </c>
       <c r="I130" s="143"/>
       <c r="J130" s="143"/>
-      <c r="K130" s="312" t="s">
+      <c r="K130" s="262" t="s">
         <v>165</v>
       </c>
-      <c r="L130" s="312"/>
-      <c r="M130" s="379" t="s">
+      <c r="L130" s="262"/>
+      <c r="M130" s="258" t="s">
         <v>181</v>
       </c>
-      <c r="N130" s="379"/>
-      <c r="O130" s="312" t="s">
+      <c r="N130" s="258"/>
+      <c r="O130" s="262" t="s">
         <v>463</v>
       </c>
-      <c r="P130" s="312"/>
-      <c r="Q130" s="312" t="s">
+      <c r="P130" s="262"/>
+      <c r="Q130" s="262" t="s">
         <v>464</v>
       </c>
-      <c r="R130" s="382"/>
-      <c r="S130" s="380" t="s">
+      <c r="R130" s="263"/>
+      <c r="S130" s="260" t="s">
         <v>465</v>
       </c>
-      <c r="T130" s="380"/>
+      <c r="T130" s="260"/>
       <c r="U130" s="143"/>
       <c r="V130" s="143"/>
       <c r="W130" s="143"/>
@@ -14843,28 +15655,28 @@
       <c r="AA130" s="102"/>
     </row>
     <row r="131" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A131" s="294"/>
-      <c r="B131" s="294"/>
-      <c r="C131" s="295"/>
-      <c r="D131" s="309"/>
-      <c r="E131" s="310"/>
-      <c r="F131" s="310"/>
-      <c r="G131" s="311"/>
+      <c r="A131" s="269"/>
+      <c r="B131" s="269"/>
+      <c r="C131" s="270"/>
+      <c r="D131" s="278"/>
+      <c r="E131" s="279"/>
+      <c r="F131" s="279"/>
+      <c r="G131" s="280"/>
       <c r="H131" s="125" t="s">
         <v>466</v>
       </c>
       <c r="I131" s="144"/>
       <c r="J131" s="144"/>
-      <c r="K131" s="313"/>
-      <c r="L131" s="313"/>
-      <c r="M131" s="313"/>
-      <c r="N131" s="313"/>
-      <c r="O131" s="313"/>
-      <c r="P131" s="313"/>
-      <c r="Q131" s="313"/>
-      <c r="R131" s="383"/>
-      <c r="S131" s="381"/>
-      <c r="T131" s="381"/>
+      <c r="K131" s="259"/>
+      <c r="L131" s="259"/>
+      <c r="M131" s="259"/>
+      <c r="N131" s="259"/>
+      <c r="O131" s="259"/>
+      <c r="P131" s="259"/>
+      <c r="Q131" s="259"/>
+      <c r="R131" s="264"/>
+      <c r="S131" s="261"/>
+      <c r="T131" s="261"/>
       <c r="U131" s="144"/>
       <c r="V131" s="144"/>
       <c r="W131" s="144"/>
@@ -14874,17 +15686,17 @@
       <c r="AA131" s="27"/>
     </row>
     <row r="132" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1" thickTop="1">
-      <c r="A132" s="284" t="s">
+      <c r="A132" s="265" t="s">
         <v>490</v>
       </c>
-      <c r="B132" s="284"/>
-      <c r="C132" s="285"/>
-      <c r="D132" s="281" t="s">
+      <c r="B132" s="265"/>
+      <c r="C132" s="266"/>
+      <c r="D132" s="306" t="s">
         <v>490</v>
       </c>
-      <c r="E132" s="282"/>
-      <c r="F132" s="282"/>
-      <c r="G132" s="283"/>
+      <c r="E132" s="307"/>
+      <c r="F132" s="307"/>
+      <c r="G132" s="308"/>
       <c r="H132" s="24" t="s">
         <v>491</v>
       </c>
@@ -14915,9 +15727,9 @@
       <c r="AA132" s="102"/>
     </row>
     <row r="133" spans="1:27" ht="18" customHeight="1">
-      <c r="A133" s="286"/>
-      <c r="B133" s="286"/>
-      <c r="C133" s="287"/>
+      <c r="A133" s="267"/>
+      <c r="B133" s="267"/>
+      <c r="C133" s="268"/>
       <c r="D133" s="205" t="s">
         <v>494</v>
       </c>
@@ -14956,9 +15768,9 @@
       <c r="AA133" s="102"/>
     </row>
     <row r="134" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A134" s="294"/>
-      <c r="B134" s="294"/>
-      <c r="C134" s="295"/>
+      <c r="A134" s="269"/>
+      <c r="B134" s="269"/>
+      <c r="C134" s="270"/>
       <c r="D134" s="230" t="s">
         <v>495</v>
       </c>
@@ -14989,11 +15801,11 @@
       <c r="AA134" s="27"/>
     </row>
     <row r="135" spans="1:27" s="103" customFormat="1" ht="17.399999999999999" customHeight="1" thickTop="1">
-      <c r="A135" s="284" t="s">
+      <c r="A135" s="265" t="s">
         <v>499</v>
       </c>
-      <c r="B135" s="284"/>
-      <c r="C135" s="285"/>
+      <c r="B135" s="265"/>
+      <c r="C135" s="266"/>
       <c r="D135" s="205" t="s">
         <v>500</v>
       </c>
@@ -15028,9 +15840,9 @@
       <c r="AA135" s="21"/>
     </row>
     <row r="136" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A136" s="286"/>
-      <c r="B136" s="286"/>
-      <c r="C136" s="287"/>
+      <c r="A136" s="267"/>
+      <c r="B136" s="267"/>
+      <c r="C136" s="268"/>
       <c r="D136" s="205" t="s">
         <v>502</v>
       </c>
@@ -15061,15 +15873,15 @@
       <c r="AA136" s="143"/>
     </row>
     <row r="137" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A137" s="286"/>
-      <c r="B137" s="286"/>
-      <c r="C137" s="287"/>
-      <c r="D137" s="296" t="s">
+      <c r="A137" s="267"/>
+      <c r="B137" s="267"/>
+      <c r="C137" s="268"/>
+      <c r="D137" s="289" t="s">
         <v>503</v>
       </c>
-      <c r="E137" s="297"/>
-      <c r="F137" s="297"/>
-      <c r="G137" s="298"/>
+      <c r="E137" s="290"/>
+      <c r="F137" s="290"/>
+      <c r="G137" s="291"/>
       <c r="H137" s="245" t="s">
         <v>516</v>
       </c>
@@ -15100,15 +15912,15 @@
       <c r="AA137" s="143"/>
     </row>
     <row r="138" spans="1:27" ht="18" customHeight="1">
-      <c r="A138" s="286"/>
-      <c r="B138" s="286"/>
-      <c r="C138" s="287"/>
-      <c r="D138" s="296" t="s">
+      <c r="A138" s="267"/>
+      <c r="B138" s="267"/>
+      <c r="C138" s="268"/>
+      <c r="D138" s="289" t="s">
         <v>507</v>
       </c>
-      <c r="E138" s="297"/>
-      <c r="F138" s="297"/>
-      <c r="G138" s="298"/>
+      <c r="E138" s="290"/>
+      <c r="F138" s="290"/>
+      <c r="G138" s="291"/>
       <c r="H138" s="245" t="s">
         <v>517</v>
       </c>
@@ -15135,9 +15947,9 @@
       <c r="AA138" s="143"/>
     </row>
     <row r="139" spans="1:27" ht="18" customHeight="1">
-      <c r="A139" s="286"/>
-      <c r="B139" s="286"/>
-      <c r="C139" s="287"/>
+      <c r="A139" s="267"/>
+      <c r="B139" s="267"/>
+      <c r="C139" s="268"/>
       <c r="D139" s="205" t="s">
         <v>508</v>
       </c>
@@ -15174,9 +15986,9 @@
       <c r="AA139" s="143"/>
     </row>
     <row r="140" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A140" s="294"/>
-      <c r="B140" s="294"/>
-      <c r="C140" s="295"/>
+      <c r="A140" s="269"/>
+      <c r="B140" s="269"/>
+      <c r="C140" s="270"/>
       <c r="D140" s="230" t="s">
         <v>509</v>
       </c>
@@ -15209,11 +16021,11 @@
       <c r="AA140" s="27"/>
     </row>
     <row r="141" spans="1:27" s="103" customFormat="1" ht="17.399999999999999" customHeight="1" thickTop="1">
-      <c r="A141" s="284" t="s">
+      <c r="A141" s="265" t="s">
         <v>512</v>
       </c>
-      <c r="B141" s="284"/>
-      <c r="C141" s="285"/>
+      <c r="B141" s="265"/>
+      <c r="C141" s="266"/>
       <c r="D141" s="205"/>
       <c r="E141" s="105"/>
       <c r="F141" s="105"/>
@@ -15242,9 +16054,9 @@
       <c r="AA141" s="102"/>
     </row>
     <row r="142" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A142" s="294"/>
-      <c r="B142" s="294"/>
-      <c r="C142" s="295"/>
+      <c r="A142" s="269"/>
+      <c r="B142" s="269"/>
+      <c r="C142" s="270"/>
       <c r="D142" s="230"/>
       <c r="E142" s="87"/>
       <c r="F142" s="87"/>
@@ -15273,17 +16085,17 @@
       <c r="AA142" s="27"/>
     </row>
     <row r="143" spans="1:27" ht="18" customHeight="1" thickTop="1">
-      <c r="A143" s="284" t="s">
+      <c r="A143" s="265" t="s">
         <v>524</v>
       </c>
-      <c r="B143" s="284"/>
-      <c r="C143" s="285"/>
-      <c r="D143" s="303" t="s">
+      <c r="B143" s="265"/>
+      <c r="C143" s="266"/>
+      <c r="D143" s="275" t="s">
         <v>525</v>
       </c>
-      <c r="E143" s="304"/>
-      <c r="F143" s="304"/>
-      <c r="G143" s="305"/>
+      <c r="E143" s="276"/>
+      <c r="F143" s="276"/>
+      <c r="G143" s="277"/>
       <c r="H143" s="109" t="s">
         <v>526</v>
       </c>
@@ -15310,13 +16122,13 @@
       <c r="AA143" s="102"/>
     </row>
     <row r="144" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A144" s="294"/>
-      <c r="B144" s="294"/>
-      <c r="C144" s="295"/>
-      <c r="D144" s="309"/>
-      <c r="E144" s="310"/>
-      <c r="F144" s="310"/>
-      <c r="G144" s="311"/>
+      <c r="A144" s="269"/>
+      <c r="B144" s="269"/>
+      <c r="C144" s="270"/>
+      <c r="D144" s="278"/>
+      <c r="E144" s="279"/>
+      <c r="F144" s="279"/>
+      <c r="G144" s="280"/>
       <c r="H144" s="141" t="s">
         <v>527</v>
       </c>
@@ -15345,11 +16157,11 @@
       <c r="AA144" s="27"/>
     </row>
     <row r="145" spans="1:27" s="103" customFormat="1" ht="17.399999999999999" customHeight="1" thickTop="1">
-      <c r="A145" s="284" t="s">
+      <c r="A145" s="265" t="s">
         <v>530</v>
       </c>
-      <c r="B145" s="284"/>
-      <c r="C145" s="285"/>
+      <c r="B145" s="265"/>
+      <c r="C145" s="266"/>
       <c r="D145" s="229"/>
       <c r="E145" s="105"/>
       <c r="F145" s="105"/>
@@ -15380,9 +16192,9 @@
       <c r="AA145" s="102"/>
     </row>
     <row r="146" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A146" s="294"/>
-      <c r="B146" s="294"/>
-      <c r="C146" s="295"/>
+      <c r="A146" s="269"/>
+      <c r="B146" s="269"/>
+      <c r="C146" s="270"/>
       <c r="D146" s="230" t="s">
         <v>532</v>
       </c>
@@ -15413,11 +16225,11 @@
       <c r="AA146" s="27"/>
     </row>
     <row r="147" spans="1:27" s="226" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A147" s="301" t="s">
+      <c r="A147" s="368" t="s">
         <v>535</v>
       </c>
-      <c r="B147" s="301"/>
-      <c r="C147" s="302"/>
+      <c r="B147" s="368"/>
+      <c r="C147" s="369"/>
       <c r="D147" s="219" t="s">
         <v>537</v>
       </c>
@@ -16191,17 +17003,17 @@
       <c r="V173" s="197"/>
     </row>
     <row r="174" spans="1:27" ht="18" customHeight="1">
-      <c r="A174" s="353" t="s">
+      <c r="A174" s="292" t="s">
         <v>359</v>
       </c>
-      <c r="B174" s="353"/>
-      <c r="C174" s="354"/>
-      <c r="D174" s="275" t="s">
+      <c r="B174" s="292"/>
+      <c r="C174" s="293"/>
+      <c r="D174" s="297" t="s">
         <v>1</v>
       </c>
-      <c r="E174" s="276"/>
-      <c r="F174" s="276"/>
-      <c r="G174" s="277"/>
+      <c r="E174" s="298"/>
+      <c r="F174" s="298"/>
+      <c r="G174" s="299"/>
       <c r="H174" s="145" t="s">
         <v>467</v>
       </c>
@@ -16228,110 +17040,110 @@
       <c r="AA174" s="187"/>
     </row>
     <row r="175" spans="1:27" ht="18" customHeight="1">
-      <c r="A175" s="286"/>
-      <c r="B175" s="286"/>
-      <c r="C175" s="287"/>
-      <c r="D175" s="278"/>
-      <c r="E175" s="279"/>
-      <c r="F175" s="279"/>
-      <c r="G175" s="280"/>
+      <c r="A175" s="267"/>
+      <c r="B175" s="267"/>
+      <c r="C175" s="268"/>
+      <c r="D175" s="314"/>
+      <c r="E175" s="315"/>
+      <c r="F175" s="315"/>
+      <c r="G175" s="316"/>
       <c r="H175" s="145" t="s">
         <v>469</v>
       </c>
       <c r="I175" s="187"/>
       <c r="J175" s="187"/>
       <c r="K175" s="187"/>
-      <c r="L175" s="384" t="s">
+      <c r="L175" s="271" t="s">
         <v>498</v>
       </c>
-      <c r="M175" s="289"/>
-      <c r="N175" s="289"/>
-      <c r="O175" s="289"/>
-      <c r="P175" s="289"/>
-      <c r="Q175" s="289"/>
-      <c r="R175" s="289"/>
-      <c r="S175" s="289"/>
-      <c r="T175" s="289"/>
-      <c r="U175" s="289"/>
-      <c r="V175" s="289"/>
-      <c r="W175" s="289"/>
-      <c r="X175" s="289"/>
-      <c r="Y175" s="289"/>
-      <c r="Z175" s="289"/>
+      <c r="M175" s="272"/>
+      <c r="N175" s="272"/>
+      <c r="O175" s="272"/>
+      <c r="P175" s="272"/>
+      <c r="Q175" s="272"/>
+      <c r="R175" s="272"/>
+      <c r="S175" s="272"/>
+      <c r="T175" s="272"/>
+      <c r="U175" s="272"/>
+      <c r="V175" s="272"/>
+      <c r="W175" s="272"/>
+      <c r="X175" s="272"/>
+      <c r="Y175" s="272"/>
+      <c r="Z175" s="272"/>
       <c r="AA175" s="187"/>
     </row>
     <row r="176" spans="1:27" ht="18" customHeight="1">
-      <c r="A176" s="286"/>
-      <c r="B176" s="286"/>
-      <c r="C176" s="287"/>
-      <c r="D176" s="278"/>
-      <c r="E176" s="279"/>
-      <c r="F176" s="279"/>
-      <c r="G176" s="280"/>
+      <c r="A176" s="267"/>
+      <c r="B176" s="267"/>
+      <c r="C176" s="268"/>
+      <c r="D176" s="314"/>
+      <c r="E176" s="315"/>
+      <c r="F176" s="315"/>
+      <c r="G176" s="316"/>
       <c r="H176" s="145" t="s">
         <v>470</v>
       </c>
       <c r="I176" s="187"/>
       <c r="J176" s="187"/>
       <c r="K176" s="187"/>
-      <c r="L176" s="291"/>
-      <c r="M176" s="291"/>
-      <c r="N176" s="291"/>
-      <c r="O176" s="291"/>
-      <c r="P176" s="291"/>
-      <c r="Q176" s="291"/>
-      <c r="R176" s="291"/>
-      <c r="S176" s="291"/>
-      <c r="T176" s="291"/>
-      <c r="U176" s="291"/>
-      <c r="V176" s="291"/>
-      <c r="W176" s="291"/>
-      <c r="X176" s="291"/>
-      <c r="Y176" s="291"/>
-      <c r="Z176" s="291"/>
+      <c r="L176" s="273"/>
+      <c r="M176" s="273"/>
+      <c r="N176" s="273"/>
+      <c r="O176" s="273"/>
+      <c r="P176" s="273"/>
+      <c r="Q176" s="273"/>
+      <c r="R176" s="273"/>
+      <c r="S176" s="273"/>
+      <c r="T176" s="273"/>
+      <c r="U176" s="273"/>
+      <c r="V176" s="273"/>
+      <c r="W176" s="273"/>
+      <c r="X176" s="273"/>
+      <c r="Y176" s="273"/>
+      <c r="Z176" s="273"/>
       <c r="AA176" s="187"/>
     </row>
     <row r="177" spans="1:27" ht="18" customHeight="1">
-      <c r="A177" s="286"/>
-      <c r="B177" s="286"/>
-      <c r="C177" s="287"/>
-      <c r="D177" s="281"/>
-      <c r="E177" s="282"/>
-      <c r="F177" s="282"/>
-      <c r="G177" s="283"/>
+      <c r="A177" s="267"/>
+      <c r="B177" s="267"/>
+      <c r="C177" s="268"/>
+      <c r="D177" s="306"/>
+      <c r="E177" s="307"/>
+      <c r="F177" s="307"/>
+      <c r="G177" s="308"/>
       <c r="H177" s="145" t="s">
         <v>497</v>
       </c>
       <c r="I177" s="187"/>
       <c r="J177" s="187"/>
       <c r="K177" s="187"/>
-      <c r="L177" s="293"/>
-      <c r="M177" s="293"/>
-      <c r="N177" s="293"/>
-      <c r="O177" s="293"/>
-      <c r="P177" s="293"/>
-      <c r="Q177" s="293"/>
-      <c r="R177" s="293"/>
-      <c r="S177" s="293"/>
-      <c r="T177" s="293"/>
-      <c r="U177" s="293"/>
-      <c r="V177" s="293"/>
-      <c r="W177" s="293"/>
-      <c r="X177" s="293"/>
-      <c r="Y177" s="293"/>
-      <c r="Z177" s="293"/>
+      <c r="L177" s="274"/>
+      <c r="M177" s="274"/>
+      <c r="N177" s="274"/>
+      <c r="O177" s="274"/>
+      <c r="P177" s="274"/>
+      <c r="Q177" s="274"/>
+      <c r="R177" s="274"/>
+      <c r="S177" s="274"/>
+      <c r="T177" s="274"/>
+      <c r="U177" s="274"/>
+      <c r="V177" s="274"/>
+      <c r="W177" s="274"/>
+      <c r="X177" s="274"/>
+      <c r="Y177" s="274"/>
+      <c r="Z177" s="274"/>
       <c r="AA177" s="187"/>
     </row>
     <row r="178" spans="1:27" ht="18" customHeight="1">
-      <c r="A178" s="286"/>
-      <c r="B178" s="286"/>
-      <c r="C178" s="287"/>
-      <c r="D178" s="296" t="s">
+      <c r="A178" s="267"/>
+      <c r="B178" s="267"/>
+      <c r="C178" s="268"/>
+      <c r="D178" s="289" t="s">
         <v>348</v>
       </c>
-      <c r="E178" s="297"/>
-      <c r="F178" s="297"/>
-      <c r="G178" s="298"/>
+      <c r="E178" s="290"/>
+      <c r="F178" s="290"/>
+      <c r="G178" s="291"/>
       <c r="H178" s="145" t="s">
         <v>317</v>
       </c>
@@ -16356,15 +17168,15 @@
       <c r="AA178" s="187"/>
     </row>
     <row r="179" spans="1:27" ht="18" customHeight="1">
-      <c r="A179" s="286"/>
-      <c r="B179" s="286"/>
-      <c r="C179" s="287"/>
-      <c r="D179" s="275" t="s">
+      <c r="A179" s="267"/>
+      <c r="B179" s="267"/>
+      <c r="C179" s="268"/>
+      <c r="D179" s="297" t="s">
         <v>360</v>
       </c>
-      <c r="E179" s="276"/>
-      <c r="F179" s="276"/>
-      <c r="G179" s="277"/>
+      <c r="E179" s="298"/>
+      <c r="F179" s="298"/>
+      <c r="G179" s="299"/>
       <c r="H179" s="145" t="s">
         <v>361</v>
       </c>
@@ -16389,13 +17201,13 @@
       <c r="AA179" s="171"/>
     </row>
     <row r="180" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A180" s="294"/>
-      <c r="B180" s="294"/>
-      <c r="C180" s="295"/>
-      <c r="D180" s="309"/>
-      <c r="E180" s="310"/>
-      <c r="F180" s="310"/>
-      <c r="G180" s="311"/>
+      <c r="A180" s="269"/>
+      <c r="B180" s="269"/>
+      <c r="C180" s="270"/>
+      <c r="D180" s="278"/>
+      <c r="E180" s="279"/>
+      <c r="F180" s="279"/>
+      <c r="G180" s="280"/>
       <c r="H180" s="218" t="s">
         <v>362</v>
       </c>
@@ -16420,11 +17232,11 @@
       <c r="AA180" s="188"/>
     </row>
     <row r="181" spans="1:27" ht="18" customHeight="1" thickTop="1">
-      <c r="A181" s="286" t="s">
+      <c r="A181" s="267" t="s">
         <v>315</v>
       </c>
-      <c r="B181" s="286"/>
-      <c r="C181" s="287"/>
+      <c r="B181" s="267"/>
+      <c r="C181" s="268"/>
       <c r="D181" s="184" t="s">
         <v>316</v>
       </c>
@@ -16459,13 +17271,13 @@
       <c r="AA181" s="187"/>
     </row>
     <row r="182" spans="1:27" ht="18" customHeight="1">
-      <c r="A182" s="286"/>
-      <c r="B182" s="286"/>
-      <c r="C182" s="287"/>
-      <c r="D182" s="279"/>
-      <c r="E182" s="279"/>
-      <c r="F182" s="279"/>
-      <c r="G182" s="280"/>
+      <c r="A182" s="267"/>
+      <c r="B182" s="267"/>
+      <c r="C182" s="268"/>
+      <c r="D182" s="315"/>
+      <c r="E182" s="315"/>
+      <c r="F182" s="315"/>
+      <c r="G182" s="316"/>
       <c r="H182" s="145" t="s">
         <v>318</v>
       </c>
@@ -16494,13 +17306,13 @@
       <c r="AA182" s="171"/>
     </row>
     <row r="183" spans="1:27" ht="18" customHeight="1">
-      <c r="A183" s="286"/>
-      <c r="B183" s="286"/>
-      <c r="C183" s="287"/>
-      <c r="D183" s="279"/>
-      <c r="E183" s="279"/>
-      <c r="F183" s="279"/>
-      <c r="G183" s="280"/>
+      <c r="A183" s="267"/>
+      <c r="B183" s="267"/>
+      <c r="C183" s="268"/>
+      <c r="D183" s="315"/>
+      <c r="E183" s="315"/>
+      <c r="F183" s="315"/>
+      <c r="G183" s="316"/>
       <c r="H183" s="171"/>
       <c r="I183" s="143"/>
       <c r="J183" s="143"/>
@@ -16527,13 +17339,13 @@
       <c r="AA183" s="171"/>
     </row>
     <row r="184" spans="1:27" ht="18" customHeight="1">
-      <c r="A184" s="286"/>
-      <c r="B184" s="286"/>
-      <c r="C184" s="287"/>
-      <c r="D184" s="279"/>
-      <c r="E184" s="279"/>
-      <c r="F184" s="279"/>
-      <c r="G184" s="280"/>
+      <c r="A184" s="267"/>
+      <c r="B184" s="267"/>
+      <c r="C184" s="268"/>
+      <c r="D184" s="315"/>
+      <c r="E184" s="315"/>
+      <c r="F184" s="315"/>
+      <c r="G184" s="316"/>
       <c r="H184" s="145" t="s">
         <v>323</v>
       </c>
@@ -16564,13 +17376,13 @@
       <c r="AA184" s="171"/>
     </row>
     <row r="185" spans="1:27" ht="18" customHeight="1">
-      <c r="A185" s="286"/>
-      <c r="B185" s="286"/>
-      <c r="C185" s="287"/>
-      <c r="D185" s="279"/>
-      <c r="E185" s="279"/>
-      <c r="F185" s="279"/>
-      <c r="G185" s="280"/>
+      <c r="A185" s="267"/>
+      <c r="B185" s="267"/>
+      <c r="C185" s="268"/>
+      <c r="D185" s="315"/>
+      <c r="E185" s="315"/>
+      <c r="F185" s="315"/>
+      <c r="G185" s="316"/>
       <c r="H185" s="145" t="s">
         <v>327</v>
       </c>
@@ -16601,13 +17413,13 @@
       <c r="AA185" s="171"/>
     </row>
     <row r="186" spans="1:27" ht="18" customHeight="1">
-      <c r="A186" s="286"/>
-      <c r="B186" s="286"/>
-      <c r="C186" s="287"/>
-      <c r="D186" s="279"/>
-      <c r="E186" s="279"/>
-      <c r="F186" s="279"/>
-      <c r="G186" s="280"/>
+      <c r="A186" s="267"/>
+      <c r="B186" s="267"/>
+      <c r="C186" s="268"/>
+      <c r="D186" s="315"/>
+      <c r="E186" s="315"/>
+      <c r="F186" s="315"/>
+      <c r="G186" s="316"/>
       <c r="H186" s="145" t="s">
         <v>338</v>
       </c>
@@ -16638,13 +17450,13 @@
       <c r="AA186" s="143"/>
     </row>
     <row r="187" spans="1:27" ht="18" customHeight="1">
-      <c r="A187" s="286"/>
-      <c r="B187" s="286"/>
-      <c r="C187" s="287"/>
-      <c r="D187" s="279"/>
-      <c r="E187" s="279"/>
-      <c r="F187" s="279"/>
-      <c r="G187" s="280"/>
+      <c r="A187" s="267"/>
+      <c r="B187" s="267"/>
+      <c r="C187" s="268"/>
+      <c r="D187" s="315"/>
+      <c r="E187" s="315"/>
+      <c r="F187" s="315"/>
+      <c r="G187" s="316"/>
       <c r="H187" s="143"/>
       <c r="I187" s="143"/>
       <c r="J187" s="143"/>
@@ -16673,13 +17485,13 @@
       <c r="AA187" s="143"/>
     </row>
     <row r="188" spans="1:27" ht="18" customHeight="1">
-      <c r="A188" s="286"/>
-      <c r="B188" s="286"/>
-      <c r="C188" s="287"/>
-      <c r="D188" s="279"/>
-      <c r="E188" s="279"/>
-      <c r="F188" s="279"/>
-      <c r="G188" s="280"/>
+      <c r="A188" s="267"/>
+      <c r="B188" s="267"/>
+      <c r="C188" s="268"/>
+      <c r="D188" s="315"/>
+      <c r="E188" s="315"/>
+      <c r="F188" s="315"/>
+      <c r="G188" s="316"/>
       <c r="H188" s="143"/>
       <c r="I188" s="143"/>
       <c r="J188" s="143"/>
@@ -16706,13 +17518,13 @@
       <c r="AA188" s="143"/>
     </row>
     <row r="189" spans="1:27" ht="18" customHeight="1">
-      <c r="A189" s="286"/>
-      <c r="B189" s="286"/>
-      <c r="C189" s="287"/>
-      <c r="D189" s="279"/>
-      <c r="E189" s="279"/>
-      <c r="F189" s="279"/>
-      <c r="G189" s="280"/>
+      <c r="A189" s="267"/>
+      <c r="B189" s="267"/>
+      <c r="C189" s="268"/>
+      <c r="D189" s="315"/>
+      <c r="E189" s="315"/>
+      <c r="F189" s="315"/>
+      <c r="G189" s="316"/>
       <c r="H189" s="145" t="s">
         <v>342</v>
       </c>
@@ -16741,13 +17553,13 @@
       <c r="AA189" s="143"/>
     </row>
     <row r="190" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A190" s="286"/>
-      <c r="B190" s="286"/>
-      <c r="C190" s="287"/>
-      <c r="D190" s="279"/>
-      <c r="E190" s="279"/>
-      <c r="F190" s="279"/>
-      <c r="G190" s="280"/>
+      <c r="A190" s="267"/>
+      <c r="B190" s="267"/>
+      <c r="C190" s="268"/>
+      <c r="D190" s="315"/>
+      <c r="E190" s="315"/>
+      <c r="F190" s="315"/>
+      <c r="G190" s="316"/>
       <c r="H190" s="143"/>
       <c r="I190" s="143"/>
       <c r="J190" s="143"/>
@@ -16774,13 +17586,13 @@
       <c r="AA190" s="171"/>
     </row>
     <row r="191" spans="1:27" ht="18" customHeight="1">
-      <c r="A191" s="286"/>
-      <c r="B191" s="286"/>
-      <c r="C191" s="287"/>
-      <c r="D191" s="279"/>
-      <c r="E191" s="279"/>
-      <c r="F191" s="279"/>
-      <c r="G191" s="280"/>
+      <c r="A191" s="267"/>
+      <c r="B191" s="267"/>
+      <c r="C191" s="268"/>
+      <c r="D191" s="315"/>
+      <c r="E191" s="315"/>
+      <c r="F191" s="315"/>
+      <c r="G191" s="316"/>
       <c r="H191" s="143"/>
       <c r="I191" s="143"/>
       <c r="J191" s="143"/>
@@ -16805,13 +17617,13 @@
       <c r="AA191" s="143"/>
     </row>
     <row r="192" spans="1:27" ht="18" customHeight="1">
-      <c r="A192" s="286"/>
-      <c r="B192" s="286"/>
-      <c r="C192" s="287"/>
-      <c r="D192" s="279"/>
-      <c r="E192" s="279"/>
-      <c r="F192" s="279"/>
-      <c r="G192" s="280"/>
+      <c r="A192" s="267"/>
+      <c r="B192" s="267"/>
+      <c r="C192" s="268"/>
+      <c r="D192" s="315"/>
+      <c r="E192" s="315"/>
+      <c r="F192" s="315"/>
+      <c r="G192" s="316"/>
       <c r="H192" s="171"/>
       <c r="I192" s="171"/>
       <c r="J192" s="171"/>
@@ -16838,13 +17650,13 @@
       <c r="AA192" s="171"/>
     </row>
     <row r="193" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A193" s="286"/>
-      <c r="B193" s="286"/>
-      <c r="C193" s="287"/>
-      <c r="D193" s="279"/>
-      <c r="E193" s="279"/>
-      <c r="F193" s="279"/>
-      <c r="G193" s="280"/>
+      <c r="A193" s="267"/>
+      <c r="B193" s="267"/>
+      <c r="C193" s="268"/>
+      <c r="D193" s="315"/>
+      <c r="E193" s="315"/>
+      <c r="F193" s="315"/>
+      <c r="G193" s="316"/>
       <c r="H193" s="145" t="s">
         <v>343</v>
       </c>
@@ -16873,13 +17685,13 @@
       <c r="AA193" s="171"/>
     </row>
     <row r="194" spans="1:27" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A194" s="286"/>
-      <c r="B194" s="286"/>
-      <c r="C194" s="287"/>
-      <c r="D194" s="279"/>
-      <c r="E194" s="279"/>
-      <c r="F194" s="279"/>
-      <c r="G194" s="280"/>
+      <c r="A194" s="267"/>
+      <c r="B194" s="267"/>
+      <c r="C194" s="268"/>
+      <c r="D194" s="315"/>
+      <c r="E194" s="315"/>
+      <c r="F194" s="315"/>
+      <c r="G194" s="316"/>
       <c r="H194" s="143"/>
       <c r="I194" s="143"/>
       <c r="J194" s="143"/>
@@ -16906,13 +17718,13 @@
       <c r="AA194" s="143"/>
     </row>
     <row r="195" spans="1:27" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A195" s="286"/>
-      <c r="B195" s="286"/>
-      <c r="C195" s="287"/>
-      <c r="D195" s="279"/>
-      <c r="E195" s="279"/>
-      <c r="F195" s="279"/>
-      <c r="G195" s="280"/>
+      <c r="A195" s="267"/>
+      <c r="B195" s="267"/>
+      <c r="C195" s="268"/>
+      <c r="D195" s="315"/>
+      <c r="E195" s="315"/>
+      <c r="F195" s="315"/>
+      <c r="G195" s="316"/>
       <c r="H195" s="143"/>
       <c r="I195" s="143"/>
       <c r="J195" s="143"/>
@@ -16941,13 +17753,13 @@
       <c r="AA195" s="143"/>
     </row>
     <row r="196" spans="1:27" ht="18" customHeight="1">
-      <c r="A196" s="286"/>
-      <c r="B196" s="286"/>
-      <c r="C196" s="287"/>
-      <c r="D196" s="279"/>
-      <c r="E196" s="279"/>
-      <c r="F196" s="279"/>
-      <c r="G196" s="280"/>
+      <c r="A196" s="267"/>
+      <c r="B196" s="267"/>
+      <c r="C196" s="268"/>
+      <c r="D196" s="315"/>
+      <c r="E196" s="315"/>
+      <c r="F196" s="315"/>
+      <c r="G196" s="316"/>
       <c r="H196" s="143"/>
       <c r="I196" s="143"/>
       <c r="J196" s="143"/>
@@ -16974,15 +17786,15 @@
       <c r="AA196" s="143"/>
     </row>
     <row r="197" spans="1:27" ht="18" customHeight="1">
-      <c r="A197" s="286"/>
-      <c r="B197" s="286"/>
-      <c r="C197" s="287"/>
-      <c r="D197" s="276" t="s">
+      <c r="A197" s="267"/>
+      <c r="B197" s="267"/>
+      <c r="C197" s="268"/>
+      <c r="D197" s="298" t="s">
         <v>350</v>
       </c>
-      <c r="E197" s="276"/>
-      <c r="F197" s="276"/>
-      <c r="G197" s="277"/>
+      <c r="E197" s="298"/>
+      <c r="F197" s="298"/>
+      <c r="G197" s="299"/>
       <c r="H197" s="138" t="s">
         <v>344</v>
       </c>
@@ -17013,13 +17825,13 @@
       <c r="AA197" s="143"/>
     </row>
     <row r="198" spans="1:27" ht="18" customHeight="1">
-      <c r="A198" s="286"/>
-      <c r="B198" s="286"/>
-      <c r="C198" s="287"/>
-      <c r="D198" s="279"/>
-      <c r="E198" s="279"/>
-      <c r="F198" s="279"/>
-      <c r="G198" s="280"/>
+      <c r="A198" s="267"/>
+      <c r="B198" s="267"/>
+      <c r="C198" s="268"/>
+      <c r="D198" s="315"/>
+      <c r="E198" s="315"/>
+      <c r="F198" s="315"/>
+      <c r="G198" s="316"/>
       <c r="H198" s="138" t="s">
         <v>345</v>
       </c>
@@ -17050,13 +17862,13 @@
       <c r="AA198" s="143"/>
     </row>
     <row r="199" spans="1:27" ht="18" customHeight="1">
-      <c r="A199" s="286"/>
-      <c r="B199" s="286"/>
-      <c r="C199" s="287"/>
-      <c r="D199" s="279"/>
-      <c r="E199" s="279"/>
-      <c r="F199" s="279"/>
-      <c r="G199" s="280"/>
+      <c r="A199" s="267"/>
+      <c r="B199" s="267"/>
+      <c r="C199" s="268"/>
+      <c r="D199" s="315"/>
+      <c r="E199" s="315"/>
+      <c r="F199" s="315"/>
+      <c r="G199" s="316"/>
       <c r="H199" s="138" t="s">
         <v>346</v>
       </c>
@@ -17087,13 +17899,13 @@
       <c r="AA199" s="143"/>
     </row>
     <row r="200" spans="1:27" ht="18" customHeight="1">
-      <c r="A200" s="286"/>
-      <c r="B200" s="286"/>
-      <c r="C200" s="287"/>
-      <c r="D200" s="279"/>
-      <c r="E200" s="279"/>
-      <c r="F200" s="279"/>
-      <c r="G200" s="280"/>
+      <c r="A200" s="267"/>
+      <c r="B200" s="267"/>
+      <c r="C200" s="268"/>
+      <c r="D200" s="315"/>
+      <c r="E200" s="315"/>
+      <c r="F200" s="315"/>
+      <c r="G200" s="316"/>
       <c r="H200" s="138" t="s">
         <v>347</v>
       </c>
@@ -17120,13 +17932,13 @@
       <c r="AA200" s="143"/>
     </row>
     <row r="201" spans="1:27" ht="18" customHeight="1">
-      <c r="A201" s="286"/>
-      <c r="B201" s="286"/>
-      <c r="C201" s="287"/>
-      <c r="D201" s="279"/>
-      <c r="E201" s="279"/>
-      <c r="F201" s="279"/>
-      <c r="G201" s="280"/>
+      <c r="A201" s="267"/>
+      <c r="B201" s="267"/>
+      <c r="C201" s="268"/>
+      <c r="D201" s="315"/>
+      <c r="E201" s="315"/>
+      <c r="F201" s="315"/>
+      <c r="G201" s="316"/>
       <c r="H201" s="201" t="s">
         <v>348</v>
       </c>
@@ -17153,13 +17965,13 @@
       <c r="AA201" s="143"/>
     </row>
     <row r="202" spans="1:27" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A202" s="294"/>
-      <c r="B202" s="294"/>
-      <c r="C202" s="295"/>
-      <c r="D202" s="310"/>
-      <c r="E202" s="310"/>
-      <c r="F202" s="310"/>
-      <c r="G202" s="311"/>
+      <c r="A202" s="269"/>
+      <c r="B202" s="269"/>
+      <c r="C202" s="270"/>
+      <c r="D202" s="279"/>
+      <c r="E202" s="279"/>
+      <c r="F202" s="279"/>
+      <c r="G202" s="280"/>
       <c r="H202" s="141" t="s">
         <v>349</v>
       </c>
@@ -17200,11 +18012,11 @@
       <c r="AA202" s="144"/>
     </row>
     <row r="203" spans="1:27" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A203" s="284" t="s">
+      <c r="A203" s="265" t="s">
         <v>358</v>
       </c>
-      <c r="B203" s="284"/>
-      <c r="C203" s="285"/>
+      <c r="B203" s="265"/>
+      <c r="C203" s="266"/>
       <c r="D203" s="132" t="s">
         <v>358</v>
       </c>
@@ -17241,15 +18053,15 @@
       <c r="AA203" s="208"/>
     </row>
     <row r="204" spans="1:27" ht="18" customHeight="1">
-      <c r="A204" s="286"/>
-      <c r="B204" s="286"/>
-      <c r="C204" s="287"/>
-      <c r="D204" s="275" t="s">
+      <c r="A204" s="267"/>
+      <c r="B204" s="267"/>
+      <c r="C204" s="268"/>
+      <c r="D204" s="297" t="s">
         <v>363</v>
       </c>
-      <c r="E204" s="276"/>
-      <c r="F204" s="276"/>
-      <c r="G204" s="277"/>
+      <c r="E204" s="298"/>
+      <c r="F204" s="298"/>
+      <c r="G204" s="299"/>
       <c r="H204" s="138" t="s">
         <v>392</v>
       </c>
@@ -17278,13 +18090,13 @@
       <c r="AA204" s="171"/>
     </row>
     <row r="205" spans="1:27" ht="18" customHeight="1">
-      <c r="A205" s="286"/>
-      <c r="B205" s="286"/>
-      <c r="C205" s="287"/>
-      <c r="D205" s="278"/>
-      <c r="E205" s="279"/>
-      <c r="F205" s="279"/>
-      <c r="G205" s="280"/>
+      <c r="A205" s="267"/>
+      <c r="B205" s="267"/>
+      <c r="C205" s="268"/>
+      <c r="D205" s="314"/>
+      <c r="E205" s="315"/>
+      <c r="F205" s="315"/>
+      <c r="G205" s="316"/>
       <c r="H205" s="138" t="s">
         <v>393</v>
       </c>
@@ -17313,13 +18125,13 @@
       <c r="AA205" s="171"/>
     </row>
     <row r="206" spans="1:27" ht="18" customHeight="1">
-      <c r="A206" s="286"/>
-      <c r="B206" s="286"/>
-      <c r="C206" s="287"/>
-      <c r="D206" s="281"/>
-      <c r="E206" s="282"/>
-      <c r="F206" s="282"/>
-      <c r="G206" s="283"/>
+      <c r="A206" s="267"/>
+      <c r="B206" s="267"/>
+      <c r="C206" s="268"/>
+      <c r="D206" s="306"/>
+      <c r="E206" s="307"/>
+      <c r="F206" s="307"/>
+      <c r="G206" s="308"/>
       <c r="H206" s="138" t="s">
         <v>409</v>
       </c>
@@ -17354,15 +18166,15 @@
       <c r="AA206" s="171"/>
     </row>
     <row r="207" spans="1:27" ht="18" customHeight="1">
-      <c r="A207" s="286"/>
-      <c r="B207" s="286"/>
-      <c r="C207" s="287"/>
-      <c r="D207" s="275" t="s">
+      <c r="A207" s="267"/>
+      <c r="B207" s="267"/>
+      <c r="C207" s="268"/>
+      <c r="D207" s="297" t="s">
         <v>419</v>
       </c>
-      <c r="E207" s="276"/>
-      <c r="F207" s="276"/>
-      <c r="G207" s="277"/>
+      <c r="E207" s="298"/>
+      <c r="F207" s="298"/>
+      <c r="G207" s="299"/>
       <c r="H207" s="138" t="s">
         <v>410</v>
       </c>
@@ -17387,13 +18199,13 @@
       <c r="AA207" s="171"/>
     </row>
     <row r="208" spans="1:27" ht="18" customHeight="1">
-      <c r="A208" s="286"/>
-      <c r="B208" s="286"/>
-      <c r="C208" s="287"/>
-      <c r="D208" s="278"/>
-      <c r="E208" s="279"/>
-      <c r="F208" s="279"/>
-      <c r="G208" s="280"/>
+      <c r="A208" s="267"/>
+      <c r="B208" s="267"/>
+      <c r="C208" s="268"/>
+      <c r="D208" s="314"/>
+      <c r="E208" s="315"/>
+      <c r="F208" s="315"/>
+      <c r="G208" s="316"/>
       <c r="H208" s="138" t="s">
         <v>411</v>
       </c>
@@ -17418,161 +18230,161 @@
       <c r="AA208" s="143"/>
     </row>
     <row r="209" spans="1:27" ht="18" customHeight="1">
-      <c r="A209" s="286"/>
-      <c r="B209" s="286"/>
-      <c r="C209" s="287"/>
-      <c r="D209" s="278"/>
-      <c r="E209" s="279"/>
-      <c r="F209" s="279"/>
-      <c r="G209" s="280"/>
+      <c r="A209" s="267"/>
+      <c r="B209" s="267"/>
+      <c r="C209" s="268"/>
+      <c r="D209" s="314"/>
+      <c r="E209" s="315"/>
+      <c r="F209" s="315"/>
+      <c r="G209" s="316"/>
       <c r="H209" s="209" t="s">
         <v>369</v>
       </c>
       <c r="I209" s="171"/>
       <c r="J209" s="171"/>
       <c r="K209" s="203"/>
-      <c r="L209" s="376" t="s">
+      <c r="L209" s="285" t="s">
         <v>396</v>
       </c>
-      <c r="M209" s="375"/>
-      <c r="N209" s="373" t="s">
+      <c r="M209" s="282"/>
+      <c r="N209" s="286" t="s">
         <v>398</v>
       </c>
-      <c r="O209" s="373"/>
-      <c r="P209" s="373" t="s">
+      <c r="O209" s="286"/>
+      <c r="P209" s="286" t="s">
         <v>399</v>
       </c>
-      <c r="Q209" s="377"/>
-      <c r="R209" s="376" t="s">
+      <c r="Q209" s="287"/>
+      <c r="R209" s="285" t="s">
         <v>400</v>
       </c>
-      <c r="S209" s="375"/>
-      <c r="T209" s="373" t="s">
+      <c r="S209" s="282"/>
+      <c r="T209" s="286" t="s">
         <v>401</v>
       </c>
-      <c r="U209" s="373"/>
-      <c r="V209" s="373"/>
-      <c r="W209" s="373"/>
+      <c r="U209" s="286"/>
+      <c r="V209" s="286"/>
+      <c r="W209" s="286"/>
       <c r="X209" s="143"/>
       <c r="Y209" s="171"/>
       <c r="Z209" s="171"/>
       <c r="AA209" s="143"/>
     </row>
     <row r="210" spans="1:27" ht="18" customHeight="1">
-      <c r="A210" s="286"/>
-      <c r="B210" s="286"/>
-      <c r="C210" s="287"/>
-      <c r="D210" s="278"/>
-      <c r="E210" s="279"/>
-      <c r="F210" s="279"/>
-      <c r="G210" s="280"/>
+      <c r="A210" s="267"/>
+      <c r="B210" s="267"/>
+      <c r="C210" s="268"/>
+      <c r="D210" s="314"/>
+      <c r="E210" s="315"/>
+      <c r="F210" s="315"/>
+      <c r="G210" s="316"/>
       <c r="H210" s="209" t="s">
         <v>370</v>
       </c>
       <c r="I210" s="171"/>
       <c r="J210" s="171"/>
       <c r="K210" s="203"/>
-      <c r="L210" s="376"/>
-      <c r="M210" s="375"/>
-      <c r="N210" s="373"/>
-      <c r="O210" s="373"/>
-      <c r="P210" s="373"/>
-      <c r="Q210" s="377"/>
-      <c r="R210" s="376"/>
-      <c r="S210" s="375"/>
-      <c r="T210" s="373"/>
-      <c r="U210" s="373"/>
-      <c r="V210" s="373"/>
-      <c r="W210" s="373"/>
+      <c r="L210" s="285"/>
+      <c r="M210" s="282"/>
+      <c r="N210" s="286"/>
+      <c r="O210" s="286"/>
+      <c r="P210" s="286"/>
+      <c r="Q210" s="287"/>
+      <c r="R210" s="285"/>
+      <c r="S210" s="282"/>
+      <c r="T210" s="286"/>
+      <c r="U210" s="286"/>
+      <c r="V210" s="286"/>
+      <c r="W210" s="286"/>
       <c r="X210" s="143"/>
       <c r="Y210" s="143"/>
       <c r="Z210" s="143"/>
       <c r="AA210" s="171"/>
     </row>
     <row r="211" spans="1:27" ht="18" customHeight="1">
-      <c r="A211" s="286"/>
-      <c r="B211" s="286"/>
-      <c r="C211" s="287"/>
-      <c r="D211" s="278"/>
-      <c r="E211" s="279"/>
-      <c r="F211" s="279"/>
-      <c r="G211" s="280"/>
+      <c r="A211" s="267"/>
+      <c r="B211" s="267"/>
+      <c r="C211" s="268"/>
+      <c r="D211" s="314"/>
+      <c r="E211" s="315"/>
+      <c r="F211" s="315"/>
+      <c r="G211" s="316"/>
       <c r="H211" s="200" t="s">
         <v>371</v>
       </c>
       <c r="I211" s="143"/>
       <c r="J211" s="143"/>
       <c r="K211" s="204"/>
-      <c r="L211" s="378" t="s">
+      <c r="L211" s="288" t="s">
         <v>397</v>
       </c>
-      <c r="M211" s="300"/>
-      <c r="N211" s="373" t="s">
+      <c r="M211" s="284"/>
+      <c r="N211" s="286" t="s">
         <v>398</v>
       </c>
-      <c r="O211" s="373"/>
-      <c r="P211" s="373" t="s">
+      <c r="O211" s="286"/>
+      <c r="P211" s="286" t="s">
         <v>399</v>
       </c>
-      <c r="Q211" s="377"/>
-      <c r="R211" s="376"/>
-      <c r="S211" s="375"/>
-      <c r="T211" s="373" t="s">
+      <c r="Q211" s="287"/>
+      <c r="R211" s="285"/>
+      <c r="S211" s="282"/>
+      <c r="T211" s="286" t="s">
         <v>402</v>
       </c>
-      <c r="U211" s="373"/>
-      <c r="V211" s="373"/>
-      <c r="W211" s="373"/>
+      <c r="U211" s="286"/>
+      <c r="V211" s="286"/>
+      <c r="W211" s="286"/>
       <c r="X211" s="143"/>
       <c r="Y211" s="143"/>
       <c r="Z211" s="143"/>
       <c r="AA211" s="143"/>
     </row>
     <row r="212" spans="1:27" ht="18" customHeight="1">
-      <c r="A212" s="286"/>
-      <c r="B212" s="286"/>
-      <c r="C212" s="287"/>
-      <c r="D212" s="278"/>
-      <c r="E212" s="279"/>
-      <c r="F212" s="279"/>
-      <c r="G212" s="280"/>
+      <c r="A212" s="267"/>
+      <c r="B212" s="267"/>
+      <c r="C212" s="268"/>
+      <c r="D212" s="314"/>
+      <c r="E212" s="315"/>
+      <c r="F212" s="315"/>
+      <c r="G212" s="316"/>
       <c r="H212" s="138" t="s">
         <v>372</v>
       </c>
       <c r="I212" s="143"/>
       <c r="J212" s="143"/>
       <c r="K212" s="204"/>
-      <c r="L212" s="378"/>
-      <c r="M212" s="300"/>
-      <c r="N212" s="373"/>
-      <c r="O212" s="373"/>
-      <c r="P212" s="373"/>
-      <c r="Q212" s="377"/>
-      <c r="R212" s="376"/>
-      <c r="S212" s="375"/>
-      <c r="T212" s="373"/>
-      <c r="U212" s="373"/>
-      <c r="V212" s="373"/>
-      <c r="W212" s="373"/>
+      <c r="L212" s="288"/>
+      <c r="M212" s="284"/>
+      <c r="N212" s="286"/>
+      <c r="O212" s="286"/>
+      <c r="P212" s="286"/>
+      <c r="Q212" s="287"/>
+      <c r="R212" s="285"/>
+      <c r="S212" s="282"/>
+      <c r="T212" s="286"/>
+      <c r="U212" s="286"/>
+      <c r="V212" s="286"/>
+      <c r="W212" s="286"/>
       <c r="X212" s="171"/>
       <c r="Y212" s="171"/>
       <c r="Z212" s="171"/>
       <c r="AA212" s="171"/>
     </row>
     <row r="213" spans="1:27" ht="18" customHeight="1">
-      <c r="A213" s="286"/>
-      <c r="B213" s="286"/>
-      <c r="C213" s="287"/>
-      <c r="D213" s="278"/>
-      <c r="E213" s="279"/>
-      <c r="F213" s="279"/>
-      <c r="G213" s="280"/>
-      <c r="H213" s="299" t="s">
+      <c r="A213" s="267"/>
+      <c r="B213" s="267"/>
+      <c r="C213" s="268"/>
+      <c r="D213" s="314"/>
+      <c r="E213" s="315"/>
+      <c r="F213" s="315"/>
+      <c r="G213" s="316"/>
+      <c r="H213" s="283" t="s">
         <v>406</v>
       </c>
-      <c r="I213" s="300"/>
-      <c r="J213" s="300"/>
-      <c r="K213" s="300"/>
+      <c r="I213" s="284"/>
+      <c r="J213" s="284"/>
+      <c r="K213" s="284"/>
       <c r="L213" s="146" t="s">
         <v>407</v>
       </c>
@@ -17583,31 +18395,31 @@
       <c r="Q213" s="143"/>
       <c r="R213" s="143"/>
       <c r="S213" s="143"/>
-      <c r="T213" s="374" t="s">
+      <c r="T213" s="281" t="s">
         <v>403</v>
       </c>
-      <c r="U213" s="375" t="s">
+      <c r="U213" s="282" t="s">
         <v>404</v>
       </c>
-      <c r="V213" s="375"/>
-      <c r="W213" s="375"/>
+      <c r="V213" s="282"/>
+      <c r="W213" s="282"/>
       <c r="X213" s="143"/>
       <c r="Y213" s="171"/>
       <c r="Z213" s="171"/>
       <c r="AA213" s="171"/>
     </row>
     <row r="214" spans="1:27" ht="18" customHeight="1">
-      <c r="A214" s="286"/>
-      <c r="B214" s="286"/>
-      <c r="C214" s="287"/>
-      <c r="D214" s="278"/>
-      <c r="E214" s="279"/>
-      <c r="F214" s="279"/>
-      <c r="G214" s="280"/>
-      <c r="H214" s="299"/>
-      <c r="I214" s="300"/>
-      <c r="J214" s="300"/>
-      <c r="K214" s="300"/>
+      <c r="A214" s="267"/>
+      <c r="B214" s="267"/>
+      <c r="C214" s="268"/>
+      <c r="D214" s="314"/>
+      <c r="E214" s="315"/>
+      <c r="F214" s="315"/>
+      <c r="G214" s="316"/>
+      <c r="H214" s="283"/>
+      <c r="I214" s="284"/>
+      <c r="J214" s="284"/>
+      <c r="K214" s="284"/>
       <c r="L214" s="146" t="s">
         <v>405</v>
       </c>
@@ -17618,27 +18430,27 @@
       <c r="Q214" s="143"/>
       <c r="R214" s="143"/>
       <c r="S214" s="143"/>
-      <c r="T214" s="374"/>
-      <c r="U214" s="375"/>
-      <c r="V214" s="375"/>
-      <c r="W214" s="375"/>
+      <c r="T214" s="281"/>
+      <c r="U214" s="282"/>
+      <c r="V214" s="282"/>
+      <c r="W214" s="282"/>
       <c r="X214" s="143"/>
       <c r="Y214" s="171"/>
       <c r="Z214" s="171"/>
       <c r="AA214" s="171"/>
     </row>
     <row r="215" spans="1:27" ht="18" customHeight="1">
-      <c r="A215" s="286"/>
-      <c r="B215" s="286"/>
-      <c r="C215" s="287"/>
-      <c r="D215" s="278"/>
-      <c r="E215" s="279"/>
-      <c r="F215" s="279"/>
-      <c r="G215" s="280"/>
-      <c r="H215" s="299"/>
-      <c r="I215" s="300"/>
-      <c r="J215" s="300"/>
-      <c r="K215" s="300"/>
+      <c r="A215" s="267"/>
+      <c r="B215" s="267"/>
+      <c r="C215" s="268"/>
+      <c r="D215" s="314"/>
+      <c r="E215" s="315"/>
+      <c r="F215" s="315"/>
+      <c r="G215" s="316"/>
+      <c r="H215" s="283"/>
+      <c r="I215" s="284"/>
+      <c r="J215" s="284"/>
+      <c r="K215" s="284"/>
       <c r="L215" s="146" t="s">
         <v>408</v>
       </c>
@@ -17649,29 +18461,29 @@
       <c r="Q215" s="143"/>
       <c r="R215" s="143"/>
       <c r="S215" s="143"/>
-      <c r="T215" s="374"/>
-      <c r="U215" s="375"/>
-      <c r="V215" s="375"/>
-      <c r="W215" s="375"/>
+      <c r="T215" s="281"/>
+      <c r="U215" s="282"/>
+      <c r="V215" s="282"/>
+      <c r="W215" s="282"/>
       <c r="X215" s="143"/>
       <c r="Y215" s="143"/>
       <c r="Z215" s="143"/>
       <c r="AA215" s="143"/>
     </row>
     <row r="216" spans="1:27" ht="18" customHeight="1">
-      <c r="A216" s="286"/>
-      <c r="B216" s="286"/>
-      <c r="C216" s="287"/>
-      <c r="D216" s="278"/>
-      <c r="E216" s="279"/>
-      <c r="F216" s="279"/>
-      <c r="G216" s="280"/>
-      <c r="H216" s="288" t="s">
+      <c r="A216" s="267"/>
+      <c r="B216" s="267"/>
+      <c r="C216" s="268"/>
+      <c r="D216" s="314"/>
+      <c r="E216" s="315"/>
+      <c r="F216" s="315"/>
+      <c r="G216" s="316"/>
+      <c r="H216" s="365" t="s">
         <v>427</v>
       </c>
-      <c r="I216" s="289"/>
-      <c r="J216" s="289"/>
-      <c r="K216" s="289"/>
+      <c r="I216" s="272"/>
+      <c r="J216" s="272"/>
+      <c r="K216" s="272"/>
       <c r="L216" s="146" t="s">
         <v>420</v>
       </c>
@@ -17694,17 +18506,17 @@
       <c r="AA216" s="143"/>
     </row>
     <row r="217" spans="1:27" ht="18" customHeight="1">
-      <c r="A217" s="286"/>
-      <c r="B217" s="286"/>
-      <c r="C217" s="287"/>
-      <c r="D217" s="278"/>
-      <c r="E217" s="279"/>
-      <c r="F217" s="279"/>
-      <c r="G217" s="280"/>
-      <c r="H217" s="290"/>
-      <c r="I217" s="291"/>
-      <c r="J217" s="291"/>
-      <c r="K217" s="291"/>
+      <c r="A217" s="267"/>
+      <c r="B217" s="267"/>
+      <c r="C217" s="268"/>
+      <c r="D217" s="314"/>
+      <c r="E217" s="315"/>
+      <c r="F217" s="315"/>
+      <c r="G217" s="316"/>
+      <c r="H217" s="366"/>
+      <c r="I217" s="273"/>
+      <c r="J217" s="273"/>
+      <c r="K217" s="273"/>
       <c r="L217" s="146" t="s">
         <v>423</v>
       </c>
@@ -17729,23 +18541,23 @@
       <c r="AA217" s="143"/>
     </row>
     <row r="218" spans="1:27" ht="18" customHeight="1">
-      <c r="A218" s="286"/>
-      <c r="B218" s="286"/>
-      <c r="C218" s="287"/>
-      <c r="D218" s="278"/>
-      <c r="E218" s="279"/>
-      <c r="F218" s="279"/>
-      <c r="G218" s="280"/>
-      <c r="H218" s="290"/>
-      <c r="I218" s="291"/>
-      <c r="J218" s="291"/>
-      <c r="K218" s="291"/>
-      <c r="L218" s="273" t="s">
+      <c r="A218" s="267"/>
+      <c r="B218" s="267"/>
+      <c r="C218" s="268"/>
+      <c r="D218" s="314"/>
+      <c r="E218" s="315"/>
+      <c r="F218" s="315"/>
+      <c r="G218" s="316"/>
+      <c r="H218" s="366"/>
+      <c r="I218" s="273"/>
+      <c r="J218" s="273"/>
+      <c r="K218" s="273"/>
+      <c r="L218" s="363" t="s">
         <v>425</v>
       </c>
-      <c r="M218" s="274"/>
-      <c r="N218" s="274"/>
-      <c r="O218" s="274"/>
+      <c r="M218" s="364"/>
+      <c r="N218" s="364"/>
+      <c r="O218" s="364"/>
       <c r="P218" s="143"/>
       <c r="Q218" s="143"/>
       <c r="R218" s="143"/>
@@ -17760,21 +18572,21 @@
       <c r="AA218" s="143"/>
     </row>
     <row r="219" spans="1:27" ht="18" customHeight="1">
-      <c r="A219" s="286"/>
-      <c r="B219" s="286"/>
-      <c r="C219" s="287"/>
-      <c r="D219" s="278"/>
-      <c r="E219" s="279"/>
-      <c r="F219" s="279"/>
-      <c r="G219" s="280"/>
-      <c r="H219" s="290"/>
-      <c r="I219" s="291"/>
-      <c r="J219" s="291"/>
-      <c r="K219" s="291"/>
-      <c r="L219" s="274"/>
-      <c r="M219" s="274"/>
-      <c r="N219" s="274"/>
-      <c r="O219" s="274"/>
+      <c r="A219" s="267"/>
+      <c r="B219" s="267"/>
+      <c r="C219" s="268"/>
+      <c r="D219" s="314"/>
+      <c r="E219" s="315"/>
+      <c r="F219" s="315"/>
+      <c r="G219" s="316"/>
+      <c r="H219" s="366"/>
+      <c r="I219" s="273"/>
+      <c r="J219" s="273"/>
+      <c r="K219" s="273"/>
+      <c r="L219" s="364"/>
+      <c r="M219" s="364"/>
+      <c r="N219" s="364"/>
+      <c r="O219" s="364"/>
       <c r="P219" s="143"/>
       <c r="Q219" s="143"/>
       <c r="R219" s="143"/>
@@ -17789,17 +18601,17 @@
       <c r="AA219" s="143"/>
     </row>
     <row r="220" spans="1:27">
-      <c r="A220" s="286"/>
-      <c r="B220" s="286"/>
-      <c r="C220" s="287"/>
-      <c r="D220" s="281"/>
-      <c r="E220" s="282"/>
-      <c r="F220" s="282"/>
-      <c r="G220" s="283"/>
-      <c r="H220" s="292"/>
-      <c r="I220" s="293"/>
-      <c r="J220" s="293"/>
-      <c r="K220" s="293"/>
+      <c r="A220" s="267"/>
+      <c r="B220" s="267"/>
+      <c r="C220" s="268"/>
+      <c r="D220" s="306"/>
+      <c r="E220" s="307"/>
+      <c r="F220" s="307"/>
+      <c r="G220" s="308"/>
+      <c r="H220" s="367"/>
+      <c r="I220" s="274"/>
+      <c r="J220" s="274"/>
+      <c r="K220" s="274"/>
       <c r="L220" s="146" t="s">
         <v>426</v>
       </c>
@@ -17820,93 +18632,93 @@
       <c r="AA220" s="143"/>
     </row>
     <row r="221" spans="1:27">
-      <c r="A221" s="286"/>
-      <c r="B221" s="286"/>
-      <c r="C221" s="287"/>
-      <c r="D221" s="296" t="s">
+      <c r="A221" s="267"/>
+      <c r="B221" s="267"/>
+      <c r="C221" s="268"/>
+      <c r="D221" s="289" t="s">
         <v>390</v>
       </c>
-      <c r="E221" s="297"/>
-      <c r="F221" s="297"/>
-      <c r="G221" s="298"/>
+      <c r="E221" s="290"/>
+      <c r="F221" s="290"/>
+      <c r="G221" s="291"/>
       <c r="H221" s="138" t="s">
         <v>338</v>
       </c>
       <c r="I221" s="171"/>
       <c r="J221" s="171"/>
       <c r="K221" s="146"/>
-      <c r="L221" s="373" t="s">
+      <c r="L221" s="286" t="s">
         <v>384</v>
       </c>
-      <c r="M221" s="373"/>
-      <c r="N221" s="373"/>
-      <c r="O221" s="373" t="s">
+      <c r="M221" s="286"/>
+      <c r="N221" s="286"/>
+      <c r="O221" s="286" t="s">
         <v>385</v>
       </c>
-      <c r="P221" s="373"/>
-      <c r="Q221" s="373"/>
-      <c r="R221" s="373" t="s">
+      <c r="P221" s="286"/>
+      <c r="Q221" s="286"/>
+      <c r="R221" s="286" t="s">
         <v>386</v>
       </c>
-      <c r="S221" s="373"/>
-      <c r="T221" s="373"/>
-      <c r="U221" s="373" t="s">
+      <c r="S221" s="286"/>
+      <c r="T221" s="286"/>
+      <c r="U221" s="286" t="s">
         <v>387</v>
       </c>
-      <c r="V221" s="373"/>
-      <c r="W221" s="373" t="s">
+      <c r="V221" s="286"/>
+      <c r="W221" s="286" t="s">
         <v>388</v>
       </c>
-      <c r="X221" s="373"/>
-      <c r="Y221" s="373" t="s">
+      <c r="X221" s="286"/>
+      <c r="Y221" s="286" t="s">
         <v>389</v>
       </c>
-      <c r="Z221" s="373"/>
+      <c r="Z221" s="286"/>
       <c r="AA221" s="143"/>
     </row>
     <row r="222" spans="1:27">
-      <c r="A222" s="286"/>
-      <c r="B222" s="286"/>
-      <c r="C222" s="287"/>
-      <c r="D222" s="296" t="s">
+      <c r="A222" s="267"/>
+      <c r="B222" s="267"/>
+      <c r="C222" s="268"/>
+      <c r="D222" s="289" t="s">
         <v>394</v>
       </c>
-      <c r="E222" s="297"/>
-      <c r="F222" s="297"/>
-      <c r="G222" s="298"/>
+      <c r="E222" s="290"/>
+      <c r="F222" s="290"/>
+      <c r="G222" s="291"/>
       <c r="H222" s="138" t="s">
         <v>343</v>
       </c>
       <c r="I222" s="143"/>
       <c r="J222" s="143"/>
       <c r="K222" s="178"/>
-      <c r="L222" s="373"/>
-      <c r="M222" s="373"/>
-      <c r="N222" s="373"/>
-      <c r="O222" s="373"/>
-      <c r="P222" s="373"/>
-      <c r="Q222" s="373"/>
-      <c r="R222" s="373"/>
-      <c r="S222" s="373"/>
-      <c r="T222" s="373"/>
-      <c r="U222" s="373"/>
-      <c r="V222" s="373"/>
-      <c r="W222" s="373"/>
-      <c r="X222" s="373"/>
-      <c r="Y222" s="373"/>
-      <c r="Z222" s="373"/>
+      <c r="L222" s="286"/>
+      <c r="M222" s="286"/>
+      <c r="N222" s="286"/>
+      <c r="O222" s="286"/>
+      <c r="P222" s="286"/>
+      <c r="Q222" s="286"/>
+      <c r="R222" s="286"/>
+      <c r="S222" s="286"/>
+      <c r="T222" s="286"/>
+      <c r="U222" s="286"/>
+      <c r="V222" s="286"/>
+      <c r="W222" s="286"/>
+      <c r="X222" s="286"/>
+      <c r="Y222" s="286"/>
+      <c r="Z222" s="286"/>
       <c r="AA222" s="143"/>
     </row>
     <row r="223" spans="1:27">
-      <c r="A223" s="286"/>
-      <c r="B223" s="286"/>
-      <c r="C223" s="287"/>
-      <c r="D223" s="275" t="s">
+      <c r="A223" s="267"/>
+      <c r="B223" s="267"/>
+      <c r="C223" s="268"/>
+      <c r="D223" s="297" t="s">
         <v>412</v>
       </c>
-      <c r="E223" s="276"/>
-      <c r="F223" s="276"/>
-      <c r="G223" s="277"/>
+      <c r="E223" s="298"/>
+      <c r="F223" s="298"/>
+      <c r="G223" s="299"/>
       <c r="H223" s="138" t="s">
         <v>413</v>
       </c>
@@ -17941,19 +18753,19 @@
       <c r="AA223" s="143"/>
     </row>
     <row r="224" spans="1:27">
-      <c r="A224" s="286"/>
-      <c r="B224" s="286"/>
-      <c r="C224" s="287"/>
-      <c r="D224" s="278"/>
-      <c r="E224" s="279"/>
-      <c r="F224" s="279"/>
-      <c r="G224" s="280"/>
-      <c r="H224" s="299" t="s">
+      <c r="A224" s="267"/>
+      <c r="B224" s="267"/>
+      <c r="C224" s="268"/>
+      <c r="D224" s="314"/>
+      <c r="E224" s="315"/>
+      <c r="F224" s="315"/>
+      <c r="G224" s="316"/>
+      <c r="H224" s="283" t="s">
         <v>380</v>
       </c>
-      <c r="I224" s="300"/>
-      <c r="J224" s="300"/>
-      <c r="K224" s="300"/>
+      <c r="I224" s="284"/>
+      <c r="J224" s="284"/>
+      <c r="K224" s="284"/>
       <c r="L224" s="146" t="s">
         <v>381</v>
       </c>
@@ -17976,17 +18788,17 @@
       <c r="AA224" s="143"/>
     </row>
     <row r="225" spans="1:27">
-      <c r="A225" s="286"/>
-      <c r="B225" s="286"/>
-      <c r="C225" s="287"/>
-      <c r="D225" s="278"/>
-      <c r="E225" s="279"/>
-      <c r="F225" s="279"/>
-      <c r="G225" s="280"/>
-      <c r="H225" s="299"/>
-      <c r="I225" s="300"/>
-      <c r="J225" s="300"/>
-      <c r="K225" s="300"/>
+      <c r="A225" s="267"/>
+      <c r="B225" s="267"/>
+      <c r="C225" s="268"/>
+      <c r="D225" s="314"/>
+      <c r="E225" s="315"/>
+      <c r="F225" s="315"/>
+      <c r="G225" s="316"/>
+      <c r="H225" s="283"/>
+      <c r="I225" s="284"/>
+      <c r="J225" s="284"/>
+      <c r="K225" s="284"/>
       <c r="L225" s="173" t="s">
         <v>379</v>
       </c>
@@ -18007,19 +18819,19 @@
       <c r="AA225" s="143"/>
     </row>
     <row r="226" spans="1:27">
-      <c r="A226" s="286"/>
-      <c r="B226" s="286"/>
-      <c r="C226" s="287"/>
-      <c r="D226" s="278"/>
-      <c r="E226" s="279"/>
-      <c r="F226" s="279"/>
-      <c r="G226" s="280"/>
-      <c r="H226" s="299" t="s">
+      <c r="A226" s="267"/>
+      <c r="B226" s="267"/>
+      <c r="C226" s="268"/>
+      <c r="D226" s="314"/>
+      <c r="E226" s="315"/>
+      <c r="F226" s="315"/>
+      <c r="G226" s="316"/>
+      <c r="H226" s="283" t="s">
         <v>382</v>
       </c>
-      <c r="I226" s="300"/>
-      <c r="J226" s="300"/>
-      <c r="K226" s="300"/>
+      <c r="I226" s="284"/>
+      <c r="J226" s="284"/>
+      <c r="K226" s="284"/>
       <c r="L226" s="146" t="s">
         <v>381</v>
       </c>
@@ -18042,17 +18854,17 @@
       <c r="AA226" s="143"/>
     </row>
     <row r="227" spans="1:27">
-      <c r="A227" s="286"/>
-      <c r="B227" s="286"/>
-      <c r="C227" s="287"/>
-      <c r="D227" s="281"/>
-      <c r="E227" s="282"/>
-      <c r="F227" s="282"/>
-      <c r="G227" s="283"/>
-      <c r="H227" s="299"/>
-      <c r="I227" s="300"/>
-      <c r="J227" s="300"/>
-      <c r="K227" s="300"/>
+      <c r="A227" s="267"/>
+      <c r="B227" s="267"/>
+      <c r="C227" s="268"/>
+      <c r="D227" s="306"/>
+      <c r="E227" s="307"/>
+      <c r="F227" s="307"/>
+      <c r="G227" s="308"/>
+      <c r="H227" s="283"/>
+      <c r="I227" s="284"/>
+      <c r="J227" s="284"/>
+      <c r="K227" s="284"/>
       <c r="L227" s="173" t="s">
         <v>379</v>
       </c>
@@ -18074,38 +18886,76 @@
     </row>
   </sheetData>
   <mergeCells count="126">
-    <mergeCell ref="M130:N131"/>
-    <mergeCell ref="S130:T131"/>
-    <mergeCell ref="O130:P131"/>
-    <mergeCell ref="Q130:R131"/>
-    <mergeCell ref="A132:C134"/>
-    <mergeCell ref="L175:Z177"/>
-    <mergeCell ref="A135:C140"/>
-    <mergeCell ref="A141:C142"/>
-    <mergeCell ref="A143:C144"/>
-    <mergeCell ref="D143:G144"/>
-    <mergeCell ref="A145:C146"/>
-    <mergeCell ref="T213:T215"/>
-    <mergeCell ref="U213:W215"/>
-    <mergeCell ref="H213:K215"/>
-    <mergeCell ref="R209:S212"/>
-    <mergeCell ref="T209:W210"/>
-    <mergeCell ref="T211:W212"/>
-    <mergeCell ref="P209:Q210"/>
-    <mergeCell ref="P211:Q212"/>
-    <mergeCell ref="L209:M210"/>
-    <mergeCell ref="L211:M212"/>
-    <mergeCell ref="N209:O210"/>
-    <mergeCell ref="N211:O212"/>
-    <mergeCell ref="Y221:Z222"/>
-    <mergeCell ref="H226:K227"/>
-    <mergeCell ref="D221:G221"/>
-    <mergeCell ref="D222:G222"/>
-    <mergeCell ref="L221:N222"/>
-    <mergeCell ref="O221:Q222"/>
-    <mergeCell ref="R221:T222"/>
-    <mergeCell ref="U221:V222"/>
-    <mergeCell ref="W221:X222"/>
+    <mergeCell ref="L218:O219"/>
+    <mergeCell ref="D207:G220"/>
+    <mergeCell ref="A203:C227"/>
+    <mergeCell ref="H216:K220"/>
+    <mergeCell ref="A81:C85"/>
+    <mergeCell ref="D102:G106"/>
+    <mergeCell ref="A94:C108"/>
+    <mergeCell ref="D114:G114"/>
+    <mergeCell ref="D204:G206"/>
+    <mergeCell ref="H224:K225"/>
+    <mergeCell ref="A117:C118"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A120:C123"/>
+    <mergeCell ref="A130:C131"/>
+    <mergeCell ref="D223:G227"/>
+    <mergeCell ref="D137:G137"/>
+    <mergeCell ref="D138:G138"/>
+    <mergeCell ref="D174:G177"/>
+    <mergeCell ref="D126:G127"/>
+    <mergeCell ref="A126:C129"/>
+    <mergeCell ref="D130:G131"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="A124:C125"/>
+    <mergeCell ref="K130:L131"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="A41:D48"/>
+    <mergeCell ref="A7:D14"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="A35:D40"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="A19:D34"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="A15:D18"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="E21:F24"/>
+    <mergeCell ref="E25:F33"/>
     <mergeCell ref="A50:C64"/>
     <mergeCell ref="A181:C202"/>
     <mergeCell ref="A174:C180"/>
@@ -18130,76 +18980,38 @@
     <mergeCell ref="D122:G122"/>
     <mergeCell ref="D132:G132"/>
     <mergeCell ref="D124:G125"/>
-    <mergeCell ref="A19:D34"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="A15:D18"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="E21:F24"/>
-    <mergeCell ref="E25:F33"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="A41:D48"/>
-    <mergeCell ref="A7:D14"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="A35:D40"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="L218:O219"/>
-    <mergeCell ref="D207:G220"/>
-    <mergeCell ref="A203:C227"/>
-    <mergeCell ref="H216:K220"/>
-    <mergeCell ref="A81:C85"/>
-    <mergeCell ref="D102:G106"/>
-    <mergeCell ref="A94:C108"/>
-    <mergeCell ref="D114:G114"/>
-    <mergeCell ref="D204:G206"/>
-    <mergeCell ref="H224:K225"/>
-    <mergeCell ref="A117:C118"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A120:C123"/>
-    <mergeCell ref="A130:C131"/>
-    <mergeCell ref="D223:G227"/>
-    <mergeCell ref="D137:G137"/>
-    <mergeCell ref="D138:G138"/>
-    <mergeCell ref="D174:G177"/>
-    <mergeCell ref="D126:G127"/>
-    <mergeCell ref="A126:C129"/>
-    <mergeCell ref="D130:G131"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="A124:C125"/>
-    <mergeCell ref="K130:L131"/>
+    <mergeCell ref="Y221:Z222"/>
+    <mergeCell ref="H226:K227"/>
+    <mergeCell ref="D221:G221"/>
+    <mergeCell ref="D222:G222"/>
+    <mergeCell ref="L221:N222"/>
+    <mergeCell ref="O221:Q222"/>
+    <mergeCell ref="R221:T222"/>
+    <mergeCell ref="U221:V222"/>
+    <mergeCell ref="W221:X222"/>
+    <mergeCell ref="T213:T215"/>
+    <mergeCell ref="U213:W215"/>
+    <mergeCell ref="H213:K215"/>
+    <mergeCell ref="R209:S212"/>
+    <mergeCell ref="T209:W210"/>
+    <mergeCell ref="T211:W212"/>
+    <mergeCell ref="P209:Q210"/>
+    <mergeCell ref="P211:Q212"/>
+    <mergeCell ref="L209:M210"/>
+    <mergeCell ref="L211:M212"/>
+    <mergeCell ref="N209:O210"/>
+    <mergeCell ref="N211:O212"/>
+    <mergeCell ref="M130:N131"/>
+    <mergeCell ref="S130:T131"/>
+    <mergeCell ref="O130:P131"/>
+    <mergeCell ref="Q130:R131"/>
+    <mergeCell ref="A132:C134"/>
+    <mergeCell ref="L175:Z177"/>
+    <mergeCell ref="A135:C140"/>
+    <mergeCell ref="A141:C142"/>
+    <mergeCell ref="A143:C144"/>
+    <mergeCell ref="D143:G144"/>
+    <mergeCell ref="A145:C146"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D117" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -18218,126 +19030,915 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1:N13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.44140625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="14.77734375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="19.44140625" style="5"/>
-    <col min="3" max="4" width="19.44140625" style="267"/>
-    <col min="5" max="5" width="19.44140625" style="5"/>
-    <col min="6" max="16384" width="19.44140625" style="267"/>
+    <col min="1" max="1" width="36.88671875" style="382" customWidth="1"/>
+    <col min="2" max="15" width="14.77734375" style="377"/>
+    <col min="16" max="16384" width="14.77734375" style="378"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="266" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A1" s="265" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="268"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="268"/>
-      <c r="B3" s="270"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="268"/>
-      <c r="B4" s="270"/>
-      <c r="C4" s="258"/>
-      <c r="E4" s="271"/>
-      <c r="F4" s="268"/>
-      <c r="G4" s="268"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="268"/>
-      <c r="B5" s="269"/>
-      <c r="C5" s="258"/>
-      <c r="E5" s="271"/>
-      <c r="F5" s="268"/>
-      <c r="G5" s="268"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="268"/>
-      <c r="B6" s="269"/>
-      <c r="C6" s="258"/>
-      <c r="E6" s="271"/>
-      <c r="F6" s="268"/>
-      <c r="G6" s="268"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="268"/>
-      <c r="B7" s="269"/>
-      <c r="C7" s="258"/>
-      <c r="E7" s="271"/>
-      <c r="F7" s="268"/>
-      <c r="G7" s="268"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="268"/>
-      <c r="B8" s="269"/>
-      <c r="C8" s="258"/>
-      <c r="E8" s="271"/>
-      <c r="F8" s="268"/>
-      <c r="G8" s="268"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="268"/>
-      <c r="B9" s="269"/>
-      <c r="C9" s="258"/>
-      <c r="D9" s="268"/>
-      <c r="E9" s="271"/>
-      <c r="F9" s="268"/>
-      <c r="G9" s="268"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="268"/>
-      <c r="B10" s="269"/>
-      <c r="C10" s="258"/>
-      <c r="D10" s="272"/>
-      <c r="E10" s="271"/>
-      <c r="F10" s="268"/>
-      <c r="G10" s="268"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="268"/>
-      <c r="B11" s="269"/>
-      <c r="C11" s="258"/>
-      <c r="D11" s="272"/>
-      <c r="E11" s="271"/>
-      <c r="F11" s="268"/>
-      <c r="G11" s="268"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="268"/>
-      <c r="B12" s="269"/>
-      <c r="C12" s="258"/>
-      <c r="D12" s="268"/>
-      <c r="E12" s="271"/>
-      <c r="F12" s="268"/>
-      <c r="G12" s="268"/>
-    </row>
-    <row r="13" spans="1:14" s="264" customFormat="1" ht="20.399999999999999" customHeight="1">
-      <c r="A13" s="259" t="s">
+    <row r="1" spans="1:15" s="370" customFormat="1" ht="18.600000000000001" thickBot="1">
+      <c r="A1" s="371"/>
+      <c r="B1" s="374"/>
+      <c r="C1" s="374"/>
+      <c r="D1" s="374"/>
+      <c r="E1" s="374"/>
+      <c r="F1" s="374"/>
+      <c r="G1" s="374"/>
+      <c r="H1" s="374"/>
+      <c r="I1" s="374"/>
+      <c r="J1" s="374"/>
+      <c r="K1" s="374"/>
+      <c r="L1" s="374"/>
+      <c r="M1" s="374"/>
+      <c r="N1" s="374"/>
+      <c r="O1" s="374"/>
+    </row>
+    <row r="2" spans="1:15" s="373" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A2" s="372" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="372" t="s">
+        <v>540</v>
+      </c>
+      <c r="N2" s="372"/>
+    </row>
+    <row r="3" spans="1:15" s="385" customFormat="1">
+      <c r="A3" s="383" t="s">
         <v>539</v>
       </c>
-      <c r="B13" s="260"/>
-      <c r="C13" s="261"/>
-      <c r="D13" s="262"/>
-      <c r="E13" s="263"/>
-      <c r="F13" s="263"/>
-      <c r="G13" s="263"/>
-      <c r="H13" s="263"/>
-      <c r="I13" s="263"/>
-      <c r="J13" s="263"/>
-      <c r="K13" s="263"/>
-      <c r="L13" s="263"/>
-      <c r="M13" s="263"/>
-      <c r="N13" s="263"/>
+      <c r="B3" s="384" t="s">
+        <v>541</v>
+      </c>
+      <c r="C3" s="384" t="s">
+        <v>542</v>
+      </c>
+      <c r="D3" s="384" t="s">
+        <v>543</v>
+      </c>
+      <c r="E3" s="384"/>
+      <c r="F3" s="384"/>
+      <c r="G3" s="384"/>
+      <c r="H3" s="384"/>
+      <c r="I3" s="384"/>
+      <c r="J3" s="384"/>
+      <c r="K3" s="384"/>
+      <c r="L3" s="384"/>
+      <c r="M3" s="384"/>
+      <c r="N3" s="384"/>
+      <c r="O3" s="384"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="376" t="s">
+        <v>623</v>
+      </c>
+      <c r="B4" s="379" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="378"/>
+      <c r="D4" s="378"/>
+      <c r="E4" s="378"/>
+      <c r="F4" s="378"/>
+      <c r="G4" s="378"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="376" t="s">
+        <v>597</v>
+      </c>
+      <c r="B5" s="379" t="s">
+        <v>599</v>
+      </c>
+      <c r="C5" s="378" t="s">
+        <v>340</v>
+      </c>
+      <c r="D5" s="378" t="s">
+        <v>600</v>
+      </c>
+      <c r="E5" s="378"/>
+      <c r="F5" s="378"/>
+      <c r="G5" s="378"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="376" t="s">
+        <v>598</v>
+      </c>
+      <c r="B6" s="379" t="s">
+        <v>599</v>
+      </c>
+      <c r="C6" s="378" t="s">
+        <v>340</v>
+      </c>
+      <c r="D6" s="378" t="s">
+        <v>600</v>
+      </c>
+      <c r="E6" s="378"/>
+      <c r="F6" s="378"/>
+      <c r="G6" s="378"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="376" t="s">
+        <v>624</v>
+      </c>
+      <c r="B7" s="378" t="s">
+        <v>601</v>
+      </c>
+      <c r="C7" s="378" t="s">
+        <v>602</v>
+      </c>
+      <c r="D7" s="378"/>
+      <c r="E7" s="378"/>
+      <c r="F7" s="378"/>
+      <c r="G7" s="378"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="376" t="s">
+        <v>625</v>
+      </c>
+      <c r="B8" s="378" t="s">
+        <v>603</v>
+      </c>
+      <c r="C8" s="378"/>
+      <c r="D8" s="378"/>
+      <c r="E8" s="378"/>
+      <c r="F8" s="378"/>
+      <c r="G8" s="378"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="376" t="s">
+        <v>626</v>
+      </c>
+      <c r="B9" s="378" t="s">
+        <v>341</v>
+      </c>
+      <c r="C9" s="379" t="s">
+        <v>573</v>
+      </c>
+      <c r="D9" s="378" t="s">
+        <v>604</v>
+      </c>
+      <c r="E9" s="378" t="s">
+        <v>605</v>
+      </c>
+      <c r="F9" s="378" t="s">
+        <v>555</v>
+      </c>
+      <c r="G9" s="378" t="s">
+        <v>606</v>
+      </c>
+      <c r="H9" s="377" t="s">
+        <v>607</v>
+      </c>
+      <c r="I9" s="377" t="s">
+        <v>608</v>
+      </c>
+      <c r="J9" s="377" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="376" t="s">
+        <v>609</v>
+      </c>
+      <c r="B10" s="392" t="s">
+        <v>622</v>
+      </c>
+      <c r="C10" s="379"/>
+      <c r="D10" s="378"/>
+      <c r="E10" s="378"/>
+      <c r="F10" s="378" t="s">
+        <v>541</v>
+      </c>
+      <c r="G10" s="378"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="376" t="s">
+        <v>610</v>
+      </c>
+      <c r="B11" s="388" t="s">
+        <v>618</v>
+      </c>
+      <c r="C11" s="378" t="s">
+        <v>541</v>
+      </c>
+      <c r="D11" s="378" t="s">
+        <v>614</v>
+      </c>
+      <c r="E11" s="378" t="s">
+        <v>615</v>
+      </c>
+      <c r="F11" s="378" t="s">
+        <v>616</v>
+      </c>
+      <c r="G11" s="378"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="376" t="s">
+        <v>611</v>
+      </c>
+      <c r="B12" s="379" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="379"/>
+      <c r="D12" s="378"/>
+      <c r="E12" s="378"/>
+      <c r="F12" s="378"/>
+      <c r="G12" s="378"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="376" t="s">
+        <v>612</v>
+      </c>
+      <c r="B13" s="379" t="s">
+        <v>619</v>
+      </c>
+      <c r="C13" s="379"/>
+      <c r="D13" s="378"/>
+      <c r="E13" s="378"/>
+      <c r="F13" s="378"/>
+      <c r="G13" s="378"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="376" t="s">
+        <v>613</v>
+      </c>
+      <c r="B14" s="379" t="s">
+        <v>573</v>
+      </c>
+      <c r="C14" s="379"/>
+      <c r="D14" s="378"/>
+      <c r="E14" s="378"/>
+      <c r="F14" s="378"/>
+      <c r="G14" s="378"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="376" t="s">
+        <v>628</v>
+      </c>
+      <c r="B15" s="378" t="s">
+        <v>629</v>
+      </c>
+      <c r="C15" s="378" t="s">
+        <v>630</v>
+      </c>
+      <c r="D15" s="378" t="s">
+        <v>631</v>
+      </c>
+      <c r="E15" s="378"/>
+      <c r="F15" s="378"/>
+      <c r="G15" s="378"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="376" t="s">
+        <v>632</v>
+      </c>
+      <c r="B16" s="379" t="s">
+        <v>573</v>
+      </c>
+      <c r="C16" s="378"/>
+      <c r="D16" s="378"/>
+      <c r="E16" s="378"/>
+      <c r="F16" s="378"/>
+      <c r="G16" s="378"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="376" t="s">
+        <v>633</v>
+      </c>
+      <c r="B17" s="379" t="s">
+        <v>573</v>
+      </c>
+      <c r="C17" s="378"/>
+      <c r="D17" s="378"/>
+      <c r="E17" s="378"/>
+      <c r="F17" s="378"/>
+      <c r="G17" s="378"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="376" t="s">
+        <v>634</v>
+      </c>
+      <c r="B18" s="378" t="s">
+        <v>637</v>
+      </c>
+      <c r="C18" s="378"/>
+      <c r="D18" s="378"/>
+      <c r="E18" s="378"/>
+      <c r="F18" s="378"/>
+      <c r="G18" s="378"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="376" t="s">
+        <v>635</v>
+      </c>
+      <c r="B19" s="379" t="s">
+        <v>573</v>
+      </c>
+      <c r="C19" s="378"/>
+      <c r="D19" s="378"/>
+      <c r="E19" s="378"/>
+      <c r="F19" s="378"/>
+      <c r="G19" s="378"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="376" t="s">
+        <v>636</v>
+      </c>
+      <c r="B20" s="378" t="s">
+        <v>638</v>
+      </c>
+      <c r="C20" s="378" t="s">
+        <v>639</v>
+      </c>
+      <c r="D20" s="378" t="s">
+        <v>640</v>
+      </c>
+      <c r="E20" s="378" t="s">
+        <v>641</v>
+      </c>
+      <c r="F20" s="378" t="s">
+        <v>642</v>
+      </c>
+      <c r="G20" s="378"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="376" t="s">
+        <v>643</v>
+      </c>
+      <c r="B21" s="378" t="s">
+        <v>644</v>
+      </c>
+      <c r="C21" s="378"/>
+      <c r="D21" s="378"/>
+      <c r="E21" s="378"/>
+      <c r="F21" s="378"/>
+      <c r="G21" s="378"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="376" t="s">
+        <v>653</v>
+      </c>
+      <c r="B22" s="378" t="s">
+        <v>654</v>
+      </c>
+      <c r="C22" s="378"/>
+      <c r="D22" s="378"/>
+      <c r="E22" s="378"/>
+      <c r="F22" s="378"/>
+      <c r="G22" s="378"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="376" t="s">
+        <v>652</v>
+      </c>
+      <c r="B23" s="379" t="s">
+        <v>573</v>
+      </c>
+      <c r="C23" s="378"/>
+      <c r="D23" s="378"/>
+      <c r="E23" s="378"/>
+      <c r="F23" s="378"/>
+      <c r="G23" s="378"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="376" t="s">
+        <v>645</v>
+      </c>
+      <c r="B24" s="378" t="s">
+        <v>646</v>
+      </c>
+      <c r="C24" s="378"/>
+      <c r="D24" s="378"/>
+      <c r="E24" s="378"/>
+      <c r="F24" s="378"/>
+      <c r="G24" s="378"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="376" t="s">
+        <v>650</v>
+      </c>
+      <c r="B25" s="378" t="s">
+        <v>638</v>
+      </c>
+      <c r="C25" s="378" t="s">
+        <v>647</v>
+      </c>
+      <c r="D25" s="378" t="s">
+        <v>649</v>
+      </c>
+      <c r="E25" s="378"/>
+      <c r="F25" s="378"/>
+      <c r="G25" s="378"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="376" t="s">
+        <v>312</v>
+      </c>
+      <c r="B26" s="378" t="s">
+        <v>638</v>
+      </c>
+      <c r="C26" s="378" t="s">
+        <v>648</v>
+      </c>
+      <c r="D26" s="378"/>
+      <c r="E26" s="378"/>
+      <c r="F26" s="378"/>
+      <c r="G26" s="378"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="376" t="s">
+        <v>311</v>
+      </c>
+      <c r="B27" s="378" t="s">
+        <v>638</v>
+      </c>
+      <c r="C27" s="378" t="s">
+        <v>651</v>
+      </c>
+      <c r="D27" s="378"/>
+      <c r="E27" s="378"/>
+      <c r="F27" s="378"/>
+      <c r="G27" s="378"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="376" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" s="377" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="376" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="379" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="376" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="377" t="s">
+        <v>549</v>
+      </c>
+      <c r="C30" s="378"/>
+      <c r="D30" s="377" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="376" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="377" t="s">
+        <v>551</v>
+      </c>
+      <c r="C31" s="377" t="s">
+        <v>552</v>
+      </c>
+      <c r="D31" s="377" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="376" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="377" t="s">
+        <v>558</v>
+      </c>
+      <c r="C32" s="377" t="s">
+        <v>559</v>
+      </c>
+      <c r="D32" s="377" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="376" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" s="388" t="s">
+        <v>617</v>
+      </c>
+      <c r="C33" s="377" t="s">
+        <v>554</v>
+      </c>
+      <c r="D33" s="377" t="s">
+        <v>556</v>
+      </c>
+      <c r="E33" s="377" t="s">
+        <v>555</v>
+      </c>
+      <c r="F33" s="377" t="s">
+        <v>557</v>
+      </c>
+      <c r="G33" s="378"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="376" t="s">
+        <v>627</v>
+      </c>
+      <c r="B34" s="380" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="376" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="379" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="376" t="s">
+        <v>561</v>
+      </c>
+      <c r="B36" s="379" t="s">
+        <v>619</v>
+      </c>
+      <c r="L36" s="381"/>
+      <c r="M36" s="381"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="376" t="s">
+        <v>561</v>
+      </c>
+      <c r="B37" s="393" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="376" t="s">
+        <v>586</v>
+      </c>
+      <c r="B38" s="379" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="376" t="s">
+        <v>194</v>
+      </c>
+      <c r="B39" s="379" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="376" t="s">
+        <v>194</v>
+      </c>
+      <c r="B40" s="393" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="376" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41" s="379" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="376" t="s">
+        <v>198</v>
+      </c>
+      <c r="B42" s="393" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="376" t="s">
+        <v>210</v>
+      </c>
+      <c r="B43" s="379" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="382" t="s">
+        <v>584</v>
+      </c>
+      <c r="B44" s="393" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="382" t="s">
+        <v>585</v>
+      </c>
+      <c r="B45" s="379" t="s">
+        <v>573</v>
+      </c>
+      <c r="C45" s="377" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="382" t="s">
+        <v>587</v>
+      </c>
+      <c r="B46" s="379" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="382" t="s">
+        <v>588</v>
+      </c>
+      <c r="B47" s="393" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="382" t="s">
+        <v>589</v>
+      </c>
+      <c r="B48" s="379" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="382" t="s">
+        <v>592</v>
+      </c>
+      <c r="B49" s="379" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="382" t="s">
+        <v>590</v>
+      </c>
+      <c r="B50" s="379" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="382" t="s">
+        <v>591</v>
+      </c>
+      <c r="B51" s="379" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="382" t="s">
+        <v>593</v>
+      </c>
+      <c r="B52" s="379" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="382" t="s">
+        <v>594</v>
+      </c>
+      <c r="B53" s="379" t="s">
+        <v>619</v>
+      </c>
+      <c r="J53" s="378"/>
+      <c r="L53" s="381"/>
+      <c r="M53" s="381"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="382" t="s">
+        <v>237</v>
+      </c>
+      <c r="B54" s="379" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="382" t="s">
+        <v>238</v>
+      </c>
+      <c r="B55" s="379" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="382" t="s">
+        <v>595</v>
+      </c>
+      <c r="B56" s="379" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="382" t="s">
+        <v>655</v>
+      </c>
+      <c r="B57" s="394" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="382" t="s">
+        <v>656</v>
+      </c>
+      <c r="B58" s="377" t="s">
+        <v>657</v>
+      </c>
+      <c r="C58" s="377" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="382" t="s">
+        <v>659</v>
+      </c>
+      <c r="B59" s="377" t="s">
+        <v>660</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B57" r:id="rId1" xr:uid="{023B2815-8188-444D-945D-B6801FF7D2C3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9D18DA-C530-413B-84AD-F90AB25139B0}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E15:E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" style="382" customWidth="1"/>
+    <col min="2" max="15" width="10.6640625" style="377"/>
+    <col min="16" max="16384" width="10.6640625" style="378"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="370" customFormat="1" ht="18.600000000000001" thickBot="1">
+      <c r="A1" s="371"/>
+      <c r="B1" s="374"/>
+      <c r="C1" s="374"/>
+      <c r="D1" s="374"/>
+      <c r="E1" s="374"/>
+      <c r="F1" s="374"/>
+      <c r="G1" s="374"/>
+      <c r="H1" s="374"/>
+      <c r="I1" s="374"/>
+      <c r="J1" s="374"/>
+      <c r="K1" s="374"/>
+      <c r="L1" s="374"/>
+      <c r="M1" s="374"/>
+      <c r="N1" s="374"/>
+      <c r="O1" s="374"/>
+    </row>
+    <row r="2" spans="1:15" s="373" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A2" s="372" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="372" t="s">
+        <v>540</v>
+      </c>
+      <c r="N2" s="372"/>
+    </row>
+    <row r="3" spans="1:15" s="389" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A3" s="386"/>
+      <c r="B3" s="377" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" s="377" t="s">
+        <v>336</v>
+      </c>
+      <c r="D3" s="374"/>
+      <c r="E3" s="375"/>
+      <c r="F3" s="374"/>
+      <c r="G3" s="375"/>
+      <c r="H3" s="374"/>
+      <c r="I3" s="375"/>
+      <c r="J3" s="375"/>
+      <c r="K3" s="375"/>
+      <c r="L3" s="375"/>
+      <c r="M3" s="375"/>
+      <c r="N3" s="375"/>
+      <c r="O3" s="375"/>
+    </row>
+    <row r="4" spans="1:15" s="389" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="387" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="374" t="s">
+        <v>547</v>
+      </c>
+      <c r="C4" s="374" t="s">
+        <v>548</v>
+      </c>
+      <c r="D4" s="374" t="s">
+        <v>544</v>
+      </c>
+      <c r="E4" s="375"/>
+      <c r="F4" s="374" t="s">
+        <v>545</v>
+      </c>
+      <c r="G4" s="375"/>
+      <c r="H4" s="374" t="s">
+        <v>546</v>
+      </c>
+      <c r="I4" s="375"/>
+      <c r="J4" s="375"/>
+      <c r="K4" s="375"/>
+      <c r="L4" s="375"/>
+      <c r="M4" s="375"/>
+      <c r="N4" s="375"/>
+      <c r="O4" s="375"/>
+    </row>
+    <row r="5" spans="1:15" s="391" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="390" t="s">
+        <v>573</v>
+      </c>
+      <c r="B5" s="391" t="s">
+        <v>577</v>
+      </c>
+      <c r="C5" s="391" t="s">
+        <v>578</v>
+      </c>
+      <c r="D5" s="391" t="s">
+        <v>579</v>
+      </c>
+      <c r="E5" s="391" t="s">
+        <v>580</v>
+      </c>
+      <c r="F5" s="391" t="s">
+        <v>581</v>
+      </c>
+      <c r="G5" s="391" t="s">
+        <v>582</v>
+      </c>
+      <c r="H5" s="391" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="391" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="390" t="s">
+        <v>573</v>
+      </c>
+      <c r="B6" s="391" t="s">
+        <v>574</v>
+      </c>
+      <c r="C6" s="391" t="s">
+        <v>575</v>
+      </c>
+      <c r="D6" s="391" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18" customHeight="1">
+      <c r="A7" s="390" t="s">
+        <v>619</v>
+      </c>
+      <c r="B7" s="377" t="s">
+        <v>541</v>
+      </c>
+      <c r="C7" s="377" t="s">
+        <v>564</v>
+      </c>
+      <c r="D7" s="377" t="s">
+        <v>562</v>
+      </c>
+      <c r="E7" s="377" t="s">
+        <v>563</v>
+      </c>
+      <c r="F7" s="377" t="s">
+        <v>565</v>
+      </c>
+      <c r="G7" s="377" t="s">
+        <v>566</v>
+      </c>
+      <c r="H7" s="377" t="s">
+        <v>567</v>
+      </c>
+      <c r="I7" s="377" t="s">
+        <v>568</v>
+      </c>
+      <c r="J7" s="377" t="s">
+        <v>569</v>
+      </c>
+      <c r="K7" s="377" t="s">
+        <v>570</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CSS.xlsx
+++ b/CSS.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alice\Document\MyDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A139037C-3916-47B4-AA4F-C064230FA4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3AC466-6870-42C5-A3AC-ACE86E1BAAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13956" yWindow="2088" windowWidth="19224" windowHeight="12216" tabRatio="750" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10668" yWindow="3936" windowWidth="19224" windowHeight="12216" tabRatio="750" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CSS" sheetId="4" r:id="rId1"/>
     <sheet name="Property" sheetId="50" r:id="rId2"/>
     <sheet name="Value" sheetId="52" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Property!$A$1:$A$62</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1181,7 +1194,7 @@
     <author>Dell</author>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{987684DA-CF4A-4090-AF4B-114107CB1E36}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{987684DA-CF4A-4090-AF4B-114107CB1E36}">
       <text>
         <r>
           <rPr>
@@ -1194,7 +1207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{8D779AE0-A315-412E-B8F5-9528436BE911}">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{8D779AE0-A315-412E-B8F5-9528436BE911}">
       <text>
         <r>
           <rPr>
@@ -1207,7 +1220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{903EA186-82D5-4918-B52E-567E7B9B9F8A}">
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{903EA186-82D5-4918-B52E-567E7B9B9F8A}">
       <text>
         <r>
           <rPr>
@@ -1252,7 +1265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C45" authorId="0" shapeId="0" xr:uid="{D42E27AC-B867-4204-817F-04960552095D}">
+    <comment ref="C44" authorId="0" shapeId="0" xr:uid="{D42E27AC-B867-4204-817F-04960552095D}">
       <text>
         <r>
           <rPr>
@@ -1265,12 +1278,155 @@
         </r>
       </text>
     </comment>
+    <comment ref="B59" authorId="1" shapeId="0" xr:uid="{FB359A1D-ADE6-4A76-8496-2301A62CC548}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not affected by the top, bottom, left, and right properties</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C59" authorId="1" shapeId="0" xr:uid="{C3015DAA-FE84-43F9-BB5A-409C5C8721F0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>is positioned relative to its normal position</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D59" authorId="1" shapeId="0" xr:uid="{29A9728C-F765-4B13-9343-0F779A6387E0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>is positioned relative to the viewport</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E59" authorId="1" shapeId="0" xr:uid="{BBFB89B4-ADD9-45B0-83BE-3DCA56F6BD7E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>is positioned relative to the nearest positioned ancestor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F59" authorId="1" shapeId="0" xr:uid="{F603DC59-4EA6-409E-8880-D8D9CE050171}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>is positioned based on the user's scroll position</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C65" authorId="1" shapeId="0" xr:uid="{952FF635-63A6-4BCC-B774-2A3AB0EBD019}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The overflow is clipped, and the rest of the content will be invisible</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D65" authorId="1" shapeId="0" xr:uid="{01057DB2-43EA-4ECF-B00C-641B4744982F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The overflow is clipped, and a scrollbar is added to see the rest of the content</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E65" authorId="1" shapeId="0" xr:uid="{B832E165-BF22-4584-AFA8-6A1D15DF5EA4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Similar to scroll, but it adds scrollbars only when necessary</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B67" authorId="1" shapeId="0" xr:uid="{0966C6B6-B563-4036-A26F-2318522A4256}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The element is pushed below left floated elements</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C67" authorId="1" shapeId="0" xr:uid="{3272B442-A297-47C9-B580-65074AF0B8C5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The element is pushed below right floated elements</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D67" authorId="1" shapeId="0" xr:uid="{7A9050B4-2EE2-4E89-AC38-D78DA966D370}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The element is pushed below both left and right floated elements</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="685">
   <si>
     <t>CSS</t>
   </si>
@@ -7424,9 +7580,6 @@
     <t>local</t>
   </si>
   <si>
-    <t>border-style</t>
-  </si>
-  <si>
     <t>dotted</t>
   </si>
   <si>
@@ -7510,21 +7663,12 @@
     <t>margin-[dir]</t>
   </si>
   <si>
-    <t>border-[dir]-style</t>
-  </si>
-  <si>
     <t>padding</t>
   </si>
   <si>
     <t>padding-[dir]</t>
   </si>
   <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>width</t>
-  </si>
-  <si>
     <t>[max/min]-width</t>
   </si>
   <si>
@@ -7559,9 +7703,6 @@
     </r>
   </si>
   <si>
-    <t>text-align</t>
-  </si>
-  <si>
     <t>text-align-last</t>
   </si>
   <si>
@@ -7699,6 +7840,350 @@
   </si>
   <si>
     <r>
+      <t>opacity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (background)</t>
+    </r>
+  </si>
+  <si>
+    <t>text-transform</t>
+  </si>
+  <si>
+    <t>uppercase</t>
+  </si>
+  <si>
+    <t>lowercase</t>
+  </si>
+  <si>
+    <t>capitalize</t>
+  </si>
+  <si>
+    <t>text-indent</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">letter-spacing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(text)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">line-height </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(text)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">word-spacing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(text)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">white-space </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(text)</t>
+    </r>
+  </si>
+  <si>
+    <t>0.0 ~ ↑</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>nowrap</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>pre-line</t>
+  </si>
+  <si>
+    <t>pre-wrap</t>
+  </si>
+  <si>
+    <t>text-shadow</t>
+  </si>
+  <si>
+    <r>
+      <t>horizontal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> vertical-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> blur-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>color</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">font-family </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(text)</t>
+    </r>
+  </si>
+  <si>
+    <t>"Times New Roman", Times, serif;</t>
+  </si>
+  <si>
+    <t>italic</t>
+  </si>
+  <si>
+    <t>bold</t>
+  </si>
+  <si>
+    <t>oblique</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">font-style </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(text)</t>
+    </r>
+  </si>
+  <si>
+    <t>small-caps</t>
+  </si>
+  <si>
+    <r>
+      <t>font-size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (text)</t>
+    </r>
+  </si>
+  <si>
+    <t>size/line-height family style variant weight</t>
+  </si>
+  <si>
+    <t>list-style-type</t>
+  </si>
+  <si>
+    <t>list-style-position</t>
+  </si>
+  <si>
+    <t>outside</t>
+  </si>
+  <si>
+    <t>inside</t>
+  </si>
+  <si>
+    <t>list-style-image</t>
+  </si>
+  <si>
+    <t>url('')</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">font </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(text)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">font-weight </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(text)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">font-variant </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(text)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">width </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(table)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">height </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(table)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>text-align</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (table)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>vertical-align</t>
     </r>
     <r>
@@ -7708,12 +8193,12 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> (text)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>opacity</t>
+      <t xml:space="preserve"> (text) (table)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>border</t>
     </r>
     <r>
       <rPr>
@@ -7722,27 +8207,12 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> (background)</t>
-    </r>
-  </si>
-  <si>
-    <t>text-transform</t>
-  </si>
-  <si>
-    <t>uppercase</t>
-  </si>
-  <si>
-    <t>lowercase</t>
-  </si>
-  <si>
-    <t>capitalize</t>
-  </si>
-  <si>
-    <t>text-indent</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">letter-spacing </t>
+      <t xml:space="preserve"> (table)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">border-style </t>
     </r>
     <r>
       <rPr>
@@ -7751,12 +8221,12 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>(text)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">line-height </t>
+      <t>(table)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">border-[dir]-style </t>
     </r>
     <r>
       <rPr>
@@ -7765,12 +8235,12 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>(text)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">word-spacing </t>
+      <t>(table)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">border-width </t>
     </r>
     <r>
       <rPr>
@@ -7779,12 +8249,12 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>(text)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">white-space </t>
+      <t>(table)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>border-width</t>
     </r>
     <r>
       <rPr>
@@ -7793,109 +8263,12 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>(text)</t>
-    </r>
-  </si>
-  <si>
-    <t>0.0 ~ ↑</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>nowrap</t>
-  </si>
-  <si>
-    <t>pre</t>
-  </si>
-  <si>
-    <t>pre-line</t>
-  </si>
-  <si>
-    <t>pre-wrap</t>
-  </si>
-  <si>
-    <t>text-shadow</t>
-  </si>
-  <si>
-    <r>
-      <t>horizontal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0066"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>length</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> vertical-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0066"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>length</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> blur-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0066"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>length</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0066"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>color</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">font-family </t>
+      <t xml:space="preserve"> (table)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">border-color </t>
     </r>
     <r>
       <rPr>
@@ -7904,24 +8277,12 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>(text)</t>
-    </r>
-  </si>
-  <si>
-    <t>"Times New Roman", Times, serif;</t>
-  </si>
-  <si>
-    <t>italic</t>
-  </si>
-  <si>
-    <t>bold</t>
-  </si>
-  <si>
-    <t>oblique</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">font-style </t>
+      <t>(table)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">border-radius </t>
     </r>
     <r>
       <rPr>
@@ -7930,15 +8291,27 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>(text)</t>
-    </r>
-  </si>
-  <si>
-    <t>small-caps</t>
-  </si>
-  <si>
-    <r>
-      <t>font-size</t>
+      <t>(table)</t>
+    </r>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>relative</t>
+  </si>
+  <si>
+    <t>absolute</t>
+  </si>
+  <si>
+    <t>sticky</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bottom </t>
     </r>
     <r>
       <rPr>
@@ -7947,32 +8320,74 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> (text)</t>
-    </r>
-  </si>
-  <si>
-    <t>font</t>
-  </si>
-  <si>
-    <t>size/line-height family style variant weight</t>
-  </si>
-  <si>
-    <t>list-style-type</t>
-  </si>
-  <si>
-    <t>list-style-position</t>
-  </si>
-  <si>
-    <t>outside</t>
-  </si>
-  <si>
-    <t>inside</t>
-  </si>
-  <si>
-    <t>list-style-image</t>
-  </si>
-  <si>
-    <t>url('')</t>
+      <t>(position)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>top</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (position)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">right </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(position)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (position)</t>
+    </r>
+  </si>
+  <si>
+    <t>z-index</t>
+  </si>
+  <si>
+    <t>integer number</t>
+  </si>
+  <si>
+    <t>overflow</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>inline-block</t>
   </si>
 </sst>
 </file>
@@ -9576,7 +9991,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="395">
+  <cellXfs count="396">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -10183,342 +10598,6 @@
     <xf numFmtId="49" fontId="63" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="53" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="67" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="64" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="64" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -10586,6 +10665,345 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="88" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="64" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="64" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="67" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="53" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11289,23 +11707,23 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="27.6" customHeight="1">
-      <c r="A3" s="351" t="s">
+      <c r="A3" s="324" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="351"/>
+      <c r="B3" s="324"/>
       <c r="C3" s="52"/>
-      <c r="D3" s="353" t="s">
+      <c r="D3" s="326" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="353"/>
-      <c r="F3" s="353"/>
+      <c r="E3" s="326"/>
+      <c r="F3" s="326"/>
       <c r="G3" s="52"/>
-      <c r="H3" s="353" t="s">
+      <c r="H3" s="326" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="353"/>
-      <c r="J3" s="353"/>
-      <c r="K3" s="353"/>
+      <c r="I3" s="326"/>
+      <c r="J3" s="326"/>
+      <c r="K3" s="326"/>
       <c r="L3" s="13"/>
       <c r="M3" s="49"/>
       <c r="N3" s="54" t="s">
@@ -11325,10 +11743,10 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="27.6" customHeight="1">
-      <c r="A4" s="352" t="s">
+      <c r="A4" s="325" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="352"/>
+      <c r="B4" s="325"/>
       <c r="C4" s="51" t="s">
         <v>18</v>
       </c>
@@ -11427,36 +11845,36 @@
       <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" thickTop="1">
-      <c r="A7" s="355" t="s">
+      <c r="A7" s="334" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="355"/>
-      <c r="C7" s="355"/>
-      <c r="D7" s="356"/>
-      <c r="E7" s="354" t="s">
+      <c r="B7" s="334"/>
+      <c r="C7" s="334"/>
+      <c r="D7" s="335"/>
+      <c r="E7" s="327" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="333"/>
-      <c r="G7" s="333"/>
-      <c r="H7" s="334"/>
-      <c r="I7" s="333" t="s">
+      <c r="F7" s="328"/>
+      <c r="G7" s="328"/>
+      <c r="H7" s="329"/>
+      <c r="I7" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="333"/>
-      <c r="K7" s="333"/>
-      <c r="L7" s="334"/>
-      <c r="M7" s="330" t="s">
+      <c r="J7" s="328"/>
+      <c r="K7" s="328"/>
+      <c r="L7" s="329"/>
+      <c r="M7" s="350" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="331"/>
-      <c r="O7" s="331"/>
-      <c r="P7" s="332"/>
-      <c r="Q7" s="330" t="s">
+      <c r="N7" s="351"/>
+      <c r="O7" s="351"/>
+      <c r="P7" s="352"/>
+      <c r="Q7" s="350" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="331"/>
-      <c r="S7" s="331"/>
-      <c r="T7" s="332"/>
+      <c r="R7" s="351"/>
+      <c r="S7" s="351"/>
+      <c r="T7" s="352"/>
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
       <c r="W7" s="21"/>
@@ -11466,10 +11884,10 @@
       <c r="AA7" s="21"/>
     </row>
     <row r="8" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="355"/>
-      <c r="B8" s="355"/>
-      <c r="C8" s="355"/>
-      <c r="D8" s="356"/>
+      <c r="A8" s="334"/>
+      <c r="B8" s="334"/>
+      <c r="C8" s="334"/>
+      <c r="D8" s="335"/>
       <c r="E8" s="33" t="s">
         <v>33</v>
       </c>
@@ -11507,10 +11925,10 @@
       <c r="AA8" s="21"/>
     </row>
     <row r="9" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="355"/>
-      <c r="B9" s="355"/>
-      <c r="C9" s="355"/>
-      <c r="D9" s="356"/>
+      <c r="A9" s="334"/>
+      <c r="B9" s="334"/>
+      <c r="C9" s="334"/>
+      <c r="D9" s="335"/>
       <c r="E9" s="34" t="s">
         <v>31</v>
       </c>
@@ -11544,10 +11962,10 @@
       <c r="AA9" s="21"/>
     </row>
     <row r="10" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="355"/>
-      <c r="B10" s="355"/>
-      <c r="C10" s="355"/>
-      <c r="D10" s="356"/>
+      <c r="A10" s="334"/>
+      <c r="B10" s="334"/>
+      <c r="C10" s="334"/>
+      <c r="D10" s="335"/>
       <c r="E10" s="34" t="s">
         <v>32</v>
       </c>
@@ -11581,10 +11999,10 @@
       <c r="AA10" s="21"/>
     </row>
     <row r="11" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="355"/>
-      <c r="B11" s="355"/>
-      <c r="C11" s="355"/>
-      <c r="D11" s="356"/>
+      <c r="A11" s="334"/>
+      <c r="B11" s="334"/>
+      <c r="C11" s="334"/>
+      <c r="D11" s="335"/>
       <c r="E11" s="35" t="s">
         <v>13</v>
       </c>
@@ -11618,10 +12036,10 @@
       <c r="AA11" s="21"/>
     </row>
     <row r="12" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="355"/>
-      <c r="B12" s="355"/>
-      <c r="C12" s="355"/>
-      <c r="D12" s="356"/>
+      <c r="A12" s="334"/>
+      <c r="B12" s="334"/>
+      <c r="C12" s="334"/>
+      <c r="D12" s="335"/>
       <c r="E12" s="36"/>
       <c r="F12" s="21"/>
       <c r="G12" s="26"/>
@@ -11647,10 +12065,10 @@
       <c r="AA12" s="21"/>
     </row>
     <row r="13" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="355"/>
-      <c r="B13" s="355"/>
-      <c r="C13" s="355"/>
-      <c r="D13" s="356"/>
+      <c r="A13" s="334"/>
+      <c r="B13" s="334"/>
+      <c r="C13" s="334"/>
+      <c r="D13" s="335"/>
       <c r="E13" s="39" t="s">
         <v>35</v>
       </c>
@@ -11682,10 +12100,10 @@
       <c r="AA13" s="21"/>
     </row>
     <row r="14" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A14" s="357"/>
-      <c r="B14" s="357"/>
-      <c r="C14" s="357"/>
-      <c r="D14" s="358"/>
+      <c r="A14" s="336"/>
+      <c r="B14" s="336"/>
+      <c r="C14" s="336"/>
+      <c r="D14" s="337"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
@@ -11713,12 +12131,12 @@
       <c r="AA14" s="27"/>
     </row>
     <row r="15" spans="1:27" ht="18" customHeight="1" thickTop="1">
-      <c r="A15" s="324" t="s">
+      <c r="A15" s="330" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="324"/>
-      <c r="C15" s="324"/>
-      <c r="D15" s="325"/>
+      <c r="B15" s="330"/>
+      <c r="C15" s="330"/>
+      <c r="D15" s="331"/>
       <c r="E15" s="45" t="s">
         <v>44</v>
       </c>
@@ -11756,10 +12174,10 @@
       <c r="AA15" s="13"/>
     </row>
     <row r="16" spans="1:27" ht="18" customHeight="1">
-      <c r="A16" s="326"/>
-      <c r="B16" s="326"/>
-      <c r="C16" s="326"/>
-      <c r="D16" s="327"/>
+      <c r="A16" s="332"/>
+      <c r="B16" s="332"/>
+      <c r="C16" s="332"/>
+      <c r="D16" s="333"/>
       <c r="E16" s="45" t="s">
         <v>49</v>
       </c>
@@ -11797,10 +12215,10 @@
       <c r="AA16" s="13"/>
     </row>
     <row r="17" spans="1:45" ht="18" customHeight="1">
-      <c r="A17" s="326"/>
-      <c r="B17" s="326"/>
-      <c r="C17" s="326"/>
-      <c r="D17" s="327"/>
+      <c r="A17" s="332"/>
+      <c r="B17" s="332"/>
+      <c r="C17" s="332"/>
+      <c r="D17" s="333"/>
       <c r="E17" s="45" t="s">
         <v>53</v>
       </c>
@@ -11838,10 +12256,10 @@
       <c r="AA17" s="13"/>
     </row>
     <row r="18" spans="1:45" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A18" s="328"/>
-      <c r="B18" s="328"/>
-      <c r="C18" s="328"/>
-      <c r="D18" s="329"/>
+      <c r="A18" s="348"/>
+      <c r="B18" s="348"/>
+      <c r="C18" s="348"/>
+      <c r="D18" s="349"/>
       <c r="E18" s="62" t="s">
         <v>57</v>
       </c>
@@ -11879,12 +12297,12 @@
       <c r="AA18" s="27"/>
     </row>
     <row r="19" spans="1:45" s="74" customFormat="1" ht="18" customHeight="1" thickTop="1">
-      <c r="A19" s="324" t="s">
+      <c r="A19" s="330" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="324"/>
-      <c r="C19" s="324"/>
-      <c r="D19" s="325"/>
+      <c r="B19" s="330"/>
+      <c r="C19" s="330"/>
+      <c r="D19" s="331"/>
       <c r="E19" s="67" t="s">
         <v>61</v>
       </c>
@@ -11936,22 +12354,22 @@
       <c r="AS19" s="73"/>
     </row>
     <row r="20" spans="1:45" ht="18" customHeight="1">
-      <c r="A20" s="326"/>
-      <c r="B20" s="326"/>
-      <c r="C20" s="326"/>
-      <c r="D20" s="327"/>
+      <c r="A20" s="332"/>
+      <c r="B20" s="332"/>
+      <c r="C20" s="332"/>
+      <c r="D20" s="333"/>
       <c r="E20" s="79" t="s">
         <v>107</v>
       </c>
       <c r="F20" s="76"/>
-      <c r="G20" s="361" t="s">
+      <c r="G20" s="344" t="s">
         <v>83</v>
       </c>
-      <c r="H20" s="362"/>
-      <c r="I20" s="361" t="s">
+      <c r="H20" s="345"/>
+      <c r="I20" s="344" t="s">
         <v>84</v>
       </c>
-      <c r="J20" s="362"/>
+      <c r="J20" s="345"/>
       <c r="K20" s="80"/>
       <c r="L20" s="80"/>
       <c r="M20" s="80"/>
@@ -11985,18 +12403,18 @@
       <c r="AC20" s="5"/>
     </row>
     <row r="21" spans="1:45" ht="18" customHeight="1">
-      <c r="A21" s="326"/>
-      <c r="B21" s="326"/>
-      <c r="C21" s="326"/>
-      <c r="D21" s="327"/>
-      <c r="E21" s="345" t="s">
+      <c r="A21" s="332"/>
+      <c r="B21" s="332"/>
+      <c r="C21" s="332"/>
+      <c r="D21" s="333"/>
+      <c r="E21" s="357" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="346"/>
-      <c r="G21" s="335" t="s">
+      <c r="F21" s="358"/>
+      <c r="G21" s="339" t="s">
         <v>79</v>
       </c>
-      <c r="H21" s="336"/>
+      <c r="H21" s="347"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -12019,32 +12437,32 @@
       <c r="AC21" s="5"/>
     </row>
     <row r="22" spans="1:45" ht="18" customHeight="1">
-      <c r="A22" s="326"/>
-      <c r="B22" s="326"/>
-      <c r="C22" s="326"/>
-      <c r="D22" s="327"/>
-      <c r="E22" s="347"/>
-      <c r="F22" s="348"/>
-      <c r="G22" s="337" t="s">
+      <c r="A22" s="332"/>
+      <c r="B22" s="332"/>
+      <c r="C22" s="332"/>
+      <c r="D22" s="333"/>
+      <c r="E22" s="359"/>
+      <c r="F22" s="360"/>
+      <c r="G22" s="342" t="s">
         <v>81</v>
       </c>
-      <c r="H22" s="338"/>
-      <c r="I22" s="342" t="s">
+      <c r="H22" s="343"/>
+      <c r="I22" s="346" t="s">
         <v>88</v>
       </c>
-      <c r="J22" s="338"/>
-      <c r="K22" s="342" t="s">
+      <c r="J22" s="343"/>
+      <c r="K22" s="346" t="s">
         <v>92</v>
       </c>
-      <c r="L22" s="338"/>
-      <c r="M22" s="342" t="s">
+      <c r="L22" s="343"/>
+      <c r="M22" s="346" t="s">
         <v>97</v>
       </c>
-      <c r="N22" s="338"/>
-      <c r="O22" s="359" t="s">
+      <c r="N22" s="343"/>
+      <c r="O22" s="340" t="s">
         <v>93</v>
       </c>
-      <c r="P22" s="360"/>
+      <c r="P22" s="341"/>
       <c r="Q22" s="61"/>
       <c r="S22" s="85"/>
       <c r="T22" s="85"/>
@@ -12059,33 +12477,33 @@
       <c r="AC22" s="5"/>
     </row>
     <row r="23" spans="1:45" ht="18" customHeight="1">
-      <c r="A23" s="326"/>
-      <c r="B23" s="326"/>
-      <c r="C23" s="326"/>
-      <c r="D23" s="327"/>
-      <c r="E23" s="347"/>
-      <c r="F23" s="348"/>
-      <c r="G23" s="335" t="s">
+      <c r="A23" s="332"/>
+      <c r="B23" s="332"/>
+      <c r="C23" s="332"/>
+      <c r="D23" s="333"/>
+      <c r="E23" s="359"/>
+      <c r="F23" s="360"/>
+      <c r="G23" s="339" t="s">
         <v>82</v>
       </c>
-      <c r="H23" s="335"/>
-      <c r="I23" s="339" t="s">
+      <c r="H23" s="339"/>
+      <c r="I23" s="338" t="s">
         <v>89</v>
       </c>
-      <c r="J23" s="336"/>
-      <c r="K23" s="339" t="s">
+      <c r="J23" s="347"/>
+      <c r="K23" s="338" t="s">
         <v>95</v>
       </c>
-      <c r="L23" s="335"/>
-      <c r="M23" s="339" t="s">
+      <c r="L23" s="339"/>
+      <c r="M23" s="338" t="s">
         <v>96</v>
       </c>
-      <c r="N23" s="336"/>
-      <c r="O23" s="340" t="s">
+      <c r="N23" s="347"/>
+      <c r="O23" s="353" t="s">
         <v>94</v>
       </c>
-      <c r="P23" s="341"/>
-      <c r="Q23" s="341"/>
+      <c r="P23" s="354"/>
+      <c r="Q23" s="354"/>
       <c r="S23" s="85"/>
       <c r="T23" s="85"/>
       <c r="U23" s="85"/>
@@ -12099,16 +12517,16 @@
       <c r="AC23" s="5"/>
     </row>
     <row r="24" spans="1:45" ht="18" customHeight="1">
-      <c r="A24" s="326"/>
-      <c r="B24" s="326"/>
-      <c r="C24" s="326"/>
-      <c r="D24" s="327"/>
-      <c r="E24" s="349"/>
-      <c r="F24" s="350"/>
-      <c r="G24" s="337" t="s">
+      <c r="A24" s="332"/>
+      <c r="B24" s="332"/>
+      <c r="C24" s="332"/>
+      <c r="D24" s="333"/>
+      <c r="E24" s="361"/>
+      <c r="F24" s="362"/>
+      <c r="G24" s="342" t="s">
         <v>87</v>
       </c>
-      <c r="H24" s="338"/>
+      <c r="H24" s="343"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -12131,26 +12549,26 @@
       <c r="AC24" s="5"/>
     </row>
     <row r="25" spans="1:45" ht="18" customHeight="1">
-      <c r="A25" s="326"/>
-      <c r="B25" s="326"/>
-      <c r="C25" s="326"/>
-      <c r="D25" s="327"/>
-      <c r="E25" s="345" t="s">
+      <c r="A25" s="332"/>
+      <c r="B25" s="332"/>
+      <c r="C25" s="332"/>
+      <c r="D25" s="333"/>
+      <c r="E25" s="357" t="s">
         <v>109</v>
       </c>
-      <c r="F25" s="346"/>
-      <c r="G25" s="335" t="s">
+      <c r="F25" s="358"/>
+      <c r="G25" s="339" t="s">
         <v>76</v>
       </c>
-      <c r="H25" s="336"/>
-      <c r="I25" s="339" t="s">
+      <c r="H25" s="347"/>
+      <c r="I25" s="338" t="s">
         <v>90</v>
       </c>
-      <c r="J25" s="336"/>
-      <c r="K25" s="339" t="s">
+      <c r="J25" s="347"/>
+      <c r="K25" s="338" t="s">
         <v>106</v>
       </c>
-      <c r="L25" s="336"/>
+      <c r="L25" s="347"/>
       <c r="O25" s="4"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
@@ -12167,16 +12585,16 @@
       <c r="AC25" s="5"/>
     </row>
     <row r="26" spans="1:45" ht="18" customHeight="1">
-      <c r="A26" s="326"/>
-      <c r="B26" s="326"/>
-      <c r="C26" s="326"/>
-      <c r="D26" s="327"/>
-      <c r="E26" s="347"/>
-      <c r="F26" s="348"/>
-      <c r="G26" s="337" t="s">
+      <c r="A26" s="332"/>
+      <c r="B26" s="332"/>
+      <c r="C26" s="332"/>
+      <c r="D26" s="333"/>
+      <c r="E26" s="359"/>
+      <c r="F26" s="360"/>
+      <c r="G26" s="342" t="s">
         <v>77</v>
       </c>
-      <c r="H26" s="338"/>
+      <c r="H26" s="343"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -12199,20 +12617,20 @@
       <c r="AC26" s="5"/>
     </row>
     <row r="27" spans="1:45" ht="18" customHeight="1">
-      <c r="A27" s="326"/>
-      <c r="B27" s="326"/>
-      <c r="C27" s="326"/>
-      <c r="D27" s="327"/>
-      <c r="E27" s="347"/>
-      <c r="F27" s="348"/>
-      <c r="G27" s="335" t="s">
+      <c r="A27" s="332"/>
+      <c r="B27" s="332"/>
+      <c r="C27" s="332"/>
+      <c r="D27" s="333"/>
+      <c r="E27" s="359"/>
+      <c r="F27" s="360"/>
+      <c r="G27" s="339" t="s">
         <v>80</v>
       </c>
-      <c r="H27" s="335"/>
-      <c r="I27" s="335" t="s">
+      <c r="H27" s="339"/>
+      <c r="I27" s="339" t="s">
         <v>78</v>
       </c>
-      <c r="J27" s="335"/>
+      <c r="J27" s="339"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
@@ -12233,20 +12651,20 @@
       <c r="AC27" s="5"/>
     </row>
     <row r="28" spans="1:45" ht="18" customHeight="1">
-      <c r="A28" s="326"/>
-      <c r="B28" s="326"/>
-      <c r="C28" s="326"/>
-      <c r="D28" s="327"/>
-      <c r="E28" s="347"/>
-      <c r="F28" s="348"/>
-      <c r="G28" s="337" t="s">
+      <c r="A28" s="332"/>
+      <c r="B28" s="332"/>
+      <c r="C28" s="332"/>
+      <c r="D28" s="333"/>
+      <c r="E28" s="359"/>
+      <c r="F28" s="360"/>
+      <c r="G28" s="342" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="338"/>
-      <c r="I28" s="342" t="s">
+      <c r="H28" s="343"/>
+      <c r="I28" s="346" t="s">
         <v>99</v>
       </c>
-      <c r="J28" s="338"/>
+      <c r="J28" s="343"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
@@ -12267,20 +12685,20 @@
       <c r="AC28" s="5"/>
     </row>
     <row r="29" spans="1:45" ht="18" customHeight="1">
-      <c r="A29" s="326"/>
-      <c r="B29" s="326"/>
-      <c r="C29" s="326"/>
-      <c r="D29" s="327"/>
-      <c r="E29" s="347"/>
-      <c r="F29" s="348"/>
-      <c r="G29" s="335" t="s">
+      <c r="A29" s="332"/>
+      <c r="B29" s="332"/>
+      <c r="C29" s="332"/>
+      <c r="D29" s="333"/>
+      <c r="E29" s="359"/>
+      <c r="F29" s="360"/>
+      <c r="G29" s="339" t="s">
         <v>105</v>
       </c>
-      <c r="H29" s="336"/>
-      <c r="I29" s="335" t="s">
+      <c r="H29" s="347"/>
+      <c r="I29" s="339" t="s">
         <v>86</v>
       </c>
-      <c r="J29" s="336"/>
+      <c r="J29" s="347"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -12301,16 +12719,16 @@
       <c r="AC29" s="5"/>
     </row>
     <row r="30" spans="1:45" ht="18" customHeight="1">
-      <c r="A30" s="326"/>
-      <c r="B30" s="326"/>
-      <c r="C30" s="326"/>
-      <c r="D30" s="327"/>
-      <c r="E30" s="347"/>
-      <c r="F30" s="348"/>
-      <c r="G30" s="337" t="s">
+      <c r="A30" s="332"/>
+      <c r="B30" s="332"/>
+      <c r="C30" s="332"/>
+      <c r="D30" s="333"/>
+      <c r="E30" s="359"/>
+      <c r="F30" s="360"/>
+      <c r="G30" s="342" t="s">
         <v>104</v>
       </c>
-      <c r="H30" s="338"/>
+      <c r="H30" s="343"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -12334,20 +12752,20 @@
       <c r="AC30" s="5"/>
     </row>
     <row r="31" spans="1:45" ht="18" customHeight="1">
-      <c r="A31" s="326"/>
-      <c r="B31" s="326"/>
-      <c r="C31" s="326"/>
-      <c r="D31" s="327"/>
-      <c r="E31" s="347"/>
-      <c r="F31" s="348"/>
-      <c r="G31" s="335" t="s">
+      <c r="A31" s="332"/>
+      <c r="B31" s="332"/>
+      <c r="C31" s="332"/>
+      <c r="D31" s="333"/>
+      <c r="E31" s="359"/>
+      <c r="F31" s="360"/>
+      <c r="G31" s="339" t="s">
         <v>98</v>
       </c>
-      <c r="H31" s="336"/>
-      <c r="I31" s="339" t="s">
+      <c r="H31" s="347"/>
+      <c r="I31" s="338" t="s">
         <v>102</v>
       </c>
-      <c r="J31" s="336"/>
+      <c r="J31" s="347"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
@@ -12369,20 +12787,20 @@
       <c r="AC31" s="5"/>
     </row>
     <row r="32" spans="1:45" ht="18" customHeight="1">
-      <c r="A32" s="326"/>
-      <c r="B32" s="326"/>
-      <c r="C32" s="326"/>
-      <c r="D32" s="327"/>
-      <c r="E32" s="347"/>
-      <c r="F32" s="348"/>
-      <c r="G32" s="337" t="s">
+      <c r="A32" s="332"/>
+      <c r="B32" s="332"/>
+      <c r="C32" s="332"/>
+      <c r="D32" s="333"/>
+      <c r="E32" s="359"/>
+      <c r="F32" s="360"/>
+      <c r="G32" s="342" t="s">
         <v>100</v>
       </c>
-      <c r="H32" s="338"/>
-      <c r="I32" s="342" t="s">
+      <c r="H32" s="343"/>
+      <c r="I32" s="346" t="s">
         <v>101</v>
       </c>
-      <c r="J32" s="338"/>
+      <c r="J32" s="343"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -12404,16 +12822,16 @@
       <c r="AC32" s="5"/>
     </row>
     <row r="33" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="326"/>
-      <c r="B33" s="326"/>
-      <c r="C33" s="326"/>
-      <c r="D33" s="327"/>
-      <c r="E33" s="349"/>
-      <c r="F33" s="350"/>
-      <c r="G33" s="335" t="s">
+      <c r="A33" s="332"/>
+      <c r="B33" s="332"/>
+      <c r="C33" s="332"/>
+      <c r="D33" s="333"/>
+      <c r="E33" s="361"/>
+      <c r="F33" s="362"/>
+      <c r="G33" s="339" t="s">
         <v>91</v>
       </c>
-      <c r="H33" s="336"/>
+      <c r="H33" s="347"/>
       <c r="R33" s="59"/>
       <c r="S33" s="59"/>
       <c r="T33" s="59"/>
@@ -12426,27 +12844,27 @@
       <c r="AA33" s="59"/>
     </row>
     <row r="34" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A34" s="328"/>
-      <c r="B34" s="328"/>
-      <c r="C34" s="328"/>
-      <c r="D34" s="329"/>
+      <c r="A34" s="348"/>
+      <c r="B34" s="348"/>
+      <c r="C34" s="348"/>
+      <c r="D34" s="349"/>
       <c r="E34" s="81" t="s">
         <v>110</v>
       </c>
       <c r="F34" s="77"/>
-      <c r="G34" s="343" t="s">
+      <c r="G34" s="355" t="s">
         <v>103</v>
       </c>
-      <c r="H34" s="344"/>
+      <c r="H34" s="356"/>
       <c r="K34" s="78"/>
     </row>
     <row r="35" spans="1:27" ht="18" customHeight="1" thickTop="1">
-      <c r="A35" s="324" t="s">
+      <c r="A35" s="330" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="324"/>
-      <c r="C35" s="324"/>
-      <c r="D35" s="325"/>
+      <c r="B35" s="330"/>
+      <c r="C35" s="330"/>
+      <c r="D35" s="331"/>
       <c r="E35" s="67" t="s">
         <v>61</v>
       </c>
@@ -12467,10 +12885,10 @@
       </c>
     </row>
     <row r="36" spans="1:27" ht="18" customHeight="1">
-      <c r="A36" s="326"/>
-      <c r="B36" s="326"/>
-      <c r="C36" s="326"/>
-      <c r="D36" s="327"/>
+      <c r="A36" s="332"/>
+      <c r="B36" s="332"/>
+      <c r="C36" s="332"/>
+      <c r="D36" s="333"/>
       <c r="E36" s="55" t="s">
         <v>111</v>
       </c>
@@ -12490,10 +12908,10 @@
       <c r="O36" s="82"/>
     </row>
     <row r="37" spans="1:27" ht="18" customHeight="1">
-      <c r="A37" s="326"/>
-      <c r="B37" s="326"/>
-      <c r="C37" s="326"/>
-      <c r="D37" s="327"/>
+      <c r="A37" s="332"/>
+      <c r="B37" s="332"/>
+      <c r="C37" s="332"/>
+      <c r="D37" s="333"/>
       <c r="E37" s="55" t="s">
         <v>114</v>
       </c>
@@ -12513,10 +12931,10 @@
       <c r="O37" s="82"/>
     </row>
     <row r="38" spans="1:27" ht="18" customHeight="1">
-      <c r="A38" s="326"/>
-      <c r="B38" s="326"/>
-      <c r="C38" s="326"/>
-      <c r="D38" s="327"/>
+      <c r="A38" s="332"/>
+      <c r="B38" s="332"/>
+      <c r="C38" s="332"/>
+      <c r="D38" s="333"/>
       <c r="E38" s="55" t="s">
         <v>117</v>
       </c>
@@ -12536,10 +12954,10 @@
       <c r="O38" s="82"/>
     </row>
     <row r="39" spans="1:27" ht="18" customHeight="1">
-      <c r="A39" s="326"/>
-      <c r="B39" s="326"/>
-      <c r="C39" s="326"/>
-      <c r="D39" s="327"/>
+      <c r="A39" s="332"/>
+      <c r="B39" s="332"/>
+      <c r="C39" s="332"/>
+      <c r="D39" s="333"/>
       <c r="E39" s="55" t="s">
         <v>120</v>
       </c>
@@ -12559,10 +12977,10 @@
       <c r="O39" s="82"/>
     </row>
     <row r="40" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A40" s="328"/>
-      <c r="B40" s="328"/>
-      <c r="C40" s="328"/>
-      <c r="D40" s="329"/>
+      <c r="A40" s="348"/>
+      <c r="B40" s="348"/>
+      <c r="C40" s="348"/>
+      <c r="D40" s="349"/>
       <c r="E40" s="87" t="s">
         <v>123</v>
       </c>
@@ -12582,12 +13000,12 @@
       <c r="O40" s="88"/>
     </row>
     <row r="41" spans="1:27" ht="18" customHeight="1" thickTop="1">
-      <c r="A41" s="324" t="s">
+      <c r="A41" s="330" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="324"/>
-      <c r="C41" s="324"/>
-      <c r="D41" s="325"/>
+      <c r="B41" s="330"/>
+      <c r="C41" s="330"/>
+      <c r="D41" s="331"/>
       <c r="E41" s="67" t="s">
         <v>61</v>
       </c>
@@ -12608,10 +13026,10 @@
       </c>
     </row>
     <row r="42" spans="1:27" ht="18" customHeight="1">
-      <c r="A42" s="326"/>
-      <c r="B42" s="326"/>
-      <c r="C42" s="326"/>
-      <c r="D42" s="327"/>
+      <c r="A42" s="332"/>
+      <c r="B42" s="332"/>
+      <c r="C42" s="332"/>
+      <c r="D42" s="333"/>
       <c r="E42" s="55" t="s">
         <v>127</v>
       </c>
@@ -12637,10 +13055,10 @@
       <c r="U42" s="90"/>
     </row>
     <row r="43" spans="1:27" ht="18" customHeight="1">
-      <c r="A43" s="326"/>
-      <c r="B43" s="326"/>
-      <c r="C43" s="326"/>
-      <c r="D43" s="327"/>
+      <c r="A43" s="332"/>
+      <c r="B43" s="332"/>
+      <c r="C43" s="332"/>
+      <c r="D43" s="333"/>
       <c r="E43" s="55" t="s">
         <v>130</v>
       </c>
@@ -12666,10 +13084,10 @@
       <c r="U43" s="90"/>
     </row>
     <row r="44" spans="1:27" ht="18" customHeight="1">
-      <c r="A44" s="326"/>
-      <c r="B44" s="326"/>
-      <c r="C44" s="326"/>
-      <c r="D44" s="327"/>
+      <c r="A44" s="332"/>
+      <c r="B44" s="332"/>
+      <c r="C44" s="332"/>
+      <c r="D44" s="333"/>
       <c r="E44" s="55" t="s">
         <v>133</v>
       </c>
@@ -12695,10 +13113,10 @@
       <c r="U44" s="90"/>
     </row>
     <row r="45" spans="1:27" ht="18" customHeight="1">
-      <c r="A45" s="326"/>
-      <c r="B45" s="326"/>
-      <c r="C45" s="326"/>
-      <c r="D45" s="327"/>
+      <c r="A45" s="332"/>
+      <c r="B45" s="332"/>
+      <c r="C45" s="332"/>
+      <c r="D45" s="333"/>
       <c r="E45" s="55" t="s">
         <v>136</v>
       </c>
@@ -12724,10 +13142,10 @@
       <c r="U45" s="90"/>
     </row>
     <row r="46" spans="1:27" ht="18" customHeight="1">
-      <c r="A46" s="326"/>
-      <c r="B46" s="326"/>
-      <c r="C46" s="326"/>
-      <c r="D46" s="327"/>
+      <c r="A46" s="332"/>
+      <c r="B46" s="332"/>
+      <c r="C46" s="332"/>
+      <c r="D46" s="333"/>
       <c r="E46" s="55" t="s">
         <v>139</v>
       </c>
@@ -12753,10 +13171,10 @@
       <c r="U46" s="90"/>
     </row>
     <row r="47" spans="1:27" ht="18" customHeight="1">
-      <c r="A47" s="326"/>
-      <c r="B47" s="326"/>
-      <c r="C47" s="326"/>
-      <c r="D47" s="327"/>
+      <c r="A47" s="332"/>
+      <c r="B47" s="332"/>
+      <c r="C47" s="332"/>
+      <c r="D47" s="333"/>
       <c r="E47" s="55" t="s">
         <v>142</v>
       </c>
@@ -12782,10 +13200,10 @@
       <c r="U47" s="90"/>
     </row>
     <row r="48" spans="1:27" ht="18" customHeight="1" thickBot="1">
-      <c r="A48" s="326"/>
-      <c r="B48" s="326"/>
-      <c r="C48" s="326"/>
-      <c r="D48" s="327"/>
+      <c r="A48" s="332"/>
+      <c r="B48" s="332"/>
+      <c r="C48" s="332"/>
+      <c r="D48" s="333"/>
       <c r="E48" s="55" t="s">
         <v>145</v>
       </c>
@@ -12829,17 +13247,17 @@
       <c r="N49" s="10"/>
     </row>
     <row r="50" spans="1:27" ht="18" customHeight="1">
-      <c r="A50" s="267" t="s">
+      <c r="A50" s="296" t="s">
         <v>168</v>
       </c>
-      <c r="B50" s="267"/>
-      <c r="C50" s="268"/>
-      <c r="D50" s="320" t="s">
+      <c r="B50" s="296"/>
+      <c r="C50" s="297"/>
+      <c r="D50" s="379" t="s">
         <v>169</v>
       </c>
-      <c r="E50" s="321"/>
-      <c r="F50" s="321"/>
-      <c r="G50" s="322"/>
+      <c r="E50" s="380"/>
+      <c r="F50" s="380"/>
+      <c r="G50" s="381"/>
       <c r="H50" s="22" t="s">
         <v>170</v>
       </c>
@@ -12874,13 +13292,13 @@
       <c r="AA50" s="21"/>
     </row>
     <row r="51" spans="1:27" ht="18" customHeight="1">
-      <c r="A51" s="267"/>
-      <c r="B51" s="267"/>
-      <c r="C51" s="268"/>
-      <c r="D51" s="314"/>
-      <c r="E51" s="315"/>
-      <c r="F51" s="315"/>
-      <c r="G51" s="316"/>
+      <c r="A51" s="296"/>
+      <c r="B51" s="296"/>
+      <c r="C51" s="297"/>
+      <c r="D51" s="288"/>
+      <c r="E51" s="289"/>
+      <c r="F51" s="289"/>
+      <c r="G51" s="290"/>
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
       <c r="J51" s="21"/>
@@ -12913,13 +13331,13 @@
       <c r="AA51" s="21"/>
     </row>
     <row r="52" spans="1:27" ht="18" customHeight="1">
-      <c r="A52" s="267"/>
-      <c r="B52" s="267"/>
-      <c r="C52" s="268"/>
-      <c r="D52" s="314"/>
-      <c r="E52" s="315"/>
-      <c r="F52" s="315"/>
-      <c r="G52" s="316"/>
+      <c r="A52" s="296"/>
+      <c r="B52" s="296"/>
+      <c r="C52" s="297"/>
+      <c r="D52" s="288"/>
+      <c r="E52" s="289"/>
+      <c r="F52" s="289"/>
+      <c r="G52" s="290"/>
       <c r="H52" s="101"/>
       <c r="I52" s="102" t="s">
         <v>182</v>
@@ -12946,13 +13364,13 @@
       <c r="AA52" s="102"/>
     </row>
     <row r="53" spans="1:27" ht="18" customHeight="1">
-      <c r="A53" s="267"/>
-      <c r="B53" s="267"/>
-      <c r="C53" s="268"/>
-      <c r="D53" s="314"/>
-      <c r="E53" s="315"/>
-      <c r="F53" s="315"/>
-      <c r="G53" s="316"/>
+      <c r="A53" s="296"/>
+      <c r="B53" s="296"/>
+      <c r="C53" s="297"/>
+      <c r="D53" s="288"/>
+      <c r="E53" s="289"/>
+      <c r="F53" s="289"/>
+      <c r="G53" s="290"/>
       <c r="H53" s="24" t="s">
         <v>201</v>
       </c>
@@ -12977,13 +13395,13 @@
       <c r="AA53" s="13"/>
     </row>
     <row r="54" spans="1:27" ht="18" customHeight="1">
-      <c r="A54" s="267"/>
-      <c r="B54" s="267"/>
-      <c r="C54" s="268"/>
-      <c r="D54" s="314"/>
-      <c r="E54" s="315"/>
-      <c r="F54" s="315"/>
-      <c r="G54" s="316"/>
+      <c r="A54" s="296"/>
+      <c r="B54" s="296"/>
+      <c r="C54" s="297"/>
+      <c r="D54" s="288"/>
+      <c r="E54" s="289"/>
+      <c r="F54" s="289"/>
+      <c r="G54" s="290"/>
       <c r="H54" s="24" t="s">
         <v>202</v>
       </c>
@@ -13008,13 +13426,13 @@
       <c r="AA54" s="13"/>
     </row>
     <row r="55" spans="1:27" ht="18" customHeight="1">
-      <c r="A55" s="267"/>
-      <c r="B55" s="267"/>
-      <c r="C55" s="268"/>
-      <c r="D55" s="314"/>
-      <c r="E55" s="315"/>
-      <c r="F55" s="315"/>
-      <c r="G55" s="316"/>
+      <c r="A55" s="296"/>
+      <c r="B55" s="296"/>
+      <c r="C55" s="297"/>
+      <c r="D55" s="288"/>
+      <c r="E55" s="289"/>
+      <c r="F55" s="289"/>
+      <c r="G55" s="290"/>
       <c r="H55" s="24" t="s">
         <v>203</v>
       </c>
@@ -13039,13 +13457,13 @@
       <c r="AA55" s="13"/>
     </row>
     <row r="56" spans="1:27" ht="18" customHeight="1">
-      <c r="A56" s="267"/>
-      <c r="B56" s="267"/>
-      <c r="C56" s="268"/>
-      <c r="D56" s="317"/>
-      <c r="E56" s="318"/>
-      <c r="F56" s="318"/>
-      <c r="G56" s="319"/>
+      <c r="A56" s="296"/>
+      <c r="B56" s="296"/>
+      <c r="C56" s="297"/>
+      <c r="D56" s="376"/>
+      <c r="E56" s="377"/>
+      <c r="F56" s="377"/>
+      <c r="G56" s="378"/>
       <c r="H56" s="24" t="s">
         <v>204</v>
       </c>
@@ -13070,15 +13488,15 @@
       <c r="AA56" s="13"/>
     </row>
     <row r="57" spans="1:27" ht="18" customHeight="1">
-      <c r="A57" s="267"/>
-      <c r="B57" s="267"/>
-      <c r="C57" s="268"/>
-      <c r="D57" s="311" t="s">
+      <c r="A57" s="296"/>
+      <c r="B57" s="296"/>
+      <c r="C57" s="297"/>
+      <c r="D57" s="316" t="s">
         <v>194</v>
       </c>
-      <c r="E57" s="312"/>
-      <c r="F57" s="312"/>
-      <c r="G57" s="313"/>
+      <c r="E57" s="317"/>
+      <c r="F57" s="317"/>
+      <c r="G57" s="318"/>
       <c r="H57" s="110" t="s">
         <v>190</v>
       </c>
@@ -13109,13 +13527,13 @@
       <c r="AA57" s="111"/>
     </row>
     <row r="58" spans="1:27" ht="18" customHeight="1">
-      <c r="A58" s="267"/>
-      <c r="B58" s="267"/>
-      <c r="C58" s="268"/>
-      <c r="D58" s="314"/>
-      <c r="E58" s="315"/>
-      <c r="F58" s="315"/>
-      <c r="G58" s="316"/>
+      <c r="A58" s="296"/>
+      <c r="B58" s="296"/>
+      <c r="C58" s="297"/>
+      <c r="D58" s="288"/>
+      <c r="E58" s="289"/>
+      <c r="F58" s="289"/>
+      <c r="G58" s="290"/>
       <c r="H58" s="114"/>
       <c r="I58" s="21"/>
       <c r="J58" s="21"/>
@@ -13146,13 +13564,13 @@
       <c r="AA58" s="21"/>
     </row>
     <row r="59" spans="1:27" ht="18" customHeight="1">
-      <c r="A59" s="267"/>
-      <c r="B59" s="267"/>
-      <c r="C59" s="268"/>
-      <c r="D59" s="317"/>
-      <c r="E59" s="318"/>
-      <c r="F59" s="318"/>
-      <c r="G59" s="319"/>
+      <c r="A59" s="296"/>
+      <c r="B59" s="296"/>
+      <c r="C59" s="297"/>
+      <c r="D59" s="376"/>
+      <c r="E59" s="377"/>
+      <c r="F59" s="377"/>
+      <c r="G59" s="378"/>
       <c r="H59" s="109"/>
       <c r="I59" s="102"/>
       <c r="J59" s="102"/>
@@ -13181,9 +13599,9 @@
       <c r="AA59" s="102"/>
     </row>
     <row r="60" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A60" s="267"/>
-      <c r="B60" s="267"/>
-      <c r="C60" s="268"/>
+      <c r="A60" s="296"/>
+      <c r="B60" s="296"/>
+      <c r="C60" s="297"/>
       <c r="D60" s="117" t="s">
         <v>198</v>
       </c>
@@ -13222,15 +13640,15 @@
       <c r="AA60" s="102"/>
     </row>
     <row r="61" spans="1:27" ht="18" customHeight="1">
-      <c r="A61" s="267"/>
-      <c r="B61" s="267"/>
-      <c r="C61" s="268"/>
-      <c r="D61" s="297" t="s">
+      <c r="A61" s="296"/>
+      <c r="B61" s="296"/>
+      <c r="C61" s="297"/>
+      <c r="D61" s="285" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="298"/>
-      <c r="F61" s="298"/>
-      <c r="G61" s="299"/>
+      <c r="E61" s="286"/>
+      <c r="F61" s="286"/>
+      <c r="G61" s="287"/>
       <c r="H61" s="24" t="s">
         <v>377</v>
       </c>
@@ -13261,13 +13679,13 @@
       <c r="AA61" s="13"/>
     </row>
     <row r="62" spans="1:27" ht="18" customHeight="1">
-      <c r="A62" s="267"/>
-      <c r="B62" s="267"/>
-      <c r="C62" s="268"/>
-      <c r="D62" s="314"/>
-      <c r="E62" s="315"/>
-      <c r="F62" s="315"/>
-      <c r="G62" s="316"/>
+      <c r="A62" s="296"/>
+      <c r="B62" s="296"/>
+      <c r="C62" s="297"/>
+      <c r="D62" s="288"/>
+      <c r="E62" s="289"/>
+      <c r="F62" s="289"/>
+      <c r="G62" s="290"/>
       <c r="H62" s="24" t="s">
         <v>206</v>
       </c>
@@ -13294,13 +13712,13 @@
       <c r="AA62" s="13"/>
     </row>
     <row r="63" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A63" s="267"/>
-      <c r="B63" s="267"/>
-      <c r="C63" s="268"/>
-      <c r="D63" s="306"/>
-      <c r="E63" s="307"/>
-      <c r="F63" s="307"/>
-      <c r="G63" s="308"/>
+      <c r="A63" s="296"/>
+      <c r="B63" s="296"/>
+      <c r="C63" s="297"/>
+      <c r="D63" s="291"/>
+      <c r="E63" s="292"/>
+      <c r="F63" s="292"/>
+      <c r="G63" s="293"/>
       <c r="H63" s="101" t="s">
         <v>208</v>
       </c>
@@ -13327,9 +13745,9 @@
       <c r="AA63" s="102"/>
     </row>
     <row r="64" spans="1:27" s="28" customFormat="1" ht="18.600000000000001" thickBot="1">
-      <c r="A64" s="269"/>
-      <c r="B64" s="269"/>
-      <c r="C64" s="270"/>
+      <c r="A64" s="304"/>
+      <c r="B64" s="304"/>
+      <c r="C64" s="305"/>
       <c r="D64" s="126" t="s">
         <v>210</v>
       </c>
@@ -13362,11 +13780,11 @@
       <c r="AA64" s="27"/>
     </row>
     <row r="65" spans="1:27" s="136" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A65" s="265" t="s">
+      <c r="A65" s="294" t="s">
         <v>216</v>
       </c>
-      <c r="B65" s="265"/>
-      <c r="C65" s="266"/>
+      <c r="B65" s="294"/>
+      <c r="C65" s="295"/>
       <c r="D65" s="132"/>
       <c r="E65" s="133"/>
       <c r="F65" s="133"/>
@@ -13395,9 +13813,9 @@
       <c r="AA65" s="135"/>
     </row>
     <row r="66" spans="1:27" ht="18" customHeight="1">
-      <c r="A66" s="267"/>
-      <c r="B66" s="267"/>
-      <c r="C66" s="268"/>
+      <c r="A66" s="296"/>
+      <c r="B66" s="296"/>
+      <c r="C66" s="297"/>
       <c r="D66" s="104"/>
       <c r="E66" s="105"/>
       <c r="F66" s="105"/>
@@ -13426,9 +13844,9 @@
       <c r="AA66" s="102"/>
     </row>
     <row r="67" spans="1:27" ht="18" customHeight="1">
-      <c r="A67" s="267"/>
-      <c r="B67" s="267"/>
-      <c r="C67" s="268"/>
+      <c r="A67" s="296"/>
+      <c r="B67" s="296"/>
+      <c r="C67" s="297"/>
       <c r="D67" s="97"/>
       <c r="E67" s="98"/>
       <c r="F67" s="98"/>
@@ -13457,9 +13875,9 @@
       <c r="AA67" s="102"/>
     </row>
     <row r="68" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A68" s="267"/>
-      <c r="B68" s="267"/>
-      <c r="C68" s="268"/>
+      <c r="A68" s="296"/>
+      <c r="B68" s="296"/>
+      <c r="C68" s="297"/>
       <c r="D68" s="104"/>
       <c r="E68" s="105"/>
       <c r="F68" s="105"/>
@@ -13488,9 +13906,9 @@
       <c r="AA68" s="102"/>
     </row>
     <row r="69" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A69" s="269"/>
-      <c r="B69" s="269"/>
-      <c r="C69" s="270"/>
+      <c r="A69" s="304"/>
+      <c r="B69" s="304"/>
+      <c r="C69" s="305"/>
       <c r="D69" s="139"/>
       <c r="E69" s="87"/>
       <c r="F69" s="87"/>
@@ -13519,11 +13937,11 @@
       <c r="AA69" s="27"/>
     </row>
     <row r="70" spans="1:27" s="136" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A70" s="265" t="s">
+      <c r="A70" s="294" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="265"/>
-      <c r="C70" s="266"/>
+      <c r="B70" s="294"/>
+      <c r="C70" s="295"/>
       <c r="D70" s="132"/>
       <c r="E70" s="133"/>
       <c r="F70" s="133"/>
@@ -13552,9 +13970,9 @@
       <c r="AA70" s="135"/>
     </row>
     <row r="71" spans="1:27" ht="18" customHeight="1">
-      <c r="A71" s="267"/>
-      <c r="B71" s="267"/>
-      <c r="C71" s="268"/>
+      <c r="A71" s="296"/>
+      <c r="B71" s="296"/>
+      <c r="C71" s="297"/>
       <c r="D71" s="104"/>
       <c r="E71" s="105"/>
       <c r="F71" s="105"/>
@@ -13583,9 +14001,9 @@
       <c r="AA71" s="102"/>
     </row>
     <row r="72" spans="1:27" ht="18" customHeight="1">
-      <c r="A72" s="267"/>
-      <c r="B72" s="267"/>
-      <c r="C72" s="268"/>
+      <c r="A72" s="296"/>
+      <c r="B72" s="296"/>
+      <c r="C72" s="297"/>
       <c r="D72" s="97"/>
       <c r="E72" s="98"/>
       <c r="F72" s="98"/>
@@ -13614,9 +14032,9 @@
       <c r="AA72" s="102"/>
     </row>
     <row r="73" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A73" s="267"/>
-      <c r="B73" s="267"/>
-      <c r="C73" s="268"/>
+      <c r="A73" s="296"/>
+      <c r="B73" s="296"/>
+      <c r="C73" s="297"/>
       <c r="D73" s="104"/>
       <c r="E73" s="105"/>
       <c r="F73" s="105"/>
@@ -13647,9 +14065,9 @@
       <c r="AA73" s="102"/>
     </row>
     <row r="74" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A74" s="269"/>
-      <c r="B74" s="269"/>
-      <c r="C74" s="270"/>
+      <c r="A74" s="304"/>
+      <c r="B74" s="304"/>
+      <c r="C74" s="305"/>
       <c r="D74" s="139"/>
       <c r="E74" s="87"/>
       <c r="F74" s="87"/>
@@ -13682,11 +14100,11 @@
       <c r="AA74" s="27"/>
     </row>
     <row r="75" spans="1:27" s="136" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A75" s="265" t="s">
+      <c r="A75" s="294" t="s">
         <v>223</v>
       </c>
-      <c r="B75" s="265"/>
-      <c r="C75" s="266"/>
+      <c r="B75" s="294"/>
+      <c r="C75" s="295"/>
       <c r="D75" s="132"/>
       <c r="E75" s="133"/>
       <c r="F75" s="133"/>
@@ -13717,9 +14135,9 @@
       <c r="AA75" s="135"/>
     </row>
     <row r="76" spans="1:27" ht="18" customHeight="1">
-      <c r="A76" s="267"/>
-      <c r="B76" s="267"/>
-      <c r="C76" s="268"/>
+      <c r="A76" s="296"/>
+      <c r="B76" s="296"/>
+      <c r="C76" s="297"/>
       <c r="D76" s="104"/>
       <c r="E76" s="105"/>
       <c r="F76" s="105"/>
@@ -13750,9 +14168,9 @@
       <c r="AA76" s="102"/>
     </row>
     <row r="77" spans="1:27" ht="18" customHeight="1">
-      <c r="A77" s="267"/>
-      <c r="B77" s="267"/>
-      <c r="C77" s="268"/>
+      <c r="A77" s="296"/>
+      <c r="B77" s="296"/>
+      <c r="C77" s="297"/>
       <c r="D77" s="97"/>
       <c r="E77" s="98"/>
       <c r="F77" s="98"/>
@@ -13783,9 +14201,9 @@
       <c r="AA77" s="102"/>
     </row>
     <row r="78" spans="1:27" s="103" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A78" s="267"/>
-      <c r="B78" s="267"/>
-      <c r="C78" s="268"/>
+      <c r="A78" s="296"/>
+      <c r="B78" s="296"/>
+      <c r="C78" s="297"/>
       <c r="D78" s="104"/>
       <c r="E78" s="105"/>
       <c r="F78" s="105"/>
@@ -13816,9 +14234,9 @@
       <c r="AA78" s="102"/>
     </row>
     <row r="79" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A79" s="267"/>
-      <c r="B79" s="267"/>
-      <c r="C79" s="268"/>
+      <c r="A79" s="296"/>
+      <c r="B79" s="296"/>
+      <c r="C79" s="297"/>
       <c r="D79" s="104"/>
       <c r="E79" s="105"/>
       <c r="F79" s="105"/>
@@ -13849,9 +14267,9 @@
       <c r="AA79" s="102"/>
     </row>
     <row r="80" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A80" s="269"/>
-      <c r="B80" s="269"/>
-      <c r="C80" s="270"/>
+      <c r="A80" s="304"/>
+      <c r="B80" s="304"/>
+      <c r="C80" s="305"/>
       <c r="D80" s="139"/>
       <c r="E80" s="87"/>
       <c r="F80" s="87"/>
@@ -13880,11 +14298,11 @@
       <c r="AA80" s="27"/>
     </row>
     <row r="81" spans="1:27" s="136" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A81" s="265" t="s">
+      <c r="A81" s="294" t="s">
         <v>236</v>
       </c>
-      <c r="B81" s="265"/>
-      <c r="C81" s="266"/>
+      <c r="B81" s="294"/>
+      <c r="C81" s="295"/>
       <c r="D81" s="132"/>
       <c r="E81" s="133"/>
       <c r="F81" s="133"/>
@@ -13915,9 +14333,9 @@
       <c r="AA81" s="135"/>
     </row>
     <row r="82" spans="1:27" ht="18" customHeight="1">
-      <c r="A82" s="267"/>
-      <c r="B82" s="267"/>
-      <c r="C82" s="268"/>
+      <c r="A82" s="296"/>
+      <c r="B82" s="296"/>
+      <c r="C82" s="297"/>
       <c r="D82" s="104"/>
       <c r="E82" s="105"/>
       <c r="F82" s="105"/>
@@ -13948,9 +14366,9 @@
       <c r="AA82" s="102"/>
     </row>
     <row r="83" spans="1:27" ht="18" customHeight="1">
-      <c r="A83" s="267"/>
-      <c r="B83" s="267"/>
-      <c r="C83" s="268"/>
+      <c r="A83" s="296"/>
+      <c r="B83" s="296"/>
+      <c r="C83" s="297"/>
       <c r="D83" s="97"/>
       <c r="E83" s="98"/>
       <c r="F83" s="98"/>
@@ -13979,9 +14397,9 @@
       <c r="AA83" s="102"/>
     </row>
     <row r="84" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A84" s="267"/>
-      <c r="B84" s="267"/>
-      <c r="C84" s="268"/>
+      <c r="A84" s="296"/>
+      <c r="B84" s="296"/>
+      <c r="C84" s="297"/>
       <c r="D84" s="104"/>
       <c r="E84" s="105"/>
       <c r="F84" s="105"/>
@@ -14012,9 +14430,9 @@
       <c r="AA84" s="102"/>
     </row>
     <row r="85" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A85" s="269"/>
-      <c r="B85" s="269"/>
-      <c r="C85" s="270"/>
+      <c r="A85" s="304"/>
+      <c r="B85" s="304"/>
+      <c r="C85" s="305"/>
       <c r="D85" s="139"/>
       <c r="E85" s="87"/>
       <c r="F85" s="87"/>
@@ -14067,17 +14485,17 @@
       <c r="V86" s="159"/>
     </row>
     <row r="87" spans="1:27" s="12" customFormat="1" ht="18" customHeight="1">
-      <c r="A87" s="309" t="s">
+      <c r="A87" s="374" t="s">
         <v>150</v>
       </c>
-      <c r="B87" s="309"/>
-      <c r="C87" s="310"/>
-      <c r="D87" s="320" t="s">
+      <c r="B87" s="374"/>
+      <c r="C87" s="375"/>
+      <c r="D87" s="379" t="s">
         <v>151</v>
       </c>
-      <c r="E87" s="321"/>
-      <c r="F87" s="321"/>
-      <c r="G87" s="322"/>
+      <c r="E87" s="380"/>
+      <c r="F87" s="380"/>
+      <c r="G87" s="381"/>
       <c r="H87" s="100" t="s">
         <v>157</v>
       </c>
@@ -14102,13 +14520,13 @@
       <c r="AA87" s="25"/>
     </row>
     <row r="88" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A88" s="267"/>
-      <c r="B88" s="267"/>
-      <c r="C88" s="268"/>
-      <c r="D88" s="306"/>
-      <c r="E88" s="307"/>
-      <c r="F88" s="307"/>
-      <c r="G88" s="308"/>
+      <c r="A88" s="296"/>
+      <c r="B88" s="296"/>
+      <c r="C88" s="297"/>
+      <c r="D88" s="291"/>
+      <c r="E88" s="292"/>
+      <c r="F88" s="292"/>
+      <c r="G88" s="293"/>
       <c r="H88" s="101" t="s">
         <v>158</v>
       </c>
@@ -14133,9 +14551,9 @@
       <c r="AA88" s="102"/>
     </row>
     <row r="89" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A89" s="267"/>
-      <c r="B89" s="267"/>
-      <c r="C89" s="268"/>
+      <c r="A89" s="296"/>
+      <c r="B89" s="296"/>
+      <c r="C89" s="297"/>
       <c r="D89" s="104" t="s">
         <v>152</v>
       </c>
@@ -14166,9 +14584,9 @@
       <c r="AA89" s="102"/>
     </row>
     <row r="90" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A90" s="267"/>
-      <c r="B90" s="267"/>
-      <c r="C90" s="268"/>
+      <c r="A90" s="296"/>
+      <c r="B90" s="296"/>
+      <c r="C90" s="297"/>
       <c r="D90" s="104" t="s">
         <v>153</v>
       </c>
@@ -14203,9 +14621,9 @@
       <c r="AA90" s="102"/>
     </row>
     <row r="91" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A91" s="267"/>
-      <c r="B91" s="267"/>
-      <c r="C91" s="268"/>
+      <c r="A91" s="296"/>
+      <c r="B91" s="296"/>
+      <c r="C91" s="297"/>
       <c r="D91" s="97" t="s">
         <v>154</v>
       </c>
@@ -14238,9 +14656,9 @@
       <c r="AA91" s="102"/>
     </row>
     <row r="92" spans="1:27" ht="18" customHeight="1">
-      <c r="A92" s="267"/>
-      <c r="B92" s="267"/>
-      <c r="C92" s="268"/>
+      <c r="A92" s="296"/>
+      <c r="B92" s="296"/>
+      <c r="C92" s="297"/>
       <c r="D92" s="94" t="s">
         <v>155</v>
       </c>
@@ -14271,9 +14689,9 @@
       <c r="AA92" s="102"/>
     </row>
     <row r="93" spans="1:27" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A93" s="269"/>
-      <c r="B93" s="269"/>
-      <c r="C93" s="270"/>
+      <c r="A93" s="304"/>
+      <c r="B93" s="304"/>
+      <c r="C93" s="305"/>
       <c r="D93" s="122" t="s">
         <v>156</v>
       </c>
@@ -14308,11 +14726,11 @@
       <c r="AA93" s="27"/>
     </row>
     <row r="94" spans="1:27" s="136" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A94" s="265" t="s">
+      <c r="A94" s="294" t="s">
         <v>246</v>
       </c>
-      <c r="B94" s="265"/>
-      <c r="C94" s="266"/>
+      <c r="B94" s="294"/>
+      <c r="C94" s="295"/>
       <c r="D94" s="133" t="s">
         <v>265</v>
       </c>
@@ -14343,9 +14761,9 @@
       <c r="AA94" s="135"/>
     </row>
     <row r="95" spans="1:27" ht="18" customHeight="1">
-      <c r="A95" s="267"/>
-      <c r="B95" s="267"/>
-      <c r="C95" s="268"/>
+      <c r="A95" s="296"/>
+      <c r="B95" s="296"/>
+      <c r="C95" s="297"/>
       <c r="D95" s="129" t="s">
         <v>264</v>
       </c>
@@ -14376,9 +14794,9 @@
       <c r="AA95" s="102"/>
     </row>
     <row r="96" spans="1:27" ht="18" customHeight="1">
-      <c r="A96" s="267"/>
-      <c r="B96" s="267"/>
-      <c r="C96" s="268"/>
+      <c r="A96" s="296"/>
+      <c r="B96" s="296"/>
+      <c r="C96" s="297"/>
       <c r="D96" s="129" t="s">
         <v>248</v>
       </c>
@@ -14415,9 +14833,9 @@
       <c r="AA96" s="143"/>
     </row>
     <row r="97" spans="1:27" s="103" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A97" s="267"/>
-      <c r="B97" s="267"/>
-      <c r="C97" s="268"/>
+      <c r="A97" s="296"/>
+      <c r="B97" s="296"/>
+      <c r="C97" s="297"/>
       <c r="D97" s="129" t="s">
         <v>249</v>
       </c>
@@ -14458,9 +14876,9 @@
       <c r="AA97" s="143"/>
     </row>
     <row r="98" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A98" s="267"/>
-      <c r="B98" s="267"/>
-      <c r="C98" s="268"/>
+      <c r="A98" s="296"/>
+      <c r="B98" s="296"/>
+      <c r="C98" s="297"/>
       <c r="D98" s="129" t="s">
         <v>247</v>
       </c>
@@ -14493,9 +14911,9 @@
       <c r="AA98" s="143"/>
     </row>
     <row r="99" spans="1:27" s="164" customFormat="1" ht="18" customHeight="1">
-      <c r="A99" s="267"/>
-      <c r="B99" s="267"/>
-      <c r="C99" s="268"/>
+      <c r="A99" s="296"/>
+      <c r="B99" s="296"/>
+      <c r="C99" s="297"/>
       <c r="D99" s="129" t="s">
         <v>262</v>
       </c>
@@ -14532,9 +14950,9 @@
       <c r="AA99" s="143"/>
     </row>
     <row r="100" spans="1:27" s="164" customFormat="1" ht="18" customHeight="1">
-      <c r="A100" s="267"/>
-      <c r="B100" s="267"/>
-      <c r="C100" s="268"/>
+      <c r="A100" s="296"/>
+      <c r="B100" s="296"/>
+      <c r="C100" s="297"/>
       <c r="D100" s="129" t="s">
         <v>269</v>
       </c>
@@ -14569,9 +14987,9 @@
       <c r="AA100" s="143"/>
     </row>
     <row r="101" spans="1:27" s="164" customFormat="1" ht="18" customHeight="1">
-      <c r="A101" s="267"/>
-      <c r="B101" s="267"/>
-      <c r="C101" s="268"/>
+      <c r="A101" s="296"/>
+      <c r="B101" s="296"/>
+      <c r="C101" s="297"/>
       <c r="D101" s="129" t="s">
         <v>270</v>
       </c>
@@ -14608,15 +15026,15 @@
       <c r="AA101" s="143"/>
     </row>
     <row r="102" spans="1:27" s="164" customFormat="1" ht="18" customHeight="1">
-      <c r="A102" s="267"/>
-      <c r="B102" s="267"/>
-      <c r="C102" s="268"/>
-      <c r="D102" s="289" t="s">
+      <c r="A102" s="296"/>
+      <c r="B102" s="296"/>
+      <c r="C102" s="297"/>
+      <c r="D102" s="306" t="s">
         <v>269</v>
       </c>
-      <c r="E102" s="290"/>
-      <c r="F102" s="290"/>
-      <c r="G102" s="291"/>
+      <c r="E102" s="307"/>
+      <c r="F102" s="307"/>
+      <c r="G102" s="308"/>
       <c r="H102" s="145" t="s">
         <v>275</v>
       </c>
@@ -14643,13 +15061,13 @@
       <c r="AA102" s="143"/>
     </row>
     <row r="103" spans="1:27" ht="18" customHeight="1">
-      <c r="A103" s="267"/>
-      <c r="B103" s="267"/>
-      <c r="C103" s="268"/>
-      <c r="D103" s="289"/>
-      <c r="E103" s="290"/>
-      <c r="F103" s="290"/>
-      <c r="G103" s="291"/>
+      <c r="A103" s="296"/>
+      <c r="B103" s="296"/>
+      <c r="C103" s="297"/>
+      <c r="D103" s="306"/>
+      <c r="E103" s="307"/>
+      <c r="F103" s="307"/>
+      <c r="G103" s="308"/>
       <c r="H103" s="145" t="s">
         <v>276</v>
       </c>
@@ -14676,13 +15094,13 @@
       <c r="AA103" s="143"/>
     </row>
     <row r="104" spans="1:27" ht="18" customHeight="1">
-      <c r="A104" s="267"/>
-      <c r="B104" s="267"/>
-      <c r="C104" s="268"/>
-      <c r="D104" s="289"/>
-      <c r="E104" s="290"/>
-      <c r="F104" s="290"/>
-      <c r="G104" s="291"/>
+      <c r="A104" s="296"/>
+      <c r="B104" s="296"/>
+      <c r="C104" s="297"/>
+      <c r="D104" s="306"/>
+      <c r="E104" s="307"/>
+      <c r="F104" s="307"/>
+      <c r="G104" s="308"/>
       <c r="H104" s="145" t="s">
         <v>278</v>
       </c>
@@ -14707,13 +15125,13 @@
       <c r="AA104" s="143"/>
     </row>
     <row r="105" spans="1:27" ht="18" customHeight="1">
-      <c r="A105" s="267"/>
-      <c r="B105" s="267"/>
-      <c r="C105" s="268"/>
-      <c r="D105" s="289"/>
-      <c r="E105" s="290"/>
-      <c r="F105" s="290"/>
-      <c r="G105" s="291"/>
+      <c r="A105" s="296"/>
+      <c r="B105" s="296"/>
+      <c r="C105" s="297"/>
+      <c r="D105" s="306"/>
+      <c r="E105" s="307"/>
+      <c r="F105" s="307"/>
+      <c r="G105" s="308"/>
       <c r="H105" s="145" t="s">
         <v>279</v>
       </c>
@@ -14738,13 +15156,13 @@
       <c r="AA105" s="143"/>
     </row>
     <row r="106" spans="1:27" ht="18" customHeight="1">
-      <c r="A106" s="267"/>
-      <c r="B106" s="267"/>
-      <c r="C106" s="268"/>
-      <c r="D106" s="289"/>
-      <c r="E106" s="290"/>
-      <c r="F106" s="290"/>
-      <c r="G106" s="291"/>
+      <c r="A106" s="296"/>
+      <c r="B106" s="296"/>
+      <c r="C106" s="297"/>
+      <c r="D106" s="306"/>
+      <c r="E106" s="307"/>
+      <c r="F106" s="307"/>
+      <c r="G106" s="308"/>
       <c r="H106" s="145" t="s">
         <v>280</v>
       </c>
@@ -14769,15 +15187,15 @@
       <c r="AA106" s="143"/>
     </row>
     <row r="107" spans="1:27">
-      <c r="A107" s="267"/>
-      <c r="B107" s="267"/>
-      <c r="C107" s="268"/>
-      <c r="D107" s="289" t="s">
+      <c r="A107" s="296"/>
+      <c r="B107" s="296"/>
+      <c r="C107" s="297"/>
+      <c r="D107" s="306" t="s">
         <v>285</v>
       </c>
-      <c r="E107" s="290"/>
-      <c r="F107" s="290"/>
-      <c r="G107" s="291"/>
+      <c r="E107" s="307"/>
+      <c r="F107" s="307"/>
+      <c r="G107" s="308"/>
       <c r="H107" s="138" t="s">
         <v>283</v>
       </c>
@@ -14806,13 +15224,13 @@
       <c r="AA107" s="143"/>
     </row>
     <row r="108" spans="1:27" s="28" customFormat="1" ht="18.600000000000001" thickBot="1">
-      <c r="A108" s="269"/>
-      <c r="B108" s="269"/>
-      <c r="C108" s="270"/>
-      <c r="D108" s="300"/>
-      <c r="E108" s="301"/>
-      <c r="F108" s="301"/>
-      <c r="G108" s="302"/>
+      <c r="A108" s="304"/>
+      <c r="B108" s="304"/>
+      <c r="C108" s="305"/>
+      <c r="D108" s="368"/>
+      <c r="E108" s="369"/>
+      <c r="F108" s="369"/>
+      <c r="G108" s="370"/>
       <c r="H108" s="141" t="s">
         <v>284</v>
       </c>
@@ -14837,17 +15255,17 @@
       <c r="AA108" s="144"/>
     </row>
     <row r="109" spans="1:27" s="136" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A109" s="265" t="s">
+      <c r="A109" s="294" t="s">
         <v>286</v>
       </c>
-      <c r="B109" s="265"/>
-      <c r="C109" s="266"/>
-      <c r="D109" s="303" t="s">
+      <c r="B109" s="294"/>
+      <c r="C109" s="295"/>
+      <c r="D109" s="371" t="s">
         <v>289</v>
       </c>
-      <c r="E109" s="304"/>
-      <c r="F109" s="304"/>
-      <c r="G109" s="305"/>
+      <c r="E109" s="372"/>
+      <c r="F109" s="372"/>
+      <c r="G109" s="373"/>
       <c r="H109" s="24" t="s">
         <v>287</v>
       </c>
@@ -14874,9 +15292,9 @@
       <c r="AA109" s="135"/>
     </row>
     <row r="110" spans="1:27" ht="18" customHeight="1">
-      <c r="A110" s="267"/>
-      <c r="B110" s="267"/>
-      <c r="C110" s="268"/>
+      <c r="A110" s="296"/>
+      <c r="B110" s="296"/>
+      <c r="C110" s="297"/>
       <c r="D110" s="104" t="s">
         <v>290</v>
       </c>
@@ -14913,9 +15331,9 @@
       <c r="AA110" s="102"/>
     </row>
     <row r="111" spans="1:27" ht="18" customHeight="1">
-      <c r="A111" s="267"/>
-      <c r="B111" s="267"/>
-      <c r="C111" s="268"/>
+      <c r="A111" s="296"/>
+      <c r="B111" s="296"/>
+      <c r="C111" s="297"/>
       <c r="D111" s="97" t="s">
         <v>291</v>
       </c>
@@ -14950,9 +15368,9 @@
       <c r="AA111" s="102"/>
     </row>
     <row r="112" spans="1:27" s="103" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A112" s="267"/>
-      <c r="B112" s="267"/>
-      <c r="C112" s="268"/>
+      <c r="A112" s="296"/>
+      <c r="B112" s="296"/>
+      <c r="C112" s="297"/>
       <c r="D112" s="104" t="s">
         <v>292</v>
       </c>
@@ -14987,9 +15405,9 @@
       <c r="AA112" s="102"/>
     </row>
     <row r="113" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A113" s="267"/>
-      <c r="B113" s="267"/>
-      <c r="C113" s="268"/>
+      <c r="A113" s="296"/>
+      <c r="B113" s="296"/>
+      <c r="C113" s="297"/>
       <c r="D113" s="104" t="s">
         <v>293</v>
       </c>
@@ -15028,15 +15446,15 @@
       <c r="AA113" s="102"/>
     </row>
     <row r="114" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A114" s="267"/>
-      <c r="B114" s="267"/>
-      <c r="C114" s="268"/>
-      <c r="D114" s="289" t="s">
+      <c r="A114" s="296"/>
+      <c r="B114" s="296"/>
+      <c r="C114" s="297"/>
+      <c r="D114" s="306" t="s">
         <v>307</v>
       </c>
-      <c r="E114" s="290"/>
-      <c r="F114" s="290"/>
-      <c r="G114" s="291"/>
+      <c r="E114" s="307"/>
+      <c r="F114" s="307"/>
+      <c r="G114" s="308"/>
       <c r="H114" s="168" t="s">
         <v>309</v>
       </c>
@@ -15063,15 +15481,15 @@
       <c r="AA114" s="102"/>
     </row>
     <row r="115" spans="1:27">
-      <c r="A115" s="267"/>
-      <c r="B115" s="267"/>
-      <c r="C115" s="268"/>
-      <c r="D115" s="297" t="s">
+      <c r="A115" s="296"/>
+      <c r="B115" s="296"/>
+      <c r="C115" s="297"/>
+      <c r="D115" s="285" t="s">
         <v>286</v>
       </c>
-      <c r="E115" s="298"/>
-      <c r="F115" s="298"/>
-      <c r="G115" s="299"/>
+      <c r="E115" s="286"/>
+      <c r="F115" s="286"/>
+      <c r="G115" s="287"/>
       <c r="H115" s="169" t="s">
         <v>314</v>
       </c>
@@ -15102,13 +15520,13 @@
       <c r="AA115" s="102"/>
     </row>
     <row r="116" spans="1:27" ht="18.600000000000001" thickBot="1">
-      <c r="A116" s="267"/>
-      <c r="B116" s="267"/>
-      <c r="C116" s="268"/>
-      <c r="D116" s="306"/>
-      <c r="E116" s="307"/>
-      <c r="F116" s="307"/>
-      <c r="G116" s="308"/>
+      <c r="A116" s="296"/>
+      <c r="B116" s="296"/>
+      <c r="C116" s="297"/>
+      <c r="D116" s="291"/>
+      <c r="E116" s="292"/>
+      <c r="F116" s="292"/>
+      <c r="G116" s="293"/>
       <c r="H116" s="141"/>
       <c r="I116" s="111"/>
       <c r="J116" s="189"/>
@@ -15135,17 +15553,17 @@
       <c r="AA116" s="111"/>
     </row>
     <row r="117" spans="1:27" s="136" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A117" s="265" t="s">
+      <c r="A117" s="294" t="s">
         <v>431</v>
       </c>
-      <c r="B117" s="265"/>
-      <c r="C117" s="266"/>
-      <c r="D117" s="323" t="s">
+      <c r="B117" s="294"/>
+      <c r="C117" s="295"/>
+      <c r="D117" s="382" t="s">
         <v>432</v>
       </c>
-      <c r="E117" s="304"/>
-      <c r="F117" s="304"/>
-      <c r="G117" s="305"/>
+      <c r="E117" s="372"/>
+      <c r="F117" s="372"/>
+      <c r="G117" s="373"/>
       <c r="H117" s="24" t="s">
         <v>433</v>
       </c>
@@ -15170,9 +15588,9 @@
       <c r="AA117" s="135"/>
     </row>
     <row r="118" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A118" s="269"/>
-      <c r="B118" s="269"/>
-      <c r="C118" s="270"/>
+      <c r="A118" s="304"/>
+      <c r="B118" s="304"/>
+      <c r="C118" s="305"/>
       <c r="D118" s="139" t="s">
         <v>437</v>
       </c>
@@ -15203,11 +15621,11 @@
       <c r="AA118" s="27"/>
     </row>
     <row r="119" spans="1:27" s="226" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A119" s="368" t="s">
+      <c r="A119" s="311" t="s">
         <v>435</v>
       </c>
-      <c r="B119" s="368"/>
-      <c r="C119" s="369"/>
+      <c r="B119" s="311"/>
+      <c r="C119" s="312"/>
       <c r="D119" s="219" t="s">
         <v>437</v>
       </c>
@@ -15238,11 +15656,11 @@
       <c r="AA119" s="223"/>
     </row>
     <row r="120" spans="1:27" s="103" customFormat="1" ht="17.399999999999999" customHeight="1" thickTop="1">
-      <c r="A120" s="265" t="s">
+      <c r="A120" s="294" t="s">
         <v>12</v>
       </c>
-      <c r="B120" s="265"/>
-      <c r="C120" s="266"/>
+      <c r="B120" s="294"/>
+      <c r="C120" s="295"/>
       <c r="D120" s="205" t="s">
         <v>438</v>
       </c>
@@ -15283,9 +15701,9 @@
       <c r="AA120" s="102"/>
     </row>
     <row r="121" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A121" s="267"/>
-      <c r="B121" s="267"/>
-      <c r="C121" s="268"/>
+      <c r="A121" s="296"/>
+      <c r="B121" s="296"/>
+      <c r="C121" s="297"/>
       <c r="D121" s="205" t="s">
         <v>441</v>
       </c>
@@ -15318,15 +15736,15 @@
       <c r="AA121" s="102"/>
     </row>
     <row r="122" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A122" s="267"/>
-      <c r="B122" s="267"/>
-      <c r="C122" s="268"/>
-      <c r="D122" s="289" t="s">
+      <c r="A122" s="296"/>
+      <c r="B122" s="296"/>
+      <c r="C122" s="297"/>
+      <c r="D122" s="306" t="s">
         <v>444</v>
       </c>
-      <c r="E122" s="290"/>
-      <c r="F122" s="290"/>
-      <c r="G122" s="291"/>
+      <c r="E122" s="307"/>
+      <c r="F122" s="307"/>
+      <c r="G122" s="308"/>
       <c r="H122" s="24" t="s">
         <v>443</v>
       </c>
@@ -15355,15 +15773,15 @@
       <c r="AA122" s="102"/>
     </row>
     <row r="123" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A123" s="269"/>
-      <c r="B123" s="269"/>
-      <c r="C123" s="270"/>
-      <c r="D123" s="294" t="s">
+      <c r="A123" s="304"/>
+      <c r="B123" s="304"/>
+      <c r="C123" s="305"/>
+      <c r="D123" s="365" t="s">
         <v>452</v>
       </c>
-      <c r="E123" s="295"/>
-      <c r="F123" s="295"/>
-      <c r="G123" s="296"/>
+      <c r="E123" s="366"/>
+      <c r="F123" s="366"/>
+      <c r="G123" s="367"/>
       <c r="H123" s="125" t="s">
         <v>451</v>
       </c>
@@ -15388,17 +15806,17 @@
       <c r="AA123" s="27"/>
     </row>
     <row r="124" spans="1:27" ht="18" customHeight="1" thickTop="1">
-      <c r="A124" s="265" t="s">
+      <c r="A124" s="294" t="s">
         <v>9</v>
       </c>
-      <c r="B124" s="265"/>
-      <c r="C124" s="266"/>
-      <c r="D124" s="275" t="s">
+      <c r="B124" s="294"/>
+      <c r="C124" s="295"/>
+      <c r="D124" s="313" t="s">
         <v>168</v>
       </c>
-      <c r="E124" s="276"/>
-      <c r="F124" s="276"/>
-      <c r="G124" s="277"/>
+      <c r="E124" s="314"/>
+      <c r="F124" s="314"/>
+      <c r="G124" s="315"/>
       <c r="H124" s="109" t="s">
         <v>453</v>
       </c>
@@ -15423,13 +15841,13 @@
       <c r="AA124" s="102"/>
     </row>
     <row r="125" spans="1:27" ht="18" customHeight="1" thickBot="1">
-      <c r="A125" s="267"/>
-      <c r="B125" s="267"/>
-      <c r="C125" s="268"/>
-      <c r="D125" s="317"/>
-      <c r="E125" s="318"/>
-      <c r="F125" s="318"/>
-      <c r="G125" s="319"/>
+      <c r="A125" s="296"/>
+      <c r="B125" s="296"/>
+      <c r="C125" s="297"/>
+      <c r="D125" s="376"/>
+      <c r="E125" s="377"/>
+      <c r="F125" s="377"/>
+      <c r="G125" s="378"/>
       <c r="H125" s="138" t="s">
         <v>10</v>
       </c>
@@ -15456,17 +15874,17 @@
       <c r="AA125" s="102"/>
     </row>
     <row r="126" spans="1:27" ht="18" customHeight="1" thickTop="1">
-      <c r="A126" s="265" t="s">
+      <c r="A126" s="294" t="s">
         <v>471</v>
       </c>
-      <c r="B126" s="265"/>
-      <c r="C126" s="266"/>
-      <c r="D126" s="275" t="s">
+      <c r="B126" s="294"/>
+      <c r="C126" s="295"/>
+      <c r="D126" s="313" t="s">
         <v>473</v>
       </c>
-      <c r="E126" s="276"/>
-      <c r="F126" s="276"/>
-      <c r="G126" s="277"/>
+      <c r="E126" s="314"/>
+      <c r="F126" s="314"/>
+      <c r="G126" s="315"/>
       <c r="H126" s="24" t="s">
         <v>472</v>
       </c>
@@ -15501,13 +15919,13 @@
       <c r="AA126" s="102"/>
     </row>
     <row r="127" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A127" s="267"/>
-      <c r="B127" s="267"/>
-      <c r="C127" s="268"/>
-      <c r="D127" s="306"/>
-      <c r="E127" s="307"/>
-      <c r="F127" s="307"/>
-      <c r="G127" s="308"/>
+      <c r="A127" s="296"/>
+      <c r="B127" s="296"/>
+      <c r="C127" s="297"/>
+      <c r="D127" s="291"/>
+      <c r="E127" s="292"/>
+      <c r="F127" s="292"/>
+      <c r="G127" s="293"/>
       <c r="H127" s="24" t="s">
         <v>484</v>
       </c>
@@ -15538,9 +15956,9 @@
       <c r="AA127" s="102"/>
     </row>
     <row r="128" spans="1:27" s="103" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A128" s="267"/>
-      <c r="B128" s="267"/>
-      <c r="C128" s="268"/>
+      <c r="A128" s="296"/>
+      <c r="B128" s="296"/>
+      <c r="C128" s="297"/>
       <c r="D128" s="206" t="s">
         <v>474</v>
       </c>
@@ -15577,9 +15995,9 @@
       <c r="AA128" s="102"/>
     </row>
     <row r="129" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A129" s="269"/>
-      <c r="B129" s="269"/>
-      <c r="C129" s="270"/>
+      <c r="A129" s="304"/>
+      <c r="B129" s="304"/>
+      <c r="C129" s="305"/>
       <c r="D129" s="139" t="s">
         <v>482</v>
       </c>
@@ -15610,42 +16028,42 @@
       <c r="AA129" s="27"/>
     </row>
     <row r="130" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1" thickTop="1">
-      <c r="A130" s="265" t="s">
+      <c r="A130" s="294" t="s">
         <v>488</v>
       </c>
-      <c r="B130" s="265"/>
-      <c r="C130" s="266"/>
-      <c r="D130" s="311" t="s">
+      <c r="B130" s="294"/>
+      <c r="C130" s="295"/>
+      <c r="D130" s="316" t="s">
         <v>461</v>
       </c>
-      <c r="E130" s="312"/>
-      <c r="F130" s="312"/>
-      <c r="G130" s="313"/>
+      <c r="E130" s="317"/>
+      <c r="F130" s="317"/>
+      <c r="G130" s="318"/>
       <c r="H130" s="138" t="s">
         <v>462</v>
       </c>
       <c r="I130" s="143"/>
       <c r="J130" s="143"/>
-      <c r="K130" s="262" t="s">
+      <c r="K130" s="322" t="s">
         <v>165</v>
       </c>
-      <c r="L130" s="262"/>
-      <c r="M130" s="258" t="s">
+      <c r="L130" s="322"/>
+      <c r="M130" s="389" t="s">
         <v>181</v>
       </c>
-      <c r="N130" s="258"/>
-      <c r="O130" s="262" t="s">
+      <c r="N130" s="389"/>
+      <c r="O130" s="322" t="s">
         <v>463</v>
       </c>
-      <c r="P130" s="262"/>
-      <c r="Q130" s="262" t="s">
+      <c r="P130" s="322"/>
+      <c r="Q130" s="322" t="s">
         <v>464</v>
       </c>
-      <c r="R130" s="263"/>
-      <c r="S130" s="260" t="s">
+      <c r="R130" s="392"/>
+      <c r="S130" s="390" t="s">
         <v>465</v>
       </c>
-      <c r="T130" s="260"/>
+      <c r="T130" s="390"/>
       <c r="U130" s="143"/>
       <c r="V130" s="143"/>
       <c r="W130" s="143"/>
@@ -15655,28 +16073,28 @@
       <c r="AA130" s="102"/>
     </row>
     <row r="131" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A131" s="269"/>
-      <c r="B131" s="269"/>
-      <c r="C131" s="270"/>
-      <c r="D131" s="278"/>
-      <c r="E131" s="279"/>
-      <c r="F131" s="279"/>
-      <c r="G131" s="280"/>
+      <c r="A131" s="304"/>
+      <c r="B131" s="304"/>
+      <c r="C131" s="305"/>
+      <c r="D131" s="319"/>
+      <c r="E131" s="320"/>
+      <c r="F131" s="320"/>
+      <c r="G131" s="321"/>
       <c r="H131" s="125" t="s">
         <v>466</v>
       </c>
       <c r="I131" s="144"/>
       <c r="J131" s="144"/>
-      <c r="K131" s="259"/>
-      <c r="L131" s="259"/>
-      <c r="M131" s="259"/>
-      <c r="N131" s="259"/>
-      <c r="O131" s="259"/>
-      <c r="P131" s="259"/>
-      <c r="Q131" s="259"/>
-      <c r="R131" s="264"/>
-      <c r="S131" s="261"/>
-      <c r="T131" s="261"/>
+      <c r="K131" s="323"/>
+      <c r="L131" s="323"/>
+      <c r="M131" s="323"/>
+      <c r="N131" s="323"/>
+      <c r="O131" s="323"/>
+      <c r="P131" s="323"/>
+      <c r="Q131" s="323"/>
+      <c r="R131" s="393"/>
+      <c r="S131" s="391"/>
+      <c r="T131" s="391"/>
       <c r="U131" s="144"/>
       <c r="V131" s="144"/>
       <c r="W131" s="144"/>
@@ -15686,17 +16104,17 @@
       <c r="AA131" s="27"/>
     </row>
     <row r="132" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1" thickTop="1">
-      <c r="A132" s="265" t="s">
+      <c r="A132" s="294" t="s">
         <v>490</v>
       </c>
-      <c r="B132" s="265"/>
-      <c r="C132" s="266"/>
-      <c r="D132" s="306" t="s">
+      <c r="B132" s="294"/>
+      <c r="C132" s="295"/>
+      <c r="D132" s="291" t="s">
         <v>490</v>
       </c>
-      <c r="E132" s="307"/>
-      <c r="F132" s="307"/>
-      <c r="G132" s="308"/>
+      <c r="E132" s="292"/>
+      <c r="F132" s="292"/>
+      <c r="G132" s="293"/>
       <c r="H132" s="24" t="s">
         <v>491</v>
       </c>
@@ -15727,9 +16145,9 @@
       <c r="AA132" s="102"/>
     </row>
     <row r="133" spans="1:27" ht="18" customHeight="1">
-      <c r="A133" s="267"/>
-      <c r="B133" s="267"/>
-      <c r="C133" s="268"/>
+      <c r="A133" s="296"/>
+      <c r="B133" s="296"/>
+      <c r="C133" s="297"/>
       <c r="D133" s="205" t="s">
         <v>494</v>
       </c>
@@ -15768,9 +16186,9 @@
       <c r="AA133" s="102"/>
     </row>
     <row r="134" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A134" s="269"/>
-      <c r="B134" s="269"/>
-      <c r="C134" s="270"/>
+      <c r="A134" s="304"/>
+      <c r="B134" s="304"/>
+      <c r="C134" s="305"/>
       <c r="D134" s="230" t="s">
         <v>495</v>
       </c>
@@ -15801,11 +16219,11 @@
       <c r="AA134" s="27"/>
     </row>
     <row r="135" spans="1:27" s="103" customFormat="1" ht="17.399999999999999" customHeight="1" thickTop="1">
-      <c r="A135" s="265" t="s">
+      <c r="A135" s="294" t="s">
         <v>499</v>
       </c>
-      <c r="B135" s="265"/>
-      <c r="C135" s="266"/>
+      <c r="B135" s="294"/>
+      <c r="C135" s="295"/>
       <c r="D135" s="205" t="s">
         <v>500</v>
       </c>
@@ -15840,9 +16258,9 @@
       <c r="AA135" s="21"/>
     </row>
     <row r="136" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A136" s="267"/>
-      <c r="B136" s="267"/>
-      <c r="C136" s="268"/>
+      <c r="A136" s="296"/>
+      <c r="B136" s="296"/>
+      <c r="C136" s="297"/>
       <c r="D136" s="205" t="s">
         <v>502</v>
       </c>
@@ -15873,15 +16291,15 @@
       <c r="AA136" s="143"/>
     </row>
     <row r="137" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A137" s="267"/>
-      <c r="B137" s="267"/>
-      <c r="C137" s="268"/>
-      <c r="D137" s="289" t="s">
+      <c r="A137" s="296"/>
+      <c r="B137" s="296"/>
+      <c r="C137" s="297"/>
+      <c r="D137" s="306" t="s">
         <v>503</v>
       </c>
-      <c r="E137" s="290"/>
-      <c r="F137" s="290"/>
-      <c r="G137" s="291"/>
+      <c r="E137" s="307"/>
+      <c r="F137" s="307"/>
+      <c r="G137" s="308"/>
       <c r="H137" s="245" t="s">
         <v>516</v>
       </c>
@@ -15912,15 +16330,15 @@
       <c r="AA137" s="143"/>
     </row>
     <row r="138" spans="1:27" ht="18" customHeight="1">
-      <c r="A138" s="267"/>
-      <c r="B138" s="267"/>
-      <c r="C138" s="268"/>
-      <c r="D138" s="289" t="s">
+      <c r="A138" s="296"/>
+      <c r="B138" s="296"/>
+      <c r="C138" s="297"/>
+      <c r="D138" s="306" t="s">
         <v>507</v>
       </c>
-      <c r="E138" s="290"/>
-      <c r="F138" s="290"/>
-      <c r="G138" s="291"/>
+      <c r="E138" s="307"/>
+      <c r="F138" s="307"/>
+      <c r="G138" s="308"/>
       <c r="H138" s="245" t="s">
         <v>517</v>
       </c>
@@ -15947,9 +16365,9 @@
       <c r="AA138" s="143"/>
     </row>
     <row r="139" spans="1:27" ht="18" customHeight="1">
-      <c r="A139" s="267"/>
-      <c r="B139" s="267"/>
-      <c r="C139" s="268"/>
+      <c r="A139" s="296"/>
+      <c r="B139" s="296"/>
+      <c r="C139" s="297"/>
       <c r="D139" s="205" t="s">
         <v>508</v>
       </c>
@@ -15986,9 +16404,9 @@
       <c r="AA139" s="143"/>
     </row>
     <row r="140" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A140" s="269"/>
-      <c r="B140" s="269"/>
-      <c r="C140" s="270"/>
+      <c r="A140" s="304"/>
+      <c r="B140" s="304"/>
+      <c r="C140" s="305"/>
       <c r="D140" s="230" t="s">
         <v>509</v>
       </c>
@@ -16021,11 +16439,11 @@
       <c r="AA140" s="27"/>
     </row>
     <row r="141" spans="1:27" s="103" customFormat="1" ht="17.399999999999999" customHeight="1" thickTop="1">
-      <c r="A141" s="265" t="s">
+      <c r="A141" s="294" t="s">
         <v>512</v>
       </c>
-      <c r="B141" s="265"/>
-      <c r="C141" s="266"/>
+      <c r="B141" s="294"/>
+      <c r="C141" s="295"/>
       <c r="D141" s="205"/>
       <c r="E141" s="105"/>
       <c r="F141" s="105"/>
@@ -16054,9 +16472,9 @@
       <c r="AA141" s="102"/>
     </row>
     <row r="142" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A142" s="269"/>
-      <c r="B142" s="269"/>
-      <c r="C142" s="270"/>
+      <c r="A142" s="304"/>
+      <c r="B142" s="304"/>
+      <c r="C142" s="305"/>
       <c r="D142" s="230"/>
       <c r="E142" s="87"/>
       <c r="F142" s="87"/>
@@ -16085,17 +16503,17 @@
       <c r="AA142" s="27"/>
     </row>
     <row r="143" spans="1:27" ht="18" customHeight="1" thickTop="1">
-      <c r="A143" s="265" t="s">
+      <c r="A143" s="294" t="s">
         <v>524</v>
       </c>
-      <c r="B143" s="265"/>
-      <c r="C143" s="266"/>
-      <c r="D143" s="275" t="s">
+      <c r="B143" s="294"/>
+      <c r="C143" s="295"/>
+      <c r="D143" s="313" t="s">
         <v>525</v>
       </c>
-      <c r="E143" s="276"/>
-      <c r="F143" s="276"/>
-      <c r="G143" s="277"/>
+      <c r="E143" s="314"/>
+      <c r="F143" s="314"/>
+      <c r="G143" s="315"/>
       <c r="H143" s="109" t="s">
         <v>526</v>
       </c>
@@ -16122,13 +16540,13 @@
       <c r="AA143" s="102"/>
     </row>
     <row r="144" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A144" s="269"/>
-      <c r="B144" s="269"/>
-      <c r="C144" s="270"/>
-      <c r="D144" s="278"/>
-      <c r="E144" s="279"/>
-      <c r="F144" s="279"/>
-      <c r="G144" s="280"/>
+      <c r="A144" s="304"/>
+      <c r="B144" s="304"/>
+      <c r="C144" s="305"/>
+      <c r="D144" s="319"/>
+      <c r="E144" s="320"/>
+      <c r="F144" s="320"/>
+      <c r="G144" s="321"/>
       <c r="H144" s="141" t="s">
         <v>527</v>
       </c>
@@ -16157,11 +16575,11 @@
       <c r="AA144" s="27"/>
     </row>
     <row r="145" spans="1:27" s="103" customFormat="1" ht="17.399999999999999" customHeight="1" thickTop="1">
-      <c r="A145" s="265" t="s">
+      <c r="A145" s="294" t="s">
         <v>530</v>
       </c>
-      <c r="B145" s="265"/>
-      <c r="C145" s="266"/>
+      <c r="B145" s="294"/>
+      <c r="C145" s="295"/>
       <c r="D145" s="229"/>
       <c r="E145" s="105"/>
       <c r="F145" s="105"/>
@@ -16192,9 +16610,9 @@
       <c r="AA145" s="102"/>
     </row>
     <row r="146" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A146" s="269"/>
-      <c r="B146" s="269"/>
-      <c r="C146" s="270"/>
+      <c r="A146" s="304"/>
+      <c r="B146" s="304"/>
+      <c r="C146" s="305"/>
       <c r="D146" s="230" t="s">
         <v>532</v>
       </c>
@@ -16225,11 +16643,11 @@
       <c r="AA146" s="27"/>
     </row>
     <row r="147" spans="1:27" s="226" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A147" s="368" t="s">
+      <c r="A147" s="311" t="s">
         <v>535</v>
       </c>
-      <c r="B147" s="368"/>
-      <c r="C147" s="369"/>
+      <c r="B147" s="311"/>
+      <c r="C147" s="312"/>
       <c r="D147" s="219" t="s">
         <v>537</v>
       </c>
@@ -17003,17 +17421,17 @@
       <c r="V173" s="197"/>
     </row>
     <row r="174" spans="1:27" ht="18" customHeight="1">
-      <c r="A174" s="292" t="s">
+      <c r="A174" s="363" t="s">
         <v>359</v>
       </c>
-      <c r="B174" s="292"/>
-      <c r="C174" s="293"/>
-      <c r="D174" s="297" t="s">
+      <c r="B174" s="363"/>
+      <c r="C174" s="364"/>
+      <c r="D174" s="285" t="s">
         <v>1</v>
       </c>
-      <c r="E174" s="298"/>
-      <c r="F174" s="298"/>
-      <c r="G174" s="299"/>
+      <c r="E174" s="286"/>
+      <c r="F174" s="286"/>
+      <c r="G174" s="287"/>
       <c r="H174" s="145" t="s">
         <v>467</v>
       </c>
@@ -17040,110 +17458,110 @@
       <c r="AA174" s="187"/>
     </row>
     <row r="175" spans="1:27" ht="18" customHeight="1">
-      <c r="A175" s="267"/>
-      <c r="B175" s="267"/>
-      <c r="C175" s="268"/>
-      <c r="D175" s="314"/>
-      <c r="E175" s="315"/>
-      <c r="F175" s="315"/>
-      <c r="G175" s="316"/>
+      <c r="A175" s="296"/>
+      <c r="B175" s="296"/>
+      <c r="C175" s="297"/>
+      <c r="D175" s="288"/>
+      <c r="E175" s="289"/>
+      <c r="F175" s="289"/>
+      <c r="G175" s="290"/>
       <c r="H175" s="145" t="s">
         <v>469</v>
       </c>
       <c r="I175" s="187"/>
       <c r="J175" s="187"/>
       <c r="K175" s="187"/>
-      <c r="L175" s="271" t="s">
+      <c r="L175" s="394" t="s">
         <v>498</v>
       </c>
-      <c r="M175" s="272"/>
-      <c r="N175" s="272"/>
-      <c r="O175" s="272"/>
-      <c r="P175" s="272"/>
-      <c r="Q175" s="272"/>
-      <c r="R175" s="272"/>
-      <c r="S175" s="272"/>
-      <c r="T175" s="272"/>
-      <c r="U175" s="272"/>
-      <c r="V175" s="272"/>
-      <c r="W175" s="272"/>
-      <c r="X175" s="272"/>
-      <c r="Y175" s="272"/>
-      <c r="Z175" s="272"/>
+      <c r="M175" s="299"/>
+      <c r="N175" s="299"/>
+      <c r="O175" s="299"/>
+      <c r="P175" s="299"/>
+      <c r="Q175" s="299"/>
+      <c r="R175" s="299"/>
+      <c r="S175" s="299"/>
+      <c r="T175" s="299"/>
+      <c r="U175" s="299"/>
+      <c r="V175" s="299"/>
+      <c r="W175" s="299"/>
+      <c r="X175" s="299"/>
+      <c r="Y175" s="299"/>
+      <c r="Z175" s="299"/>
       <c r="AA175" s="187"/>
     </row>
     <row r="176" spans="1:27" ht="18" customHeight="1">
-      <c r="A176" s="267"/>
-      <c r="B176" s="267"/>
-      <c r="C176" s="268"/>
-      <c r="D176" s="314"/>
-      <c r="E176" s="315"/>
-      <c r="F176" s="315"/>
-      <c r="G176" s="316"/>
+      <c r="A176" s="296"/>
+      <c r="B176" s="296"/>
+      <c r="C176" s="297"/>
+      <c r="D176" s="288"/>
+      <c r="E176" s="289"/>
+      <c r="F176" s="289"/>
+      <c r="G176" s="290"/>
       <c r="H176" s="145" t="s">
         <v>470</v>
       </c>
       <c r="I176" s="187"/>
       <c r="J176" s="187"/>
       <c r="K176" s="187"/>
-      <c r="L176" s="273"/>
-      <c r="M176" s="273"/>
-      <c r="N176" s="273"/>
-      <c r="O176" s="273"/>
-      <c r="P176" s="273"/>
-      <c r="Q176" s="273"/>
-      <c r="R176" s="273"/>
-      <c r="S176" s="273"/>
-      <c r="T176" s="273"/>
-      <c r="U176" s="273"/>
-      <c r="V176" s="273"/>
-      <c r="W176" s="273"/>
-      <c r="X176" s="273"/>
-      <c r="Y176" s="273"/>
-      <c r="Z176" s="273"/>
+      <c r="L176" s="301"/>
+      <c r="M176" s="301"/>
+      <c r="N176" s="301"/>
+      <c r="O176" s="301"/>
+      <c r="P176" s="301"/>
+      <c r="Q176" s="301"/>
+      <c r="R176" s="301"/>
+      <c r="S176" s="301"/>
+      <c r="T176" s="301"/>
+      <c r="U176" s="301"/>
+      <c r="V176" s="301"/>
+      <c r="W176" s="301"/>
+      <c r="X176" s="301"/>
+      <c r="Y176" s="301"/>
+      <c r="Z176" s="301"/>
       <c r="AA176" s="187"/>
     </row>
     <row r="177" spans="1:27" ht="18" customHeight="1">
-      <c r="A177" s="267"/>
-      <c r="B177" s="267"/>
-      <c r="C177" s="268"/>
-      <c r="D177" s="306"/>
-      <c r="E177" s="307"/>
-      <c r="F177" s="307"/>
-      <c r="G177" s="308"/>
+      <c r="A177" s="296"/>
+      <c r="B177" s="296"/>
+      <c r="C177" s="297"/>
+      <c r="D177" s="291"/>
+      <c r="E177" s="292"/>
+      <c r="F177" s="292"/>
+      <c r="G177" s="293"/>
       <c r="H177" s="145" t="s">
         <v>497</v>
       </c>
       <c r="I177" s="187"/>
       <c r="J177" s="187"/>
       <c r="K177" s="187"/>
-      <c r="L177" s="274"/>
-      <c r="M177" s="274"/>
-      <c r="N177" s="274"/>
-      <c r="O177" s="274"/>
-      <c r="P177" s="274"/>
-      <c r="Q177" s="274"/>
-      <c r="R177" s="274"/>
-      <c r="S177" s="274"/>
-      <c r="T177" s="274"/>
-      <c r="U177" s="274"/>
-      <c r="V177" s="274"/>
-      <c r="W177" s="274"/>
-      <c r="X177" s="274"/>
-      <c r="Y177" s="274"/>
-      <c r="Z177" s="274"/>
+      <c r="L177" s="303"/>
+      <c r="M177" s="303"/>
+      <c r="N177" s="303"/>
+      <c r="O177" s="303"/>
+      <c r="P177" s="303"/>
+      <c r="Q177" s="303"/>
+      <c r="R177" s="303"/>
+      <c r="S177" s="303"/>
+      <c r="T177" s="303"/>
+      <c r="U177" s="303"/>
+      <c r="V177" s="303"/>
+      <c r="W177" s="303"/>
+      <c r="X177" s="303"/>
+      <c r="Y177" s="303"/>
+      <c r="Z177" s="303"/>
       <c r="AA177" s="187"/>
     </row>
     <row r="178" spans="1:27" ht="18" customHeight="1">
-      <c r="A178" s="267"/>
-      <c r="B178" s="267"/>
-      <c r="C178" s="268"/>
-      <c r="D178" s="289" t="s">
+      <c r="A178" s="296"/>
+      <c r="B178" s="296"/>
+      <c r="C178" s="297"/>
+      <c r="D178" s="306" t="s">
         <v>348</v>
       </c>
-      <c r="E178" s="290"/>
-      <c r="F178" s="290"/>
-      <c r="G178" s="291"/>
+      <c r="E178" s="307"/>
+      <c r="F178" s="307"/>
+      <c r="G178" s="308"/>
       <c r="H178" s="145" t="s">
         <v>317</v>
       </c>
@@ -17168,15 +17586,15 @@
       <c r="AA178" s="187"/>
     </row>
     <row r="179" spans="1:27" ht="18" customHeight="1">
-      <c r="A179" s="267"/>
-      <c r="B179" s="267"/>
-      <c r="C179" s="268"/>
-      <c r="D179" s="297" t="s">
+      <c r="A179" s="296"/>
+      <c r="B179" s="296"/>
+      <c r="C179" s="297"/>
+      <c r="D179" s="285" t="s">
         <v>360</v>
       </c>
-      <c r="E179" s="298"/>
-      <c r="F179" s="298"/>
-      <c r="G179" s="299"/>
+      <c r="E179" s="286"/>
+      <c r="F179" s="286"/>
+      <c r="G179" s="287"/>
       <c r="H179" s="145" t="s">
         <v>361</v>
       </c>
@@ -17201,13 +17619,13 @@
       <c r="AA179" s="171"/>
     </row>
     <row r="180" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A180" s="269"/>
-      <c r="B180" s="269"/>
-      <c r="C180" s="270"/>
-      <c r="D180" s="278"/>
-      <c r="E180" s="279"/>
-      <c r="F180" s="279"/>
-      <c r="G180" s="280"/>
+      <c r="A180" s="304"/>
+      <c r="B180" s="304"/>
+      <c r="C180" s="305"/>
+      <c r="D180" s="319"/>
+      <c r="E180" s="320"/>
+      <c r="F180" s="320"/>
+      <c r="G180" s="321"/>
       <c r="H180" s="218" t="s">
         <v>362</v>
       </c>
@@ -17232,11 +17650,11 @@
       <c r="AA180" s="188"/>
     </row>
     <row r="181" spans="1:27" ht="18" customHeight="1" thickTop="1">
-      <c r="A181" s="267" t="s">
+      <c r="A181" s="296" t="s">
         <v>315</v>
       </c>
-      <c r="B181" s="267"/>
-      <c r="C181" s="268"/>
+      <c r="B181" s="296"/>
+      <c r="C181" s="297"/>
       <c r="D181" s="184" t="s">
         <v>316</v>
       </c>
@@ -17271,13 +17689,13 @@
       <c r="AA181" s="187"/>
     </row>
     <row r="182" spans="1:27" ht="18" customHeight="1">
-      <c r="A182" s="267"/>
-      <c r="B182" s="267"/>
-      <c r="C182" s="268"/>
-      <c r="D182" s="315"/>
-      <c r="E182" s="315"/>
-      <c r="F182" s="315"/>
-      <c r="G182" s="316"/>
+      <c r="A182" s="296"/>
+      <c r="B182" s="296"/>
+      <c r="C182" s="297"/>
+      <c r="D182" s="289"/>
+      <c r="E182" s="289"/>
+      <c r="F182" s="289"/>
+      <c r="G182" s="290"/>
       <c r="H182" s="145" t="s">
         <v>318</v>
       </c>
@@ -17306,13 +17724,13 @@
       <c r="AA182" s="171"/>
     </row>
     <row r="183" spans="1:27" ht="18" customHeight="1">
-      <c r="A183" s="267"/>
-      <c r="B183" s="267"/>
-      <c r="C183" s="268"/>
-      <c r="D183" s="315"/>
-      <c r="E183" s="315"/>
-      <c r="F183" s="315"/>
-      <c r="G183" s="316"/>
+      <c r="A183" s="296"/>
+      <c r="B183" s="296"/>
+      <c r="C183" s="297"/>
+      <c r="D183" s="289"/>
+      <c r="E183" s="289"/>
+      <c r="F183" s="289"/>
+      <c r="G183" s="290"/>
       <c r="H183" s="171"/>
       <c r="I183" s="143"/>
       <c r="J183" s="143"/>
@@ -17339,13 +17757,13 @@
       <c r="AA183" s="171"/>
     </row>
     <row r="184" spans="1:27" ht="18" customHeight="1">
-      <c r="A184" s="267"/>
-      <c r="B184" s="267"/>
-      <c r="C184" s="268"/>
-      <c r="D184" s="315"/>
-      <c r="E184" s="315"/>
-      <c r="F184" s="315"/>
-      <c r="G184" s="316"/>
+      <c r="A184" s="296"/>
+      <c r="B184" s="296"/>
+      <c r="C184" s="297"/>
+      <c r="D184" s="289"/>
+      <c r="E184" s="289"/>
+      <c r="F184" s="289"/>
+      <c r="G184" s="290"/>
       <c r="H184" s="145" t="s">
         <v>323</v>
       </c>
@@ -17376,13 +17794,13 @@
       <c r="AA184" s="171"/>
     </row>
     <row r="185" spans="1:27" ht="18" customHeight="1">
-      <c r="A185" s="267"/>
-      <c r="B185" s="267"/>
-      <c r="C185" s="268"/>
-      <c r="D185" s="315"/>
-      <c r="E185" s="315"/>
-      <c r="F185" s="315"/>
-      <c r="G185" s="316"/>
+      <c r="A185" s="296"/>
+      <c r="B185" s="296"/>
+      <c r="C185" s="297"/>
+      <c r="D185" s="289"/>
+      <c r="E185" s="289"/>
+      <c r="F185" s="289"/>
+      <c r="G185" s="290"/>
       <c r="H185" s="145" t="s">
         <v>327</v>
       </c>
@@ -17413,13 +17831,13 @@
       <c r="AA185" s="171"/>
     </row>
     <row r="186" spans="1:27" ht="18" customHeight="1">
-      <c r="A186" s="267"/>
-      <c r="B186" s="267"/>
-      <c r="C186" s="268"/>
-      <c r="D186" s="315"/>
-      <c r="E186" s="315"/>
-      <c r="F186" s="315"/>
-      <c r="G186" s="316"/>
+      <c r="A186" s="296"/>
+      <c r="B186" s="296"/>
+      <c r="C186" s="297"/>
+      <c r="D186" s="289"/>
+      <c r="E186" s="289"/>
+      <c r="F186" s="289"/>
+      <c r="G186" s="290"/>
       <c r="H186" s="145" t="s">
         <v>338</v>
       </c>
@@ -17450,13 +17868,13 @@
       <c r="AA186" s="143"/>
     </row>
     <row r="187" spans="1:27" ht="18" customHeight="1">
-      <c r="A187" s="267"/>
-      <c r="B187" s="267"/>
-      <c r="C187" s="268"/>
-      <c r="D187" s="315"/>
-      <c r="E187" s="315"/>
-      <c r="F187" s="315"/>
-      <c r="G187" s="316"/>
+      <c r="A187" s="296"/>
+      <c r="B187" s="296"/>
+      <c r="C187" s="297"/>
+      <c r="D187" s="289"/>
+      <c r="E187" s="289"/>
+      <c r="F187" s="289"/>
+      <c r="G187" s="290"/>
       <c r="H187" s="143"/>
       <c r="I187" s="143"/>
       <c r="J187" s="143"/>
@@ -17485,13 +17903,13 @@
       <c r="AA187" s="143"/>
     </row>
     <row r="188" spans="1:27" ht="18" customHeight="1">
-      <c r="A188" s="267"/>
-      <c r="B188" s="267"/>
-      <c r="C188" s="268"/>
-      <c r="D188" s="315"/>
-      <c r="E188" s="315"/>
-      <c r="F188" s="315"/>
-      <c r="G188" s="316"/>
+      <c r="A188" s="296"/>
+      <c r="B188" s="296"/>
+      <c r="C188" s="297"/>
+      <c r="D188" s="289"/>
+      <c r="E188" s="289"/>
+      <c r="F188" s="289"/>
+      <c r="G188" s="290"/>
       <c r="H188" s="143"/>
       <c r="I188" s="143"/>
       <c r="J188" s="143"/>
@@ -17518,13 +17936,13 @@
       <c r="AA188" s="143"/>
     </row>
     <row r="189" spans="1:27" ht="18" customHeight="1">
-      <c r="A189" s="267"/>
-      <c r="B189" s="267"/>
-      <c r="C189" s="268"/>
-      <c r="D189" s="315"/>
-      <c r="E189" s="315"/>
-      <c r="F189" s="315"/>
-      <c r="G189" s="316"/>
+      <c r="A189" s="296"/>
+      <c r="B189" s="296"/>
+      <c r="C189" s="297"/>
+      <c r="D189" s="289"/>
+      <c r="E189" s="289"/>
+      <c r="F189" s="289"/>
+      <c r="G189" s="290"/>
       <c r="H189" s="145" t="s">
         <v>342</v>
       </c>
@@ -17553,13 +17971,13 @@
       <c r="AA189" s="143"/>
     </row>
     <row r="190" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A190" s="267"/>
-      <c r="B190" s="267"/>
-      <c r="C190" s="268"/>
-      <c r="D190" s="315"/>
-      <c r="E190" s="315"/>
-      <c r="F190" s="315"/>
-      <c r="G190" s="316"/>
+      <c r="A190" s="296"/>
+      <c r="B190" s="296"/>
+      <c r="C190" s="297"/>
+      <c r="D190" s="289"/>
+      <c r="E190" s="289"/>
+      <c r="F190" s="289"/>
+      <c r="G190" s="290"/>
       <c r="H190" s="143"/>
       <c r="I190" s="143"/>
       <c r="J190" s="143"/>
@@ -17586,13 +18004,13 @@
       <c r="AA190" s="171"/>
     </row>
     <row r="191" spans="1:27" ht="18" customHeight="1">
-      <c r="A191" s="267"/>
-      <c r="B191" s="267"/>
-      <c r="C191" s="268"/>
-      <c r="D191" s="315"/>
-      <c r="E191" s="315"/>
-      <c r="F191" s="315"/>
-      <c r="G191" s="316"/>
+      <c r="A191" s="296"/>
+      <c r="B191" s="296"/>
+      <c r="C191" s="297"/>
+      <c r="D191" s="289"/>
+      <c r="E191" s="289"/>
+      <c r="F191" s="289"/>
+      <c r="G191" s="290"/>
       <c r="H191" s="143"/>
       <c r="I191" s="143"/>
       <c r="J191" s="143"/>
@@ -17617,13 +18035,13 @@
       <c r="AA191" s="143"/>
     </row>
     <row r="192" spans="1:27" ht="18" customHeight="1">
-      <c r="A192" s="267"/>
-      <c r="B192" s="267"/>
-      <c r="C192" s="268"/>
-      <c r="D192" s="315"/>
-      <c r="E192" s="315"/>
-      <c r="F192" s="315"/>
-      <c r="G192" s="316"/>
+      <c r="A192" s="296"/>
+      <c r="B192" s="296"/>
+      <c r="C192" s="297"/>
+      <c r="D192" s="289"/>
+      <c r="E192" s="289"/>
+      <c r="F192" s="289"/>
+      <c r="G192" s="290"/>
       <c r="H192" s="171"/>
       <c r="I192" s="171"/>
       <c r="J192" s="171"/>
@@ -17650,13 +18068,13 @@
       <c r="AA192" s="171"/>
     </row>
     <row r="193" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A193" s="267"/>
-      <c r="B193" s="267"/>
-      <c r="C193" s="268"/>
-      <c r="D193" s="315"/>
-      <c r="E193" s="315"/>
-      <c r="F193" s="315"/>
-      <c r="G193" s="316"/>
+      <c r="A193" s="296"/>
+      <c r="B193" s="296"/>
+      <c r="C193" s="297"/>
+      <c r="D193" s="289"/>
+      <c r="E193" s="289"/>
+      <c r="F193" s="289"/>
+      <c r="G193" s="290"/>
       <c r="H193" s="145" t="s">
         <v>343</v>
       </c>
@@ -17685,13 +18103,13 @@
       <c r="AA193" s="171"/>
     </row>
     <row r="194" spans="1:27" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A194" s="267"/>
-      <c r="B194" s="267"/>
-      <c r="C194" s="268"/>
-      <c r="D194" s="315"/>
-      <c r="E194" s="315"/>
-      <c r="F194" s="315"/>
-      <c r="G194" s="316"/>
+      <c r="A194" s="296"/>
+      <c r="B194" s="296"/>
+      <c r="C194" s="297"/>
+      <c r="D194" s="289"/>
+      <c r="E194" s="289"/>
+      <c r="F194" s="289"/>
+      <c r="G194" s="290"/>
       <c r="H194" s="143"/>
       <c r="I194" s="143"/>
       <c r="J194" s="143"/>
@@ -17718,13 +18136,13 @@
       <c r="AA194" s="143"/>
     </row>
     <row r="195" spans="1:27" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A195" s="267"/>
-      <c r="B195" s="267"/>
-      <c r="C195" s="268"/>
-      <c r="D195" s="315"/>
-      <c r="E195" s="315"/>
-      <c r="F195" s="315"/>
-      <c r="G195" s="316"/>
+      <c r="A195" s="296"/>
+      <c r="B195" s="296"/>
+      <c r="C195" s="297"/>
+      <c r="D195" s="289"/>
+      <c r="E195" s="289"/>
+      <c r="F195" s="289"/>
+      <c r="G195" s="290"/>
       <c r="H195" s="143"/>
       <c r="I195" s="143"/>
       <c r="J195" s="143"/>
@@ -17753,13 +18171,13 @@
       <c r="AA195" s="143"/>
     </row>
     <row r="196" spans="1:27" ht="18" customHeight="1">
-      <c r="A196" s="267"/>
-      <c r="B196" s="267"/>
-      <c r="C196" s="268"/>
-      <c r="D196" s="315"/>
-      <c r="E196" s="315"/>
-      <c r="F196" s="315"/>
-      <c r="G196" s="316"/>
+      <c r="A196" s="296"/>
+      <c r="B196" s="296"/>
+      <c r="C196" s="297"/>
+      <c r="D196" s="289"/>
+      <c r="E196" s="289"/>
+      <c r="F196" s="289"/>
+      <c r="G196" s="290"/>
       <c r="H196" s="143"/>
       <c r="I196" s="143"/>
       <c r="J196" s="143"/>
@@ -17786,15 +18204,15 @@
       <c r="AA196" s="143"/>
     </row>
     <row r="197" spans="1:27" ht="18" customHeight="1">
-      <c r="A197" s="267"/>
-      <c r="B197" s="267"/>
-      <c r="C197" s="268"/>
-      <c r="D197" s="298" t="s">
+      <c r="A197" s="296"/>
+      <c r="B197" s="296"/>
+      <c r="C197" s="297"/>
+      <c r="D197" s="286" t="s">
         <v>350</v>
       </c>
-      <c r="E197" s="298"/>
-      <c r="F197" s="298"/>
-      <c r="G197" s="299"/>
+      <c r="E197" s="286"/>
+      <c r="F197" s="286"/>
+      <c r="G197" s="287"/>
       <c r="H197" s="138" t="s">
         <v>344</v>
       </c>
@@ -17825,13 +18243,13 @@
       <c r="AA197" s="143"/>
     </row>
     <row r="198" spans="1:27" ht="18" customHeight="1">
-      <c r="A198" s="267"/>
-      <c r="B198" s="267"/>
-      <c r="C198" s="268"/>
-      <c r="D198" s="315"/>
-      <c r="E198" s="315"/>
-      <c r="F198" s="315"/>
-      <c r="G198" s="316"/>
+      <c r="A198" s="296"/>
+      <c r="B198" s="296"/>
+      <c r="C198" s="297"/>
+      <c r="D198" s="289"/>
+      <c r="E198" s="289"/>
+      <c r="F198" s="289"/>
+      <c r="G198" s="290"/>
       <c r="H198" s="138" t="s">
         <v>345</v>
       </c>
@@ -17862,13 +18280,13 @@
       <c r="AA198" s="143"/>
     </row>
     <row r="199" spans="1:27" ht="18" customHeight="1">
-      <c r="A199" s="267"/>
-      <c r="B199" s="267"/>
-      <c r="C199" s="268"/>
-      <c r="D199" s="315"/>
-      <c r="E199" s="315"/>
-      <c r="F199" s="315"/>
-      <c r="G199" s="316"/>
+      <c r="A199" s="296"/>
+      <c r="B199" s="296"/>
+      <c r="C199" s="297"/>
+      <c r="D199" s="289"/>
+      <c r="E199" s="289"/>
+      <c r="F199" s="289"/>
+      <c r="G199" s="290"/>
       <c r="H199" s="138" t="s">
         <v>346</v>
       </c>
@@ -17899,13 +18317,13 @@
       <c r="AA199" s="143"/>
     </row>
     <row r="200" spans="1:27" ht="18" customHeight="1">
-      <c r="A200" s="267"/>
-      <c r="B200" s="267"/>
-      <c r="C200" s="268"/>
-      <c r="D200" s="315"/>
-      <c r="E200" s="315"/>
-      <c r="F200" s="315"/>
-      <c r="G200" s="316"/>
+      <c r="A200" s="296"/>
+      <c r="B200" s="296"/>
+      <c r="C200" s="297"/>
+      <c r="D200" s="289"/>
+      <c r="E200" s="289"/>
+      <c r="F200" s="289"/>
+      <c r="G200" s="290"/>
       <c r="H200" s="138" t="s">
         <v>347</v>
       </c>
@@ -17932,13 +18350,13 @@
       <c r="AA200" s="143"/>
     </row>
     <row r="201" spans="1:27" ht="18" customHeight="1">
-      <c r="A201" s="267"/>
-      <c r="B201" s="267"/>
-      <c r="C201" s="268"/>
-      <c r="D201" s="315"/>
-      <c r="E201" s="315"/>
-      <c r="F201" s="315"/>
-      <c r="G201" s="316"/>
+      <c r="A201" s="296"/>
+      <c r="B201" s="296"/>
+      <c r="C201" s="297"/>
+      <c r="D201" s="289"/>
+      <c r="E201" s="289"/>
+      <c r="F201" s="289"/>
+      <c r="G201" s="290"/>
       <c r="H201" s="201" t="s">
         <v>348</v>
       </c>
@@ -17965,13 +18383,13 @@
       <c r="AA201" s="143"/>
     </row>
     <row r="202" spans="1:27" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A202" s="269"/>
-      <c r="B202" s="269"/>
-      <c r="C202" s="270"/>
-      <c r="D202" s="279"/>
-      <c r="E202" s="279"/>
-      <c r="F202" s="279"/>
-      <c r="G202" s="280"/>
+      <c r="A202" s="304"/>
+      <c r="B202" s="304"/>
+      <c r="C202" s="305"/>
+      <c r="D202" s="320"/>
+      <c r="E202" s="320"/>
+      <c r="F202" s="320"/>
+      <c r="G202" s="321"/>
       <c r="H202" s="141" t="s">
         <v>349</v>
       </c>
@@ -18012,11 +18430,11 @@
       <c r="AA202" s="144"/>
     </row>
     <row r="203" spans="1:27" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A203" s="265" t="s">
+      <c r="A203" s="294" t="s">
         <v>358</v>
       </c>
-      <c r="B203" s="265"/>
-      <c r="C203" s="266"/>
+      <c r="B203" s="294"/>
+      <c r="C203" s="295"/>
       <c r="D203" s="132" t="s">
         <v>358</v>
       </c>
@@ -18053,15 +18471,15 @@
       <c r="AA203" s="208"/>
     </row>
     <row r="204" spans="1:27" ht="18" customHeight="1">
-      <c r="A204" s="267"/>
-      <c r="B204" s="267"/>
-      <c r="C204" s="268"/>
-      <c r="D204" s="297" t="s">
+      <c r="A204" s="296"/>
+      <c r="B204" s="296"/>
+      <c r="C204" s="297"/>
+      <c r="D204" s="285" t="s">
         <v>363</v>
       </c>
-      <c r="E204" s="298"/>
-      <c r="F204" s="298"/>
-      <c r="G204" s="299"/>
+      <c r="E204" s="286"/>
+      <c r="F204" s="286"/>
+      <c r="G204" s="287"/>
       <c r="H204" s="138" t="s">
         <v>392</v>
       </c>
@@ -18090,13 +18508,13 @@
       <c r="AA204" s="171"/>
     </row>
     <row r="205" spans="1:27" ht="18" customHeight="1">
-      <c r="A205" s="267"/>
-      <c r="B205" s="267"/>
-      <c r="C205" s="268"/>
-      <c r="D205" s="314"/>
-      <c r="E205" s="315"/>
-      <c r="F205" s="315"/>
-      <c r="G205" s="316"/>
+      <c r="A205" s="296"/>
+      <c r="B205" s="296"/>
+      <c r="C205" s="297"/>
+      <c r="D205" s="288"/>
+      <c r="E205" s="289"/>
+      <c r="F205" s="289"/>
+      <c r="G205" s="290"/>
       <c r="H205" s="138" t="s">
         <v>393</v>
       </c>
@@ -18125,13 +18543,13 @@
       <c r="AA205" s="171"/>
     </row>
     <row r="206" spans="1:27" ht="18" customHeight="1">
-      <c r="A206" s="267"/>
-      <c r="B206" s="267"/>
-      <c r="C206" s="268"/>
-      <c r="D206" s="306"/>
-      <c r="E206" s="307"/>
-      <c r="F206" s="307"/>
-      <c r="G206" s="308"/>
+      <c r="A206" s="296"/>
+      <c r="B206" s="296"/>
+      <c r="C206" s="297"/>
+      <c r="D206" s="291"/>
+      <c r="E206" s="292"/>
+      <c r="F206" s="292"/>
+      <c r="G206" s="293"/>
       <c r="H206" s="138" t="s">
         <v>409</v>
       </c>
@@ -18166,15 +18584,15 @@
       <c r="AA206" s="171"/>
     </row>
     <row r="207" spans="1:27" ht="18" customHeight="1">
-      <c r="A207" s="267"/>
-      <c r="B207" s="267"/>
-      <c r="C207" s="268"/>
-      <c r="D207" s="297" t="s">
+      <c r="A207" s="296"/>
+      <c r="B207" s="296"/>
+      <c r="C207" s="297"/>
+      <c r="D207" s="285" t="s">
         <v>419</v>
       </c>
-      <c r="E207" s="298"/>
-      <c r="F207" s="298"/>
-      <c r="G207" s="299"/>
+      <c r="E207" s="286"/>
+      <c r="F207" s="286"/>
+      <c r="G207" s="287"/>
       <c r="H207" s="138" t="s">
         <v>410</v>
       </c>
@@ -18199,13 +18617,13 @@
       <c r="AA207" s="171"/>
     </row>
     <row r="208" spans="1:27" ht="18" customHeight="1">
-      <c r="A208" s="267"/>
-      <c r="B208" s="267"/>
-      <c r="C208" s="268"/>
-      <c r="D208" s="314"/>
-      <c r="E208" s="315"/>
-      <c r="F208" s="315"/>
-      <c r="G208" s="316"/>
+      <c r="A208" s="296"/>
+      <c r="B208" s="296"/>
+      <c r="C208" s="297"/>
+      <c r="D208" s="288"/>
+      <c r="E208" s="289"/>
+      <c r="F208" s="289"/>
+      <c r="G208" s="290"/>
       <c r="H208" s="138" t="s">
         <v>411</v>
       </c>
@@ -18230,161 +18648,161 @@
       <c r="AA208" s="143"/>
     </row>
     <row r="209" spans="1:27" ht="18" customHeight="1">
-      <c r="A209" s="267"/>
-      <c r="B209" s="267"/>
-      <c r="C209" s="268"/>
-      <c r="D209" s="314"/>
-      <c r="E209" s="315"/>
-      <c r="F209" s="315"/>
-      <c r="G209" s="316"/>
+      <c r="A209" s="296"/>
+      <c r="B209" s="296"/>
+      <c r="C209" s="297"/>
+      <c r="D209" s="288"/>
+      <c r="E209" s="289"/>
+      <c r="F209" s="289"/>
+      <c r="G209" s="290"/>
       <c r="H209" s="209" t="s">
         <v>369</v>
       </c>
       <c r="I209" s="171"/>
       <c r="J209" s="171"/>
       <c r="K209" s="203"/>
-      <c r="L209" s="285" t="s">
+      <c r="L209" s="386" t="s">
         <v>396</v>
       </c>
-      <c r="M209" s="282"/>
-      <c r="N209" s="286" t="s">
+      <c r="M209" s="385"/>
+      <c r="N209" s="383" t="s">
         <v>398</v>
       </c>
-      <c r="O209" s="286"/>
-      <c r="P209" s="286" t="s">
+      <c r="O209" s="383"/>
+      <c r="P209" s="383" t="s">
         <v>399</v>
       </c>
-      <c r="Q209" s="287"/>
-      <c r="R209" s="285" t="s">
+      <c r="Q209" s="387"/>
+      <c r="R209" s="386" t="s">
         <v>400</v>
       </c>
-      <c r="S209" s="282"/>
-      <c r="T209" s="286" t="s">
+      <c r="S209" s="385"/>
+      <c r="T209" s="383" t="s">
         <v>401</v>
       </c>
-      <c r="U209" s="286"/>
-      <c r="V209" s="286"/>
-      <c r="W209" s="286"/>
+      <c r="U209" s="383"/>
+      <c r="V209" s="383"/>
+      <c r="W209" s="383"/>
       <c r="X209" s="143"/>
       <c r="Y209" s="171"/>
       <c r="Z209" s="171"/>
       <c r="AA209" s="143"/>
     </row>
     <row r="210" spans="1:27" ht="18" customHeight="1">
-      <c r="A210" s="267"/>
-      <c r="B210" s="267"/>
-      <c r="C210" s="268"/>
-      <c r="D210" s="314"/>
-      <c r="E210" s="315"/>
-      <c r="F210" s="315"/>
-      <c r="G210" s="316"/>
+      <c r="A210" s="296"/>
+      <c r="B210" s="296"/>
+      <c r="C210" s="297"/>
+      <c r="D210" s="288"/>
+      <c r="E210" s="289"/>
+      <c r="F210" s="289"/>
+      <c r="G210" s="290"/>
       <c r="H210" s="209" t="s">
         <v>370</v>
       </c>
       <c r="I210" s="171"/>
       <c r="J210" s="171"/>
       <c r="K210" s="203"/>
-      <c r="L210" s="285"/>
-      <c r="M210" s="282"/>
-      <c r="N210" s="286"/>
-      <c r="O210" s="286"/>
-      <c r="P210" s="286"/>
-      <c r="Q210" s="287"/>
-      <c r="R210" s="285"/>
-      <c r="S210" s="282"/>
-      <c r="T210" s="286"/>
-      <c r="U210" s="286"/>
-      <c r="V210" s="286"/>
-      <c r="W210" s="286"/>
+      <c r="L210" s="386"/>
+      <c r="M210" s="385"/>
+      <c r="N210" s="383"/>
+      <c r="O210" s="383"/>
+      <c r="P210" s="383"/>
+      <c r="Q210" s="387"/>
+      <c r="R210" s="386"/>
+      <c r="S210" s="385"/>
+      <c r="T210" s="383"/>
+      <c r="U210" s="383"/>
+      <c r="V210" s="383"/>
+      <c r="W210" s="383"/>
       <c r="X210" s="143"/>
       <c r="Y210" s="143"/>
       <c r="Z210" s="143"/>
       <c r="AA210" s="171"/>
     </row>
     <row r="211" spans="1:27" ht="18" customHeight="1">
-      <c r="A211" s="267"/>
-      <c r="B211" s="267"/>
-      <c r="C211" s="268"/>
-      <c r="D211" s="314"/>
-      <c r="E211" s="315"/>
-      <c r="F211" s="315"/>
-      <c r="G211" s="316"/>
+      <c r="A211" s="296"/>
+      <c r="B211" s="296"/>
+      <c r="C211" s="297"/>
+      <c r="D211" s="288"/>
+      <c r="E211" s="289"/>
+      <c r="F211" s="289"/>
+      <c r="G211" s="290"/>
       <c r="H211" s="200" t="s">
         <v>371</v>
       </c>
       <c r="I211" s="143"/>
       <c r="J211" s="143"/>
       <c r="K211" s="204"/>
-      <c r="L211" s="288" t="s">
+      <c r="L211" s="388" t="s">
         <v>397</v>
       </c>
-      <c r="M211" s="284"/>
-      <c r="N211" s="286" t="s">
+      <c r="M211" s="310"/>
+      <c r="N211" s="383" t="s">
         <v>398</v>
       </c>
-      <c r="O211" s="286"/>
-      <c r="P211" s="286" t="s">
+      <c r="O211" s="383"/>
+      <c r="P211" s="383" t="s">
         <v>399</v>
       </c>
-      <c r="Q211" s="287"/>
-      <c r="R211" s="285"/>
-      <c r="S211" s="282"/>
-      <c r="T211" s="286" t="s">
+      <c r="Q211" s="387"/>
+      <c r="R211" s="386"/>
+      <c r="S211" s="385"/>
+      <c r="T211" s="383" t="s">
         <v>402</v>
       </c>
-      <c r="U211" s="286"/>
-      <c r="V211" s="286"/>
-      <c r="W211" s="286"/>
+      <c r="U211" s="383"/>
+      <c r="V211" s="383"/>
+      <c r="W211" s="383"/>
       <c r="X211" s="143"/>
       <c r="Y211" s="143"/>
       <c r="Z211" s="143"/>
       <c r="AA211" s="143"/>
     </row>
     <row r="212" spans="1:27" ht="18" customHeight="1">
-      <c r="A212" s="267"/>
-      <c r="B212" s="267"/>
-      <c r="C212" s="268"/>
-      <c r="D212" s="314"/>
-      <c r="E212" s="315"/>
-      <c r="F212" s="315"/>
-      <c r="G212" s="316"/>
+      <c r="A212" s="296"/>
+      <c r="B212" s="296"/>
+      <c r="C212" s="297"/>
+      <c r="D212" s="288"/>
+      <c r="E212" s="289"/>
+      <c r="F212" s="289"/>
+      <c r="G212" s="290"/>
       <c r="H212" s="138" t="s">
         <v>372</v>
       </c>
       <c r="I212" s="143"/>
       <c r="J212" s="143"/>
       <c r="K212" s="204"/>
-      <c r="L212" s="288"/>
-      <c r="M212" s="284"/>
-      <c r="N212" s="286"/>
-      <c r="O212" s="286"/>
-      <c r="P212" s="286"/>
-      <c r="Q212" s="287"/>
-      <c r="R212" s="285"/>
-      <c r="S212" s="282"/>
-      <c r="T212" s="286"/>
-      <c r="U212" s="286"/>
-      <c r="V212" s="286"/>
-      <c r="W212" s="286"/>
+      <c r="L212" s="388"/>
+      <c r="M212" s="310"/>
+      <c r="N212" s="383"/>
+      <c r="O212" s="383"/>
+      <c r="P212" s="383"/>
+      <c r="Q212" s="387"/>
+      <c r="R212" s="386"/>
+      <c r="S212" s="385"/>
+      <c r="T212" s="383"/>
+      <c r="U212" s="383"/>
+      <c r="V212" s="383"/>
+      <c r="W212" s="383"/>
       <c r="X212" s="171"/>
       <c r="Y212" s="171"/>
       <c r="Z212" s="171"/>
       <c r="AA212" s="171"/>
     </row>
     <row r="213" spans="1:27" ht="18" customHeight="1">
-      <c r="A213" s="267"/>
-      <c r="B213" s="267"/>
-      <c r="C213" s="268"/>
-      <c r="D213" s="314"/>
-      <c r="E213" s="315"/>
-      <c r="F213" s="315"/>
-      <c r="G213" s="316"/>
-      <c r="H213" s="283" t="s">
+      <c r="A213" s="296"/>
+      <c r="B213" s="296"/>
+      <c r="C213" s="297"/>
+      <c r="D213" s="288"/>
+      <c r="E213" s="289"/>
+      <c r="F213" s="289"/>
+      <c r="G213" s="290"/>
+      <c r="H213" s="309" t="s">
         <v>406</v>
       </c>
-      <c r="I213" s="284"/>
-      <c r="J213" s="284"/>
-      <c r="K213" s="284"/>
+      <c r="I213" s="310"/>
+      <c r="J213" s="310"/>
+      <c r="K213" s="310"/>
       <c r="L213" s="146" t="s">
         <v>407</v>
       </c>
@@ -18395,31 +18813,31 @@
       <c r="Q213" s="143"/>
       <c r="R213" s="143"/>
       <c r="S213" s="143"/>
-      <c r="T213" s="281" t="s">
+      <c r="T213" s="384" t="s">
         <v>403</v>
       </c>
-      <c r="U213" s="282" t="s">
+      <c r="U213" s="385" t="s">
         <v>404</v>
       </c>
-      <c r="V213" s="282"/>
-      <c r="W213" s="282"/>
+      <c r="V213" s="385"/>
+      <c r="W213" s="385"/>
       <c r="X213" s="143"/>
       <c r="Y213" s="171"/>
       <c r="Z213" s="171"/>
       <c r="AA213" s="171"/>
     </row>
     <row r="214" spans="1:27" ht="18" customHeight="1">
-      <c r="A214" s="267"/>
-      <c r="B214" s="267"/>
-      <c r="C214" s="268"/>
-      <c r="D214" s="314"/>
-      <c r="E214" s="315"/>
-      <c r="F214" s="315"/>
-      <c r="G214" s="316"/>
-      <c r="H214" s="283"/>
-      <c r="I214" s="284"/>
-      <c r="J214" s="284"/>
-      <c r="K214" s="284"/>
+      <c r="A214" s="296"/>
+      <c r="B214" s="296"/>
+      <c r="C214" s="297"/>
+      <c r="D214" s="288"/>
+      <c r="E214" s="289"/>
+      <c r="F214" s="289"/>
+      <c r="G214" s="290"/>
+      <c r="H214" s="309"/>
+      <c r="I214" s="310"/>
+      <c r="J214" s="310"/>
+      <c r="K214" s="310"/>
       <c r="L214" s="146" t="s">
         <v>405</v>
       </c>
@@ -18430,27 +18848,27 @@
       <c r="Q214" s="143"/>
       <c r="R214" s="143"/>
       <c r="S214" s="143"/>
-      <c r="T214" s="281"/>
-      <c r="U214" s="282"/>
-      <c r="V214" s="282"/>
-      <c r="W214" s="282"/>
+      <c r="T214" s="384"/>
+      <c r="U214" s="385"/>
+      <c r="V214" s="385"/>
+      <c r="W214" s="385"/>
       <c r="X214" s="143"/>
       <c r="Y214" s="171"/>
       <c r="Z214" s="171"/>
       <c r="AA214" s="171"/>
     </row>
     <row r="215" spans="1:27" ht="18" customHeight="1">
-      <c r="A215" s="267"/>
-      <c r="B215" s="267"/>
-      <c r="C215" s="268"/>
-      <c r="D215" s="314"/>
-      <c r="E215" s="315"/>
-      <c r="F215" s="315"/>
-      <c r="G215" s="316"/>
-      <c r="H215" s="283"/>
-      <c r="I215" s="284"/>
-      <c r="J215" s="284"/>
-      <c r="K215" s="284"/>
+      <c r="A215" s="296"/>
+      <c r="B215" s="296"/>
+      <c r="C215" s="297"/>
+      <c r="D215" s="288"/>
+      <c r="E215" s="289"/>
+      <c r="F215" s="289"/>
+      <c r="G215" s="290"/>
+      <c r="H215" s="309"/>
+      <c r="I215" s="310"/>
+      <c r="J215" s="310"/>
+      <c r="K215" s="310"/>
       <c r="L215" s="146" t="s">
         <v>408</v>
       </c>
@@ -18461,29 +18879,29 @@
       <c r="Q215" s="143"/>
       <c r="R215" s="143"/>
       <c r="S215" s="143"/>
-      <c r="T215" s="281"/>
-      <c r="U215" s="282"/>
-      <c r="V215" s="282"/>
-      <c r="W215" s="282"/>
+      <c r="T215" s="384"/>
+      <c r="U215" s="385"/>
+      <c r="V215" s="385"/>
+      <c r="W215" s="385"/>
       <c r="X215" s="143"/>
       <c r="Y215" s="143"/>
       <c r="Z215" s="143"/>
       <c r="AA215" s="143"/>
     </row>
     <row r="216" spans="1:27" ht="18" customHeight="1">
-      <c r="A216" s="267"/>
-      <c r="B216" s="267"/>
-      <c r="C216" s="268"/>
-      <c r="D216" s="314"/>
-      <c r="E216" s="315"/>
-      <c r="F216" s="315"/>
-      <c r="G216" s="316"/>
-      <c r="H216" s="365" t="s">
+      <c r="A216" s="296"/>
+      <c r="B216" s="296"/>
+      <c r="C216" s="297"/>
+      <c r="D216" s="288"/>
+      <c r="E216" s="289"/>
+      <c r="F216" s="289"/>
+      <c r="G216" s="290"/>
+      <c r="H216" s="298" t="s">
         <v>427</v>
       </c>
-      <c r="I216" s="272"/>
-      <c r="J216" s="272"/>
-      <c r="K216" s="272"/>
+      <c r="I216" s="299"/>
+      <c r="J216" s="299"/>
+      <c r="K216" s="299"/>
       <c r="L216" s="146" t="s">
         <v>420</v>
       </c>
@@ -18506,17 +18924,17 @@
       <c r="AA216" s="143"/>
     </row>
     <row r="217" spans="1:27" ht="18" customHeight="1">
-      <c r="A217" s="267"/>
-      <c r="B217" s="267"/>
-      <c r="C217" s="268"/>
-      <c r="D217" s="314"/>
-      <c r="E217" s="315"/>
-      <c r="F217" s="315"/>
-      <c r="G217" s="316"/>
-      <c r="H217" s="366"/>
-      <c r="I217" s="273"/>
-      <c r="J217" s="273"/>
-      <c r="K217" s="273"/>
+      <c r="A217" s="296"/>
+      <c r="B217" s="296"/>
+      <c r="C217" s="297"/>
+      <c r="D217" s="288"/>
+      <c r="E217" s="289"/>
+      <c r="F217" s="289"/>
+      <c r="G217" s="290"/>
+      <c r="H217" s="300"/>
+      <c r="I217" s="301"/>
+      <c r="J217" s="301"/>
+      <c r="K217" s="301"/>
       <c r="L217" s="146" t="s">
         <v>423</v>
       </c>
@@ -18541,23 +18959,23 @@
       <c r="AA217" s="143"/>
     </row>
     <row r="218" spans="1:27" ht="18" customHeight="1">
-      <c r="A218" s="267"/>
-      <c r="B218" s="267"/>
-      <c r="C218" s="268"/>
-      <c r="D218" s="314"/>
-      <c r="E218" s="315"/>
-      <c r="F218" s="315"/>
-      <c r="G218" s="316"/>
-      <c r="H218" s="366"/>
-      <c r="I218" s="273"/>
-      <c r="J218" s="273"/>
-      <c r="K218" s="273"/>
-      <c r="L218" s="363" t="s">
+      <c r="A218" s="296"/>
+      <c r="B218" s="296"/>
+      <c r="C218" s="297"/>
+      <c r="D218" s="288"/>
+      <c r="E218" s="289"/>
+      <c r="F218" s="289"/>
+      <c r="G218" s="290"/>
+      <c r="H218" s="300"/>
+      <c r="I218" s="301"/>
+      <c r="J218" s="301"/>
+      <c r="K218" s="301"/>
+      <c r="L218" s="283" t="s">
         <v>425</v>
       </c>
-      <c r="M218" s="364"/>
-      <c r="N218" s="364"/>
-      <c r="O218" s="364"/>
+      <c r="M218" s="284"/>
+      <c r="N218" s="284"/>
+      <c r="O218" s="284"/>
       <c r="P218" s="143"/>
       <c r="Q218" s="143"/>
       <c r="R218" s="143"/>
@@ -18572,21 +18990,21 @@
       <c r="AA218" s="143"/>
     </row>
     <row r="219" spans="1:27" ht="18" customHeight="1">
-      <c r="A219" s="267"/>
-      <c r="B219" s="267"/>
-      <c r="C219" s="268"/>
-      <c r="D219" s="314"/>
-      <c r="E219" s="315"/>
-      <c r="F219" s="315"/>
-      <c r="G219" s="316"/>
-      <c r="H219" s="366"/>
-      <c r="I219" s="273"/>
-      <c r="J219" s="273"/>
-      <c r="K219" s="273"/>
-      <c r="L219" s="364"/>
-      <c r="M219" s="364"/>
-      <c r="N219" s="364"/>
-      <c r="O219" s="364"/>
+      <c r="A219" s="296"/>
+      <c r="B219" s="296"/>
+      <c r="C219" s="297"/>
+      <c r="D219" s="288"/>
+      <c r="E219" s="289"/>
+      <c r="F219" s="289"/>
+      <c r="G219" s="290"/>
+      <c r="H219" s="300"/>
+      <c r="I219" s="301"/>
+      <c r="J219" s="301"/>
+      <c r="K219" s="301"/>
+      <c r="L219" s="284"/>
+      <c r="M219" s="284"/>
+      <c r="N219" s="284"/>
+      <c r="O219" s="284"/>
       <c r="P219" s="143"/>
       <c r="Q219" s="143"/>
       <c r="R219" s="143"/>
@@ -18601,17 +19019,17 @@
       <c r="AA219" s="143"/>
     </row>
     <row r="220" spans="1:27">
-      <c r="A220" s="267"/>
-      <c r="B220" s="267"/>
-      <c r="C220" s="268"/>
-      <c r="D220" s="306"/>
-      <c r="E220" s="307"/>
-      <c r="F220" s="307"/>
-      <c r="G220" s="308"/>
-      <c r="H220" s="367"/>
-      <c r="I220" s="274"/>
-      <c r="J220" s="274"/>
-      <c r="K220" s="274"/>
+      <c r="A220" s="296"/>
+      <c r="B220" s="296"/>
+      <c r="C220" s="297"/>
+      <c r="D220" s="291"/>
+      <c r="E220" s="292"/>
+      <c r="F220" s="292"/>
+      <c r="G220" s="293"/>
+      <c r="H220" s="302"/>
+      <c r="I220" s="303"/>
+      <c r="J220" s="303"/>
+      <c r="K220" s="303"/>
       <c r="L220" s="146" t="s">
         <v>426</v>
       </c>
@@ -18632,93 +19050,93 @@
       <c r="AA220" s="143"/>
     </row>
     <row r="221" spans="1:27">
-      <c r="A221" s="267"/>
-      <c r="B221" s="267"/>
-      <c r="C221" s="268"/>
-      <c r="D221" s="289" t="s">
+      <c r="A221" s="296"/>
+      <c r="B221" s="296"/>
+      <c r="C221" s="297"/>
+      <c r="D221" s="306" t="s">
         <v>390</v>
       </c>
-      <c r="E221" s="290"/>
-      <c r="F221" s="290"/>
-      <c r="G221" s="291"/>
+      <c r="E221" s="307"/>
+      <c r="F221" s="307"/>
+      <c r="G221" s="308"/>
       <c r="H221" s="138" t="s">
         <v>338</v>
       </c>
       <c r="I221" s="171"/>
       <c r="J221" s="171"/>
       <c r="K221" s="146"/>
-      <c r="L221" s="286" t="s">
+      <c r="L221" s="383" t="s">
         <v>384</v>
       </c>
-      <c r="M221" s="286"/>
-      <c r="N221" s="286"/>
-      <c r="O221" s="286" t="s">
+      <c r="M221" s="383"/>
+      <c r="N221" s="383"/>
+      <c r="O221" s="383" t="s">
         <v>385</v>
       </c>
-      <c r="P221" s="286"/>
-      <c r="Q221" s="286"/>
-      <c r="R221" s="286" t="s">
+      <c r="P221" s="383"/>
+      <c r="Q221" s="383"/>
+      <c r="R221" s="383" t="s">
         <v>386</v>
       </c>
-      <c r="S221" s="286"/>
-      <c r="T221" s="286"/>
-      <c r="U221" s="286" t="s">
+      <c r="S221" s="383"/>
+      <c r="T221" s="383"/>
+      <c r="U221" s="383" t="s">
         <v>387</v>
       </c>
-      <c r="V221" s="286"/>
-      <c r="W221" s="286" t="s">
+      <c r="V221" s="383"/>
+      <c r="W221" s="383" t="s">
         <v>388</v>
       </c>
-      <c r="X221" s="286"/>
-      <c r="Y221" s="286" t="s">
+      <c r="X221" s="383"/>
+      <c r="Y221" s="383" t="s">
         <v>389</v>
       </c>
-      <c r="Z221" s="286"/>
+      <c r="Z221" s="383"/>
       <c r="AA221" s="143"/>
     </row>
     <row r="222" spans="1:27">
-      <c r="A222" s="267"/>
-      <c r="B222" s="267"/>
-      <c r="C222" s="268"/>
-      <c r="D222" s="289" t="s">
+      <c r="A222" s="296"/>
+      <c r="B222" s="296"/>
+      <c r="C222" s="297"/>
+      <c r="D222" s="306" t="s">
         <v>394</v>
       </c>
-      <c r="E222" s="290"/>
-      <c r="F222" s="290"/>
-      <c r="G222" s="291"/>
+      <c r="E222" s="307"/>
+      <c r="F222" s="307"/>
+      <c r="G222" s="308"/>
       <c r="H222" s="138" t="s">
         <v>343</v>
       </c>
       <c r="I222" s="143"/>
       <c r="J222" s="143"/>
       <c r="K222" s="178"/>
-      <c r="L222" s="286"/>
-      <c r="M222" s="286"/>
-      <c r="N222" s="286"/>
-      <c r="O222" s="286"/>
-      <c r="P222" s="286"/>
-      <c r="Q222" s="286"/>
-      <c r="R222" s="286"/>
-      <c r="S222" s="286"/>
-      <c r="T222" s="286"/>
-      <c r="U222" s="286"/>
-      <c r="V222" s="286"/>
-      <c r="W222" s="286"/>
-      <c r="X222" s="286"/>
-      <c r="Y222" s="286"/>
-      <c r="Z222" s="286"/>
+      <c r="L222" s="383"/>
+      <c r="M222" s="383"/>
+      <c r="N222" s="383"/>
+      <c r="O222" s="383"/>
+      <c r="P222" s="383"/>
+      <c r="Q222" s="383"/>
+      <c r="R222" s="383"/>
+      <c r="S222" s="383"/>
+      <c r="T222" s="383"/>
+      <c r="U222" s="383"/>
+      <c r="V222" s="383"/>
+      <c r="W222" s="383"/>
+      <c r="X222" s="383"/>
+      <c r="Y222" s="383"/>
+      <c r="Z222" s="383"/>
       <c r="AA222" s="143"/>
     </row>
     <row r="223" spans="1:27">
-      <c r="A223" s="267"/>
-      <c r="B223" s="267"/>
-      <c r="C223" s="268"/>
-      <c r="D223" s="297" t="s">
+      <c r="A223" s="296"/>
+      <c r="B223" s="296"/>
+      <c r="C223" s="297"/>
+      <c r="D223" s="285" t="s">
         <v>412</v>
       </c>
-      <c r="E223" s="298"/>
-      <c r="F223" s="298"/>
-      <c r="G223" s="299"/>
+      <c r="E223" s="286"/>
+      <c r="F223" s="286"/>
+      <c r="G223" s="287"/>
       <c r="H223" s="138" t="s">
         <v>413</v>
       </c>
@@ -18753,19 +19171,19 @@
       <c r="AA223" s="143"/>
     </row>
     <row r="224" spans="1:27">
-      <c r="A224" s="267"/>
-      <c r="B224" s="267"/>
-      <c r="C224" s="268"/>
-      <c r="D224" s="314"/>
-      <c r="E224" s="315"/>
-      <c r="F224" s="315"/>
-      <c r="G224" s="316"/>
-      <c r="H224" s="283" t="s">
+      <c r="A224" s="296"/>
+      <c r="B224" s="296"/>
+      <c r="C224" s="297"/>
+      <c r="D224" s="288"/>
+      <c r="E224" s="289"/>
+      <c r="F224" s="289"/>
+      <c r="G224" s="290"/>
+      <c r="H224" s="309" t="s">
         <v>380</v>
       </c>
-      <c r="I224" s="284"/>
-      <c r="J224" s="284"/>
-      <c r="K224" s="284"/>
+      <c r="I224" s="310"/>
+      <c r="J224" s="310"/>
+      <c r="K224" s="310"/>
       <c r="L224" s="146" t="s">
         <v>381</v>
       </c>
@@ -18788,17 +19206,17 @@
       <c r="AA224" s="143"/>
     </row>
     <row r="225" spans="1:27">
-      <c r="A225" s="267"/>
-      <c r="B225" s="267"/>
-      <c r="C225" s="268"/>
-      <c r="D225" s="314"/>
-      <c r="E225" s="315"/>
-      <c r="F225" s="315"/>
-      <c r="G225" s="316"/>
-      <c r="H225" s="283"/>
-      <c r="I225" s="284"/>
-      <c r="J225" s="284"/>
-      <c r="K225" s="284"/>
+      <c r="A225" s="296"/>
+      <c r="B225" s="296"/>
+      <c r="C225" s="297"/>
+      <c r="D225" s="288"/>
+      <c r="E225" s="289"/>
+      <c r="F225" s="289"/>
+      <c r="G225" s="290"/>
+      <c r="H225" s="309"/>
+      <c r="I225" s="310"/>
+      <c r="J225" s="310"/>
+      <c r="K225" s="310"/>
       <c r="L225" s="173" t="s">
         <v>379</v>
       </c>
@@ -18819,19 +19237,19 @@
       <c r="AA225" s="143"/>
     </row>
     <row r="226" spans="1:27">
-      <c r="A226" s="267"/>
-      <c r="B226" s="267"/>
-      <c r="C226" s="268"/>
-      <c r="D226" s="314"/>
-      <c r="E226" s="315"/>
-      <c r="F226" s="315"/>
-      <c r="G226" s="316"/>
-      <c r="H226" s="283" t="s">
+      <c r="A226" s="296"/>
+      <c r="B226" s="296"/>
+      <c r="C226" s="297"/>
+      <c r="D226" s="288"/>
+      <c r="E226" s="289"/>
+      <c r="F226" s="289"/>
+      <c r="G226" s="290"/>
+      <c r="H226" s="309" t="s">
         <v>382</v>
       </c>
-      <c r="I226" s="284"/>
-      <c r="J226" s="284"/>
-      <c r="K226" s="284"/>
+      <c r="I226" s="310"/>
+      <c r="J226" s="310"/>
+      <c r="K226" s="310"/>
       <c r="L226" s="146" t="s">
         <v>381</v>
       </c>
@@ -18854,17 +19272,17 @@
       <c r="AA226" s="143"/>
     </row>
     <row r="227" spans="1:27">
-      <c r="A227" s="267"/>
-      <c r="B227" s="267"/>
-      <c r="C227" s="268"/>
-      <c r="D227" s="306"/>
-      <c r="E227" s="307"/>
-      <c r="F227" s="307"/>
-      <c r="G227" s="308"/>
-      <c r="H227" s="283"/>
-      <c r="I227" s="284"/>
-      <c r="J227" s="284"/>
-      <c r="K227" s="284"/>
+      <c r="A227" s="296"/>
+      <c r="B227" s="296"/>
+      <c r="C227" s="297"/>
+      <c r="D227" s="291"/>
+      <c r="E227" s="292"/>
+      <c r="F227" s="292"/>
+      <c r="G227" s="293"/>
+      <c r="H227" s="309"/>
+      <c r="I227" s="310"/>
+      <c r="J227" s="310"/>
+      <c r="K227" s="310"/>
       <c r="L227" s="173" t="s">
         <v>379</v>
       </c>
@@ -18886,6 +19304,108 @@
     </row>
   </sheetData>
   <mergeCells count="126">
+    <mergeCell ref="M130:N131"/>
+    <mergeCell ref="S130:T131"/>
+    <mergeCell ref="O130:P131"/>
+    <mergeCell ref="Q130:R131"/>
+    <mergeCell ref="A132:C134"/>
+    <mergeCell ref="L175:Z177"/>
+    <mergeCell ref="A135:C140"/>
+    <mergeCell ref="A141:C142"/>
+    <mergeCell ref="A143:C144"/>
+    <mergeCell ref="D143:G144"/>
+    <mergeCell ref="A145:C146"/>
+    <mergeCell ref="T213:T215"/>
+    <mergeCell ref="U213:W215"/>
+    <mergeCell ref="H213:K215"/>
+    <mergeCell ref="R209:S212"/>
+    <mergeCell ref="T209:W210"/>
+    <mergeCell ref="T211:W212"/>
+    <mergeCell ref="P209:Q210"/>
+    <mergeCell ref="P211:Q212"/>
+    <mergeCell ref="L209:M210"/>
+    <mergeCell ref="L211:M212"/>
+    <mergeCell ref="N209:O210"/>
+    <mergeCell ref="N211:O212"/>
+    <mergeCell ref="Y221:Z222"/>
+    <mergeCell ref="H226:K227"/>
+    <mergeCell ref="D221:G221"/>
+    <mergeCell ref="D222:G222"/>
+    <mergeCell ref="L221:N222"/>
+    <mergeCell ref="O221:Q222"/>
+    <mergeCell ref="R221:T222"/>
+    <mergeCell ref="U221:V222"/>
+    <mergeCell ref="W221:X222"/>
+    <mergeCell ref="A50:C64"/>
+    <mergeCell ref="A181:C202"/>
+    <mergeCell ref="A174:C180"/>
+    <mergeCell ref="D178:G178"/>
+    <mergeCell ref="D123:G123"/>
+    <mergeCell ref="D179:G180"/>
+    <mergeCell ref="A65:C69"/>
+    <mergeCell ref="A70:C74"/>
+    <mergeCell ref="A75:C80"/>
+    <mergeCell ref="D107:G108"/>
+    <mergeCell ref="D109:G109"/>
+    <mergeCell ref="A109:C116"/>
+    <mergeCell ref="D115:G116"/>
+    <mergeCell ref="A87:C93"/>
+    <mergeCell ref="D57:G59"/>
+    <mergeCell ref="D50:G56"/>
+    <mergeCell ref="D61:G63"/>
+    <mergeCell ref="D87:G88"/>
+    <mergeCell ref="D197:G202"/>
+    <mergeCell ref="D182:G196"/>
+    <mergeCell ref="D117:G117"/>
+    <mergeCell ref="D122:G122"/>
+    <mergeCell ref="D132:G132"/>
+    <mergeCell ref="D124:G125"/>
+    <mergeCell ref="A19:D34"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="A15:D18"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="E21:F24"/>
+    <mergeCell ref="E25:F33"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="A41:D48"/>
+    <mergeCell ref="A7:D14"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="A35:D40"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="K25:L25"/>
     <mergeCell ref="L218:O219"/>
     <mergeCell ref="D207:G220"/>
     <mergeCell ref="A203:C227"/>
@@ -18910,108 +19430,6 @@
     <mergeCell ref="A147:C147"/>
     <mergeCell ref="A124:C125"/>
     <mergeCell ref="K130:L131"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="A41:D48"/>
-    <mergeCell ref="A7:D14"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="A35:D40"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="A19:D34"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="A15:D18"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="E21:F24"/>
-    <mergeCell ref="E25:F33"/>
-    <mergeCell ref="A50:C64"/>
-    <mergeCell ref="A181:C202"/>
-    <mergeCell ref="A174:C180"/>
-    <mergeCell ref="D178:G178"/>
-    <mergeCell ref="D123:G123"/>
-    <mergeCell ref="D179:G180"/>
-    <mergeCell ref="A65:C69"/>
-    <mergeCell ref="A70:C74"/>
-    <mergeCell ref="A75:C80"/>
-    <mergeCell ref="D107:G108"/>
-    <mergeCell ref="D109:G109"/>
-    <mergeCell ref="A109:C116"/>
-    <mergeCell ref="D115:G116"/>
-    <mergeCell ref="A87:C93"/>
-    <mergeCell ref="D57:G59"/>
-    <mergeCell ref="D50:G56"/>
-    <mergeCell ref="D61:G63"/>
-    <mergeCell ref="D87:G88"/>
-    <mergeCell ref="D197:G202"/>
-    <mergeCell ref="D182:G196"/>
-    <mergeCell ref="D117:G117"/>
-    <mergeCell ref="D122:G122"/>
-    <mergeCell ref="D132:G132"/>
-    <mergeCell ref="D124:G125"/>
-    <mergeCell ref="Y221:Z222"/>
-    <mergeCell ref="H226:K227"/>
-    <mergeCell ref="D221:G221"/>
-    <mergeCell ref="D222:G222"/>
-    <mergeCell ref="L221:N222"/>
-    <mergeCell ref="O221:Q222"/>
-    <mergeCell ref="R221:T222"/>
-    <mergeCell ref="U221:V222"/>
-    <mergeCell ref="W221:X222"/>
-    <mergeCell ref="T213:T215"/>
-    <mergeCell ref="U213:W215"/>
-    <mergeCell ref="H213:K215"/>
-    <mergeCell ref="R209:S212"/>
-    <mergeCell ref="T209:W210"/>
-    <mergeCell ref="T211:W212"/>
-    <mergeCell ref="P209:Q210"/>
-    <mergeCell ref="P211:Q212"/>
-    <mergeCell ref="L209:M210"/>
-    <mergeCell ref="L211:M212"/>
-    <mergeCell ref="N209:O210"/>
-    <mergeCell ref="N211:O212"/>
-    <mergeCell ref="M130:N131"/>
-    <mergeCell ref="S130:T131"/>
-    <mergeCell ref="O130:P131"/>
-    <mergeCell ref="Q130:R131"/>
-    <mergeCell ref="A132:C134"/>
-    <mergeCell ref="L175:Z177"/>
-    <mergeCell ref="A135:C140"/>
-    <mergeCell ref="A141:C142"/>
-    <mergeCell ref="A143:C144"/>
-    <mergeCell ref="D143:G144"/>
-    <mergeCell ref="A145:C146"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D117" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -19032,740 +19450,833 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.77734375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="36.88671875" style="382" customWidth="1"/>
-    <col min="2" max="15" width="14.77734375" style="377"/>
-    <col min="16" max="16384" width="14.77734375" style="378"/>
+    <col min="1" max="1" width="36.88671875" style="270" customWidth="1"/>
+    <col min="2" max="15" width="14.77734375" style="265"/>
+    <col min="16" max="16384" width="14.77734375" style="266"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="370" customFormat="1" ht="18.600000000000001" thickBot="1">
-      <c r="A1" s="371"/>
-      <c r="B1" s="374"/>
-      <c r="C1" s="374"/>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="374"/>
-      <c r="G1" s="374"/>
-      <c r="H1" s="374"/>
-      <c r="I1" s="374"/>
-      <c r="J1" s="374"/>
-      <c r="K1" s="374"/>
-      <c r="L1" s="374"/>
-      <c r="M1" s="374"/>
-      <c r="N1" s="374"/>
-      <c r="O1" s="374"/>
-    </row>
-    <row r="2" spans="1:15" s="373" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A2" s="372" t="s">
+    <row r="1" spans="1:15" s="261" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A1" s="260" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="372" t="s">
+      <c r="B1" s="260" t="s">
         <v>540</v>
       </c>
-      <c r="N2" s="372"/>
-    </row>
-    <row r="3" spans="1:15" s="385" customFormat="1">
-      <c r="A3" s="383" t="s">
+    </row>
+    <row r="2" spans="1:15" s="273" customFormat="1">
+      <c r="A2" s="271" t="s">
         <v>539</v>
       </c>
-      <c r="B3" s="384" t="s">
+      <c r="B2" s="272" t="s">
         <v>541</v>
       </c>
-      <c r="C3" s="384" t="s">
+      <c r="C2" s="272" t="s">
         <v>542</v>
       </c>
-      <c r="D3" s="384" t="s">
+      <c r="D2" s="272" t="s">
         <v>543</v>
       </c>
-      <c r="E3" s="384"/>
-      <c r="F3" s="384"/>
-      <c r="G3" s="384"/>
-      <c r="H3" s="384"/>
-      <c r="I3" s="384"/>
-      <c r="J3" s="384"/>
-      <c r="K3" s="384"/>
-      <c r="L3" s="384"/>
-      <c r="M3" s="384"/>
-      <c r="N3" s="384"/>
-      <c r="O3" s="384"/>
+      <c r="E2" s="272" t="s">
+        <v>684</v>
+      </c>
+      <c r="F2" s="272"/>
+      <c r="G2" s="272"/>
+      <c r="H2" s="272"/>
+      <c r="I2" s="272"/>
+      <c r="J2" s="272"/>
+      <c r="K2" s="272"/>
+      <c r="L2" s="395"/>
+      <c r="M2" s="272"/>
+      <c r="N2" s="272"/>
+      <c r="O2" s="272"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="264" t="s">
+        <v>618</v>
+      </c>
+      <c r="B3" s="267" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="266"/>
+      <c r="D3" s="266"/>
+      <c r="E3" s="266"/>
+      <c r="F3" s="266"/>
+      <c r="G3" s="266"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="376" t="s">
+      <c r="A4" s="264" t="s">
+        <v>659</v>
+      </c>
+      <c r="B4" s="267" t="s">
+        <v>594</v>
+      </c>
+      <c r="C4" s="266" t="s">
+        <v>340</v>
+      </c>
+      <c r="D4" s="266" t="s">
+        <v>595</v>
+      </c>
+      <c r="E4" s="266"/>
+      <c r="F4" s="266"/>
+      <c r="G4" s="266"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="264" t="s">
+        <v>593</v>
+      </c>
+      <c r="B5" s="267" t="s">
+        <v>594</v>
+      </c>
+      <c r="C5" s="266" t="s">
+        <v>340</v>
+      </c>
+      <c r="D5" s="266" t="s">
+        <v>595</v>
+      </c>
+      <c r="E5" s="266"/>
+      <c r="F5" s="266"/>
+      <c r="G5" s="266"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="264" t="s">
+        <v>604</v>
+      </c>
+      <c r="B6" s="280" t="s">
+        <v>617</v>
+      </c>
+      <c r="C6" s="267"/>
+      <c r="D6" s="266"/>
+      <c r="E6" s="266"/>
+      <c r="F6" s="266" t="s">
+        <v>541</v>
+      </c>
+      <c r="G6" s="266"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="264" t="s">
+        <v>605</v>
+      </c>
+      <c r="B7" s="276" t="s">
+        <v>613</v>
+      </c>
+      <c r="C7" s="266" t="s">
+        <v>541</v>
+      </c>
+      <c r="D7" s="266" t="s">
+        <v>609</v>
+      </c>
+      <c r="E7" s="266" t="s">
+        <v>610</v>
+      </c>
+      <c r="F7" s="266" t="s">
+        <v>611</v>
+      </c>
+      <c r="G7" s="266"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="264" t="s">
+        <v>606</v>
+      </c>
+      <c r="B8" s="267" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="267"/>
+      <c r="D8" s="266"/>
+      <c r="E8" s="266"/>
+      <c r="F8" s="266"/>
+      <c r="G8" s="266"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="264" t="s">
+        <v>607</v>
+      </c>
+      <c r="B9" s="267" t="s">
+        <v>614</v>
+      </c>
+      <c r="C9" s="267"/>
+      <c r="D9" s="266"/>
+      <c r="E9" s="266"/>
+      <c r="F9" s="266"/>
+      <c r="G9" s="266"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="264" t="s">
+        <v>608</v>
+      </c>
+      <c r="B10" s="267" t="s">
+        <v>572</v>
+      </c>
+      <c r="C10" s="267"/>
+      <c r="D10" s="266"/>
+      <c r="E10" s="266"/>
+      <c r="F10" s="266"/>
+      <c r="G10" s="266"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="264" t="s">
+        <v>622</v>
+      </c>
+      <c r="B11" s="266" t="s">
         <v>623</v>
       </c>
-      <c r="B4" s="379" t="s">
+      <c r="C11" s="266" t="s">
+        <v>624</v>
+      </c>
+      <c r="D11" s="266" t="s">
+        <v>625</v>
+      </c>
+      <c r="E11" s="266"/>
+      <c r="F11" s="266"/>
+      <c r="G11" s="266"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="264" t="s">
+        <v>626</v>
+      </c>
+      <c r="B12" s="267" t="s">
+        <v>572</v>
+      </c>
+      <c r="C12" s="266"/>
+      <c r="D12" s="266"/>
+      <c r="E12" s="266"/>
+      <c r="F12" s="266"/>
+      <c r="G12" s="266"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="264" t="s">
+        <v>637</v>
+      </c>
+      <c r="B13" s="266" t="s">
+        <v>638</v>
+      </c>
+      <c r="C13" s="266"/>
+      <c r="D13" s="266"/>
+      <c r="E13" s="266"/>
+      <c r="F13" s="266"/>
+      <c r="G13" s="266"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="264" t="s">
+        <v>627</v>
+      </c>
+      <c r="B14" s="267" t="s">
+        <v>572</v>
+      </c>
+      <c r="C14" s="266"/>
+      <c r="D14" s="266"/>
+      <c r="E14" s="266"/>
+      <c r="F14" s="266"/>
+      <c r="G14" s="266"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="264" t="s">
+        <v>619</v>
+      </c>
+      <c r="B15" s="266" t="s">
+        <v>596</v>
+      </c>
+      <c r="C15" s="266" t="s">
+        <v>597</v>
+      </c>
+      <c r="D15" s="266"/>
+      <c r="E15" s="266"/>
+      <c r="F15" s="266"/>
+      <c r="G15" s="266"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="264" t="s">
+        <v>620</v>
+      </c>
+      <c r="B16" s="266" t="s">
+        <v>598</v>
+      </c>
+      <c r="C16" s="266"/>
+      <c r="D16" s="266"/>
+      <c r="E16" s="266"/>
+      <c r="F16" s="266"/>
+      <c r="G16" s="266"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="264" t="s">
+        <v>660</v>
+      </c>
+      <c r="B17" s="266" t="s">
+        <v>341</v>
+      </c>
+      <c r="C17" s="267" t="s">
+        <v>572</v>
+      </c>
+      <c r="D17" s="266" t="s">
+        <v>599</v>
+      </c>
+      <c r="E17" s="266" t="s">
+        <v>600</v>
+      </c>
+      <c r="F17" s="266" t="s">
+        <v>555</v>
+      </c>
+      <c r="G17" s="266" t="s">
+        <v>601</v>
+      </c>
+      <c r="H17" s="265" t="s">
+        <v>602</v>
+      </c>
+      <c r="I17" s="265" t="s">
+        <v>603</v>
+      </c>
+      <c r="J17" s="265" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="264" t="s">
+        <v>628</v>
+      </c>
+      <c r="B18" s="268" t="s">
+        <v>631</v>
+      </c>
+      <c r="C18" s="266"/>
+      <c r="D18" s="266"/>
+      <c r="E18" s="266"/>
+      <c r="F18" s="266"/>
+      <c r="G18" s="266"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="264" t="s">
+        <v>629</v>
+      </c>
+      <c r="B19" s="267" t="s">
+        <v>572</v>
+      </c>
+      <c r="C19" s="266"/>
+      <c r="D19" s="266"/>
+      <c r="E19" s="266"/>
+      <c r="F19" s="266"/>
+      <c r="G19" s="266"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="264" t="s">
+        <v>630</v>
+      </c>
+      <c r="B20" s="266" t="s">
+        <v>632</v>
+      </c>
+      <c r="C20" s="266" t="s">
+        <v>633</v>
+      </c>
+      <c r="D20" s="266" t="s">
+        <v>634</v>
+      </c>
+      <c r="E20" s="266" t="s">
+        <v>635</v>
+      </c>
+      <c r="F20" s="266" t="s">
+        <v>636</v>
+      </c>
+      <c r="G20" s="266"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="264" t="s">
+        <v>654</v>
+      </c>
+      <c r="B21" s="266" t="s">
+        <v>647</v>
+      </c>
+      <c r="C21" s="266"/>
+      <c r="D21" s="266"/>
+      <c r="E21" s="266"/>
+      <c r="F21" s="266"/>
+      <c r="G21" s="266"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="264" t="s">
+        <v>646</v>
+      </c>
+      <c r="B22" s="267" t="s">
+        <v>572</v>
+      </c>
+      <c r="C22" s="266"/>
+      <c r="D22" s="266"/>
+      <c r="E22" s="266"/>
+      <c r="F22" s="266"/>
+      <c r="G22" s="266"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="264" t="s">
+        <v>639</v>
+      </c>
+      <c r="B23" s="266" t="s">
+        <v>640</v>
+      </c>
+      <c r="C23" s="266"/>
+      <c r="D23" s="266"/>
+      <c r="E23" s="266"/>
+      <c r="F23" s="266"/>
+      <c r="G23" s="266"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="264" t="s">
+        <v>644</v>
+      </c>
+      <c r="B24" s="266" t="s">
+        <v>632</v>
+      </c>
+      <c r="C24" s="266" t="s">
+        <v>641</v>
+      </c>
+      <c r="D24" s="266" t="s">
+        <v>643</v>
+      </c>
+      <c r="E24" s="266"/>
+      <c r="F24" s="266"/>
+      <c r="G24" s="266"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="264" t="s">
+        <v>655</v>
+      </c>
+      <c r="B25" s="266" t="s">
+        <v>632</v>
+      </c>
+      <c r="C25" s="266" t="s">
+        <v>642</v>
+      </c>
+      <c r="D25" s="266"/>
+      <c r="E25" s="266"/>
+      <c r="F25" s="266"/>
+      <c r="G25" s="266"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="264" t="s">
+        <v>656</v>
+      </c>
+      <c r="B26" s="266" t="s">
+        <v>632</v>
+      </c>
+      <c r="C26" s="266" t="s">
+        <v>645</v>
+      </c>
+      <c r="D26" s="266"/>
+      <c r="E26" s="266"/>
+      <c r="F26" s="266"/>
+      <c r="G26" s="266"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="264" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" s="265" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="264" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="267" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="378"/>
-      <c r="D4" s="378"/>
-      <c r="E4" s="378"/>
-      <c r="F4" s="378"/>
-      <c r="G4" s="378"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="376" t="s">
-        <v>597</v>
-      </c>
-      <c r="B5" s="379" t="s">
-        <v>599</v>
-      </c>
-      <c r="C5" s="378" t="s">
-        <v>340</v>
-      </c>
-      <c r="D5" s="378" t="s">
-        <v>600</v>
-      </c>
-      <c r="E5" s="378"/>
-      <c r="F5" s="378"/>
-      <c r="G5" s="378"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="376" t="s">
-        <v>598</v>
-      </c>
-      <c r="B6" s="379" t="s">
-        <v>599</v>
-      </c>
-      <c r="C6" s="378" t="s">
-        <v>340</v>
-      </c>
-      <c r="D6" s="378" t="s">
-        <v>600</v>
-      </c>
-      <c r="E6" s="378"/>
-      <c r="F6" s="378"/>
-      <c r="G6" s="378"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="376" t="s">
-        <v>624</v>
-      </c>
-      <c r="B7" s="378" t="s">
-        <v>601</v>
-      </c>
-      <c r="C7" s="378" t="s">
-        <v>602</v>
-      </c>
-      <c r="D7" s="378"/>
-      <c r="E7" s="378"/>
-      <c r="F7" s="378"/>
-      <c r="G7" s="378"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="376" t="s">
-        <v>625</v>
-      </c>
-      <c r="B8" s="378" t="s">
-        <v>603</v>
-      </c>
-      <c r="C8" s="378"/>
-      <c r="D8" s="378"/>
-      <c r="E8" s="378"/>
-      <c r="F8" s="378"/>
-      <c r="G8" s="378"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="376" t="s">
-        <v>626</v>
-      </c>
-      <c r="B9" s="378" t="s">
-        <v>341</v>
-      </c>
-      <c r="C9" s="379" t="s">
-        <v>573</v>
-      </c>
-      <c r="D9" s="378" t="s">
-        <v>604</v>
-      </c>
-      <c r="E9" s="378" t="s">
-        <v>605</v>
-      </c>
-      <c r="F9" s="378" t="s">
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="264" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29" s="265" t="s">
+        <v>549</v>
+      </c>
+      <c r="C29" s="266"/>
+      <c r="D29" s="265" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="264" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" s="265" t="s">
+        <v>551</v>
+      </c>
+      <c r="C30" s="265" t="s">
+        <v>552</v>
+      </c>
+      <c r="D30" s="265" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="264" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="265" t="s">
+        <v>558</v>
+      </c>
+      <c r="C31" s="265" t="s">
+        <v>559</v>
+      </c>
+      <c r="D31" s="265" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="264" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32" s="276" t="s">
+        <v>612</v>
+      </c>
+      <c r="C32" s="265" t="s">
+        <v>554</v>
+      </c>
+      <c r="D32" s="265" t="s">
+        <v>556</v>
+      </c>
+      <c r="E32" s="265" t="s">
         <v>555</v>
       </c>
-      <c r="G9" s="378" t="s">
-        <v>606</v>
-      </c>
-      <c r="H9" s="377" t="s">
-        <v>607</v>
-      </c>
-      <c r="I9" s="377" t="s">
-        <v>608</v>
-      </c>
-      <c r="J9" s="377" t="s">
+      <c r="F32" s="265" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="376" t="s">
-        <v>609</v>
-      </c>
-      <c r="B10" s="392" t="s">
-        <v>622</v>
-      </c>
-      <c r="C10" s="379"/>
-      <c r="D10" s="378"/>
-      <c r="E10" s="378"/>
-      <c r="F10" s="378" t="s">
+      <c r="G32" s="266"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="264" t="s">
+        <v>621</v>
+      </c>
+      <c r="B33" s="268" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="264" t="s">
+        <v>661</v>
+      </c>
+      <c r="B34" s="267" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="264" t="s">
+        <v>662</v>
+      </c>
+      <c r="B35" s="267" t="s">
+        <v>614</v>
+      </c>
+      <c r="L35" s="269"/>
+      <c r="M35" s="269"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="264" t="s">
+        <v>662</v>
+      </c>
+      <c r="B36" s="281" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="264" t="s">
+        <v>663</v>
+      </c>
+      <c r="B37" s="267" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="264" t="s">
+        <v>664</v>
+      </c>
+      <c r="B38" s="267" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="264" t="s">
+        <v>665</v>
+      </c>
+      <c r="B39" s="281" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="264" t="s">
+        <v>666</v>
+      </c>
+      <c r="B40" s="267" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="264" t="s">
+        <v>666</v>
+      </c>
+      <c r="B41" s="281" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="264" t="s">
+        <v>667</v>
+      </c>
+      <c r="B42" s="267" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="270" t="s">
+        <v>583</v>
+      </c>
+      <c r="B43" s="281" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="270" t="s">
+        <v>584</v>
+      </c>
+      <c r="B44" s="267" t="s">
+        <v>572</v>
+      </c>
+      <c r="C44" s="265" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="270" t="s">
+        <v>585</v>
+      </c>
+      <c r="B45" s="267" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="270" t="s">
+        <v>586</v>
+      </c>
+      <c r="B46" s="281" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="270" t="s">
+        <v>658</v>
+      </c>
+      <c r="B47" s="267" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="270" t="s">
+        <v>588</v>
+      </c>
+      <c r="B48" s="267" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="270" t="s">
+        <v>657</v>
+      </c>
+      <c r="B49" s="267" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="270" t="s">
+        <v>587</v>
+      </c>
+      <c r="B50" s="267" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="270" t="s">
+        <v>589</v>
+      </c>
+      <c r="B51" s="267" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="270" t="s">
+        <v>590</v>
+      </c>
+      <c r="B52" s="267" t="s">
+        <v>614</v>
+      </c>
+      <c r="J52" s="266"/>
+      <c r="L52" s="269"/>
+      <c r="M52" s="269"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="270" t="s">
+        <v>237</v>
+      </c>
+      <c r="B53" s="267" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="270" t="s">
+        <v>238</v>
+      </c>
+      <c r="B54" s="267" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="270" t="s">
+        <v>591</v>
+      </c>
+      <c r="B55" s="267" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="270" t="s">
+        <v>648</v>
+      </c>
+      <c r="B56" s="282" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="270" t="s">
+        <v>649</v>
+      </c>
+      <c r="B57" s="265" t="s">
+        <v>650</v>
+      </c>
+      <c r="C57" s="265" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="270" t="s">
+        <v>652</v>
+      </c>
+      <c r="B58" s="265" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="270" t="s">
+        <v>668</v>
+      </c>
+      <c r="B59" s="265" t="s">
+        <v>669</v>
+      </c>
+      <c r="C59" s="265" t="s">
+        <v>670</v>
+      </c>
+      <c r="D59" s="265" t="s">
+        <v>558</v>
+      </c>
+      <c r="E59" s="265" t="s">
+        <v>671</v>
+      </c>
+      <c r="F59" s="265" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="270" t="s">
+        <v>676</v>
+      </c>
+      <c r="B60" s="267" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="270" t="s">
+        <v>675</v>
+      </c>
+      <c r="B61" s="267" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="270" t="s">
+        <v>674</v>
+      </c>
+      <c r="B62" s="267" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="270" t="s">
+        <v>673</v>
+      </c>
+      <c r="B63" s="267" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="270" t="s">
+        <v>677</v>
+      </c>
+      <c r="B64" s="268" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="270" t="s">
+        <v>679</v>
+      </c>
+      <c r="B65" s="265" t="s">
+        <v>680</v>
+      </c>
+      <c r="C65" s="265" t="s">
+        <v>569</v>
+      </c>
+      <c r="D65" s="265" t="s">
+        <v>559</v>
+      </c>
+      <c r="E65" s="265" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="270" t="s">
+        <v>681</v>
+      </c>
+      <c r="B66" s="265" t="s">
+        <v>554</v>
+      </c>
+      <c r="C66" s="265" t="s">
+        <v>556</v>
+      </c>
+      <c r="D66" s="265" t="s">
         <v>541</v>
       </c>
-      <c r="G10" s="378"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="376" t="s">
-        <v>610</v>
-      </c>
-      <c r="B11" s="388" t="s">
-        <v>618</v>
-      </c>
-      <c r="C11" s="378" t="s">
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="270" t="s">
+        <v>682</v>
+      </c>
+      <c r="B67" s="265" t="s">
+        <v>554</v>
+      </c>
+      <c r="C67" s="265" t="s">
+        <v>556</v>
+      </c>
+      <c r="D67" s="265" t="s">
+        <v>683</v>
+      </c>
+      <c r="E67" s="265" t="s">
         <v>541</v>
       </c>
-      <c r="D11" s="378" t="s">
-        <v>614</v>
-      </c>
-      <c r="E11" s="378" t="s">
-        <v>615</v>
-      </c>
-      <c r="F11" s="378" t="s">
-        <v>616</v>
-      </c>
-      <c r="G11" s="378"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="376" t="s">
-        <v>611</v>
-      </c>
-      <c r="B12" s="379" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="379"/>
-      <c r="D12" s="378"/>
-      <c r="E12" s="378"/>
-      <c r="F12" s="378"/>
-      <c r="G12" s="378"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="376" t="s">
-        <v>612</v>
-      </c>
-      <c r="B13" s="379" t="s">
-        <v>619</v>
-      </c>
-      <c r="C13" s="379"/>
-      <c r="D13" s="378"/>
-      <c r="E13" s="378"/>
-      <c r="F13" s="378"/>
-      <c r="G13" s="378"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="376" t="s">
-        <v>613</v>
-      </c>
-      <c r="B14" s="379" t="s">
-        <v>573</v>
-      </c>
-      <c r="C14" s="379"/>
-      <c r="D14" s="378"/>
-      <c r="E14" s="378"/>
-      <c r="F14" s="378"/>
-      <c r="G14" s="378"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="376" t="s">
-        <v>628</v>
-      </c>
-      <c r="B15" s="378" t="s">
-        <v>629</v>
-      </c>
-      <c r="C15" s="378" t="s">
-        <v>630</v>
-      </c>
-      <c r="D15" s="378" t="s">
-        <v>631</v>
-      </c>
-      <c r="E15" s="378"/>
-      <c r="F15" s="378"/>
-      <c r="G15" s="378"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="376" t="s">
-        <v>632</v>
-      </c>
-      <c r="B16" s="379" t="s">
-        <v>573</v>
-      </c>
-      <c r="C16" s="378"/>
-      <c r="D16" s="378"/>
-      <c r="E16" s="378"/>
-      <c r="F16" s="378"/>
-      <c r="G16" s="378"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="376" t="s">
-        <v>633</v>
-      </c>
-      <c r="B17" s="379" t="s">
-        <v>573</v>
-      </c>
-      <c r="C17" s="378"/>
-      <c r="D17" s="378"/>
-      <c r="E17" s="378"/>
-      <c r="F17" s="378"/>
-      <c r="G17" s="378"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="376" t="s">
-        <v>634</v>
-      </c>
-      <c r="B18" s="378" t="s">
-        <v>637</v>
-      </c>
-      <c r="C18" s="378"/>
-      <c r="D18" s="378"/>
-      <c r="E18" s="378"/>
-      <c r="F18" s="378"/>
-      <c r="G18" s="378"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="376" t="s">
-        <v>635</v>
-      </c>
-      <c r="B19" s="379" t="s">
-        <v>573</v>
-      </c>
-      <c r="C19" s="378"/>
-      <c r="D19" s="378"/>
-      <c r="E19" s="378"/>
-      <c r="F19" s="378"/>
-      <c r="G19" s="378"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="376" t="s">
-        <v>636</v>
-      </c>
-      <c r="B20" s="378" t="s">
-        <v>638</v>
-      </c>
-      <c r="C20" s="378" t="s">
-        <v>639</v>
-      </c>
-      <c r="D20" s="378" t="s">
-        <v>640</v>
-      </c>
-      <c r="E20" s="378" t="s">
-        <v>641</v>
-      </c>
-      <c r="F20" s="378" t="s">
-        <v>642</v>
-      </c>
-      <c r="G20" s="378"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="376" t="s">
-        <v>643</v>
-      </c>
-      <c r="B21" s="378" t="s">
-        <v>644</v>
-      </c>
-      <c r="C21" s="378"/>
-      <c r="D21" s="378"/>
-      <c r="E21" s="378"/>
-      <c r="F21" s="378"/>
-      <c r="G21" s="378"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="376" t="s">
-        <v>653</v>
-      </c>
-      <c r="B22" s="378" t="s">
-        <v>654</v>
-      </c>
-      <c r="C22" s="378"/>
-      <c r="D22" s="378"/>
-      <c r="E22" s="378"/>
-      <c r="F22" s="378"/>
-      <c r="G22" s="378"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="376" t="s">
-        <v>652</v>
-      </c>
-      <c r="B23" s="379" t="s">
-        <v>573</v>
-      </c>
-      <c r="C23" s="378"/>
-      <c r="D23" s="378"/>
-      <c r="E23" s="378"/>
-      <c r="F23" s="378"/>
-      <c r="G23" s="378"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="376" t="s">
-        <v>645</v>
-      </c>
-      <c r="B24" s="378" t="s">
-        <v>646</v>
-      </c>
-      <c r="C24" s="378"/>
-      <c r="D24" s="378"/>
-      <c r="E24" s="378"/>
-      <c r="F24" s="378"/>
-      <c r="G24" s="378"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="376" t="s">
-        <v>650</v>
-      </c>
-      <c r="B25" s="378" t="s">
-        <v>638</v>
-      </c>
-      <c r="C25" s="378" t="s">
-        <v>647</v>
-      </c>
-      <c r="D25" s="378" t="s">
-        <v>649</v>
-      </c>
-      <c r="E25" s="378"/>
-      <c r="F25" s="378"/>
-      <c r="G25" s="378"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="376" t="s">
-        <v>312</v>
-      </c>
-      <c r="B26" s="378" t="s">
-        <v>638</v>
-      </c>
-      <c r="C26" s="378" t="s">
-        <v>648</v>
-      </c>
-      <c r="D26" s="378"/>
-      <c r="E26" s="378"/>
-      <c r="F26" s="378"/>
-      <c r="G26" s="378"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="376" t="s">
-        <v>311</v>
-      </c>
-      <c r="B27" s="378" t="s">
-        <v>638</v>
-      </c>
-      <c r="C27" s="378" t="s">
-        <v>651</v>
-      </c>
-      <c r="D27" s="378"/>
-      <c r="E27" s="378"/>
-      <c r="F27" s="378"/>
-      <c r="G27" s="378"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="376" t="s">
-        <v>156</v>
-      </c>
-      <c r="B28" s="377" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="376" t="s">
-        <v>151</v>
-      </c>
-      <c r="B29" s="379" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="376" t="s">
-        <v>152</v>
-      </c>
-      <c r="B30" s="377" t="s">
-        <v>549</v>
-      </c>
-      <c r="C30" s="378"/>
-      <c r="D30" s="377" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="376" t="s">
-        <v>153</v>
-      </c>
-      <c r="B31" s="377" t="s">
-        <v>551</v>
-      </c>
-      <c r="C31" s="377" t="s">
-        <v>552</v>
-      </c>
-      <c r="D31" s="377" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="376" t="s">
-        <v>154</v>
-      </c>
-      <c r="B32" s="377" t="s">
-        <v>558</v>
-      </c>
-      <c r="C32" s="377" t="s">
-        <v>559</v>
-      </c>
-      <c r="D32" s="377" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="376" t="s">
-        <v>155</v>
-      </c>
-      <c r="B33" s="388" t="s">
-        <v>617</v>
-      </c>
-      <c r="C33" s="377" t="s">
-        <v>554</v>
-      </c>
-      <c r="D33" s="377" t="s">
-        <v>556</v>
-      </c>
-      <c r="E33" s="377" t="s">
-        <v>555</v>
-      </c>
-      <c r="F33" s="377" t="s">
-        <v>557</v>
-      </c>
-      <c r="G33" s="378"/>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="376" t="s">
-        <v>627</v>
-      </c>
-      <c r="B34" s="380" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="376" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="379" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="376" t="s">
-        <v>561</v>
-      </c>
-      <c r="B36" s="379" t="s">
-        <v>619</v>
-      </c>
-      <c r="L36" s="381"/>
-      <c r="M36" s="381"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="376" t="s">
-        <v>561</v>
-      </c>
-      <c r="B37" s="393" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="376" t="s">
-        <v>586</v>
-      </c>
-      <c r="B38" s="379" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="376" t="s">
-        <v>194</v>
-      </c>
-      <c r="B39" s="379" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="376" t="s">
-        <v>194</v>
-      </c>
-      <c r="B40" s="393" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="376" t="s">
-        <v>198</v>
-      </c>
-      <c r="B41" s="379" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="376" t="s">
-        <v>198</v>
-      </c>
-      <c r="B42" s="393" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="376" t="s">
-        <v>210</v>
-      </c>
-      <c r="B43" s="379" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="382" t="s">
-        <v>584</v>
-      </c>
-      <c r="B44" s="393" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="382" t="s">
-        <v>585</v>
-      </c>
-      <c r="B45" s="379" t="s">
-        <v>573</v>
-      </c>
-      <c r="C45" s="377" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="382" t="s">
-        <v>587</v>
-      </c>
-      <c r="B46" s="379" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="382" t="s">
-        <v>588</v>
-      </c>
-      <c r="B47" s="393" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="382" t="s">
-        <v>589</v>
-      </c>
-      <c r="B48" s="379" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="382" t="s">
-        <v>592</v>
-      </c>
-      <c r="B49" s="379" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="382" t="s">
-        <v>590</v>
-      </c>
-      <c r="B50" s="379" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="382" t="s">
-        <v>591</v>
-      </c>
-      <c r="B51" s="379" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="382" t="s">
-        <v>593</v>
-      </c>
-      <c r="B52" s="379" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="382" t="s">
-        <v>594</v>
-      </c>
-      <c r="B53" s="379" t="s">
-        <v>619</v>
-      </c>
-      <c r="J53" s="378"/>
-      <c r="L53" s="381"/>
-      <c r="M53" s="381"/>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="382" t="s">
-        <v>237</v>
-      </c>
-      <c r="B54" s="379" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="382" t="s">
-        <v>238</v>
-      </c>
-      <c r="B55" s="379" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="382" t="s">
-        <v>595</v>
-      </c>
-      <c r="B56" s="379" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="382" t="s">
-        <v>655</v>
-      </c>
-      <c r="B57" s="394" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="382" t="s">
-        <v>656</v>
-      </c>
-      <c r="B58" s="377" t="s">
-        <v>657</v>
-      </c>
-      <c r="C58" s="377" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="382" t="s">
-        <v>659</v>
-      </c>
-      <c r="B59" s="377" t="s">
-        <v>660</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A62" xr:uid="{00000000-0001-0000-1500-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="B57" r:id="rId1" xr:uid="{023B2815-8188-444D-945D-B6801FF7D2C3}"/>
+    <hyperlink ref="B56" r:id="rId1" xr:uid="{023B2815-8188-444D-945D-B6801FF7D2C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -19779,165 +20290,165 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E15:E16"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.21875" style="382" customWidth="1"/>
-    <col min="2" max="15" width="10.6640625" style="377"/>
-    <col min="16" max="16384" width="10.6640625" style="378"/>
+    <col min="1" max="1" width="16.21875" style="270" customWidth="1"/>
+    <col min="2" max="15" width="10.6640625" style="265"/>
+    <col min="16" max="16384" width="10.6640625" style="266"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="370" customFormat="1" ht="18.600000000000001" thickBot="1">
-      <c r="A1" s="371"/>
-      <c r="B1" s="374"/>
-      <c r="C1" s="374"/>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="374"/>
-      <c r="G1" s="374"/>
-      <c r="H1" s="374"/>
-      <c r="I1" s="374"/>
-      <c r="J1" s="374"/>
-      <c r="K1" s="374"/>
-      <c r="L1" s="374"/>
-      <c r="M1" s="374"/>
-      <c r="N1" s="374"/>
-      <c r="O1" s="374"/>
-    </row>
-    <row r="2" spans="1:15" s="373" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A2" s="372" t="s">
+    <row r="1" spans="1:15" s="258" customFormat="1" ht="18.600000000000001" thickBot="1">
+      <c r="A1" s="259"/>
+      <c r="B1" s="262"/>
+      <c r="C1" s="262"/>
+      <c r="D1" s="262"/>
+      <c r="E1" s="262"/>
+      <c r="F1" s="262"/>
+      <c r="G1" s="262"/>
+      <c r="H1" s="262"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="262"/>
+      <c r="K1" s="262"/>
+      <c r="L1" s="262"/>
+      <c r="M1" s="262"/>
+      <c r="N1" s="262"/>
+      <c r="O1" s="262"/>
+    </row>
+    <row r="2" spans="1:15" s="261" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A2" s="260" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="372" t="s">
+      <c r="B2" s="260" t="s">
         <v>540</v>
       </c>
-      <c r="N2" s="372"/>
-    </row>
-    <row r="3" spans="1:15" s="389" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A3" s="386"/>
-      <c r="B3" s="377" t="s">
+      <c r="N2" s="260"/>
+    </row>
+    <row r="3" spans="1:15" s="277" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="A3" s="274"/>
+      <c r="B3" s="265" t="s">
         <v>335</v>
       </c>
-      <c r="C3" s="377" t="s">
+      <c r="C3" s="265" t="s">
         <v>336</v>
       </c>
-      <c r="D3" s="374"/>
-      <c r="E3" s="375"/>
-      <c r="F3" s="374"/>
-      <c r="G3" s="375"/>
-      <c r="H3" s="374"/>
-      <c r="I3" s="375"/>
-      <c r="J3" s="375"/>
-      <c r="K3" s="375"/>
-      <c r="L3" s="375"/>
-      <c r="M3" s="375"/>
-      <c r="N3" s="375"/>
-      <c r="O3" s="375"/>
-    </row>
-    <row r="4" spans="1:15" s="389" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="387" t="s">
+      <c r="D3" s="262"/>
+      <c r="E3" s="263"/>
+      <c r="F3" s="262"/>
+      <c r="G3" s="263"/>
+      <c r="H3" s="262"/>
+      <c r="I3" s="263"/>
+      <c r="J3" s="263"/>
+      <c r="K3" s="263"/>
+      <c r="L3" s="263"/>
+      <c r="M3" s="263"/>
+      <c r="N3" s="263"/>
+      <c r="O3" s="263"/>
+    </row>
+    <row r="4" spans="1:15" s="277" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="275" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="374" t="s">
+      <c r="B4" s="262" t="s">
         <v>547</v>
       </c>
-      <c r="C4" s="374" t="s">
+      <c r="C4" s="262" t="s">
         <v>548</v>
       </c>
-      <c r="D4" s="374" t="s">
+      <c r="D4" s="262" t="s">
         <v>544</v>
       </c>
-      <c r="E4" s="375"/>
-      <c r="F4" s="374" t="s">
+      <c r="E4" s="263"/>
+      <c r="F4" s="262" t="s">
         <v>545</v>
       </c>
-      <c r="G4" s="375"/>
-      <c r="H4" s="374" t="s">
+      <c r="G4" s="263"/>
+      <c r="H4" s="262" t="s">
         <v>546</v>
       </c>
-      <c r="I4" s="375"/>
-      <c r="J4" s="375"/>
-      <c r="K4" s="375"/>
-      <c r="L4" s="375"/>
-      <c r="M4" s="375"/>
-      <c r="N4" s="375"/>
-      <c r="O4" s="375"/>
-    </row>
-    <row r="5" spans="1:15" s="391" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="390" t="s">
+      <c r="I4" s="263"/>
+      <c r="J4" s="263"/>
+      <c r="K4" s="263"/>
+      <c r="L4" s="263"/>
+      <c r="M4" s="263"/>
+      <c r="N4" s="263"/>
+      <c r="O4" s="263"/>
+    </row>
+    <row r="5" spans="1:15" s="279" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="278" t="s">
+        <v>572</v>
+      </c>
+      <c r="B5" s="279" t="s">
+        <v>576</v>
+      </c>
+      <c r="C5" s="279" t="s">
+        <v>577</v>
+      </c>
+      <c r="D5" s="279" t="s">
+        <v>578</v>
+      </c>
+      <c r="E5" s="279" t="s">
+        <v>579</v>
+      </c>
+      <c r="F5" s="279" t="s">
+        <v>580</v>
+      </c>
+      <c r="G5" s="279" t="s">
+        <v>581</v>
+      </c>
+      <c r="H5" s="279" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="279" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="278" t="s">
+        <v>572</v>
+      </c>
+      <c r="B6" s="279" t="s">
         <v>573</v>
       </c>
-      <c r="B5" s="391" t="s">
-        <v>577</v>
-      </c>
-      <c r="C5" s="391" t="s">
-        <v>578</v>
-      </c>
-      <c r="D5" s="391" t="s">
-        <v>579</v>
-      </c>
-      <c r="E5" s="391" t="s">
-        <v>580</v>
-      </c>
-      <c r="F5" s="391" t="s">
-        <v>581</v>
-      </c>
-      <c r="G5" s="391" t="s">
-        <v>582</v>
-      </c>
-      <c r="H5" s="391" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="391" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="390" t="s">
-        <v>573</v>
-      </c>
-      <c r="B6" s="391" t="s">
+      <c r="C6" s="279" t="s">
         <v>574</v>
       </c>
-      <c r="C6" s="391" t="s">
+      <c r="D6" s="279" t="s">
         <v>575</v>
       </c>
-      <c r="D6" s="391" t="s">
-        <v>576</v>
-      </c>
     </row>
     <row r="7" spans="1:15" ht="18" customHeight="1">
-      <c r="A7" s="390" t="s">
-        <v>619</v>
-      </c>
-      <c r="B7" s="377" t="s">
+      <c r="A7" s="278" t="s">
+        <v>614</v>
+      </c>
+      <c r="B7" s="265" t="s">
         <v>541</v>
       </c>
-      <c r="C7" s="377" t="s">
+      <c r="C7" s="265" t="s">
+        <v>563</v>
+      </c>
+      <c r="D7" s="265" t="s">
+        <v>561</v>
+      </c>
+      <c r="E7" s="265" t="s">
+        <v>562</v>
+      </c>
+      <c r="F7" s="265" t="s">
         <v>564</v>
       </c>
-      <c r="D7" s="377" t="s">
-        <v>562</v>
-      </c>
-      <c r="E7" s="377" t="s">
-        <v>563</v>
-      </c>
-      <c r="F7" s="377" t="s">
+      <c r="G7" s="265" t="s">
         <v>565</v>
       </c>
-      <c r="G7" s="377" t="s">
+      <c r="H7" s="265" t="s">
         <v>566</v>
       </c>
-      <c r="H7" s="377" t="s">
+      <c r="I7" s="265" t="s">
         <v>567</v>
       </c>
-      <c r="I7" s="377" t="s">
+      <c r="J7" s="265" t="s">
         <v>568</v>
       </c>
-      <c r="J7" s="377" t="s">
+      <c r="K7" s="265" t="s">
         <v>569</v>
-      </c>
-      <c r="K7" s="377" t="s">
-        <v>570</v>
       </c>
     </row>
   </sheetData>

--- a/CSS.xlsx
+++ b/CSS.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alice\Document\MyDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.Note\MyDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3AC466-6870-42C5-A3AC-ACE86E1BAAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10668" yWindow="3936" windowWidth="19224" windowHeight="12216" tabRatio="750" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10668" yWindow="3936" windowWidth="19224" windowHeight="12216" tabRatio="750" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CSS" sheetId="4" r:id="rId1"/>
     <sheet name="Property" sheetId="50" r:id="rId2"/>
     <sheet name="Value" sheetId="52" r:id="rId3"/>
+    <sheet name="Tips" sheetId="53" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Property!$A$1:$A$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Property!$A$1:$A$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Tips!$A$1:$A$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,12 +41,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="I7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="M7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="Q7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="A15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="A19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="G20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="I20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -152,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="G21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -176,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment ref="G22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+    <comment ref="I22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -204,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+    <comment ref="K22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -218,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
+    <comment ref="M22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -232,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
+    <comment ref="O22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -246,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
+    <comment ref="G23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -260,7 +261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
+    <comment ref="I23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -274,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
+    <comment ref="K23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -288,7 +289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
+    <comment ref="M23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -302,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
+    <comment ref="O23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -316,7 +317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
+    <comment ref="G24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -330,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
+    <comment ref="G25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -344,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
+    <comment ref="I25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -358,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
+    <comment ref="K25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -372,7 +373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
+    <comment ref="G26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -386,7 +387,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
+    <comment ref="G27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -400,7 +401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
+    <comment ref="I27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -414,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001B000000}">
+    <comment ref="G28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -428,7 +429,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
+    <comment ref="I28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -442,7 +443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
+    <comment ref="G29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -456,7 +457,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
+    <comment ref="I29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -470,7 +471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
+    <comment ref="G30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -484,7 +485,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000020000000}">
+    <comment ref="G31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -498,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000021000000}">
+    <comment ref="I31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -512,7 +513,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000022000000}">
+    <comment ref="G32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -526,7 +527,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000023000000}">
+    <comment ref="I32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -540,7 +541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000024000000}">
+    <comment ref="G33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -554,7 +555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000025000000}">
+    <comment ref="G34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -568,7 +569,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000026000000}">
+    <comment ref="A35" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -581,7 +582,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000027000000}">
+    <comment ref="A41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -594,7 +595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000028000000}">
+    <comment ref="A50" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -607,7 +608,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R74" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000029000000}">
+    <comment ref="R74" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -623,7 +624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D109" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002A000000}">
+    <comment ref="D109" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -670,7 +671,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D114" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002B000000}">
+    <comment ref="D114" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -683,7 +684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J126" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002C000000}">
+    <comment ref="J126" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -706,7 +707,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L126" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002D000000}">
+    <comment ref="L126" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -719,7 +720,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N126" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002E000000}">
+    <comment ref="N126" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -732,7 +733,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P126" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002F000000}">
+    <comment ref="P126" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -745,7 +746,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R126" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000030000000}">
+    <comment ref="R126" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -780,7 +781,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N139" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000031000000}">
+    <comment ref="N139" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -807,7 +808,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R139" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000032000000}">
+    <comment ref="R139" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -823,7 +824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H145" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000033000000}">
+    <comment ref="H145" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -869,7 +870,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H179" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000034000000}">
+    <comment ref="H179" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -882,7 +883,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H180" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000035000000}">
+    <comment ref="H180" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -895,7 +896,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H181" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000036000000}">
+    <comment ref="H181" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -912,7 +913,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M185" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000037000000}">
+    <comment ref="M185" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -930,7 +931,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P185" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000038000000}">
+    <comment ref="P185" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -947,7 +948,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H186" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000039000000}">
+    <comment ref="H186" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -960,7 +961,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H189" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00003A000000}">
+    <comment ref="H189" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -973,7 +974,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H193" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00003B000000}">
+    <comment ref="H193" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -986,7 +987,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M199" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00003C000000}">
+    <comment ref="M199" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -999,7 +1000,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H200" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00003D000000}">
+    <comment ref="H200" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1012,7 +1013,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A203" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00003E000000}">
+    <comment ref="A203" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1025,7 +1026,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T209" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00003F000000}">
+    <comment ref="T209" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1039,7 +1040,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T211" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000040000000}">
+    <comment ref="T211" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1053,7 +1054,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L213" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000041000000}">
+    <comment ref="L213" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1066,7 +1067,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L214" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000042000000}">
+    <comment ref="L214" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1079,7 +1080,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L215" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000043000000}">
+    <comment ref="L215" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1092,7 +1093,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D221" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000044000000}">
+    <comment ref="D221" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1105,7 +1106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D222" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000045000000}">
+    <comment ref="D222" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1118,7 +1119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L223" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000046000000}">
+    <comment ref="L223" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1131,7 +1132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N223" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000047000000}">
+    <comment ref="N223" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1144,7 +1145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P223" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000048000000}">
+    <comment ref="P223" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1157,7 +1158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R223" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000049000000}">
+    <comment ref="R223" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1170,7 +1171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T223" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00004A000000}">
+    <comment ref="T223" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1188,13 +1189,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
     <author>Dell</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{987684DA-CF4A-4090-AF4B-114107CB1E36}">
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1207,7 +1208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{8D779AE0-A315-412E-B8F5-9528436BE911}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1220,7 +1221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{903EA186-82D5-4918-B52E-567E7B9B9F8A}">
+    <comment ref="A16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1252,7 +1253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="1" shapeId="0" xr:uid="{67195DA8-2A35-47F8-A3F5-3F1DDCB587A7}">
+    <comment ref="B19" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1265,7 +1266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C44" authorId="0" shapeId="0" xr:uid="{D42E27AC-B867-4204-817F-04960552095D}">
+    <comment ref="C44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1274,11 +1275,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>horizontally center</t>
+          <t>center auto direction</t>
         </r>
       </text>
     </comment>
-    <comment ref="B59" authorId="1" shapeId="0" xr:uid="{FB359A1D-ADE6-4A76-8496-2301A62CC548}">
+    <comment ref="B59" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1291,7 +1292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C59" authorId="1" shapeId="0" xr:uid="{C3015DAA-FE84-43F9-BB5A-409C5C8721F0}">
+    <comment ref="C59" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1304,7 +1305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D59" authorId="1" shapeId="0" xr:uid="{29A9728C-F765-4B13-9343-0F779A6387E0}">
+    <comment ref="D59" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1317,7 +1318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E59" authorId="1" shapeId="0" xr:uid="{BBFB89B4-ADD9-45B0-83BE-3DCA56F6BD7E}">
+    <comment ref="E59" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1330,7 +1331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F59" authorId="1" shapeId="0" xr:uid="{F603DC59-4EA6-409E-8880-D8D9CE050171}">
+    <comment ref="F59" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1343,7 +1344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C65" authorId="1" shapeId="0" xr:uid="{952FF635-63A6-4BCC-B774-2A3AB0EBD019}">
+    <comment ref="C65" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1356,7 +1357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D65" authorId="1" shapeId="0" xr:uid="{01057DB2-43EA-4ECF-B00C-641B4744982F}">
+    <comment ref="D65" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1369,7 +1370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E65" authorId="1" shapeId="0" xr:uid="{B832E165-BF22-4584-AFA8-6A1D15DF5EA4}">
+    <comment ref="E65" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1382,7 +1383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B67" authorId="1" shapeId="0" xr:uid="{0966C6B6-B563-4036-A26F-2318522A4256}">
+    <comment ref="B67" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1395,7 +1396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C67" authorId="1" shapeId="0" xr:uid="{3272B442-A297-47C9-B580-65074AF0B8C5}">
+    <comment ref="C67" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1408,7 +1409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D67" authorId="1" shapeId="0" xr:uid="{7A9050B4-2EE2-4E89-AC38-D78DA966D370}">
+    <comment ref="D67" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1426,7 +1427,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="701">
   <si>
     <t>CSS</t>
   </si>
@@ -7839,6 +7840,910 @@
     </r>
   </si>
   <si>
+    <t>text-transform</t>
+  </si>
+  <si>
+    <t>uppercase</t>
+  </si>
+  <si>
+    <t>lowercase</t>
+  </si>
+  <si>
+    <t>capitalize</t>
+  </si>
+  <si>
+    <t>text-indent</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">letter-spacing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(text)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">line-height </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(text)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">word-spacing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(text)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">white-space </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(text)</t>
+    </r>
+  </si>
+  <si>
+    <t>0.0 ~ ↑</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>nowrap</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>pre-line</t>
+  </si>
+  <si>
+    <t>pre-wrap</t>
+  </si>
+  <si>
+    <t>text-shadow</t>
+  </si>
+  <si>
+    <r>
+      <t>horizontal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> vertical-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> blur-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0066"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>color</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">font-family </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(text)</t>
+    </r>
+  </si>
+  <si>
+    <t>"Times New Roman", Times, serif;</t>
+  </si>
+  <si>
+    <t>italic</t>
+  </si>
+  <si>
+    <t>bold</t>
+  </si>
+  <si>
+    <t>oblique</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">font-style </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(text)</t>
+    </r>
+  </si>
+  <si>
+    <t>small-caps</t>
+  </si>
+  <si>
+    <r>
+      <t>font-size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (text)</t>
+    </r>
+  </si>
+  <si>
+    <t>size/line-height family style variant weight</t>
+  </si>
+  <si>
+    <t>list-style-type</t>
+  </si>
+  <si>
+    <t>list-style-position</t>
+  </si>
+  <si>
+    <t>outside</t>
+  </si>
+  <si>
+    <t>inside</t>
+  </si>
+  <si>
+    <t>list-style-image</t>
+  </si>
+  <si>
+    <t>url('')</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">font </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(text)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">font-weight </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(text)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">font-variant </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(text)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">width </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(table)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">height </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(table)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>text-align</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (table)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>vertical-align</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (text) (table)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>border</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (table)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">border-style </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(table)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">border-[dir]-style </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(table)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">border-width </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(table)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>border-width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (table)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">border-color </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(table)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">border-radius </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(table)</t>
+    </r>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>relative</t>
+  </si>
+  <si>
+    <t>absolute</t>
+  </si>
+  <si>
+    <t>sticky</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bottom </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(position)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>top</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (position)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">right </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(position)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (position)</t>
+    </r>
+  </si>
+  <si>
+    <t>z-index</t>
+  </si>
+  <si>
+    <t>integer number</t>
+  </si>
+  <si>
+    <t>overflow</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>inline-block</t>
+  </si>
+  <si>
+    <t>Styling</t>
+  </si>
+  <si>
+    <r>
+      <t>margin-left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000CD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>margin-right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000CD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>margin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000CD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>text-align</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000CD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> center</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>text-align</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000CD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> center</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <r>
+      <t>position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000CD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> absolute</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000CD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> 0px</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>float</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000CD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>clearfix Hack</t>
+  </si>
+  <si>
+    <r>
+      <t>content</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000CD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> ""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>clear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000CD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> both</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <r>
+      <t>padding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000CD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> 70px 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>Center both ver and hori</t>
+  </si>
+  <si>
     <r>
       <t>opacity</t>
     </r>
@@ -7849,552 +8754,15 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> (background)</t>
-    </r>
-  </si>
-  <si>
-    <t>text-transform</t>
-  </si>
-  <si>
-    <t>uppercase</t>
-  </si>
-  <si>
-    <t>lowercase</t>
-  </si>
-  <si>
-    <t>capitalize</t>
-  </si>
-  <si>
-    <t>text-indent</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">letter-spacing </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(text)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">line-height </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(text)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">word-spacing </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(text)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">white-space </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(text)</t>
-    </r>
-  </si>
-  <si>
-    <t>0.0 ~ ↑</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>nowrap</t>
-  </si>
-  <si>
-    <t>pre</t>
-  </si>
-  <si>
-    <t>pre-line</t>
-  </si>
-  <si>
-    <t>pre-wrap</t>
-  </si>
-  <si>
-    <t>text-shadow</t>
-  </si>
-  <si>
-    <r>
-      <t>horizontal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0066"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>length</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> vertical-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0066"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>length</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> blur-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0066"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>length</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0066"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>color</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">font-family </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(text)</t>
-    </r>
-  </si>
-  <si>
-    <t>"Times New Roman", Times, serif;</t>
-  </si>
-  <si>
-    <t>italic</t>
-  </si>
-  <si>
-    <t>bold</t>
-  </si>
-  <si>
-    <t>oblique</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">font-style </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(text)</t>
-    </r>
-  </si>
-  <si>
-    <t>small-caps</t>
-  </si>
-  <si>
-    <r>
-      <t>font-size</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> (text)</t>
-    </r>
-  </si>
-  <si>
-    <t>size/line-height family style variant weight</t>
-  </si>
-  <si>
-    <t>list-style-type</t>
-  </si>
-  <si>
-    <t>list-style-position</t>
-  </si>
-  <si>
-    <t>outside</t>
-  </si>
-  <si>
-    <t>inside</t>
-  </si>
-  <si>
-    <t>list-style-image</t>
-  </si>
-  <si>
-    <t>url('')</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">font </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(text)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">font-weight </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(text)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">font-variant </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(text)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">width </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(table)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">height </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(table)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>text-align</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> (table)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>vertical-align</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> (text) (table)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>border</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> (table)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">border-style </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(table)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">border-[dir]-style </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(table)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">border-width </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(table)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>border-width</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> (table)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">border-color </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(table)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">border-radius </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(table)</t>
-    </r>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>static</t>
-  </si>
-  <si>
-    <t>relative</t>
-  </si>
-  <si>
-    <t>absolute</t>
-  </si>
-  <si>
-    <t>sticky</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">bottom </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(position)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>top</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> (position)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">right </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(position)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>left</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> (position)</t>
-    </r>
-  </si>
-  <si>
-    <t>z-index</t>
-  </si>
-  <si>
-    <t>integer number</t>
-  </si>
-  <si>
-    <t>overflow</t>
-  </si>
-  <si>
-    <t>visible</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>inline-block</t>
+      <t xml:space="preserve"> (background) (image)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="73">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="78">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8841,6 +9209,35 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000CD"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -8940,7 +9337,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="94">
+  <borders count="98">
     <border>
       <left/>
       <right/>
@@ -9985,13 +10382,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="dashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="396">
+  <cellXfs count="411">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -10667,344 +11120,387 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="88" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="53" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="67" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="9" borderId="64" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="9" borderId="64" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="36" fillId="8" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="36" fillId="8" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="65" fillId="8" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="67" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="53" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="8" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="8" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="8" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="76" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="77" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="68" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -11662,11 +12158,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS227"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J88" sqref="J88"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18"/>
@@ -11707,23 +12203,23 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="27.6" customHeight="1">
-      <c r="A3" s="324" t="s">
+      <c r="A3" s="377" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="324"/>
+      <c r="B3" s="377"/>
       <c r="C3" s="52"/>
-      <c r="D3" s="326" t="s">
+      <c r="D3" s="379" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="326"/>
-      <c r="F3" s="326"/>
+      <c r="E3" s="379"/>
+      <c r="F3" s="379"/>
       <c r="G3" s="52"/>
-      <c r="H3" s="326" t="s">
+      <c r="H3" s="379" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="326"/>
-      <c r="J3" s="326"/>
-      <c r="K3" s="326"/>
+      <c r="I3" s="379"/>
+      <c r="J3" s="379"/>
+      <c r="K3" s="379"/>
       <c r="L3" s="13"/>
       <c r="M3" s="49"/>
       <c r="N3" s="54" t="s">
@@ -11743,10 +12239,10 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="27.6" customHeight="1">
-      <c r="A4" s="325" t="s">
+      <c r="A4" s="378" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="325"/>
+      <c r="B4" s="378"/>
       <c r="C4" s="51" t="s">
         <v>18</v>
       </c>
@@ -11845,36 +12341,36 @@
       <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" thickTop="1">
-      <c r="A7" s="334" t="s">
+      <c r="A7" s="381" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="334"/>
-      <c r="C7" s="334"/>
-      <c r="D7" s="335"/>
-      <c r="E7" s="327" t="s">
+      <c r="B7" s="381"/>
+      <c r="C7" s="381"/>
+      <c r="D7" s="382"/>
+      <c r="E7" s="380" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="328"/>
-      <c r="G7" s="328"/>
-      <c r="H7" s="329"/>
-      <c r="I7" s="328" t="s">
+      <c r="F7" s="359"/>
+      <c r="G7" s="359"/>
+      <c r="H7" s="360"/>
+      <c r="I7" s="359" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="328"/>
-      <c r="K7" s="328"/>
-      <c r="L7" s="329"/>
-      <c r="M7" s="350" t="s">
+      <c r="J7" s="359"/>
+      <c r="K7" s="359"/>
+      <c r="L7" s="360"/>
+      <c r="M7" s="356" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="351"/>
-      <c r="O7" s="351"/>
-      <c r="P7" s="352"/>
-      <c r="Q7" s="350" t="s">
+      <c r="N7" s="357"/>
+      <c r="O7" s="357"/>
+      <c r="P7" s="358"/>
+      <c r="Q7" s="356" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="351"/>
-      <c r="S7" s="351"/>
-      <c r="T7" s="352"/>
+      <c r="R7" s="357"/>
+      <c r="S7" s="357"/>
+      <c r="T7" s="358"/>
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
       <c r="W7" s="21"/>
@@ -11884,10 +12380,10 @@
       <c r="AA7" s="21"/>
     </row>
     <row r="8" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="334"/>
-      <c r="B8" s="334"/>
-      <c r="C8" s="334"/>
-      <c r="D8" s="335"/>
+      <c r="A8" s="381"/>
+      <c r="B8" s="381"/>
+      <c r="C8" s="381"/>
+      <c r="D8" s="382"/>
       <c r="E8" s="33" t="s">
         <v>33</v>
       </c>
@@ -11925,10 +12421,10 @@
       <c r="AA8" s="21"/>
     </row>
     <row r="9" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="334"/>
-      <c r="B9" s="334"/>
-      <c r="C9" s="334"/>
-      <c r="D9" s="335"/>
+      <c r="A9" s="381"/>
+      <c r="B9" s="381"/>
+      <c r="C9" s="381"/>
+      <c r="D9" s="382"/>
       <c r="E9" s="34" t="s">
         <v>31</v>
       </c>
@@ -11962,10 +12458,10 @@
       <c r="AA9" s="21"/>
     </row>
     <row r="10" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="334"/>
-      <c r="B10" s="334"/>
-      <c r="C10" s="334"/>
-      <c r="D10" s="335"/>
+      <c r="A10" s="381"/>
+      <c r="B10" s="381"/>
+      <c r="C10" s="381"/>
+      <c r="D10" s="382"/>
       <c r="E10" s="34" t="s">
         <v>32</v>
       </c>
@@ -11999,10 +12495,10 @@
       <c r="AA10" s="21"/>
     </row>
     <row r="11" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="334"/>
-      <c r="B11" s="334"/>
-      <c r="C11" s="334"/>
-      <c r="D11" s="335"/>
+      <c r="A11" s="381"/>
+      <c r="B11" s="381"/>
+      <c r="C11" s="381"/>
+      <c r="D11" s="382"/>
       <c r="E11" s="35" t="s">
         <v>13</v>
       </c>
@@ -12036,10 +12532,10 @@
       <c r="AA11" s="21"/>
     </row>
     <row r="12" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="334"/>
-      <c r="B12" s="334"/>
-      <c r="C12" s="334"/>
-      <c r="D12" s="335"/>
+      <c r="A12" s="381"/>
+      <c r="B12" s="381"/>
+      <c r="C12" s="381"/>
+      <c r="D12" s="382"/>
       <c r="E12" s="36"/>
       <c r="F12" s="21"/>
       <c r="G12" s="26"/>
@@ -12065,10 +12561,10 @@
       <c r="AA12" s="21"/>
     </row>
     <row r="13" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="334"/>
-      <c r="B13" s="334"/>
-      <c r="C13" s="334"/>
-      <c r="D13" s="335"/>
+      <c r="A13" s="381"/>
+      <c r="B13" s="381"/>
+      <c r="C13" s="381"/>
+      <c r="D13" s="382"/>
       <c r="E13" s="39" t="s">
         <v>35</v>
       </c>
@@ -12100,10 +12596,10 @@
       <c r="AA13" s="21"/>
     </row>
     <row r="14" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A14" s="336"/>
-      <c r="B14" s="336"/>
-      <c r="C14" s="336"/>
-      <c r="D14" s="337"/>
+      <c r="A14" s="383"/>
+      <c r="B14" s="383"/>
+      <c r="C14" s="383"/>
+      <c r="D14" s="384"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
@@ -12131,12 +12627,12 @@
       <c r="AA14" s="27"/>
     </row>
     <row r="15" spans="1:27" ht="18" customHeight="1" thickTop="1">
-      <c r="A15" s="330" t="s">
+      <c r="A15" s="350" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="330"/>
-      <c r="C15" s="330"/>
-      <c r="D15" s="331"/>
+      <c r="B15" s="350"/>
+      <c r="C15" s="350"/>
+      <c r="D15" s="351"/>
       <c r="E15" s="45" t="s">
         <v>44</v>
       </c>
@@ -12174,10 +12670,10 @@
       <c r="AA15" s="13"/>
     </row>
     <row r="16" spans="1:27" ht="18" customHeight="1">
-      <c r="A16" s="332"/>
-      <c r="B16" s="332"/>
-      <c r="C16" s="332"/>
-      <c r="D16" s="333"/>
+      <c r="A16" s="352"/>
+      <c r="B16" s="352"/>
+      <c r="C16" s="352"/>
+      <c r="D16" s="353"/>
       <c r="E16" s="45" t="s">
         <v>49</v>
       </c>
@@ -12215,10 +12711,10 @@
       <c r="AA16" s="13"/>
     </row>
     <row r="17" spans="1:45" ht="18" customHeight="1">
-      <c r="A17" s="332"/>
-      <c r="B17" s="332"/>
-      <c r="C17" s="332"/>
-      <c r="D17" s="333"/>
+      <c r="A17" s="352"/>
+      <c r="B17" s="352"/>
+      <c r="C17" s="352"/>
+      <c r="D17" s="353"/>
       <c r="E17" s="45" t="s">
         <v>53</v>
       </c>
@@ -12256,10 +12752,10 @@
       <c r="AA17" s="13"/>
     </row>
     <row r="18" spans="1:45" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A18" s="348"/>
-      <c r="B18" s="348"/>
-      <c r="C18" s="348"/>
-      <c r="D18" s="349"/>
+      <c r="A18" s="354"/>
+      <c r="B18" s="354"/>
+      <c r="C18" s="354"/>
+      <c r="D18" s="355"/>
       <c r="E18" s="62" t="s">
         <v>57</v>
       </c>
@@ -12297,12 +12793,12 @@
       <c r="AA18" s="27"/>
     </row>
     <row r="19" spans="1:45" s="74" customFormat="1" ht="18" customHeight="1" thickTop="1">
-      <c r="A19" s="330" t="s">
+      <c r="A19" s="350" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="330"/>
-      <c r="C19" s="330"/>
-      <c r="D19" s="331"/>
+      <c r="B19" s="350"/>
+      <c r="C19" s="350"/>
+      <c r="D19" s="351"/>
       <c r="E19" s="67" t="s">
         <v>61</v>
       </c>
@@ -12354,22 +12850,22 @@
       <c r="AS19" s="73"/>
     </row>
     <row r="20" spans="1:45" ht="18" customHeight="1">
-      <c r="A20" s="332"/>
-      <c r="B20" s="332"/>
-      <c r="C20" s="332"/>
-      <c r="D20" s="333"/>
+      <c r="A20" s="352"/>
+      <c r="B20" s="352"/>
+      <c r="C20" s="352"/>
+      <c r="D20" s="353"/>
       <c r="E20" s="79" t="s">
         <v>107</v>
       </c>
       <c r="F20" s="76"/>
-      <c r="G20" s="344" t="s">
+      <c r="G20" s="387" t="s">
         <v>83</v>
       </c>
-      <c r="H20" s="345"/>
-      <c r="I20" s="344" t="s">
+      <c r="H20" s="388"/>
+      <c r="I20" s="387" t="s">
         <v>84</v>
       </c>
-      <c r="J20" s="345"/>
+      <c r="J20" s="388"/>
       <c r="K20" s="80"/>
       <c r="L20" s="80"/>
       <c r="M20" s="80"/>
@@ -12403,18 +12899,18 @@
       <c r="AC20" s="5"/>
     </row>
     <row r="21" spans="1:45" ht="18" customHeight="1">
-      <c r="A21" s="332"/>
-      <c r="B21" s="332"/>
-      <c r="C21" s="332"/>
-      <c r="D21" s="333"/>
-      <c r="E21" s="357" t="s">
+      <c r="A21" s="352"/>
+      <c r="B21" s="352"/>
+      <c r="C21" s="352"/>
+      <c r="D21" s="353"/>
+      <c r="E21" s="371" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="358"/>
-      <c r="G21" s="339" t="s">
+      <c r="F21" s="372"/>
+      <c r="G21" s="361" t="s">
         <v>79</v>
       </c>
-      <c r="H21" s="347"/>
+      <c r="H21" s="362"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -12437,32 +12933,32 @@
       <c r="AC21" s="5"/>
     </row>
     <row r="22" spans="1:45" ht="18" customHeight="1">
-      <c r="A22" s="332"/>
-      <c r="B22" s="332"/>
-      <c r="C22" s="332"/>
-      <c r="D22" s="333"/>
-      <c r="E22" s="359"/>
-      <c r="F22" s="360"/>
-      <c r="G22" s="342" t="s">
+      <c r="A22" s="352"/>
+      <c r="B22" s="352"/>
+      <c r="C22" s="352"/>
+      <c r="D22" s="353"/>
+      <c r="E22" s="373"/>
+      <c r="F22" s="374"/>
+      <c r="G22" s="363" t="s">
         <v>81</v>
       </c>
-      <c r="H22" s="343"/>
-      <c r="I22" s="346" t="s">
+      <c r="H22" s="364"/>
+      <c r="I22" s="368" t="s">
         <v>88</v>
       </c>
-      <c r="J22" s="343"/>
-      <c r="K22" s="346" t="s">
+      <c r="J22" s="364"/>
+      <c r="K22" s="368" t="s">
         <v>92</v>
       </c>
-      <c r="L22" s="343"/>
-      <c r="M22" s="346" t="s">
+      <c r="L22" s="364"/>
+      <c r="M22" s="368" t="s">
         <v>97</v>
       </c>
-      <c r="N22" s="343"/>
-      <c r="O22" s="340" t="s">
+      <c r="N22" s="364"/>
+      <c r="O22" s="385" t="s">
         <v>93</v>
       </c>
-      <c r="P22" s="341"/>
+      <c r="P22" s="386"/>
       <c r="Q22" s="61"/>
       <c r="S22" s="85"/>
       <c r="T22" s="85"/>
@@ -12477,33 +12973,33 @@
       <c r="AC22" s="5"/>
     </row>
     <row r="23" spans="1:45" ht="18" customHeight="1">
-      <c r="A23" s="332"/>
-      <c r="B23" s="332"/>
-      <c r="C23" s="332"/>
-      <c r="D23" s="333"/>
-      <c r="E23" s="359"/>
-      <c r="F23" s="360"/>
-      <c r="G23" s="339" t="s">
+      <c r="A23" s="352"/>
+      <c r="B23" s="352"/>
+      <c r="C23" s="352"/>
+      <c r="D23" s="353"/>
+      <c r="E23" s="373"/>
+      <c r="F23" s="374"/>
+      <c r="G23" s="361" t="s">
         <v>82</v>
       </c>
-      <c r="H23" s="339"/>
-      <c r="I23" s="338" t="s">
+      <c r="H23" s="361"/>
+      <c r="I23" s="365" t="s">
         <v>89</v>
       </c>
-      <c r="J23" s="347"/>
-      <c r="K23" s="338" t="s">
+      <c r="J23" s="362"/>
+      <c r="K23" s="365" t="s">
         <v>95</v>
       </c>
-      <c r="L23" s="339"/>
-      <c r="M23" s="338" t="s">
+      <c r="L23" s="361"/>
+      <c r="M23" s="365" t="s">
         <v>96</v>
       </c>
-      <c r="N23" s="347"/>
-      <c r="O23" s="353" t="s">
+      <c r="N23" s="362"/>
+      <c r="O23" s="366" t="s">
         <v>94</v>
       </c>
-      <c r="P23" s="354"/>
-      <c r="Q23" s="354"/>
+      <c r="P23" s="367"/>
+      <c r="Q23" s="367"/>
       <c r="S23" s="85"/>
       <c r="T23" s="85"/>
       <c r="U23" s="85"/>
@@ -12517,16 +13013,16 @@
       <c r="AC23" s="5"/>
     </row>
     <row r="24" spans="1:45" ht="18" customHeight="1">
-      <c r="A24" s="332"/>
-      <c r="B24" s="332"/>
-      <c r="C24" s="332"/>
-      <c r="D24" s="333"/>
-      <c r="E24" s="361"/>
-      <c r="F24" s="362"/>
-      <c r="G24" s="342" t="s">
+      <c r="A24" s="352"/>
+      <c r="B24" s="352"/>
+      <c r="C24" s="352"/>
+      <c r="D24" s="353"/>
+      <c r="E24" s="375"/>
+      <c r="F24" s="376"/>
+      <c r="G24" s="363" t="s">
         <v>87</v>
       </c>
-      <c r="H24" s="343"/>
+      <c r="H24" s="364"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -12549,26 +13045,26 @@
       <c r="AC24" s="5"/>
     </row>
     <row r="25" spans="1:45" ht="18" customHeight="1">
-      <c r="A25" s="332"/>
-      <c r="B25" s="332"/>
-      <c r="C25" s="332"/>
-      <c r="D25" s="333"/>
-      <c r="E25" s="357" t="s">
+      <c r="A25" s="352"/>
+      <c r="B25" s="352"/>
+      <c r="C25" s="352"/>
+      <c r="D25" s="353"/>
+      <c r="E25" s="371" t="s">
         <v>109</v>
       </c>
-      <c r="F25" s="358"/>
-      <c r="G25" s="339" t="s">
+      <c r="F25" s="372"/>
+      <c r="G25" s="361" t="s">
         <v>76</v>
       </c>
-      <c r="H25" s="347"/>
-      <c r="I25" s="338" t="s">
+      <c r="H25" s="362"/>
+      <c r="I25" s="365" t="s">
         <v>90</v>
       </c>
-      <c r="J25" s="347"/>
-      <c r="K25" s="338" t="s">
+      <c r="J25" s="362"/>
+      <c r="K25" s="365" t="s">
         <v>106</v>
       </c>
-      <c r="L25" s="347"/>
+      <c r="L25" s="362"/>
       <c r="O25" s="4"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
@@ -12585,16 +13081,16 @@
       <c r="AC25" s="5"/>
     </row>
     <row r="26" spans="1:45" ht="18" customHeight="1">
-      <c r="A26" s="332"/>
-      <c r="B26" s="332"/>
-      <c r="C26" s="332"/>
-      <c r="D26" s="333"/>
-      <c r="E26" s="359"/>
-      <c r="F26" s="360"/>
-      <c r="G26" s="342" t="s">
+      <c r="A26" s="352"/>
+      <c r="B26" s="352"/>
+      <c r="C26" s="352"/>
+      <c r="D26" s="353"/>
+      <c r="E26" s="373"/>
+      <c r="F26" s="374"/>
+      <c r="G26" s="363" t="s">
         <v>77</v>
       </c>
-      <c r="H26" s="343"/>
+      <c r="H26" s="364"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -12617,20 +13113,20 @@
       <c r="AC26" s="5"/>
     </row>
     <row r="27" spans="1:45" ht="18" customHeight="1">
-      <c r="A27" s="332"/>
-      <c r="B27" s="332"/>
-      <c r="C27" s="332"/>
-      <c r="D27" s="333"/>
-      <c r="E27" s="359"/>
-      <c r="F27" s="360"/>
-      <c r="G27" s="339" t="s">
+      <c r="A27" s="352"/>
+      <c r="B27" s="352"/>
+      <c r="C27" s="352"/>
+      <c r="D27" s="353"/>
+      <c r="E27" s="373"/>
+      <c r="F27" s="374"/>
+      <c r="G27" s="361" t="s">
         <v>80</v>
       </c>
-      <c r="H27" s="339"/>
-      <c r="I27" s="339" t="s">
+      <c r="H27" s="361"/>
+      <c r="I27" s="361" t="s">
         <v>78</v>
       </c>
-      <c r="J27" s="339"/>
+      <c r="J27" s="361"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
@@ -12651,20 +13147,20 @@
       <c r="AC27" s="5"/>
     </row>
     <row r="28" spans="1:45" ht="18" customHeight="1">
-      <c r="A28" s="332"/>
-      <c r="B28" s="332"/>
-      <c r="C28" s="332"/>
-      <c r="D28" s="333"/>
-      <c r="E28" s="359"/>
-      <c r="F28" s="360"/>
-      <c r="G28" s="342" t="s">
+      <c r="A28" s="352"/>
+      <c r="B28" s="352"/>
+      <c r="C28" s="352"/>
+      <c r="D28" s="353"/>
+      <c r="E28" s="373"/>
+      <c r="F28" s="374"/>
+      <c r="G28" s="363" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="343"/>
-      <c r="I28" s="346" t="s">
+      <c r="H28" s="364"/>
+      <c r="I28" s="368" t="s">
         <v>99</v>
       </c>
-      <c r="J28" s="343"/>
+      <c r="J28" s="364"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
@@ -12685,20 +13181,20 @@
       <c r="AC28" s="5"/>
     </row>
     <row r="29" spans="1:45" ht="18" customHeight="1">
-      <c r="A29" s="332"/>
-      <c r="B29" s="332"/>
-      <c r="C29" s="332"/>
-      <c r="D29" s="333"/>
-      <c r="E29" s="359"/>
-      <c r="F29" s="360"/>
-      <c r="G29" s="339" t="s">
+      <c r="A29" s="352"/>
+      <c r="B29" s="352"/>
+      <c r="C29" s="352"/>
+      <c r="D29" s="353"/>
+      <c r="E29" s="373"/>
+      <c r="F29" s="374"/>
+      <c r="G29" s="361" t="s">
         <v>105</v>
       </c>
-      <c r="H29" s="347"/>
-      <c r="I29" s="339" t="s">
+      <c r="H29" s="362"/>
+      <c r="I29" s="361" t="s">
         <v>86</v>
       </c>
-      <c r="J29" s="347"/>
+      <c r="J29" s="362"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -12719,16 +13215,16 @@
       <c r="AC29" s="5"/>
     </row>
     <row r="30" spans="1:45" ht="18" customHeight="1">
-      <c r="A30" s="332"/>
-      <c r="B30" s="332"/>
-      <c r="C30" s="332"/>
-      <c r="D30" s="333"/>
-      <c r="E30" s="359"/>
-      <c r="F30" s="360"/>
-      <c r="G30" s="342" t="s">
+      <c r="A30" s="352"/>
+      <c r="B30" s="352"/>
+      <c r="C30" s="352"/>
+      <c r="D30" s="353"/>
+      <c r="E30" s="373"/>
+      <c r="F30" s="374"/>
+      <c r="G30" s="363" t="s">
         <v>104</v>
       </c>
-      <c r="H30" s="343"/>
+      <c r="H30" s="364"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -12752,20 +13248,20 @@
       <c r="AC30" s="5"/>
     </row>
     <row r="31" spans="1:45" ht="18" customHeight="1">
-      <c r="A31" s="332"/>
-      <c r="B31" s="332"/>
-      <c r="C31" s="332"/>
-      <c r="D31" s="333"/>
-      <c r="E31" s="359"/>
-      <c r="F31" s="360"/>
-      <c r="G31" s="339" t="s">
+      <c r="A31" s="352"/>
+      <c r="B31" s="352"/>
+      <c r="C31" s="352"/>
+      <c r="D31" s="353"/>
+      <c r="E31" s="373"/>
+      <c r="F31" s="374"/>
+      <c r="G31" s="361" t="s">
         <v>98</v>
       </c>
-      <c r="H31" s="347"/>
-      <c r="I31" s="338" t="s">
+      <c r="H31" s="362"/>
+      <c r="I31" s="365" t="s">
         <v>102</v>
       </c>
-      <c r="J31" s="347"/>
+      <c r="J31" s="362"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
@@ -12787,20 +13283,20 @@
       <c r="AC31" s="5"/>
     </row>
     <row r="32" spans="1:45" ht="18" customHeight="1">
-      <c r="A32" s="332"/>
-      <c r="B32" s="332"/>
-      <c r="C32" s="332"/>
-      <c r="D32" s="333"/>
-      <c r="E32" s="359"/>
-      <c r="F32" s="360"/>
-      <c r="G32" s="342" t="s">
+      <c r="A32" s="352"/>
+      <c r="B32" s="352"/>
+      <c r="C32" s="352"/>
+      <c r="D32" s="353"/>
+      <c r="E32" s="373"/>
+      <c r="F32" s="374"/>
+      <c r="G32" s="363" t="s">
         <v>100</v>
       </c>
-      <c r="H32" s="343"/>
-      <c r="I32" s="346" t="s">
+      <c r="H32" s="364"/>
+      <c r="I32" s="368" t="s">
         <v>101</v>
       </c>
-      <c r="J32" s="343"/>
+      <c r="J32" s="364"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -12822,16 +13318,16 @@
       <c r="AC32" s="5"/>
     </row>
     <row r="33" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="332"/>
-      <c r="B33" s="332"/>
-      <c r="C33" s="332"/>
-      <c r="D33" s="333"/>
-      <c r="E33" s="361"/>
-      <c r="F33" s="362"/>
-      <c r="G33" s="339" t="s">
+      <c r="A33" s="352"/>
+      <c r="B33" s="352"/>
+      <c r="C33" s="352"/>
+      <c r="D33" s="353"/>
+      <c r="E33" s="375"/>
+      <c r="F33" s="376"/>
+      <c r="G33" s="361" t="s">
         <v>91</v>
       </c>
-      <c r="H33" s="347"/>
+      <c r="H33" s="362"/>
       <c r="R33" s="59"/>
       <c r="S33" s="59"/>
       <c r="T33" s="59"/>
@@ -12844,27 +13340,27 @@
       <c r="AA33" s="59"/>
     </row>
     <row r="34" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A34" s="348"/>
-      <c r="B34" s="348"/>
-      <c r="C34" s="348"/>
-      <c r="D34" s="349"/>
+      <c r="A34" s="354"/>
+      <c r="B34" s="354"/>
+      <c r="C34" s="354"/>
+      <c r="D34" s="355"/>
       <c r="E34" s="81" t="s">
         <v>110</v>
       </c>
       <c r="F34" s="77"/>
-      <c r="G34" s="355" t="s">
+      <c r="G34" s="369" t="s">
         <v>103</v>
       </c>
-      <c r="H34" s="356"/>
+      <c r="H34" s="370"/>
       <c r="K34" s="78"/>
     </row>
     <row r="35" spans="1:27" ht="18" customHeight="1" thickTop="1">
-      <c r="A35" s="330" t="s">
+      <c r="A35" s="350" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="330"/>
-      <c r="C35" s="330"/>
-      <c r="D35" s="331"/>
+      <c r="B35" s="350"/>
+      <c r="C35" s="350"/>
+      <c r="D35" s="351"/>
       <c r="E35" s="67" t="s">
         <v>61</v>
       </c>
@@ -12885,10 +13381,10 @@
       </c>
     </row>
     <row r="36" spans="1:27" ht="18" customHeight="1">
-      <c r="A36" s="332"/>
-      <c r="B36" s="332"/>
-      <c r="C36" s="332"/>
-      <c r="D36" s="333"/>
+      <c r="A36" s="352"/>
+      <c r="B36" s="352"/>
+      <c r="C36" s="352"/>
+      <c r="D36" s="353"/>
       <c r="E36" s="55" t="s">
         <v>111</v>
       </c>
@@ -12908,10 +13404,10 @@
       <c r="O36" s="82"/>
     </row>
     <row r="37" spans="1:27" ht="18" customHeight="1">
-      <c r="A37" s="332"/>
-      <c r="B37" s="332"/>
-      <c r="C37" s="332"/>
-      <c r="D37" s="333"/>
+      <c r="A37" s="352"/>
+      <c r="B37" s="352"/>
+      <c r="C37" s="352"/>
+      <c r="D37" s="353"/>
       <c r="E37" s="55" t="s">
         <v>114</v>
       </c>
@@ -12931,10 +13427,10 @@
       <c r="O37" s="82"/>
     </row>
     <row r="38" spans="1:27" ht="18" customHeight="1">
-      <c r="A38" s="332"/>
-      <c r="B38" s="332"/>
-      <c r="C38" s="332"/>
-      <c r="D38" s="333"/>
+      <c r="A38" s="352"/>
+      <c r="B38" s="352"/>
+      <c r="C38" s="352"/>
+      <c r="D38" s="353"/>
       <c r="E38" s="55" t="s">
         <v>117</v>
       </c>
@@ -12954,10 +13450,10 @@
       <c r="O38" s="82"/>
     </row>
     <row r="39" spans="1:27" ht="18" customHeight="1">
-      <c r="A39" s="332"/>
-      <c r="B39" s="332"/>
-      <c r="C39" s="332"/>
-      <c r="D39" s="333"/>
+      <c r="A39" s="352"/>
+      <c r="B39" s="352"/>
+      <c r="C39" s="352"/>
+      <c r="D39" s="353"/>
       <c r="E39" s="55" t="s">
         <v>120</v>
       </c>
@@ -12977,10 +13473,10 @@
       <c r="O39" s="82"/>
     </row>
     <row r="40" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A40" s="348"/>
-      <c r="B40" s="348"/>
-      <c r="C40" s="348"/>
-      <c r="D40" s="349"/>
+      <c r="A40" s="354"/>
+      <c r="B40" s="354"/>
+      <c r="C40" s="354"/>
+      <c r="D40" s="355"/>
       <c r="E40" s="87" t="s">
         <v>123</v>
       </c>
@@ -13000,12 +13496,12 @@
       <c r="O40" s="88"/>
     </row>
     <row r="41" spans="1:27" ht="18" customHeight="1" thickTop="1">
-      <c r="A41" s="330" t="s">
+      <c r="A41" s="350" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="330"/>
-      <c r="C41" s="330"/>
-      <c r="D41" s="331"/>
+      <c r="B41" s="350"/>
+      <c r="C41" s="350"/>
+      <c r="D41" s="351"/>
       <c r="E41" s="67" t="s">
         <v>61</v>
       </c>
@@ -13026,10 +13522,10 @@
       </c>
     </row>
     <row r="42" spans="1:27" ht="18" customHeight="1">
-      <c r="A42" s="332"/>
-      <c r="B42" s="332"/>
-      <c r="C42" s="332"/>
-      <c r="D42" s="333"/>
+      <c r="A42" s="352"/>
+      <c r="B42" s="352"/>
+      <c r="C42" s="352"/>
+      <c r="D42" s="353"/>
       <c r="E42" s="55" t="s">
         <v>127</v>
       </c>
@@ -13055,10 +13551,10 @@
       <c r="U42" s="90"/>
     </row>
     <row r="43" spans="1:27" ht="18" customHeight="1">
-      <c r="A43" s="332"/>
-      <c r="B43" s="332"/>
-      <c r="C43" s="332"/>
-      <c r="D43" s="333"/>
+      <c r="A43" s="352"/>
+      <c r="B43" s="352"/>
+      <c r="C43" s="352"/>
+      <c r="D43" s="353"/>
       <c r="E43" s="55" t="s">
         <v>130</v>
       </c>
@@ -13084,10 +13580,10 @@
       <c r="U43" s="90"/>
     </row>
     <row r="44" spans="1:27" ht="18" customHeight="1">
-      <c r="A44" s="332"/>
-      <c r="B44" s="332"/>
-      <c r="C44" s="332"/>
-      <c r="D44" s="333"/>
+      <c r="A44" s="352"/>
+      <c r="B44" s="352"/>
+      <c r="C44" s="352"/>
+      <c r="D44" s="353"/>
       <c r="E44" s="55" t="s">
         <v>133</v>
       </c>
@@ -13113,10 +13609,10 @@
       <c r="U44" s="90"/>
     </row>
     <row r="45" spans="1:27" ht="18" customHeight="1">
-      <c r="A45" s="332"/>
-      <c r="B45" s="332"/>
-      <c r="C45" s="332"/>
-      <c r="D45" s="333"/>
+      <c r="A45" s="352"/>
+      <c r="B45" s="352"/>
+      <c r="C45" s="352"/>
+      <c r="D45" s="353"/>
       <c r="E45" s="55" t="s">
         <v>136</v>
       </c>
@@ -13142,10 +13638,10 @@
       <c r="U45" s="90"/>
     </row>
     <row r="46" spans="1:27" ht="18" customHeight="1">
-      <c r="A46" s="332"/>
-      <c r="B46" s="332"/>
-      <c r="C46" s="332"/>
-      <c r="D46" s="333"/>
+      <c r="A46" s="352"/>
+      <c r="B46" s="352"/>
+      <c r="C46" s="352"/>
+      <c r="D46" s="353"/>
       <c r="E46" s="55" t="s">
         <v>139</v>
       </c>
@@ -13171,10 +13667,10 @@
       <c r="U46" s="90"/>
     </row>
     <row r="47" spans="1:27" ht="18" customHeight="1">
-      <c r="A47" s="332"/>
-      <c r="B47" s="332"/>
-      <c r="C47" s="332"/>
-      <c r="D47" s="333"/>
+      <c r="A47" s="352"/>
+      <c r="B47" s="352"/>
+      <c r="C47" s="352"/>
+      <c r="D47" s="353"/>
       <c r="E47" s="55" t="s">
         <v>142</v>
       </c>
@@ -13200,10 +13696,10 @@
       <c r="U47" s="90"/>
     </row>
     <row r="48" spans="1:27" ht="18" customHeight="1" thickBot="1">
-      <c r="A48" s="332"/>
-      <c r="B48" s="332"/>
-      <c r="C48" s="332"/>
-      <c r="D48" s="333"/>
+      <c r="A48" s="352"/>
+      <c r="B48" s="352"/>
+      <c r="C48" s="352"/>
+      <c r="D48" s="353"/>
       <c r="E48" s="55" t="s">
         <v>145</v>
       </c>
@@ -13247,17 +13743,17 @@
       <c r="N49" s="10"/>
     </row>
     <row r="50" spans="1:27" ht="18" customHeight="1">
-      <c r="A50" s="296" t="s">
+      <c r="A50" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="B50" s="296"/>
-      <c r="C50" s="297"/>
-      <c r="D50" s="379" t="s">
+      <c r="B50" s="293"/>
+      <c r="C50" s="294"/>
+      <c r="D50" s="346" t="s">
         <v>169</v>
       </c>
-      <c r="E50" s="380"/>
-      <c r="F50" s="380"/>
-      <c r="G50" s="381"/>
+      <c r="E50" s="347"/>
+      <c r="F50" s="347"/>
+      <c r="G50" s="348"/>
       <c r="H50" s="22" t="s">
         <v>170</v>
       </c>
@@ -13292,13 +13788,13 @@
       <c r="AA50" s="21"/>
     </row>
     <row r="51" spans="1:27" ht="18" customHeight="1">
-      <c r="A51" s="296"/>
-      <c r="B51" s="296"/>
-      <c r="C51" s="297"/>
-      <c r="D51" s="288"/>
-      <c r="E51" s="289"/>
-      <c r="F51" s="289"/>
-      <c r="G51" s="290"/>
+      <c r="A51" s="293"/>
+      <c r="B51" s="293"/>
+      <c r="C51" s="294"/>
+      <c r="D51" s="340"/>
+      <c r="E51" s="341"/>
+      <c r="F51" s="341"/>
+      <c r="G51" s="342"/>
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
       <c r="J51" s="21"/>
@@ -13331,13 +13827,13 @@
       <c r="AA51" s="21"/>
     </row>
     <row r="52" spans="1:27" ht="18" customHeight="1">
-      <c r="A52" s="296"/>
-      <c r="B52" s="296"/>
-      <c r="C52" s="297"/>
-      <c r="D52" s="288"/>
-      <c r="E52" s="289"/>
-      <c r="F52" s="289"/>
-      <c r="G52" s="290"/>
+      <c r="A52" s="293"/>
+      <c r="B52" s="293"/>
+      <c r="C52" s="294"/>
+      <c r="D52" s="340"/>
+      <c r="E52" s="341"/>
+      <c r="F52" s="341"/>
+      <c r="G52" s="342"/>
       <c r="H52" s="101"/>
       <c r="I52" s="102" t="s">
         <v>182</v>
@@ -13364,13 +13860,13 @@
       <c r="AA52" s="102"/>
     </row>
     <row r="53" spans="1:27" ht="18" customHeight="1">
-      <c r="A53" s="296"/>
-      <c r="B53" s="296"/>
-      <c r="C53" s="297"/>
-      <c r="D53" s="288"/>
-      <c r="E53" s="289"/>
-      <c r="F53" s="289"/>
-      <c r="G53" s="290"/>
+      <c r="A53" s="293"/>
+      <c r="B53" s="293"/>
+      <c r="C53" s="294"/>
+      <c r="D53" s="340"/>
+      <c r="E53" s="341"/>
+      <c r="F53" s="341"/>
+      <c r="G53" s="342"/>
       <c r="H53" s="24" t="s">
         <v>201</v>
       </c>
@@ -13395,13 +13891,13 @@
       <c r="AA53" s="13"/>
     </row>
     <row r="54" spans="1:27" ht="18" customHeight="1">
-      <c r="A54" s="296"/>
-      <c r="B54" s="296"/>
-      <c r="C54" s="297"/>
-      <c r="D54" s="288"/>
-      <c r="E54" s="289"/>
-      <c r="F54" s="289"/>
-      <c r="G54" s="290"/>
+      <c r="A54" s="293"/>
+      <c r="B54" s="293"/>
+      <c r="C54" s="294"/>
+      <c r="D54" s="340"/>
+      <c r="E54" s="341"/>
+      <c r="F54" s="341"/>
+      <c r="G54" s="342"/>
       <c r="H54" s="24" t="s">
         <v>202</v>
       </c>
@@ -13426,13 +13922,13 @@
       <c r="AA54" s="13"/>
     </row>
     <row r="55" spans="1:27" ht="18" customHeight="1">
-      <c r="A55" s="296"/>
-      <c r="B55" s="296"/>
-      <c r="C55" s="297"/>
-      <c r="D55" s="288"/>
-      <c r="E55" s="289"/>
-      <c r="F55" s="289"/>
-      <c r="G55" s="290"/>
+      <c r="A55" s="293"/>
+      <c r="B55" s="293"/>
+      <c r="C55" s="294"/>
+      <c r="D55" s="340"/>
+      <c r="E55" s="341"/>
+      <c r="F55" s="341"/>
+      <c r="G55" s="342"/>
       <c r="H55" s="24" t="s">
         <v>203</v>
       </c>
@@ -13457,13 +13953,13 @@
       <c r="AA55" s="13"/>
     </row>
     <row r="56" spans="1:27" ht="18" customHeight="1">
-      <c r="A56" s="296"/>
-      <c r="B56" s="296"/>
-      <c r="C56" s="297"/>
-      <c r="D56" s="376"/>
-      <c r="E56" s="377"/>
-      <c r="F56" s="377"/>
-      <c r="G56" s="378"/>
+      <c r="A56" s="293"/>
+      <c r="B56" s="293"/>
+      <c r="C56" s="294"/>
+      <c r="D56" s="343"/>
+      <c r="E56" s="344"/>
+      <c r="F56" s="344"/>
+      <c r="G56" s="345"/>
       <c r="H56" s="24" t="s">
         <v>204</v>
       </c>
@@ -13488,15 +13984,15 @@
       <c r="AA56" s="13"/>
     </row>
     <row r="57" spans="1:27" ht="18" customHeight="1">
-      <c r="A57" s="296"/>
-      <c r="B57" s="296"/>
-      <c r="C57" s="297"/>
-      <c r="D57" s="316" t="s">
+      <c r="A57" s="293"/>
+      <c r="B57" s="293"/>
+      <c r="C57" s="294"/>
+      <c r="D57" s="337" t="s">
         <v>194</v>
       </c>
-      <c r="E57" s="317"/>
-      <c r="F57" s="317"/>
-      <c r="G57" s="318"/>
+      <c r="E57" s="338"/>
+      <c r="F57" s="338"/>
+      <c r="G57" s="339"/>
       <c r="H57" s="110" t="s">
         <v>190</v>
       </c>
@@ -13527,13 +14023,13 @@
       <c r="AA57" s="111"/>
     </row>
     <row r="58" spans="1:27" ht="18" customHeight="1">
-      <c r="A58" s="296"/>
-      <c r="B58" s="296"/>
-      <c r="C58" s="297"/>
-      <c r="D58" s="288"/>
-      <c r="E58" s="289"/>
-      <c r="F58" s="289"/>
-      <c r="G58" s="290"/>
+      <c r="A58" s="293"/>
+      <c r="B58" s="293"/>
+      <c r="C58" s="294"/>
+      <c r="D58" s="340"/>
+      <c r="E58" s="341"/>
+      <c r="F58" s="341"/>
+      <c r="G58" s="342"/>
       <c r="H58" s="114"/>
       <c r="I58" s="21"/>
       <c r="J58" s="21"/>
@@ -13564,13 +14060,13 @@
       <c r="AA58" s="21"/>
     </row>
     <row r="59" spans="1:27" ht="18" customHeight="1">
-      <c r="A59" s="296"/>
-      <c r="B59" s="296"/>
-      <c r="C59" s="297"/>
-      <c r="D59" s="376"/>
-      <c r="E59" s="377"/>
-      <c r="F59" s="377"/>
-      <c r="G59" s="378"/>
+      <c r="A59" s="293"/>
+      <c r="B59" s="293"/>
+      <c r="C59" s="294"/>
+      <c r="D59" s="343"/>
+      <c r="E59" s="344"/>
+      <c r="F59" s="344"/>
+      <c r="G59" s="345"/>
       <c r="H59" s="109"/>
       <c r="I59" s="102"/>
       <c r="J59" s="102"/>
@@ -13599,9 +14095,9 @@
       <c r="AA59" s="102"/>
     </row>
     <row r="60" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A60" s="296"/>
-      <c r="B60" s="296"/>
-      <c r="C60" s="297"/>
+      <c r="A60" s="293"/>
+      <c r="B60" s="293"/>
+      <c r="C60" s="294"/>
       <c r="D60" s="117" t="s">
         <v>198</v>
       </c>
@@ -13640,15 +14136,15 @@
       <c r="AA60" s="102"/>
     </row>
     <row r="61" spans="1:27" ht="18" customHeight="1">
-      <c r="A61" s="296"/>
-      <c r="B61" s="296"/>
-      <c r="C61" s="297"/>
-      <c r="D61" s="285" t="s">
+      <c r="A61" s="293"/>
+      <c r="B61" s="293"/>
+      <c r="C61" s="294"/>
+      <c r="D61" s="323" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="286"/>
-      <c r="F61" s="286"/>
-      <c r="G61" s="287"/>
+      <c r="E61" s="324"/>
+      <c r="F61" s="324"/>
+      <c r="G61" s="325"/>
       <c r="H61" s="24" t="s">
         <v>377</v>
       </c>
@@ -13679,13 +14175,13 @@
       <c r="AA61" s="13"/>
     </row>
     <row r="62" spans="1:27" ht="18" customHeight="1">
-      <c r="A62" s="296"/>
-      <c r="B62" s="296"/>
-      <c r="C62" s="297"/>
-      <c r="D62" s="288"/>
-      <c r="E62" s="289"/>
-      <c r="F62" s="289"/>
-      <c r="G62" s="290"/>
+      <c r="A62" s="293"/>
+      <c r="B62" s="293"/>
+      <c r="C62" s="294"/>
+      <c r="D62" s="340"/>
+      <c r="E62" s="341"/>
+      <c r="F62" s="341"/>
+      <c r="G62" s="342"/>
       <c r="H62" s="24" t="s">
         <v>206</v>
       </c>
@@ -13712,13 +14208,13 @@
       <c r="AA62" s="13"/>
     </row>
     <row r="63" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A63" s="296"/>
-      <c r="B63" s="296"/>
-      <c r="C63" s="297"/>
-      <c r="D63" s="291"/>
-      <c r="E63" s="292"/>
-      <c r="F63" s="292"/>
-      <c r="G63" s="293"/>
+      <c r="A63" s="293"/>
+      <c r="B63" s="293"/>
+      <c r="C63" s="294"/>
+      <c r="D63" s="332"/>
+      <c r="E63" s="333"/>
+      <c r="F63" s="333"/>
+      <c r="G63" s="334"/>
       <c r="H63" s="101" t="s">
         <v>208</v>
       </c>
@@ -13745,9 +14241,9 @@
       <c r="AA63" s="102"/>
     </row>
     <row r="64" spans="1:27" s="28" customFormat="1" ht="18.600000000000001" thickBot="1">
-      <c r="A64" s="304"/>
-      <c r="B64" s="304"/>
-      <c r="C64" s="305"/>
+      <c r="A64" s="295"/>
+      <c r="B64" s="295"/>
+      <c r="C64" s="296"/>
       <c r="D64" s="126" t="s">
         <v>210</v>
       </c>
@@ -13780,11 +14276,11 @@
       <c r="AA64" s="27"/>
     </row>
     <row r="65" spans="1:27" s="136" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A65" s="294" t="s">
+      <c r="A65" s="291" t="s">
         <v>216</v>
       </c>
-      <c r="B65" s="294"/>
-      <c r="C65" s="295"/>
+      <c r="B65" s="291"/>
+      <c r="C65" s="292"/>
       <c r="D65" s="132"/>
       <c r="E65" s="133"/>
       <c r="F65" s="133"/>
@@ -13813,9 +14309,9 @@
       <c r="AA65" s="135"/>
     </row>
     <row r="66" spans="1:27" ht="18" customHeight="1">
-      <c r="A66" s="296"/>
-      <c r="B66" s="296"/>
-      <c r="C66" s="297"/>
+      <c r="A66" s="293"/>
+      <c r="B66" s="293"/>
+      <c r="C66" s="294"/>
       <c r="D66" s="104"/>
       <c r="E66" s="105"/>
       <c r="F66" s="105"/>
@@ -13844,9 +14340,9 @@
       <c r="AA66" s="102"/>
     </row>
     <row r="67" spans="1:27" ht="18" customHeight="1">
-      <c r="A67" s="296"/>
-      <c r="B67" s="296"/>
-      <c r="C67" s="297"/>
+      <c r="A67" s="293"/>
+      <c r="B67" s="293"/>
+      <c r="C67" s="294"/>
       <c r="D67" s="97"/>
       <c r="E67" s="98"/>
       <c r="F67" s="98"/>
@@ -13875,9 +14371,9 @@
       <c r="AA67" s="102"/>
     </row>
     <row r="68" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A68" s="296"/>
-      <c r="B68" s="296"/>
-      <c r="C68" s="297"/>
+      <c r="A68" s="293"/>
+      <c r="B68" s="293"/>
+      <c r="C68" s="294"/>
       <c r="D68" s="104"/>
       <c r="E68" s="105"/>
       <c r="F68" s="105"/>
@@ -13906,9 +14402,9 @@
       <c r="AA68" s="102"/>
     </row>
     <row r="69" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A69" s="304"/>
-      <c r="B69" s="304"/>
-      <c r="C69" s="305"/>
+      <c r="A69" s="295"/>
+      <c r="B69" s="295"/>
+      <c r="C69" s="296"/>
       <c r="D69" s="139"/>
       <c r="E69" s="87"/>
       <c r="F69" s="87"/>
@@ -13937,11 +14433,11 @@
       <c r="AA69" s="27"/>
     </row>
     <row r="70" spans="1:27" s="136" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A70" s="294" t="s">
+      <c r="A70" s="291" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="294"/>
-      <c r="C70" s="295"/>
+      <c r="B70" s="291"/>
+      <c r="C70" s="292"/>
       <c r="D70" s="132"/>
       <c r="E70" s="133"/>
       <c r="F70" s="133"/>
@@ -13970,9 +14466,9 @@
       <c r="AA70" s="135"/>
     </row>
     <row r="71" spans="1:27" ht="18" customHeight="1">
-      <c r="A71" s="296"/>
-      <c r="B71" s="296"/>
-      <c r="C71" s="297"/>
+      <c r="A71" s="293"/>
+      <c r="B71" s="293"/>
+      <c r="C71" s="294"/>
       <c r="D71" s="104"/>
       <c r="E71" s="105"/>
       <c r="F71" s="105"/>
@@ -14001,9 +14497,9 @@
       <c r="AA71" s="102"/>
     </row>
     <row r="72" spans="1:27" ht="18" customHeight="1">
-      <c r="A72" s="296"/>
-      <c r="B72" s="296"/>
-      <c r="C72" s="297"/>
+      <c r="A72" s="293"/>
+      <c r="B72" s="293"/>
+      <c r="C72" s="294"/>
       <c r="D72" s="97"/>
       <c r="E72" s="98"/>
       <c r="F72" s="98"/>
@@ -14032,9 +14528,9 @@
       <c r="AA72" s="102"/>
     </row>
     <row r="73" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A73" s="296"/>
-      <c r="B73" s="296"/>
-      <c r="C73" s="297"/>
+      <c r="A73" s="293"/>
+      <c r="B73" s="293"/>
+      <c r="C73" s="294"/>
       <c r="D73" s="104"/>
       <c r="E73" s="105"/>
       <c r="F73" s="105"/>
@@ -14065,9 +14561,9 @@
       <c r="AA73" s="102"/>
     </row>
     <row r="74" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A74" s="304"/>
-      <c r="B74" s="304"/>
-      <c r="C74" s="305"/>
+      <c r="A74" s="295"/>
+      <c r="B74" s="295"/>
+      <c r="C74" s="296"/>
       <c r="D74" s="139"/>
       <c r="E74" s="87"/>
       <c r="F74" s="87"/>
@@ -14100,11 +14596,11 @@
       <c r="AA74" s="27"/>
     </row>
     <row r="75" spans="1:27" s="136" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A75" s="294" t="s">
+      <c r="A75" s="291" t="s">
         <v>223</v>
       </c>
-      <c r="B75" s="294"/>
-      <c r="C75" s="295"/>
+      <c r="B75" s="291"/>
+      <c r="C75" s="292"/>
       <c r="D75" s="132"/>
       <c r="E75" s="133"/>
       <c r="F75" s="133"/>
@@ -14135,9 +14631,9 @@
       <c r="AA75" s="135"/>
     </row>
     <row r="76" spans="1:27" ht="18" customHeight="1">
-      <c r="A76" s="296"/>
-      <c r="B76" s="296"/>
-      <c r="C76" s="297"/>
+      <c r="A76" s="293"/>
+      <c r="B76" s="293"/>
+      <c r="C76" s="294"/>
       <c r="D76" s="104"/>
       <c r="E76" s="105"/>
       <c r="F76" s="105"/>
@@ -14168,9 +14664,9 @@
       <c r="AA76" s="102"/>
     </row>
     <row r="77" spans="1:27" ht="18" customHeight="1">
-      <c r="A77" s="296"/>
-      <c r="B77" s="296"/>
-      <c r="C77" s="297"/>
+      <c r="A77" s="293"/>
+      <c r="B77" s="293"/>
+      <c r="C77" s="294"/>
       <c r="D77" s="97"/>
       <c r="E77" s="98"/>
       <c r="F77" s="98"/>
@@ -14201,9 +14697,9 @@
       <c r="AA77" s="102"/>
     </row>
     <row r="78" spans="1:27" s="103" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A78" s="296"/>
-      <c r="B78" s="296"/>
-      <c r="C78" s="297"/>
+      <c r="A78" s="293"/>
+      <c r="B78" s="293"/>
+      <c r="C78" s="294"/>
       <c r="D78" s="104"/>
       <c r="E78" s="105"/>
       <c r="F78" s="105"/>
@@ -14234,9 +14730,9 @@
       <c r="AA78" s="102"/>
     </row>
     <row r="79" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A79" s="296"/>
-      <c r="B79" s="296"/>
-      <c r="C79" s="297"/>
+      <c r="A79" s="293"/>
+      <c r="B79" s="293"/>
+      <c r="C79" s="294"/>
       <c r="D79" s="104"/>
       <c r="E79" s="105"/>
       <c r="F79" s="105"/>
@@ -14267,9 +14763,9 @@
       <c r="AA79" s="102"/>
     </row>
     <row r="80" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A80" s="304"/>
-      <c r="B80" s="304"/>
-      <c r="C80" s="305"/>
+      <c r="A80" s="295"/>
+      <c r="B80" s="295"/>
+      <c r="C80" s="296"/>
       <c r="D80" s="139"/>
       <c r="E80" s="87"/>
       <c r="F80" s="87"/>
@@ -14298,11 +14794,11 @@
       <c r="AA80" s="27"/>
     </row>
     <row r="81" spans="1:27" s="136" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A81" s="294" t="s">
+      <c r="A81" s="291" t="s">
         <v>236</v>
       </c>
-      <c r="B81" s="294"/>
-      <c r="C81" s="295"/>
+      <c r="B81" s="291"/>
+      <c r="C81" s="292"/>
       <c r="D81" s="132"/>
       <c r="E81" s="133"/>
       <c r="F81" s="133"/>
@@ -14333,9 +14829,9 @@
       <c r="AA81" s="135"/>
     </row>
     <row r="82" spans="1:27" ht="18" customHeight="1">
-      <c r="A82" s="296"/>
-      <c r="B82" s="296"/>
-      <c r="C82" s="297"/>
+      <c r="A82" s="293"/>
+      <c r="B82" s="293"/>
+      <c r="C82" s="294"/>
       <c r="D82" s="104"/>
       <c r="E82" s="105"/>
       <c r="F82" s="105"/>
@@ -14366,9 +14862,9 @@
       <c r="AA82" s="102"/>
     </row>
     <row r="83" spans="1:27" ht="18" customHeight="1">
-      <c r="A83" s="296"/>
-      <c r="B83" s="296"/>
-      <c r="C83" s="297"/>
+      <c r="A83" s="293"/>
+      <c r="B83" s="293"/>
+      <c r="C83" s="294"/>
       <c r="D83" s="97"/>
       <c r="E83" s="98"/>
       <c r="F83" s="98"/>
@@ -14397,9 +14893,9 @@
       <c r="AA83" s="102"/>
     </row>
     <row r="84" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A84" s="296"/>
-      <c r="B84" s="296"/>
-      <c r="C84" s="297"/>
+      <c r="A84" s="293"/>
+      <c r="B84" s="293"/>
+      <c r="C84" s="294"/>
       <c r="D84" s="104"/>
       <c r="E84" s="105"/>
       <c r="F84" s="105"/>
@@ -14430,9 +14926,9 @@
       <c r="AA84" s="102"/>
     </row>
     <row r="85" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A85" s="304"/>
-      <c r="B85" s="304"/>
-      <c r="C85" s="305"/>
+      <c r="A85" s="295"/>
+      <c r="B85" s="295"/>
+      <c r="C85" s="296"/>
       <c r="D85" s="139"/>
       <c r="E85" s="87"/>
       <c r="F85" s="87"/>
@@ -14485,17 +14981,17 @@
       <c r="V86" s="159"/>
     </row>
     <row r="87" spans="1:27" s="12" customFormat="1" ht="18" customHeight="1">
-      <c r="A87" s="374" t="s">
+      <c r="A87" s="335" t="s">
         <v>150</v>
       </c>
-      <c r="B87" s="374"/>
-      <c r="C87" s="375"/>
-      <c r="D87" s="379" t="s">
+      <c r="B87" s="335"/>
+      <c r="C87" s="336"/>
+      <c r="D87" s="346" t="s">
         <v>151</v>
       </c>
-      <c r="E87" s="380"/>
-      <c r="F87" s="380"/>
-      <c r="G87" s="381"/>
+      <c r="E87" s="347"/>
+      <c r="F87" s="347"/>
+      <c r="G87" s="348"/>
       <c r="H87" s="100" t="s">
         <v>157</v>
       </c>
@@ -14520,13 +15016,13 @@
       <c r="AA87" s="25"/>
     </row>
     <row r="88" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A88" s="296"/>
-      <c r="B88" s="296"/>
-      <c r="C88" s="297"/>
-      <c r="D88" s="291"/>
-      <c r="E88" s="292"/>
-      <c r="F88" s="292"/>
-      <c r="G88" s="293"/>
+      <c r="A88" s="293"/>
+      <c r="B88" s="293"/>
+      <c r="C88" s="294"/>
+      <c r="D88" s="332"/>
+      <c r="E88" s="333"/>
+      <c r="F88" s="333"/>
+      <c r="G88" s="334"/>
       <c r="H88" s="101" t="s">
         <v>158</v>
       </c>
@@ -14551,9 +15047,9 @@
       <c r="AA88" s="102"/>
     </row>
     <row r="89" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A89" s="296"/>
-      <c r="B89" s="296"/>
-      <c r="C89" s="297"/>
+      <c r="A89" s="293"/>
+      <c r="B89" s="293"/>
+      <c r="C89" s="294"/>
       <c r="D89" s="104" t="s">
         <v>152</v>
       </c>
@@ -14584,9 +15080,9 @@
       <c r="AA89" s="102"/>
     </row>
     <row r="90" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A90" s="296"/>
-      <c r="B90" s="296"/>
-      <c r="C90" s="297"/>
+      <c r="A90" s="293"/>
+      <c r="B90" s="293"/>
+      <c r="C90" s="294"/>
       <c r="D90" s="104" t="s">
         <v>153</v>
       </c>
@@ -14621,9 +15117,9 @@
       <c r="AA90" s="102"/>
     </row>
     <row r="91" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A91" s="296"/>
-      <c r="B91" s="296"/>
-      <c r="C91" s="297"/>
+      <c r="A91" s="293"/>
+      <c r="B91" s="293"/>
+      <c r="C91" s="294"/>
       <c r="D91" s="97" t="s">
         <v>154</v>
       </c>
@@ -14656,9 +15152,9 @@
       <c r="AA91" s="102"/>
     </row>
     <row r="92" spans="1:27" ht="18" customHeight="1">
-      <c r="A92" s="296"/>
-      <c r="B92" s="296"/>
-      <c r="C92" s="297"/>
+      <c r="A92" s="293"/>
+      <c r="B92" s="293"/>
+      <c r="C92" s="294"/>
       <c r="D92" s="94" t="s">
         <v>155</v>
       </c>
@@ -14689,9 +15185,9 @@
       <c r="AA92" s="102"/>
     </row>
     <row r="93" spans="1:27" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A93" s="304"/>
-      <c r="B93" s="304"/>
-      <c r="C93" s="305"/>
+      <c r="A93" s="295"/>
+      <c r="B93" s="295"/>
+      <c r="C93" s="296"/>
       <c r="D93" s="122" t="s">
         <v>156</v>
       </c>
@@ -14726,11 +15222,11 @@
       <c r="AA93" s="27"/>
     </row>
     <row r="94" spans="1:27" s="136" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A94" s="294" t="s">
+      <c r="A94" s="291" t="s">
         <v>246</v>
       </c>
-      <c r="B94" s="294"/>
-      <c r="C94" s="295"/>
+      <c r="B94" s="291"/>
+      <c r="C94" s="292"/>
       <c r="D94" s="133" t="s">
         <v>265</v>
       </c>
@@ -14761,9 +15257,9 @@
       <c r="AA94" s="135"/>
     </row>
     <row r="95" spans="1:27" ht="18" customHeight="1">
-      <c r="A95" s="296"/>
-      <c r="B95" s="296"/>
-      <c r="C95" s="297"/>
+      <c r="A95" s="293"/>
+      <c r="B95" s="293"/>
+      <c r="C95" s="294"/>
       <c r="D95" s="129" t="s">
         <v>264</v>
       </c>
@@ -14794,9 +15290,9 @@
       <c r="AA95" s="102"/>
     </row>
     <row r="96" spans="1:27" ht="18" customHeight="1">
-      <c r="A96" s="296"/>
-      <c r="B96" s="296"/>
-      <c r="C96" s="297"/>
+      <c r="A96" s="293"/>
+      <c r="B96" s="293"/>
+      <c r="C96" s="294"/>
       <c r="D96" s="129" t="s">
         <v>248</v>
       </c>
@@ -14833,9 +15329,9 @@
       <c r="AA96" s="143"/>
     </row>
     <row r="97" spans="1:27" s="103" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A97" s="296"/>
-      <c r="B97" s="296"/>
-      <c r="C97" s="297"/>
+      <c r="A97" s="293"/>
+      <c r="B97" s="293"/>
+      <c r="C97" s="294"/>
       <c r="D97" s="129" t="s">
         <v>249</v>
       </c>
@@ -14876,9 +15372,9 @@
       <c r="AA97" s="143"/>
     </row>
     <row r="98" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A98" s="296"/>
-      <c r="B98" s="296"/>
-      <c r="C98" s="297"/>
+      <c r="A98" s="293"/>
+      <c r="B98" s="293"/>
+      <c r="C98" s="294"/>
       <c r="D98" s="129" t="s">
         <v>247</v>
       </c>
@@ -14911,9 +15407,9 @@
       <c r="AA98" s="143"/>
     </row>
     <row r="99" spans="1:27" s="164" customFormat="1" ht="18" customHeight="1">
-      <c r="A99" s="296"/>
-      <c r="B99" s="296"/>
-      <c r="C99" s="297"/>
+      <c r="A99" s="293"/>
+      <c r="B99" s="293"/>
+      <c r="C99" s="294"/>
       <c r="D99" s="129" t="s">
         <v>262</v>
       </c>
@@ -14950,9 +15446,9 @@
       <c r="AA99" s="143"/>
     </row>
     <row r="100" spans="1:27" s="164" customFormat="1" ht="18" customHeight="1">
-      <c r="A100" s="296"/>
-      <c r="B100" s="296"/>
-      <c r="C100" s="297"/>
+      <c r="A100" s="293"/>
+      <c r="B100" s="293"/>
+      <c r="C100" s="294"/>
       <c r="D100" s="129" t="s">
         <v>269</v>
       </c>
@@ -14987,9 +15483,9 @@
       <c r="AA100" s="143"/>
     </row>
     <row r="101" spans="1:27" s="164" customFormat="1" ht="18" customHeight="1">
-      <c r="A101" s="296"/>
-      <c r="B101" s="296"/>
-      <c r="C101" s="297"/>
+      <c r="A101" s="293"/>
+      <c r="B101" s="293"/>
+      <c r="C101" s="294"/>
       <c r="D101" s="129" t="s">
         <v>270</v>
       </c>
@@ -15026,15 +15522,15 @@
       <c r="AA101" s="143"/>
     </row>
     <row r="102" spans="1:27" s="164" customFormat="1" ht="18" customHeight="1">
-      <c r="A102" s="296"/>
-      <c r="B102" s="296"/>
-      <c r="C102" s="297"/>
-      <c r="D102" s="306" t="s">
+      <c r="A102" s="293"/>
+      <c r="B102" s="293"/>
+      <c r="C102" s="294"/>
+      <c r="D102" s="315" t="s">
         <v>269</v>
       </c>
-      <c r="E102" s="307"/>
-      <c r="F102" s="307"/>
-      <c r="G102" s="308"/>
+      <c r="E102" s="316"/>
+      <c r="F102" s="316"/>
+      <c r="G102" s="317"/>
       <c r="H102" s="145" t="s">
         <v>275</v>
       </c>
@@ -15061,13 +15557,13 @@
       <c r="AA102" s="143"/>
     </row>
     <row r="103" spans="1:27" ht="18" customHeight="1">
-      <c r="A103" s="296"/>
-      <c r="B103" s="296"/>
-      <c r="C103" s="297"/>
-      <c r="D103" s="306"/>
-      <c r="E103" s="307"/>
-      <c r="F103" s="307"/>
-      <c r="G103" s="308"/>
+      <c r="A103" s="293"/>
+      <c r="B103" s="293"/>
+      <c r="C103" s="294"/>
+      <c r="D103" s="315"/>
+      <c r="E103" s="316"/>
+      <c r="F103" s="316"/>
+      <c r="G103" s="317"/>
       <c r="H103" s="145" t="s">
         <v>276</v>
       </c>
@@ -15094,13 +15590,13 @@
       <c r="AA103" s="143"/>
     </row>
     <row r="104" spans="1:27" ht="18" customHeight="1">
-      <c r="A104" s="296"/>
-      <c r="B104" s="296"/>
-      <c r="C104" s="297"/>
-      <c r="D104" s="306"/>
-      <c r="E104" s="307"/>
-      <c r="F104" s="307"/>
-      <c r="G104" s="308"/>
+      <c r="A104" s="293"/>
+      <c r="B104" s="293"/>
+      <c r="C104" s="294"/>
+      <c r="D104" s="315"/>
+      <c r="E104" s="316"/>
+      <c r="F104" s="316"/>
+      <c r="G104" s="317"/>
       <c r="H104" s="145" t="s">
         <v>278</v>
       </c>
@@ -15125,13 +15621,13 @@
       <c r="AA104" s="143"/>
     </row>
     <row r="105" spans="1:27" ht="18" customHeight="1">
-      <c r="A105" s="296"/>
-      <c r="B105" s="296"/>
-      <c r="C105" s="297"/>
-      <c r="D105" s="306"/>
-      <c r="E105" s="307"/>
-      <c r="F105" s="307"/>
-      <c r="G105" s="308"/>
+      <c r="A105" s="293"/>
+      <c r="B105" s="293"/>
+      <c r="C105" s="294"/>
+      <c r="D105" s="315"/>
+      <c r="E105" s="316"/>
+      <c r="F105" s="316"/>
+      <c r="G105" s="317"/>
       <c r="H105" s="145" t="s">
         <v>279</v>
       </c>
@@ -15156,13 +15652,13 @@
       <c r="AA105" s="143"/>
     </row>
     <row r="106" spans="1:27" ht="18" customHeight="1">
-      <c r="A106" s="296"/>
-      <c r="B106" s="296"/>
-      <c r="C106" s="297"/>
-      <c r="D106" s="306"/>
-      <c r="E106" s="307"/>
-      <c r="F106" s="307"/>
-      <c r="G106" s="308"/>
+      <c r="A106" s="293"/>
+      <c r="B106" s="293"/>
+      <c r="C106" s="294"/>
+      <c r="D106" s="315"/>
+      <c r="E106" s="316"/>
+      <c r="F106" s="316"/>
+      <c r="G106" s="317"/>
       <c r="H106" s="145" t="s">
         <v>280</v>
       </c>
@@ -15187,15 +15683,15 @@
       <c r="AA106" s="143"/>
     </row>
     <row r="107" spans="1:27">
-      <c r="A107" s="296"/>
-      <c r="B107" s="296"/>
-      <c r="C107" s="297"/>
-      <c r="D107" s="306" t="s">
+      <c r="A107" s="293"/>
+      <c r="B107" s="293"/>
+      <c r="C107" s="294"/>
+      <c r="D107" s="315" t="s">
         <v>285</v>
       </c>
-      <c r="E107" s="307"/>
-      <c r="F107" s="307"/>
-      <c r="G107" s="308"/>
+      <c r="E107" s="316"/>
+      <c r="F107" s="316"/>
+      <c r="G107" s="317"/>
       <c r="H107" s="138" t="s">
         <v>283</v>
       </c>
@@ -15224,13 +15720,13 @@
       <c r="AA107" s="143"/>
     </row>
     <row r="108" spans="1:27" s="28" customFormat="1" ht="18.600000000000001" thickBot="1">
-      <c r="A108" s="304"/>
-      <c r="B108" s="304"/>
-      <c r="C108" s="305"/>
-      <c r="D108" s="368"/>
-      <c r="E108" s="369"/>
-      <c r="F108" s="369"/>
-      <c r="G108" s="370"/>
+      <c r="A108" s="295"/>
+      <c r="B108" s="295"/>
+      <c r="C108" s="296"/>
+      <c r="D108" s="326"/>
+      <c r="E108" s="327"/>
+      <c r="F108" s="327"/>
+      <c r="G108" s="328"/>
       <c r="H108" s="141" t="s">
         <v>284</v>
       </c>
@@ -15255,17 +15751,17 @@
       <c r="AA108" s="144"/>
     </row>
     <row r="109" spans="1:27" s="136" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A109" s="294" t="s">
+      <c r="A109" s="291" t="s">
         <v>286</v>
       </c>
-      <c r="B109" s="294"/>
-      <c r="C109" s="295"/>
-      <c r="D109" s="371" t="s">
+      <c r="B109" s="291"/>
+      <c r="C109" s="292"/>
+      <c r="D109" s="329" t="s">
         <v>289</v>
       </c>
-      <c r="E109" s="372"/>
-      <c r="F109" s="372"/>
-      <c r="G109" s="373"/>
+      <c r="E109" s="330"/>
+      <c r="F109" s="330"/>
+      <c r="G109" s="331"/>
       <c r="H109" s="24" t="s">
         <v>287</v>
       </c>
@@ -15292,9 +15788,9 @@
       <c r="AA109" s="135"/>
     </row>
     <row r="110" spans="1:27" ht="18" customHeight="1">
-      <c r="A110" s="296"/>
-      <c r="B110" s="296"/>
-      <c r="C110" s="297"/>
+      <c r="A110" s="293"/>
+      <c r="B110" s="293"/>
+      <c r="C110" s="294"/>
       <c r="D110" s="104" t="s">
         <v>290</v>
       </c>
@@ -15331,9 +15827,9 @@
       <c r="AA110" s="102"/>
     </row>
     <row r="111" spans="1:27" ht="18" customHeight="1">
-      <c r="A111" s="296"/>
-      <c r="B111" s="296"/>
-      <c r="C111" s="297"/>
+      <c r="A111" s="293"/>
+      <c r="B111" s="293"/>
+      <c r="C111" s="294"/>
       <c r="D111" s="97" t="s">
         <v>291</v>
       </c>
@@ -15368,9 +15864,9 @@
       <c r="AA111" s="102"/>
     </row>
     <row r="112" spans="1:27" s="103" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A112" s="296"/>
-      <c r="B112" s="296"/>
-      <c r="C112" s="297"/>
+      <c r="A112" s="293"/>
+      <c r="B112" s="293"/>
+      <c r="C112" s="294"/>
       <c r="D112" s="104" t="s">
         <v>292</v>
       </c>
@@ -15405,9 +15901,9 @@
       <c r="AA112" s="102"/>
     </row>
     <row r="113" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A113" s="296"/>
-      <c r="B113" s="296"/>
-      <c r="C113" s="297"/>
+      <c r="A113" s="293"/>
+      <c r="B113" s="293"/>
+      <c r="C113" s="294"/>
       <c r="D113" s="104" t="s">
         <v>293</v>
       </c>
@@ -15446,15 +15942,15 @@
       <c r="AA113" s="102"/>
     </row>
     <row r="114" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A114" s="296"/>
-      <c r="B114" s="296"/>
-      <c r="C114" s="297"/>
-      <c r="D114" s="306" t="s">
+      <c r="A114" s="293"/>
+      <c r="B114" s="293"/>
+      <c r="C114" s="294"/>
+      <c r="D114" s="315" t="s">
         <v>307</v>
       </c>
-      <c r="E114" s="307"/>
-      <c r="F114" s="307"/>
-      <c r="G114" s="308"/>
+      <c r="E114" s="316"/>
+      <c r="F114" s="316"/>
+      <c r="G114" s="317"/>
       <c r="H114" s="168" t="s">
         <v>309</v>
       </c>
@@ -15481,15 +15977,15 @@
       <c r="AA114" s="102"/>
     </row>
     <row r="115" spans="1:27">
-      <c r="A115" s="296"/>
-      <c r="B115" s="296"/>
-      <c r="C115" s="297"/>
-      <c r="D115" s="285" t="s">
+      <c r="A115" s="293"/>
+      <c r="B115" s="293"/>
+      <c r="C115" s="294"/>
+      <c r="D115" s="323" t="s">
         <v>286</v>
       </c>
-      <c r="E115" s="286"/>
-      <c r="F115" s="286"/>
-      <c r="G115" s="287"/>
+      <c r="E115" s="324"/>
+      <c r="F115" s="324"/>
+      <c r="G115" s="325"/>
       <c r="H115" s="169" t="s">
         <v>314</v>
       </c>
@@ -15520,13 +16016,13 @@
       <c r="AA115" s="102"/>
     </row>
     <row r="116" spans="1:27" ht="18.600000000000001" thickBot="1">
-      <c r="A116" s="296"/>
-      <c r="B116" s="296"/>
-      <c r="C116" s="297"/>
-      <c r="D116" s="291"/>
-      <c r="E116" s="292"/>
-      <c r="F116" s="292"/>
-      <c r="G116" s="293"/>
+      <c r="A116" s="293"/>
+      <c r="B116" s="293"/>
+      <c r="C116" s="294"/>
+      <c r="D116" s="332"/>
+      <c r="E116" s="333"/>
+      <c r="F116" s="333"/>
+      <c r="G116" s="334"/>
       <c r="H116" s="141"/>
       <c r="I116" s="111"/>
       <c r="J116" s="189"/>
@@ -15553,17 +16049,17 @@
       <c r="AA116" s="111"/>
     </row>
     <row r="117" spans="1:27" s="136" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A117" s="294" t="s">
+      <c r="A117" s="291" t="s">
         <v>431</v>
       </c>
-      <c r="B117" s="294"/>
-      <c r="C117" s="295"/>
-      <c r="D117" s="382" t="s">
+      <c r="B117" s="291"/>
+      <c r="C117" s="292"/>
+      <c r="D117" s="349" t="s">
         <v>432</v>
       </c>
-      <c r="E117" s="372"/>
-      <c r="F117" s="372"/>
-      <c r="G117" s="373"/>
+      <c r="E117" s="330"/>
+      <c r="F117" s="330"/>
+      <c r="G117" s="331"/>
       <c r="H117" s="24" t="s">
         <v>433</v>
       </c>
@@ -15588,9 +16084,9 @@
       <c r="AA117" s="135"/>
     </row>
     <row r="118" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A118" s="304"/>
-      <c r="B118" s="304"/>
-      <c r="C118" s="305"/>
+      <c r="A118" s="295"/>
+      <c r="B118" s="295"/>
+      <c r="C118" s="296"/>
       <c r="D118" s="139" t="s">
         <v>437</v>
       </c>
@@ -15621,11 +16117,11 @@
       <c r="AA118" s="27"/>
     </row>
     <row r="119" spans="1:27" s="226" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A119" s="311" t="s">
+      <c r="A119" s="394" t="s">
         <v>435</v>
       </c>
-      <c r="B119" s="311"/>
-      <c r="C119" s="312"/>
+      <c r="B119" s="394"/>
+      <c r="C119" s="395"/>
       <c r="D119" s="219" t="s">
         <v>437</v>
       </c>
@@ -15656,11 +16152,11 @@
       <c r="AA119" s="223"/>
     </row>
     <row r="120" spans="1:27" s="103" customFormat="1" ht="17.399999999999999" customHeight="1" thickTop="1">
-      <c r="A120" s="294" t="s">
+      <c r="A120" s="291" t="s">
         <v>12</v>
       </c>
-      <c r="B120" s="294"/>
-      <c r="C120" s="295"/>
+      <c r="B120" s="291"/>
+      <c r="C120" s="292"/>
       <c r="D120" s="205" t="s">
         <v>438</v>
       </c>
@@ -15701,9 +16197,9 @@
       <c r="AA120" s="102"/>
     </row>
     <row r="121" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A121" s="296"/>
-      <c r="B121" s="296"/>
-      <c r="C121" s="297"/>
+      <c r="A121" s="293"/>
+      <c r="B121" s="293"/>
+      <c r="C121" s="294"/>
       <c r="D121" s="205" t="s">
         <v>441</v>
       </c>
@@ -15736,15 +16232,15 @@
       <c r="AA121" s="102"/>
     </row>
     <row r="122" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A122" s="296"/>
-      <c r="B122" s="296"/>
-      <c r="C122" s="297"/>
-      <c r="D122" s="306" t="s">
+      <c r="A122" s="293"/>
+      <c r="B122" s="293"/>
+      <c r="C122" s="294"/>
+      <c r="D122" s="315" t="s">
         <v>444</v>
       </c>
-      <c r="E122" s="307"/>
-      <c r="F122" s="307"/>
-      <c r="G122" s="308"/>
+      <c r="E122" s="316"/>
+      <c r="F122" s="316"/>
+      <c r="G122" s="317"/>
       <c r="H122" s="24" t="s">
         <v>443</v>
       </c>
@@ -15773,15 +16269,15 @@
       <c r="AA122" s="102"/>
     </row>
     <row r="123" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A123" s="304"/>
-      <c r="B123" s="304"/>
-      <c r="C123" s="305"/>
-      <c r="D123" s="365" t="s">
+      <c r="A123" s="295"/>
+      <c r="B123" s="295"/>
+      <c r="C123" s="296"/>
+      <c r="D123" s="320" t="s">
         <v>452</v>
       </c>
-      <c r="E123" s="366"/>
-      <c r="F123" s="366"/>
-      <c r="G123" s="367"/>
+      <c r="E123" s="321"/>
+      <c r="F123" s="321"/>
+      <c r="G123" s="322"/>
       <c r="H123" s="125" t="s">
         <v>451</v>
       </c>
@@ -15806,17 +16302,17 @@
       <c r="AA123" s="27"/>
     </row>
     <row r="124" spans="1:27" ht="18" customHeight="1" thickTop="1">
-      <c r="A124" s="294" t="s">
+      <c r="A124" s="291" t="s">
         <v>9</v>
       </c>
-      <c r="B124" s="294"/>
-      <c r="C124" s="295"/>
-      <c r="D124" s="313" t="s">
+      <c r="B124" s="291"/>
+      <c r="C124" s="292"/>
+      <c r="D124" s="301" t="s">
         <v>168</v>
       </c>
-      <c r="E124" s="314"/>
-      <c r="F124" s="314"/>
-      <c r="G124" s="315"/>
+      <c r="E124" s="302"/>
+      <c r="F124" s="302"/>
+      <c r="G124" s="303"/>
       <c r="H124" s="109" t="s">
         <v>453</v>
       </c>
@@ -15841,13 +16337,13 @@
       <c r="AA124" s="102"/>
     </row>
     <row r="125" spans="1:27" ht="18" customHeight="1" thickBot="1">
-      <c r="A125" s="296"/>
-      <c r="B125" s="296"/>
-      <c r="C125" s="297"/>
-      <c r="D125" s="376"/>
-      <c r="E125" s="377"/>
-      <c r="F125" s="377"/>
-      <c r="G125" s="378"/>
+      <c r="A125" s="293"/>
+      <c r="B125" s="293"/>
+      <c r="C125" s="294"/>
+      <c r="D125" s="343"/>
+      <c r="E125" s="344"/>
+      <c r="F125" s="344"/>
+      <c r="G125" s="345"/>
       <c r="H125" s="138" t="s">
         <v>10</v>
       </c>
@@ -15874,17 +16370,17 @@
       <c r="AA125" s="102"/>
     </row>
     <row r="126" spans="1:27" ht="18" customHeight="1" thickTop="1">
-      <c r="A126" s="294" t="s">
+      <c r="A126" s="291" t="s">
         <v>471</v>
       </c>
-      <c r="B126" s="294"/>
-      <c r="C126" s="295"/>
-      <c r="D126" s="313" t="s">
+      <c r="B126" s="291"/>
+      <c r="C126" s="292"/>
+      <c r="D126" s="301" t="s">
         <v>473</v>
       </c>
-      <c r="E126" s="314"/>
-      <c r="F126" s="314"/>
-      <c r="G126" s="315"/>
+      <c r="E126" s="302"/>
+      <c r="F126" s="302"/>
+      <c r="G126" s="303"/>
       <c r="H126" s="24" t="s">
         <v>472</v>
       </c>
@@ -15919,13 +16415,13 @@
       <c r="AA126" s="102"/>
     </row>
     <row r="127" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A127" s="296"/>
-      <c r="B127" s="296"/>
-      <c r="C127" s="297"/>
-      <c r="D127" s="291"/>
-      <c r="E127" s="292"/>
-      <c r="F127" s="292"/>
-      <c r="G127" s="293"/>
+      <c r="A127" s="293"/>
+      <c r="B127" s="293"/>
+      <c r="C127" s="294"/>
+      <c r="D127" s="332"/>
+      <c r="E127" s="333"/>
+      <c r="F127" s="333"/>
+      <c r="G127" s="334"/>
       <c r="H127" s="24" t="s">
         <v>484</v>
       </c>
@@ -15956,9 +16452,9 @@
       <c r="AA127" s="102"/>
     </row>
     <row r="128" spans="1:27" s="103" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A128" s="296"/>
-      <c r="B128" s="296"/>
-      <c r="C128" s="297"/>
+      <c r="A128" s="293"/>
+      <c r="B128" s="293"/>
+      <c r="C128" s="294"/>
       <c r="D128" s="206" t="s">
         <v>474</v>
       </c>
@@ -15995,9 +16491,9 @@
       <c r="AA128" s="102"/>
     </row>
     <row r="129" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A129" s="304"/>
-      <c r="B129" s="304"/>
-      <c r="C129" s="305"/>
+      <c r="A129" s="295"/>
+      <c r="B129" s="295"/>
+      <c r="C129" s="296"/>
       <c r="D129" s="139" t="s">
         <v>482</v>
       </c>
@@ -16028,42 +16524,42 @@
       <c r="AA129" s="27"/>
     </row>
     <row r="130" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1" thickTop="1">
-      <c r="A130" s="294" t="s">
+      <c r="A130" s="291" t="s">
         <v>488</v>
       </c>
-      <c r="B130" s="294"/>
-      <c r="C130" s="295"/>
-      <c r="D130" s="316" t="s">
+      <c r="B130" s="291"/>
+      <c r="C130" s="292"/>
+      <c r="D130" s="337" t="s">
         <v>461</v>
       </c>
-      <c r="E130" s="317"/>
-      <c r="F130" s="317"/>
-      <c r="G130" s="318"/>
+      <c r="E130" s="338"/>
+      <c r="F130" s="338"/>
+      <c r="G130" s="339"/>
       <c r="H130" s="138" t="s">
         <v>462</v>
       </c>
       <c r="I130" s="143"/>
       <c r="J130" s="143"/>
-      <c r="K130" s="322" t="s">
+      <c r="K130" s="288" t="s">
         <v>165</v>
       </c>
-      <c r="L130" s="322"/>
-      <c r="M130" s="389" t="s">
+      <c r="L130" s="288"/>
+      <c r="M130" s="284" t="s">
         <v>181</v>
       </c>
-      <c r="N130" s="389"/>
-      <c r="O130" s="322" t="s">
+      <c r="N130" s="284"/>
+      <c r="O130" s="288" t="s">
         <v>463</v>
       </c>
-      <c r="P130" s="322"/>
-      <c r="Q130" s="322" t="s">
+      <c r="P130" s="288"/>
+      <c r="Q130" s="288" t="s">
         <v>464</v>
       </c>
-      <c r="R130" s="392"/>
-      <c r="S130" s="390" t="s">
+      <c r="R130" s="289"/>
+      <c r="S130" s="286" t="s">
         <v>465</v>
       </c>
-      <c r="T130" s="390"/>
+      <c r="T130" s="286"/>
       <c r="U130" s="143"/>
       <c r="V130" s="143"/>
       <c r="W130" s="143"/>
@@ -16073,28 +16569,28 @@
       <c r="AA130" s="102"/>
     </row>
     <row r="131" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A131" s="304"/>
-      <c r="B131" s="304"/>
-      <c r="C131" s="305"/>
-      <c r="D131" s="319"/>
-      <c r="E131" s="320"/>
-      <c r="F131" s="320"/>
-      <c r="G131" s="321"/>
+      <c r="A131" s="295"/>
+      <c r="B131" s="295"/>
+      <c r="C131" s="296"/>
+      <c r="D131" s="304"/>
+      <c r="E131" s="305"/>
+      <c r="F131" s="305"/>
+      <c r="G131" s="306"/>
       <c r="H131" s="125" t="s">
         <v>466</v>
       </c>
       <c r="I131" s="144"/>
       <c r="J131" s="144"/>
-      <c r="K131" s="323"/>
-      <c r="L131" s="323"/>
-      <c r="M131" s="323"/>
-      <c r="N131" s="323"/>
-      <c r="O131" s="323"/>
-      <c r="P131" s="323"/>
-      <c r="Q131" s="323"/>
-      <c r="R131" s="393"/>
-      <c r="S131" s="391"/>
-      <c r="T131" s="391"/>
+      <c r="K131" s="285"/>
+      <c r="L131" s="285"/>
+      <c r="M131" s="285"/>
+      <c r="N131" s="285"/>
+      <c r="O131" s="285"/>
+      <c r="P131" s="285"/>
+      <c r="Q131" s="285"/>
+      <c r="R131" s="290"/>
+      <c r="S131" s="287"/>
+      <c r="T131" s="287"/>
       <c r="U131" s="144"/>
       <c r="V131" s="144"/>
       <c r="W131" s="144"/>
@@ -16104,17 +16600,17 @@
       <c r="AA131" s="27"/>
     </row>
     <row r="132" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1" thickTop="1">
-      <c r="A132" s="294" t="s">
+      <c r="A132" s="291" t="s">
         <v>490</v>
       </c>
-      <c r="B132" s="294"/>
-      <c r="C132" s="295"/>
-      <c r="D132" s="291" t="s">
+      <c r="B132" s="291"/>
+      <c r="C132" s="292"/>
+      <c r="D132" s="332" t="s">
         <v>490</v>
       </c>
-      <c r="E132" s="292"/>
-      <c r="F132" s="292"/>
-      <c r="G132" s="293"/>
+      <c r="E132" s="333"/>
+      <c r="F132" s="333"/>
+      <c r="G132" s="334"/>
       <c r="H132" s="24" t="s">
         <v>491</v>
       </c>
@@ -16145,9 +16641,9 @@
       <c r="AA132" s="102"/>
     </row>
     <row r="133" spans="1:27" ht="18" customHeight="1">
-      <c r="A133" s="296"/>
-      <c r="B133" s="296"/>
-      <c r="C133" s="297"/>
+      <c r="A133" s="293"/>
+      <c r="B133" s="293"/>
+      <c r="C133" s="294"/>
       <c r="D133" s="205" t="s">
         <v>494</v>
       </c>
@@ -16186,9 +16682,9 @@
       <c r="AA133" s="102"/>
     </row>
     <row r="134" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A134" s="304"/>
-      <c r="B134" s="304"/>
-      <c r="C134" s="305"/>
+      <c r="A134" s="295"/>
+      <c r="B134" s="295"/>
+      <c r="C134" s="296"/>
       <c r="D134" s="230" t="s">
         <v>495</v>
       </c>
@@ -16219,11 +16715,11 @@
       <c r="AA134" s="27"/>
     </row>
     <row r="135" spans="1:27" s="103" customFormat="1" ht="17.399999999999999" customHeight="1" thickTop="1">
-      <c r="A135" s="294" t="s">
+      <c r="A135" s="291" t="s">
         <v>499</v>
       </c>
-      <c r="B135" s="294"/>
-      <c r="C135" s="295"/>
+      <c r="B135" s="291"/>
+      <c r="C135" s="292"/>
       <c r="D135" s="205" t="s">
         <v>500</v>
       </c>
@@ -16258,9 +16754,9 @@
       <c r="AA135" s="21"/>
     </row>
     <row r="136" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A136" s="296"/>
-      <c r="B136" s="296"/>
-      <c r="C136" s="297"/>
+      <c r="A136" s="293"/>
+      <c r="B136" s="293"/>
+      <c r="C136" s="294"/>
       <c r="D136" s="205" t="s">
         <v>502</v>
       </c>
@@ -16291,15 +16787,15 @@
       <c r="AA136" s="143"/>
     </row>
     <row r="137" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A137" s="296"/>
-      <c r="B137" s="296"/>
-      <c r="C137" s="297"/>
-      <c r="D137" s="306" t="s">
+      <c r="A137" s="293"/>
+      <c r="B137" s="293"/>
+      <c r="C137" s="294"/>
+      <c r="D137" s="315" t="s">
         <v>503</v>
       </c>
-      <c r="E137" s="307"/>
-      <c r="F137" s="307"/>
-      <c r="G137" s="308"/>
+      <c r="E137" s="316"/>
+      <c r="F137" s="316"/>
+      <c r="G137" s="317"/>
       <c r="H137" s="245" t="s">
         <v>516</v>
       </c>
@@ -16330,15 +16826,15 @@
       <c r="AA137" s="143"/>
     </row>
     <row r="138" spans="1:27" ht="18" customHeight="1">
-      <c r="A138" s="296"/>
-      <c r="B138" s="296"/>
-      <c r="C138" s="297"/>
-      <c r="D138" s="306" t="s">
+      <c r="A138" s="293"/>
+      <c r="B138" s="293"/>
+      <c r="C138" s="294"/>
+      <c r="D138" s="315" t="s">
         <v>507</v>
       </c>
-      <c r="E138" s="307"/>
-      <c r="F138" s="307"/>
-      <c r="G138" s="308"/>
+      <c r="E138" s="316"/>
+      <c r="F138" s="316"/>
+      <c r="G138" s="317"/>
       <c r="H138" s="245" t="s">
         <v>517</v>
       </c>
@@ -16365,9 +16861,9 @@
       <c r="AA138" s="143"/>
     </row>
     <row r="139" spans="1:27" ht="18" customHeight="1">
-      <c r="A139" s="296"/>
-      <c r="B139" s="296"/>
-      <c r="C139" s="297"/>
+      <c r="A139" s="293"/>
+      <c r="B139" s="293"/>
+      <c r="C139" s="294"/>
       <c r="D139" s="205" t="s">
         <v>508</v>
       </c>
@@ -16404,9 +16900,9 @@
       <c r="AA139" s="143"/>
     </row>
     <row r="140" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A140" s="304"/>
-      <c r="B140" s="304"/>
-      <c r="C140" s="305"/>
+      <c r="A140" s="295"/>
+      <c r="B140" s="295"/>
+      <c r="C140" s="296"/>
       <c r="D140" s="230" t="s">
         <v>509</v>
       </c>
@@ -16439,11 +16935,11 @@
       <c r="AA140" s="27"/>
     </row>
     <row r="141" spans="1:27" s="103" customFormat="1" ht="17.399999999999999" customHeight="1" thickTop="1">
-      <c r="A141" s="294" t="s">
+      <c r="A141" s="291" t="s">
         <v>512</v>
       </c>
-      <c r="B141" s="294"/>
-      <c r="C141" s="295"/>
+      <c r="B141" s="291"/>
+      <c r="C141" s="292"/>
       <c r="D141" s="205"/>
       <c r="E141" s="105"/>
       <c r="F141" s="105"/>
@@ -16472,9 +16968,9 @@
       <c r="AA141" s="102"/>
     </row>
     <row r="142" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A142" s="304"/>
-      <c r="B142" s="304"/>
-      <c r="C142" s="305"/>
+      <c r="A142" s="295"/>
+      <c r="B142" s="295"/>
+      <c r="C142" s="296"/>
       <c r="D142" s="230"/>
       <c r="E142" s="87"/>
       <c r="F142" s="87"/>
@@ -16503,17 +16999,17 @@
       <c r="AA142" s="27"/>
     </row>
     <row r="143" spans="1:27" ht="18" customHeight="1" thickTop="1">
-      <c r="A143" s="294" t="s">
+      <c r="A143" s="291" t="s">
         <v>524</v>
       </c>
-      <c r="B143" s="294"/>
-      <c r="C143" s="295"/>
-      <c r="D143" s="313" t="s">
+      <c r="B143" s="291"/>
+      <c r="C143" s="292"/>
+      <c r="D143" s="301" t="s">
         <v>525</v>
       </c>
-      <c r="E143" s="314"/>
-      <c r="F143" s="314"/>
-      <c r="G143" s="315"/>
+      <c r="E143" s="302"/>
+      <c r="F143" s="302"/>
+      <c r="G143" s="303"/>
       <c r="H143" s="109" t="s">
         <v>526</v>
       </c>
@@ -16540,13 +17036,13 @@
       <c r="AA143" s="102"/>
     </row>
     <row r="144" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A144" s="304"/>
-      <c r="B144" s="304"/>
-      <c r="C144" s="305"/>
-      <c r="D144" s="319"/>
-      <c r="E144" s="320"/>
-      <c r="F144" s="320"/>
-      <c r="G144" s="321"/>
+      <c r="A144" s="295"/>
+      <c r="B144" s="295"/>
+      <c r="C144" s="296"/>
+      <c r="D144" s="304"/>
+      <c r="E144" s="305"/>
+      <c r="F144" s="305"/>
+      <c r="G144" s="306"/>
       <c r="H144" s="141" t="s">
         <v>527</v>
       </c>
@@ -16575,11 +17071,11 @@
       <c r="AA144" s="27"/>
     </row>
     <row r="145" spans="1:27" s="103" customFormat="1" ht="17.399999999999999" customHeight="1" thickTop="1">
-      <c r="A145" s="294" t="s">
+      <c r="A145" s="291" t="s">
         <v>530</v>
       </c>
-      <c r="B145" s="294"/>
-      <c r="C145" s="295"/>
+      <c r="B145" s="291"/>
+      <c r="C145" s="292"/>
       <c r="D145" s="229"/>
       <c r="E145" s="105"/>
       <c r="F145" s="105"/>
@@ -16610,9 +17106,9 @@
       <c r="AA145" s="102"/>
     </row>
     <row r="146" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A146" s="304"/>
-      <c r="B146" s="304"/>
-      <c r="C146" s="305"/>
+      <c r="A146" s="295"/>
+      <c r="B146" s="295"/>
+      <c r="C146" s="296"/>
       <c r="D146" s="230" t="s">
         <v>532</v>
       </c>
@@ -16643,11 +17139,11 @@
       <c r="AA146" s="27"/>
     </row>
     <row r="147" spans="1:27" s="226" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A147" s="311" t="s">
+      <c r="A147" s="394" t="s">
         <v>535</v>
       </c>
-      <c r="B147" s="311"/>
-      <c r="C147" s="312"/>
+      <c r="B147" s="394"/>
+      <c r="C147" s="395"/>
       <c r="D147" s="219" t="s">
         <v>537</v>
       </c>
@@ -17421,17 +17917,17 @@
       <c r="V173" s="197"/>
     </row>
     <row r="174" spans="1:27" ht="18" customHeight="1">
-      <c r="A174" s="363" t="s">
+      <c r="A174" s="318" t="s">
         <v>359</v>
       </c>
-      <c r="B174" s="363"/>
-      <c r="C174" s="364"/>
-      <c r="D174" s="285" t="s">
+      <c r="B174" s="318"/>
+      <c r="C174" s="319"/>
+      <c r="D174" s="323" t="s">
         <v>1</v>
       </c>
-      <c r="E174" s="286"/>
-      <c r="F174" s="286"/>
-      <c r="G174" s="287"/>
+      <c r="E174" s="324"/>
+      <c r="F174" s="324"/>
+      <c r="G174" s="325"/>
       <c r="H174" s="145" t="s">
         <v>467</v>
       </c>
@@ -17458,110 +17954,110 @@
       <c r="AA174" s="187"/>
     </row>
     <row r="175" spans="1:27" ht="18" customHeight="1">
-      <c r="A175" s="296"/>
-      <c r="B175" s="296"/>
-      <c r="C175" s="297"/>
-      <c r="D175" s="288"/>
-      <c r="E175" s="289"/>
-      <c r="F175" s="289"/>
-      <c r="G175" s="290"/>
+      <c r="A175" s="293"/>
+      <c r="B175" s="293"/>
+      <c r="C175" s="294"/>
+      <c r="D175" s="340"/>
+      <c r="E175" s="341"/>
+      <c r="F175" s="341"/>
+      <c r="G175" s="342"/>
       <c r="H175" s="145" t="s">
         <v>469</v>
       </c>
       <c r="I175" s="187"/>
       <c r="J175" s="187"/>
       <c r="K175" s="187"/>
-      <c r="L175" s="394" t="s">
+      <c r="L175" s="297" t="s">
         <v>498</v>
       </c>
-      <c r="M175" s="299"/>
-      <c r="N175" s="299"/>
-      <c r="O175" s="299"/>
-      <c r="P175" s="299"/>
-      <c r="Q175" s="299"/>
-      <c r="R175" s="299"/>
-      <c r="S175" s="299"/>
-      <c r="T175" s="299"/>
-      <c r="U175" s="299"/>
-      <c r="V175" s="299"/>
-      <c r="W175" s="299"/>
-      <c r="X175" s="299"/>
-      <c r="Y175" s="299"/>
-      <c r="Z175" s="299"/>
+      <c r="M175" s="298"/>
+      <c r="N175" s="298"/>
+      <c r="O175" s="298"/>
+      <c r="P175" s="298"/>
+      <c r="Q175" s="298"/>
+      <c r="R175" s="298"/>
+      <c r="S175" s="298"/>
+      <c r="T175" s="298"/>
+      <c r="U175" s="298"/>
+      <c r="V175" s="298"/>
+      <c r="W175" s="298"/>
+      <c r="X175" s="298"/>
+      <c r="Y175" s="298"/>
+      <c r="Z175" s="298"/>
       <c r="AA175" s="187"/>
     </row>
     <row r="176" spans="1:27" ht="18" customHeight="1">
-      <c r="A176" s="296"/>
-      <c r="B176" s="296"/>
-      <c r="C176" s="297"/>
-      <c r="D176" s="288"/>
-      <c r="E176" s="289"/>
-      <c r="F176" s="289"/>
-      <c r="G176" s="290"/>
+      <c r="A176" s="293"/>
+      <c r="B176" s="293"/>
+      <c r="C176" s="294"/>
+      <c r="D176" s="340"/>
+      <c r="E176" s="341"/>
+      <c r="F176" s="341"/>
+      <c r="G176" s="342"/>
       <c r="H176" s="145" t="s">
         <v>470</v>
       </c>
       <c r="I176" s="187"/>
       <c r="J176" s="187"/>
       <c r="K176" s="187"/>
-      <c r="L176" s="301"/>
-      <c r="M176" s="301"/>
-      <c r="N176" s="301"/>
-      <c r="O176" s="301"/>
-      <c r="P176" s="301"/>
-      <c r="Q176" s="301"/>
-      <c r="R176" s="301"/>
-      <c r="S176" s="301"/>
-      <c r="T176" s="301"/>
-      <c r="U176" s="301"/>
-      <c r="V176" s="301"/>
-      <c r="W176" s="301"/>
-      <c r="X176" s="301"/>
-      <c r="Y176" s="301"/>
-      <c r="Z176" s="301"/>
+      <c r="L176" s="299"/>
+      <c r="M176" s="299"/>
+      <c r="N176" s="299"/>
+      <c r="O176" s="299"/>
+      <c r="P176" s="299"/>
+      <c r="Q176" s="299"/>
+      <c r="R176" s="299"/>
+      <c r="S176" s="299"/>
+      <c r="T176" s="299"/>
+      <c r="U176" s="299"/>
+      <c r="V176" s="299"/>
+      <c r="W176" s="299"/>
+      <c r="X176" s="299"/>
+      <c r="Y176" s="299"/>
+      <c r="Z176" s="299"/>
       <c r="AA176" s="187"/>
     </row>
     <row r="177" spans="1:27" ht="18" customHeight="1">
-      <c r="A177" s="296"/>
-      <c r="B177" s="296"/>
-      <c r="C177" s="297"/>
-      <c r="D177" s="291"/>
-      <c r="E177" s="292"/>
-      <c r="F177" s="292"/>
-      <c r="G177" s="293"/>
+      <c r="A177" s="293"/>
+      <c r="B177" s="293"/>
+      <c r="C177" s="294"/>
+      <c r="D177" s="332"/>
+      <c r="E177" s="333"/>
+      <c r="F177" s="333"/>
+      <c r="G177" s="334"/>
       <c r="H177" s="145" t="s">
         <v>497</v>
       </c>
       <c r="I177" s="187"/>
       <c r="J177" s="187"/>
       <c r="K177" s="187"/>
-      <c r="L177" s="303"/>
-      <c r="M177" s="303"/>
-      <c r="N177" s="303"/>
-      <c r="O177" s="303"/>
-      <c r="P177" s="303"/>
-      <c r="Q177" s="303"/>
-      <c r="R177" s="303"/>
-      <c r="S177" s="303"/>
-      <c r="T177" s="303"/>
-      <c r="U177" s="303"/>
-      <c r="V177" s="303"/>
-      <c r="W177" s="303"/>
-      <c r="X177" s="303"/>
-      <c r="Y177" s="303"/>
-      <c r="Z177" s="303"/>
+      <c r="L177" s="300"/>
+      <c r="M177" s="300"/>
+      <c r="N177" s="300"/>
+      <c r="O177" s="300"/>
+      <c r="P177" s="300"/>
+      <c r="Q177" s="300"/>
+      <c r="R177" s="300"/>
+      <c r="S177" s="300"/>
+      <c r="T177" s="300"/>
+      <c r="U177" s="300"/>
+      <c r="V177" s="300"/>
+      <c r="W177" s="300"/>
+      <c r="X177" s="300"/>
+      <c r="Y177" s="300"/>
+      <c r="Z177" s="300"/>
       <c r="AA177" s="187"/>
     </row>
     <row r="178" spans="1:27" ht="18" customHeight="1">
-      <c r="A178" s="296"/>
-      <c r="B178" s="296"/>
-      <c r="C178" s="297"/>
-      <c r="D178" s="306" t="s">
+      <c r="A178" s="293"/>
+      <c r="B178" s="293"/>
+      <c r="C178" s="294"/>
+      <c r="D178" s="315" t="s">
         <v>348</v>
       </c>
-      <c r="E178" s="307"/>
-      <c r="F178" s="307"/>
-      <c r="G178" s="308"/>
+      <c r="E178" s="316"/>
+      <c r="F178" s="316"/>
+      <c r="G178" s="317"/>
       <c r="H178" s="145" t="s">
         <v>317</v>
       </c>
@@ -17586,15 +18082,15 @@
       <c r="AA178" s="187"/>
     </row>
     <row r="179" spans="1:27" ht="18" customHeight="1">
-      <c r="A179" s="296"/>
-      <c r="B179" s="296"/>
-      <c r="C179" s="297"/>
-      <c r="D179" s="285" t="s">
+      <c r="A179" s="293"/>
+      <c r="B179" s="293"/>
+      <c r="C179" s="294"/>
+      <c r="D179" s="323" t="s">
         <v>360</v>
       </c>
-      <c r="E179" s="286"/>
-      <c r="F179" s="286"/>
-      <c r="G179" s="287"/>
+      <c r="E179" s="324"/>
+      <c r="F179" s="324"/>
+      <c r="G179" s="325"/>
       <c r="H179" s="145" t="s">
         <v>361</v>
       </c>
@@ -17619,13 +18115,13 @@
       <c r="AA179" s="171"/>
     </row>
     <row r="180" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A180" s="304"/>
-      <c r="B180" s="304"/>
-      <c r="C180" s="305"/>
-      <c r="D180" s="319"/>
-      <c r="E180" s="320"/>
-      <c r="F180" s="320"/>
-      <c r="G180" s="321"/>
+      <c r="A180" s="295"/>
+      <c r="B180" s="295"/>
+      <c r="C180" s="296"/>
+      <c r="D180" s="304"/>
+      <c r="E180" s="305"/>
+      <c r="F180" s="305"/>
+      <c r="G180" s="306"/>
       <c r="H180" s="218" t="s">
         <v>362</v>
       </c>
@@ -17650,11 +18146,11 @@
       <c r="AA180" s="188"/>
     </row>
     <row r="181" spans="1:27" ht="18" customHeight="1" thickTop="1">
-      <c r="A181" s="296" t="s">
+      <c r="A181" s="293" t="s">
         <v>315</v>
       </c>
-      <c r="B181" s="296"/>
-      <c r="C181" s="297"/>
+      <c r="B181" s="293"/>
+      <c r="C181" s="294"/>
       <c r="D181" s="184" t="s">
         <v>316</v>
       </c>
@@ -17689,13 +18185,13 @@
       <c r="AA181" s="187"/>
     </row>
     <row r="182" spans="1:27" ht="18" customHeight="1">
-      <c r="A182" s="296"/>
-      <c r="B182" s="296"/>
-      <c r="C182" s="297"/>
-      <c r="D182" s="289"/>
-      <c r="E182" s="289"/>
-      <c r="F182" s="289"/>
-      <c r="G182" s="290"/>
+      <c r="A182" s="293"/>
+      <c r="B182" s="293"/>
+      <c r="C182" s="294"/>
+      <c r="D182" s="341"/>
+      <c r="E182" s="341"/>
+      <c r="F182" s="341"/>
+      <c r="G182" s="342"/>
       <c r="H182" s="145" t="s">
         <v>318</v>
       </c>
@@ -17724,13 +18220,13 @@
       <c r="AA182" s="171"/>
     </row>
     <row r="183" spans="1:27" ht="18" customHeight="1">
-      <c r="A183" s="296"/>
-      <c r="B183" s="296"/>
-      <c r="C183" s="297"/>
-      <c r="D183" s="289"/>
-      <c r="E183" s="289"/>
-      <c r="F183" s="289"/>
-      <c r="G183" s="290"/>
+      <c r="A183" s="293"/>
+      <c r="B183" s="293"/>
+      <c r="C183" s="294"/>
+      <c r="D183" s="341"/>
+      <c r="E183" s="341"/>
+      <c r="F183" s="341"/>
+      <c r="G183" s="342"/>
       <c r="H183" s="171"/>
       <c r="I183" s="143"/>
       <c r="J183" s="143"/>
@@ -17757,13 +18253,13 @@
       <c r="AA183" s="171"/>
     </row>
     <row r="184" spans="1:27" ht="18" customHeight="1">
-      <c r="A184" s="296"/>
-      <c r="B184" s="296"/>
-      <c r="C184" s="297"/>
-      <c r="D184" s="289"/>
-      <c r="E184" s="289"/>
-      <c r="F184" s="289"/>
-      <c r="G184" s="290"/>
+      <c r="A184" s="293"/>
+      <c r="B184" s="293"/>
+      <c r="C184" s="294"/>
+      <c r="D184" s="341"/>
+      <c r="E184" s="341"/>
+      <c r="F184" s="341"/>
+      <c r="G184" s="342"/>
       <c r="H184" s="145" t="s">
         <v>323</v>
       </c>
@@ -17794,13 +18290,13 @@
       <c r="AA184" s="171"/>
     </row>
     <row r="185" spans="1:27" ht="18" customHeight="1">
-      <c r="A185" s="296"/>
-      <c r="B185" s="296"/>
-      <c r="C185" s="297"/>
-      <c r="D185" s="289"/>
-      <c r="E185" s="289"/>
-      <c r="F185" s="289"/>
-      <c r="G185" s="290"/>
+      <c r="A185" s="293"/>
+      <c r="B185" s="293"/>
+      <c r="C185" s="294"/>
+      <c r="D185" s="341"/>
+      <c r="E185" s="341"/>
+      <c r="F185" s="341"/>
+      <c r="G185" s="342"/>
       <c r="H185" s="145" t="s">
         <v>327</v>
       </c>
@@ -17831,13 +18327,13 @@
       <c r="AA185" s="171"/>
     </row>
     <row r="186" spans="1:27" ht="18" customHeight="1">
-      <c r="A186" s="296"/>
-      <c r="B186" s="296"/>
-      <c r="C186" s="297"/>
-      <c r="D186" s="289"/>
-      <c r="E186" s="289"/>
-      <c r="F186" s="289"/>
-      <c r="G186" s="290"/>
+      <c r="A186" s="293"/>
+      <c r="B186" s="293"/>
+      <c r="C186" s="294"/>
+      <c r="D186" s="341"/>
+      <c r="E186" s="341"/>
+      <c r="F186" s="341"/>
+      <c r="G186" s="342"/>
       <c r="H186" s="145" t="s">
         <v>338</v>
       </c>
@@ -17868,13 +18364,13 @@
       <c r="AA186" s="143"/>
     </row>
     <row r="187" spans="1:27" ht="18" customHeight="1">
-      <c r="A187" s="296"/>
-      <c r="B187" s="296"/>
-      <c r="C187" s="297"/>
-      <c r="D187" s="289"/>
-      <c r="E187" s="289"/>
-      <c r="F187" s="289"/>
-      <c r="G187" s="290"/>
+      <c r="A187" s="293"/>
+      <c r="B187" s="293"/>
+      <c r="C187" s="294"/>
+      <c r="D187" s="341"/>
+      <c r="E187" s="341"/>
+      <c r="F187" s="341"/>
+      <c r="G187" s="342"/>
       <c r="H187" s="143"/>
       <c r="I187" s="143"/>
       <c r="J187" s="143"/>
@@ -17903,13 +18399,13 @@
       <c r="AA187" s="143"/>
     </row>
     <row r="188" spans="1:27" ht="18" customHeight="1">
-      <c r="A188" s="296"/>
-      <c r="B188" s="296"/>
-      <c r="C188" s="297"/>
-      <c r="D188" s="289"/>
-      <c r="E188" s="289"/>
-      <c r="F188" s="289"/>
-      <c r="G188" s="290"/>
+      <c r="A188" s="293"/>
+      <c r="B188" s="293"/>
+      <c r="C188" s="294"/>
+      <c r="D188" s="341"/>
+      <c r="E188" s="341"/>
+      <c r="F188" s="341"/>
+      <c r="G188" s="342"/>
       <c r="H188" s="143"/>
       <c r="I188" s="143"/>
       <c r="J188" s="143"/>
@@ -17936,13 +18432,13 @@
       <c r="AA188" s="143"/>
     </row>
     <row r="189" spans="1:27" ht="18" customHeight="1">
-      <c r="A189" s="296"/>
-      <c r="B189" s="296"/>
-      <c r="C189" s="297"/>
-      <c r="D189" s="289"/>
-      <c r="E189" s="289"/>
-      <c r="F189" s="289"/>
-      <c r="G189" s="290"/>
+      <c r="A189" s="293"/>
+      <c r="B189" s="293"/>
+      <c r="C189" s="294"/>
+      <c r="D189" s="341"/>
+      <c r="E189" s="341"/>
+      <c r="F189" s="341"/>
+      <c r="G189" s="342"/>
       <c r="H189" s="145" t="s">
         <v>342</v>
       </c>
@@ -17971,13 +18467,13 @@
       <c r="AA189" s="143"/>
     </row>
     <row r="190" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A190" s="296"/>
-      <c r="B190" s="296"/>
-      <c r="C190" s="297"/>
-      <c r="D190" s="289"/>
-      <c r="E190" s="289"/>
-      <c r="F190" s="289"/>
-      <c r="G190" s="290"/>
+      <c r="A190" s="293"/>
+      <c r="B190" s="293"/>
+      <c r="C190" s="294"/>
+      <c r="D190" s="341"/>
+      <c r="E190" s="341"/>
+      <c r="F190" s="341"/>
+      <c r="G190" s="342"/>
       <c r="H190" s="143"/>
       <c r="I190" s="143"/>
       <c r="J190" s="143"/>
@@ -18004,13 +18500,13 @@
       <c r="AA190" s="171"/>
     </row>
     <row r="191" spans="1:27" ht="18" customHeight="1">
-      <c r="A191" s="296"/>
-      <c r="B191" s="296"/>
-      <c r="C191" s="297"/>
-      <c r="D191" s="289"/>
-      <c r="E191" s="289"/>
-      <c r="F191" s="289"/>
-      <c r="G191" s="290"/>
+      <c r="A191" s="293"/>
+      <c r="B191" s="293"/>
+      <c r="C191" s="294"/>
+      <c r="D191" s="341"/>
+      <c r="E191" s="341"/>
+      <c r="F191" s="341"/>
+      <c r="G191" s="342"/>
       <c r="H191" s="143"/>
       <c r="I191" s="143"/>
       <c r="J191" s="143"/>
@@ -18035,13 +18531,13 @@
       <c r="AA191" s="143"/>
     </row>
     <row r="192" spans="1:27" ht="18" customHeight="1">
-      <c r="A192" s="296"/>
-      <c r="B192" s="296"/>
-      <c r="C192" s="297"/>
-      <c r="D192" s="289"/>
-      <c r="E192" s="289"/>
-      <c r="F192" s="289"/>
-      <c r="G192" s="290"/>
+      <c r="A192" s="293"/>
+      <c r="B192" s="293"/>
+      <c r="C192" s="294"/>
+      <c r="D192" s="341"/>
+      <c r="E192" s="341"/>
+      <c r="F192" s="341"/>
+      <c r="G192" s="342"/>
       <c r="H192" s="171"/>
       <c r="I192" s="171"/>
       <c r="J192" s="171"/>
@@ -18068,13 +18564,13 @@
       <c r="AA192" s="171"/>
     </row>
     <row r="193" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A193" s="296"/>
-      <c r="B193" s="296"/>
-      <c r="C193" s="297"/>
-      <c r="D193" s="289"/>
-      <c r="E193" s="289"/>
-      <c r="F193" s="289"/>
-      <c r="G193" s="290"/>
+      <c r="A193" s="293"/>
+      <c r="B193" s="293"/>
+      <c r="C193" s="294"/>
+      <c r="D193" s="341"/>
+      <c r="E193" s="341"/>
+      <c r="F193" s="341"/>
+      <c r="G193" s="342"/>
       <c r="H193" s="145" t="s">
         <v>343</v>
       </c>
@@ -18103,13 +18599,13 @@
       <c r="AA193" s="171"/>
     </row>
     <row r="194" spans="1:27" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A194" s="296"/>
-      <c r="B194" s="296"/>
-      <c r="C194" s="297"/>
-      <c r="D194" s="289"/>
-      <c r="E194" s="289"/>
-      <c r="F194" s="289"/>
-      <c r="G194" s="290"/>
+      <c r="A194" s="293"/>
+      <c r="B194" s="293"/>
+      <c r="C194" s="294"/>
+      <c r="D194" s="341"/>
+      <c r="E194" s="341"/>
+      <c r="F194" s="341"/>
+      <c r="G194" s="342"/>
       <c r="H194" s="143"/>
       <c r="I194" s="143"/>
       <c r="J194" s="143"/>
@@ -18136,13 +18632,13 @@
       <c r="AA194" s="143"/>
     </row>
     <row r="195" spans="1:27" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A195" s="296"/>
-      <c r="B195" s="296"/>
-      <c r="C195" s="297"/>
-      <c r="D195" s="289"/>
-      <c r="E195" s="289"/>
-      <c r="F195" s="289"/>
-      <c r="G195" s="290"/>
+      <c r="A195" s="293"/>
+      <c r="B195" s="293"/>
+      <c r="C195" s="294"/>
+      <c r="D195" s="341"/>
+      <c r="E195" s="341"/>
+      <c r="F195" s="341"/>
+      <c r="G195" s="342"/>
       <c r="H195" s="143"/>
       <c r="I195" s="143"/>
       <c r="J195" s="143"/>
@@ -18171,13 +18667,13 @@
       <c r="AA195" s="143"/>
     </row>
     <row r="196" spans="1:27" ht="18" customHeight="1">
-      <c r="A196" s="296"/>
-      <c r="B196" s="296"/>
-      <c r="C196" s="297"/>
-      <c r="D196" s="289"/>
-      <c r="E196" s="289"/>
-      <c r="F196" s="289"/>
-      <c r="G196" s="290"/>
+      <c r="A196" s="293"/>
+      <c r="B196" s="293"/>
+      <c r="C196" s="294"/>
+      <c r="D196" s="341"/>
+      <c r="E196" s="341"/>
+      <c r="F196" s="341"/>
+      <c r="G196" s="342"/>
       <c r="H196" s="143"/>
       <c r="I196" s="143"/>
       <c r="J196" s="143"/>
@@ -18204,15 +18700,15 @@
       <c r="AA196" s="143"/>
     </row>
     <row r="197" spans="1:27" ht="18" customHeight="1">
-      <c r="A197" s="296"/>
-      <c r="B197" s="296"/>
-      <c r="C197" s="297"/>
-      <c r="D197" s="286" t="s">
+      <c r="A197" s="293"/>
+      <c r="B197" s="293"/>
+      <c r="C197" s="294"/>
+      <c r="D197" s="324" t="s">
         <v>350</v>
       </c>
-      <c r="E197" s="286"/>
-      <c r="F197" s="286"/>
-      <c r="G197" s="287"/>
+      <c r="E197" s="324"/>
+      <c r="F197" s="324"/>
+      <c r="G197" s="325"/>
       <c r="H197" s="138" t="s">
         <v>344</v>
       </c>
@@ -18243,13 +18739,13 @@
       <c r="AA197" s="143"/>
     </row>
     <row r="198" spans="1:27" ht="18" customHeight="1">
-      <c r="A198" s="296"/>
-      <c r="B198" s="296"/>
-      <c r="C198" s="297"/>
-      <c r="D198" s="289"/>
-      <c r="E198" s="289"/>
-      <c r="F198" s="289"/>
-      <c r="G198" s="290"/>
+      <c r="A198" s="293"/>
+      <c r="B198" s="293"/>
+      <c r="C198" s="294"/>
+      <c r="D198" s="341"/>
+      <c r="E198" s="341"/>
+      <c r="F198" s="341"/>
+      <c r="G198" s="342"/>
       <c r="H198" s="138" t="s">
         <v>345</v>
       </c>
@@ -18280,13 +18776,13 @@
       <c r="AA198" s="143"/>
     </row>
     <row r="199" spans="1:27" ht="18" customHeight="1">
-      <c r="A199" s="296"/>
-      <c r="B199" s="296"/>
-      <c r="C199" s="297"/>
-      <c r="D199" s="289"/>
-      <c r="E199" s="289"/>
-      <c r="F199" s="289"/>
-      <c r="G199" s="290"/>
+      <c r="A199" s="293"/>
+      <c r="B199" s="293"/>
+      <c r="C199" s="294"/>
+      <c r="D199" s="341"/>
+      <c r="E199" s="341"/>
+      <c r="F199" s="341"/>
+      <c r="G199" s="342"/>
       <c r="H199" s="138" t="s">
         <v>346</v>
       </c>
@@ -18317,13 +18813,13 @@
       <c r="AA199" s="143"/>
     </row>
     <row r="200" spans="1:27" ht="18" customHeight="1">
-      <c r="A200" s="296"/>
-      <c r="B200" s="296"/>
-      <c r="C200" s="297"/>
-      <c r="D200" s="289"/>
-      <c r="E200" s="289"/>
-      <c r="F200" s="289"/>
-      <c r="G200" s="290"/>
+      <c r="A200" s="293"/>
+      <c r="B200" s="293"/>
+      <c r="C200" s="294"/>
+      <c r="D200" s="341"/>
+      <c r="E200" s="341"/>
+      <c r="F200" s="341"/>
+      <c r="G200" s="342"/>
       <c r="H200" s="138" t="s">
         <v>347</v>
       </c>
@@ -18350,13 +18846,13 @@
       <c r="AA200" s="143"/>
     </row>
     <row r="201" spans="1:27" ht="18" customHeight="1">
-      <c r="A201" s="296"/>
-      <c r="B201" s="296"/>
-      <c r="C201" s="297"/>
-      <c r="D201" s="289"/>
-      <c r="E201" s="289"/>
-      <c r="F201" s="289"/>
-      <c r="G201" s="290"/>
+      <c r="A201" s="293"/>
+      <c r="B201" s="293"/>
+      <c r="C201" s="294"/>
+      <c r="D201" s="341"/>
+      <c r="E201" s="341"/>
+      <c r="F201" s="341"/>
+      <c r="G201" s="342"/>
       <c r="H201" s="201" t="s">
         <v>348</v>
       </c>
@@ -18383,13 +18879,13 @@
       <c r="AA201" s="143"/>
     </row>
     <row r="202" spans="1:27" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A202" s="304"/>
-      <c r="B202" s="304"/>
-      <c r="C202" s="305"/>
-      <c r="D202" s="320"/>
-      <c r="E202" s="320"/>
-      <c r="F202" s="320"/>
-      <c r="G202" s="321"/>
+      <c r="A202" s="295"/>
+      <c r="B202" s="295"/>
+      <c r="C202" s="296"/>
+      <c r="D202" s="305"/>
+      <c r="E202" s="305"/>
+      <c r="F202" s="305"/>
+      <c r="G202" s="306"/>
       <c r="H202" s="141" t="s">
         <v>349</v>
       </c>
@@ -18430,11 +18926,11 @@
       <c r="AA202" s="144"/>
     </row>
     <row r="203" spans="1:27" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A203" s="294" t="s">
+      <c r="A203" s="291" t="s">
         <v>358</v>
       </c>
-      <c r="B203" s="294"/>
-      <c r="C203" s="295"/>
+      <c r="B203" s="291"/>
+      <c r="C203" s="292"/>
       <c r="D203" s="132" t="s">
         <v>358</v>
       </c>
@@ -18471,15 +18967,15 @@
       <c r="AA203" s="208"/>
     </row>
     <row r="204" spans="1:27" ht="18" customHeight="1">
-      <c r="A204" s="296"/>
-      <c r="B204" s="296"/>
-      <c r="C204" s="297"/>
-      <c r="D204" s="285" t="s">
+      <c r="A204" s="293"/>
+      <c r="B204" s="293"/>
+      <c r="C204" s="294"/>
+      <c r="D204" s="323" t="s">
         <v>363</v>
       </c>
-      <c r="E204" s="286"/>
-      <c r="F204" s="286"/>
-      <c r="G204" s="287"/>
+      <c r="E204" s="324"/>
+      <c r="F204" s="324"/>
+      <c r="G204" s="325"/>
       <c r="H204" s="138" t="s">
         <v>392</v>
       </c>
@@ -18508,13 +19004,13 @@
       <c r="AA204" s="171"/>
     </row>
     <row r="205" spans="1:27" ht="18" customHeight="1">
-      <c r="A205" s="296"/>
-      <c r="B205" s="296"/>
-      <c r="C205" s="297"/>
-      <c r="D205" s="288"/>
-      <c r="E205" s="289"/>
-      <c r="F205" s="289"/>
-      <c r="G205" s="290"/>
+      <c r="A205" s="293"/>
+      <c r="B205" s="293"/>
+      <c r="C205" s="294"/>
+      <c r="D205" s="340"/>
+      <c r="E205" s="341"/>
+      <c r="F205" s="341"/>
+      <c r="G205" s="342"/>
       <c r="H205" s="138" t="s">
         <v>393</v>
       </c>
@@ -18543,13 +19039,13 @@
       <c r="AA205" s="171"/>
     </row>
     <row r="206" spans="1:27" ht="18" customHeight="1">
-      <c r="A206" s="296"/>
-      <c r="B206" s="296"/>
-      <c r="C206" s="297"/>
-      <c r="D206" s="291"/>
-      <c r="E206" s="292"/>
-      <c r="F206" s="292"/>
-      <c r="G206" s="293"/>
+      <c r="A206" s="293"/>
+      <c r="B206" s="293"/>
+      <c r="C206" s="294"/>
+      <c r="D206" s="332"/>
+      <c r="E206" s="333"/>
+      <c r="F206" s="333"/>
+      <c r="G206" s="334"/>
       <c r="H206" s="138" t="s">
         <v>409</v>
       </c>
@@ -18584,15 +19080,15 @@
       <c r="AA206" s="171"/>
     </row>
     <row r="207" spans="1:27" ht="18" customHeight="1">
-      <c r="A207" s="296"/>
-      <c r="B207" s="296"/>
-      <c r="C207" s="297"/>
-      <c r="D207" s="285" t="s">
+      <c r="A207" s="293"/>
+      <c r="B207" s="293"/>
+      <c r="C207" s="294"/>
+      <c r="D207" s="323" t="s">
         <v>419</v>
       </c>
-      <c r="E207" s="286"/>
-      <c r="F207" s="286"/>
-      <c r="G207" s="287"/>
+      <c r="E207" s="324"/>
+      <c r="F207" s="324"/>
+      <c r="G207" s="325"/>
       <c r="H207" s="138" t="s">
         <v>410</v>
       </c>
@@ -18617,13 +19113,13 @@
       <c r="AA207" s="171"/>
     </row>
     <row r="208" spans="1:27" ht="18" customHeight="1">
-      <c r="A208" s="296"/>
-      <c r="B208" s="296"/>
-      <c r="C208" s="297"/>
-      <c r="D208" s="288"/>
-      <c r="E208" s="289"/>
-      <c r="F208" s="289"/>
-      <c r="G208" s="290"/>
+      <c r="A208" s="293"/>
+      <c r="B208" s="293"/>
+      <c r="C208" s="294"/>
+      <c r="D208" s="340"/>
+      <c r="E208" s="341"/>
+      <c r="F208" s="341"/>
+      <c r="G208" s="342"/>
       <c r="H208" s="138" t="s">
         <v>411</v>
       </c>
@@ -18648,155 +19144,155 @@
       <c r="AA208" s="143"/>
     </row>
     <row r="209" spans="1:27" ht="18" customHeight="1">
-      <c r="A209" s="296"/>
-      <c r="B209" s="296"/>
-      <c r="C209" s="297"/>
-      <c r="D209" s="288"/>
-      <c r="E209" s="289"/>
-      <c r="F209" s="289"/>
-      <c r="G209" s="290"/>
+      <c r="A209" s="293"/>
+      <c r="B209" s="293"/>
+      <c r="C209" s="294"/>
+      <c r="D209" s="340"/>
+      <c r="E209" s="341"/>
+      <c r="F209" s="341"/>
+      <c r="G209" s="342"/>
       <c r="H209" s="209" t="s">
         <v>369</v>
       </c>
       <c r="I209" s="171"/>
       <c r="J209" s="171"/>
       <c r="K209" s="203"/>
-      <c r="L209" s="386" t="s">
+      <c r="L209" s="311" t="s">
         <v>396</v>
       </c>
-      <c r="M209" s="385"/>
-      <c r="N209" s="383" t="s">
+      <c r="M209" s="308"/>
+      <c r="N209" s="312" t="s">
         <v>398</v>
       </c>
-      <c r="O209" s="383"/>
-      <c r="P209" s="383" t="s">
+      <c r="O209" s="312"/>
+      <c r="P209" s="312" t="s">
         <v>399</v>
       </c>
-      <c r="Q209" s="387"/>
-      <c r="R209" s="386" t="s">
+      <c r="Q209" s="313"/>
+      <c r="R209" s="311" t="s">
         <v>400</v>
       </c>
-      <c r="S209" s="385"/>
-      <c r="T209" s="383" t="s">
+      <c r="S209" s="308"/>
+      <c r="T209" s="312" t="s">
         <v>401</v>
       </c>
-      <c r="U209" s="383"/>
-      <c r="V209" s="383"/>
-      <c r="W209" s="383"/>
+      <c r="U209" s="312"/>
+      <c r="V209" s="312"/>
+      <c r="W209" s="312"/>
       <c r="X209" s="143"/>
       <c r="Y209" s="171"/>
       <c r="Z209" s="171"/>
       <c r="AA209" s="143"/>
     </row>
     <row r="210" spans="1:27" ht="18" customHeight="1">
-      <c r="A210" s="296"/>
-      <c r="B210" s="296"/>
-      <c r="C210" s="297"/>
-      <c r="D210" s="288"/>
-      <c r="E210" s="289"/>
-      <c r="F210" s="289"/>
-      <c r="G210" s="290"/>
+      <c r="A210" s="293"/>
+      <c r="B210" s="293"/>
+      <c r="C210" s="294"/>
+      <c r="D210" s="340"/>
+      <c r="E210" s="341"/>
+      <c r="F210" s="341"/>
+      <c r="G210" s="342"/>
       <c r="H210" s="209" t="s">
         <v>370</v>
       </c>
       <c r="I210" s="171"/>
       <c r="J210" s="171"/>
       <c r="K210" s="203"/>
-      <c r="L210" s="386"/>
-      <c r="M210" s="385"/>
-      <c r="N210" s="383"/>
-      <c r="O210" s="383"/>
-      <c r="P210" s="383"/>
-      <c r="Q210" s="387"/>
-      <c r="R210" s="386"/>
-      <c r="S210" s="385"/>
-      <c r="T210" s="383"/>
-      <c r="U210" s="383"/>
-      <c r="V210" s="383"/>
-      <c r="W210" s="383"/>
+      <c r="L210" s="311"/>
+      <c r="M210" s="308"/>
+      <c r="N210" s="312"/>
+      <c r="O210" s="312"/>
+      <c r="P210" s="312"/>
+      <c r="Q210" s="313"/>
+      <c r="R210" s="311"/>
+      <c r="S210" s="308"/>
+      <c r="T210" s="312"/>
+      <c r="U210" s="312"/>
+      <c r="V210" s="312"/>
+      <c r="W210" s="312"/>
       <c r="X210" s="143"/>
       <c r="Y210" s="143"/>
       <c r="Z210" s="143"/>
       <c r="AA210" s="171"/>
     </row>
     <row r="211" spans="1:27" ht="18" customHeight="1">
-      <c r="A211" s="296"/>
-      <c r="B211" s="296"/>
-      <c r="C211" s="297"/>
-      <c r="D211" s="288"/>
-      <c r="E211" s="289"/>
-      <c r="F211" s="289"/>
-      <c r="G211" s="290"/>
+      <c r="A211" s="293"/>
+      <c r="B211" s="293"/>
+      <c r="C211" s="294"/>
+      <c r="D211" s="340"/>
+      <c r="E211" s="341"/>
+      <c r="F211" s="341"/>
+      <c r="G211" s="342"/>
       <c r="H211" s="200" t="s">
         <v>371</v>
       </c>
       <c r="I211" s="143"/>
       <c r="J211" s="143"/>
       <c r="K211" s="204"/>
-      <c r="L211" s="388" t="s">
+      <c r="L211" s="314" t="s">
         <v>397</v>
       </c>
       <c r="M211" s="310"/>
-      <c r="N211" s="383" t="s">
+      <c r="N211" s="312" t="s">
         <v>398</v>
       </c>
-      <c r="O211" s="383"/>
-      <c r="P211" s="383" t="s">
+      <c r="O211" s="312"/>
+      <c r="P211" s="312" t="s">
         <v>399</v>
       </c>
-      <c r="Q211" s="387"/>
-      <c r="R211" s="386"/>
-      <c r="S211" s="385"/>
-      <c r="T211" s="383" t="s">
+      <c r="Q211" s="313"/>
+      <c r="R211" s="311"/>
+      <c r="S211" s="308"/>
+      <c r="T211" s="312" t="s">
         <v>402</v>
       </c>
-      <c r="U211" s="383"/>
-      <c r="V211" s="383"/>
-      <c r="W211" s="383"/>
+      <c r="U211" s="312"/>
+      <c r="V211" s="312"/>
+      <c r="W211" s="312"/>
       <c r="X211" s="143"/>
       <c r="Y211" s="143"/>
       <c r="Z211" s="143"/>
       <c r="AA211" s="143"/>
     </row>
     <row r="212" spans="1:27" ht="18" customHeight="1">
-      <c r="A212" s="296"/>
-      <c r="B212" s="296"/>
-      <c r="C212" s="297"/>
-      <c r="D212" s="288"/>
-      <c r="E212" s="289"/>
-      <c r="F212" s="289"/>
-      <c r="G212" s="290"/>
+      <c r="A212" s="293"/>
+      <c r="B212" s="293"/>
+      <c r="C212" s="294"/>
+      <c r="D212" s="340"/>
+      <c r="E212" s="341"/>
+      <c r="F212" s="341"/>
+      <c r="G212" s="342"/>
       <c r="H212" s="138" t="s">
         <v>372</v>
       </c>
       <c r="I212" s="143"/>
       <c r="J212" s="143"/>
       <c r="K212" s="204"/>
-      <c r="L212" s="388"/>
+      <c r="L212" s="314"/>
       <c r="M212" s="310"/>
-      <c r="N212" s="383"/>
-      <c r="O212" s="383"/>
-      <c r="P212" s="383"/>
-      <c r="Q212" s="387"/>
-      <c r="R212" s="386"/>
-      <c r="S212" s="385"/>
-      <c r="T212" s="383"/>
-      <c r="U212" s="383"/>
-      <c r="V212" s="383"/>
-      <c r="W212" s="383"/>
+      <c r="N212" s="312"/>
+      <c r="O212" s="312"/>
+      <c r="P212" s="312"/>
+      <c r="Q212" s="313"/>
+      <c r="R212" s="311"/>
+      <c r="S212" s="308"/>
+      <c r="T212" s="312"/>
+      <c r="U212" s="312"/>
+      <c r="V212" s="312"/>
+      <c r="W212" s="312"/>
       <c r="X212" s="171"/>
       <c r="Y212" s="171"/>
       <c r="Z212" s="171"/>
       <c r="AA212" s="171"/>
     </row>
     <row r="213" spans="1:27" ht="18" customHeight="1">
-      <c r="A213" s="296"/>
-      <c r="B213" s="296"/>
-      <c r="C213" s="297"/>
-      <c r="D213" s="288"/>
-      <c r="E213" s="289"/>
-      <c r="F213" s="289"/>
-      <c r="G213" s="290"/>
+      <c r="A213" s="293"/>
+      <c r="B213" s="293"/>
+      <c r="C213" s="294"/>
+      <c r="D213" s="340"/>
+      <c r="E213" s="341"/>
+      <c r="F213" s="341"/>
+      <c r="G213" s="342"/>
       <c r="H213" s="309" t="s">
         <v>406</v>
       </c>
@@ -18813,27 +19309,27 @@
       <c r="Q213" s="143"/>
       <c r="R213" s="143"/>
       <c r="S213" s="143"/>
-      <c r="T213" s="384" t="s">
+      <c r="T213" s="307" t="s">
         <v>403</v>
       </c>
-      <c r="U213" s="385" t="s">
+      <c r="U213" s="308" t="s">
         <v>404</v>
       </c>
-      <c r="V213" s="385"/>
-      <c r="W213" s="385"/>
+      <c r="V213" s="308"/>
+      <c r="W213" s="308"/>
       <c r="X213" s="143"/>
       <c r="Y213" s="171"/>
       <c r="Z213" s="171"/>
       <c r="AA213" s="171"/>
     </row>
     <row r="214" spans="1:27" ht="18" customHeight="1">
-      <c r="A214" s="296"/>
-      <c r="B214" s="296"/>
-      <c r="C214" s="297"/>
-      <c r="D214" s="288"/>
-      <c r="E214" s="289"/>
-      <c r="F214" s="289"/>
-      <c r="G214" s="290"/>
+      <c r="A214" s="293"/>
+      <c r="B214" s="293"/>
+      <c r="C214" s="294"/>
+      <c r="D214" s="340"/>
+      <c r="E214" s="341"/>
+      <c r="F214" s="341"/>
+      <c r="G214" s="342"/>
       <c r="H214" s="309"/>
       <c r="I214" s="310"/>
       <c r="J214" s="310"/>
@@ -18848,23 +19344,23 @@
       <c r="Q214" s="143"/>
       <c r="R214" s="143"/>
       <c r="S214" s="143"/>
-      <c r="T214" s="384"/>
-      <c r="U214" s="385"/>
-      <c r="V214" s="385"/>
-      <c r="W214" s="385"/>
+      <c r="T214" s="307"/>
+      <c r="U214" s="308"/>
+      <c r="V214" s="308"/>
+      <c r="W214" s="308"/>
       <c r="X214" s="143"/>
       <c r="Y214" s="171"/>
       <c r="Z214" s="171"/>
       <c r="AA214" s="171"/>
     </row>
     <row r="215" spans="1:27" ht="18" customHeight="1">
-      <c r="A215" s="296"/>
-      <c r="B215" s="296"/>
-      <c r="C215" s="297"/>
-      <c r="D215" s="288"/>
-      <c r="E215" s="289"/>
-      <c r="F215" s="289"/>
-      <c r="G215" s="290"/>
+      <c r="A215" s="293"/>
+      <c r="B215" s="293"/>
+      <c r="C215" s="294"/>
+      <c r="D215" s="340"/>
+      <c r="E215" s="341"/>
+      <c r="F215" s="341"/>
+      <c r="G215" s="342"/>
       <c r="H215" s="309"/>
       <c r="I215" s="310"/>
       <c r="J215" s="310"/>
@@ -18879,29 +19375,29 @@
       <c r="Q215" s="143"/>
       <c r="R215" s="143"/>
       <c r="S215" s="143"/>
-      <c r="T215" s="384"/>
-      <c r="U215" s="385"/>
-      <c r="V215" s="385"/>
-      <c r="W215" s="385"/>
+      <c r="T215" s="307"/>
+      <c r="U215" s="308"/>
+      <c r="V215" s="308"/>
+      <c r="W215" s="308"/>
       <c r="X215" s="143"/>
       <c r="Y215" s="143"/>
       <c r="Z215" s="143"/>
       <c r="AA215" s="143"/>
     </row>
     <row r="216" spans="1:27" ht="18" customHeight="1">
-      <c r="A216" s="296"/>
-      <c r="B216" s="296"/>
-      <c r="C216" s="297"/>
-      <c r="D216" s="288"/>
-      <c r="E216" s="289"/>
-      <c r="F216" s="289"/>
-      <c r="G216" s="290"/>
-      <c r="H216" s="298" t="s">
+      <c r="A216" s="293"/>
+      <c r="B216" s="293"/>
+      <c r="C216" s="294"/>
+      <c r="D216" s="340"/>
+      <c r="E216" s="341"/>
+      <c r="F216" s="341"/>
+      <c r="G216" s="342"/>
+      <c r="H216" s="391" t="s">
         <v>427</v>
       </c>
-      <c r="I216" s="299"/>
-      <c r="J216" s="299"/>
-      <c r="K216" s="299"/>
+      <c r="I216" s="298"/>
+      <c r="J216" s="298"/>
+      <c r="K216" s="298"/>
       <c r="L216" s="146" t="s">
         <v>420</v>
       </c>
@@ -18924,17 +19420,17 @@
       <c r="AA216" s="143"/>
     </row>
     <row r="217" spans="1:27" ht="18" customHeight="1">
-      <c r="A217" s="296"/>
-      <c r="B217" s="296"/>
-      <c r="C217" s="297"/>
-      <c r="D217" s="288"/>
-      <c r="E217" s="289"/>
-      <c r="F217" s="289"/>
-      <c r="G217" s="290"/>
-      <c r="H217" s="300"/>
-      <c r="I217" s="301"/>
-      <c r="J217" s="301"/>
-      <c r="K217" s="301"/>
+      <c r="A217" s="293"/>
+      <c r="B217" s="293"/>
+      <c r="C217" s="294"/>
+      <c r="D217" s="340"/>
+      <c r="E217" s="341"/>
+      <c r="F217" s="341"/>
+      <c r="G217" s="342"/>
+      <c r="H217" s="392"/>
+      <c r="I217" s="299"/>
+      <c r="J217" s="299"/>
+      <c r="K217" s="299"/>
       <c r="L217" s="146" t="s">
         <v>423</v>
       </c>
@@ -18959,23 +19455,23 @@
       <c r="AA217" s="143"/>
     </row>
     <row r="218" spans="1:27" ht="18" customHeight="1">
-      <c r="A218" s="296"/>
-      <c r="B218" s="296"/>
-      <c r="C218" s="297"/>
-      <c r="D218" s="288"/>
-      <c r="E218" s="289"/>
-      <c r="F218" s="289"/>
-      <c r="G218" s="290"/>
-      <c r="H218" s="300"/>
-      <c r="I218" s="301"/>
-      <c r="J218" s="301"/>
-      <c r="K218" s="301"/>
-      <c r="L218" s="283" t="s">
+      <c r="A218" s="293"/>
+      <c r="B218" s="293"/>
+      <c r="C218" s="294"/>
+      <c r="D218" s="340"/>
+      <c r="E218" s="341"/>
+      <c r="F218" s="341"/>
+      <c r="G218" s="342"/>
+      <c r="H218" s="392"/>
+      <c r="I218" s="299"/>
+      <c r="J218" s="299"/>
+      <c r="K218" s="299"/>
+      <c r="L218" s="389" t="s">
         <v>425</v>
       </c>
-      <c r="M218" s="284"/>
-      <c r="N218" s="284"/>
-      <c r="O218" s="284"/>
+      <c r="M218" s="390"/>
+      <c r="N218" s="390"/>
+      <c r="O218" s="390"/>
       <c r="P218" s="143"/>
       <c r="Q218" s="143"/>
       <c r="R218" s="143"/>
@@ -18990,21 +19486,21 @@
       <c r="AA218" s="143"/>
     </row>
     <row r="219" spans="1:27" ht="18" customHeight="1">
-      <c r="A219" s="296"/>
-      <c r="B219" s="296"/>
-      <c r="C219" s="297"/>
-      <c r="D219" s="288"/>
-      <c r="E219" s="289"/>
-      <c r="F219" s="289"/>
-      <c r="G219" s="290"/>
-      <c r="H219" s="300"/>
-      <c r="I219" s="301"/>
-      <c r="J219" s="301"/>
-      <c r="K219" s="301"/>
-      <c r="L219" s="284"/>
-      <c r="M219" s="284"/>
-      <c r="N219" s="284"/>
-      <c r="O219" s="284"/>
+      <c r="A219" s="293"/>
+      <c r="B219" s="293"/>
+      <c r="C219" s="294"/>
+      <c r="D219" s="340"/>
+      <c r="E219" s="341"/>
+      <c r="F219" s="341"/>
+      <c r="G219" s="342"/>
+      <c r="H219" s="392"/>
+      <c r="I219" s="299"/>
+      <c r="J219" s="299"/>
+      <c r="K219" s="299"/>
+      <c r="L219" s="390"/>
+      <c r="M219" s="390"/>
+      <c r="N219" s="390"/>
+      <c r="O219" s="390"/>
       <c r="P219" s="143"/>
       <c r="Q219" s="143"/>
       <c r="R219" s="143"/>
@@ -19019,17 +19515,17 @@
       <c r="AA219" s="143"/>
     </row>
     <row r="220" spans="1:27">
-      <c r="A220" s="296"/>
-      <c r="B220" s="296"/>
-      <c r="C220" s="297"/>
-      <c r="D220" s="291"/>
-      <c r="E220" s="292"/>
-      <c r="F220" s="292"/>
-      <c r="G220" s="293"/>
-      <c r="H220" s="302"/>
-      <c r="I220" s="303"/>
-      <c r="J220" s="303"/>
-      <c r="K220" s="303"/>
+      <c r="A220" s="293"/>
+      <c r="B220" s="293"/>
+      <c r="C220" s="294"/>
+      <c r="D220" s="332"/>
+      <c r="E220" s="333"/>
+      <c r="F220" s="333"/>
+      <c r="G220" s="334"/>
+      <c r="H220" s="393"/>
+      <c r="I220" s="300"/>
+      <c r="J220" s="300"/>
+      <c r="K220" s="300"/>
       <c r="L220" s="146" t="s">
         <v>426</v>
       </c>
@@ -19050,93 +19546,93 @@
       <c r="AA220" s="143"/>
     </row>
     <row r="221" spans="1:27">
-      <c r="A221" s="296"/>
-      <c r="B221" s="296"/>
-      <c r="C221" s="297"/>
-      <c r="D221" s="306" t="s">
+      <c r="A221" s="293"/>
+      <c r="B221" s="293"/>
+      <c r="C221" s="294"/>
+      <c r="D221" s="315" t="s">
         <v>390</v>
       </c>
-      <c r="E221" s="307"/>
-      <c r="F221" s="307"/>
-      <c r="G221" s="308"/>
+      <c r="E221" s="316"/>
+      <c r="F221" s="316"/>
+      <c r="G221" s="317"/>
       <c r="H221" s="138" t="s">
         <v>338</v>
       </c>
       <c r="I221" s="171"/>
       <c r="J221" s="171"/>
       <c r="K221" s="146"/>
-      <c r="L221" s="383" t="s">
+      <c r="L221" s="312" t="s">
         <v>384</v>
       </c>
-      <c r="M221" s="383"/>
-      <c r="N221" s="383"/>
-      <c r="O221" s="383" t="s">
+      <c r="M221" s="312"/>
+      <c r="N221" s="312"/>
+      <c r="O221" s="312" t="s">
         <v>385</v>
       </c>
-      <c r="P221" s="383"/>
-      <c r="Q221" s="383"/>
-      <c r="R221" s="383" t="s">
+      <c r="P221" s="312"/>
+      <c r="Q221" s="312"/>
+      <c r="R221" s="312" t="s">
         <v>386</v>
       </c>
-      <c r="S221" s="383"/>
-      <c r="T221" s="383"/>
-      <c r="U221" s="383" t="s">
+      <c r="S221" s="312"/>
+      <c r="T221" s="312"/>
+      <c r="U221" s="312" t="s">
         <v>387</v>
       </c>
-      <c r="V221" s="383"/>
-      <c r="W221" s="383" t="s">
+      <c r="V221" s="312"/>
+      <c r="W221" s="312" t="s">
         <v>388</v>
       </c>
-      <c r="X221" s="383"/>
-      <c r="Y221" s="383" t="s">
+      <c r="X221" s="312"/>
+      <c r="Y221" s="312" t="s">
         <v>389</v>
       </c>
-      <c r="Z221" s="383"/>
+      <c r="Z221" s="312"/>
       <c r="AA221" s="143"/>
     </row>
     <row r="222" spans="1:27">
-      <c r="A222" s="296"/>
-      <c r="B222" s="296"/>
-      <c r="C222" s="297"/>
-      <c r="D222" s="306" t="s">
+      <c r="A222" s="293"/>
+      <c r="B222" s="293"/>
+      <c r="C222" s="294"/>
+      <c r="D222" s="315" t="s">
         <v>394</v>
       </c>
-      <c r="E222" s="307"/>
-      <c r="F222" s="307"/>
-      <c r="G222" s="308"/>
+      <c r="E222" s="316"/>
+      <c r="F222" s="316"/>
+      <c r="G222" s="317"/>
       <c r="H222" s="138" t="s">
         <v>343</v>
       </c>
       <c r="I222" s="143"/>
       <c r="J222" s="143"/>
       <c r="K222" s="178"/>
-      <c r="L222" s="383"/>
-      <c r="M222" s="383"/>
-      <c r="N222" s="383"/>
-      <c r="O222" s="383"/>
-      <c r="P222" s="383"/>
-      <c r="Q222" s="383"/>
-      <c r="R222" s="383"/>
-      <c r="S222" s="383"/>
-      <c r="T222" s="383"/>
-      <c r="U222" s="383"/>
-      <c r="V222" s="383"/>
-      <c r="W222" s="383"/>
-      <c r="X222" s="383"/>
-      <c r="Y222" s="383"/>
-      <c r="Z222" s="383"/>
+      <c r="L222" s="312"/>
+      <c r="M222" s="312"/>
+      <c r="N222" s="312"/>
+      <c r="O222" s="312"/>
+      <c r="P222" s="312"/>
+      <c r="Q222" s="312"/>
+      <c r="R222" s="312"/>
+      <c r="S222" s="312"/>
+      <c r="T222" s="312"/>
+      <c r="U222" s="312"/>
+      <c r="V222" s="312"/>
+      <c r="W222" s="312"/>
+      <c r="X222" s="312"/>
+      <c r="Y222" s="312"/>
+      <c r="Z222" s="312"/>
       <c r="AA222" s="143"/>
     </row>
     <row r="223" spans="1:27">
-      <c r="A223" s="296"/>
-      <c r="B223" s="296"/>
-      <c r="C223" s="297"/>
-      <c r="D223" s="285" t="s">
+      <c r="A223" s="293"/>
+      <c r="B223" s="293"/>
+      <c r="C223" s="294"/>
+      <c r="D223" s="323" t="s">
         <v>412</v>
       </c>
-      <c r="E223" s="286"/>
-      <c r="F223" s="286"/>
-      <c r="G223" s="287"/>
+      <c r="E223" s="324"/>
+      <c r="F223" s="324"/>
+      <c r="G223" s="325"/>
       <c r="H223" s="138" t="s">
         <v>413</v>
       </c>
@@ -19171,13 +19667,13 @@
       <c r="AA223" s="143"/>
     </row>
     <row r="224" spans="1:27">
-      <c r="A224" s="296"/>
-      <c r="B224" s="296"/>
-      <c r="C224" s="297"/>
-      <c r="D224" s="288"/>
-      <c r="E224" s="289"/>
-      <c r="F224" s="289"/>
-      <c r="G224" s="290"/>
+      <c r="A224" s="293"/>
+      <c r="B224" s="293"/>
+      <c r="C224" s="294"/>
+      <c r="D224" s="340"/>
+      <c r="E224" s="341"/>
+      <c r="F224" s="341"/>
+      <c r="G224" s="342"/>
       <c r="H224" s="309" t="s">
         <v>380</v>
       </c>
@@ -19206,13 +19702,13 @@
       <c r="AA224" s="143"/>
     </row>
     <row r="225" spans="1:27">
-      <c r="A225" s="296"/>
-      <c r="B225" s="296"/>
-      <c r="C225" s="297"/>
-      <c r="D225" s="288"/>
-      <c r="E225" s="289"/>
-      <c r="F225" s="289"/>
-      <c r="G225" s="290"/>
+      <c r="A225" s="293"/>
+      <c r="B225" s="293"/>
+      <c r="C225" s="294"/>
+      <c r="D225" s="340"/>
+      <c r="E225" s="341"/>
+      <c r="F225" s="341"/>
+      <c r="G225" s="342"/>
       <c r="H225" s="309"/>
       <c r="I225" s="310"/>
       <c r="J225" s="310"/>
@@ -19237,13 +19733,13 @@
       <c r="AA225" s="143"/>
     </row>
     <row r="226" spans="1:27">
-      <c r="A226" s="296"/>
-      <c r="B226" s="296"/>
-      <c r="C226" s="297"/>
-      <c r="D226" s="288"/>
-      <c r="E226" s="289"/>
-      <c r="F226" s="289"/>
-      <c r="G226" s="290"/>
+      <c r="A226" s="293"/>
+      <c r="B226" s="293"/>
+      <c r="C226" s="294"/>
+      <c r="D226" s="340"/>
+      <c r="E226" s="341"/>
+      <c r="F226" s="341"/>
+      <c r="G226" s="342"/>
       <c r="H226" s="309" t="s">
         <v>382</v>
       </c>
@@ -19272,13 +19768,13 @@
       <c r="AA226" s="143"/>
     </row>
     <row r="227" spans="1:27">
-      <c r="A227" s="296"/>
-      <c r="B227" s="296"/>
-      <c r="C227" s="297"/>
-      <c r="D227" s="291"/>
-      <c r="E227" s="292"/>
-      <c r="F227" s="292"/>
-      <c r="G227" s="293"/>
+      <c r="A227" s="293"/>
+      <c r="B227" s="293"/>
+      <c r="C227" s="294"/>
+      <c r="D227" s="332"/>
+      <c r="E227" s="333"/>
+      <c r="F227" s="333"/>
+      <c r="G227" s="334"/>
       <c r="H227" s="309"/>
       <c r="I227" s="310"/>
       <c r="J227" s="310"/>
@@ -19304,38 +19800,76 @@
     </row>
   </sheetData>
   <mergeCells count="126">
-    <mergeCell ref="M130:N131"/>
-    <mergeCell ref="S130:T131"/>
-    <mergeCell ref="O130:P131"/>
-    <mergeCell ref="Q130:R131"/>
-    <mergeCell ref="A132:C134"/>
-    <mergeCell ref="L175:Z177"/>
-    <mergeCell ref="A135:C140"/>
-    <mergeCell ref="A141:C142"/>
-    <mergeCell ref="A143:C144"/>
-    <mergeCell ref="D143:G144"/>
-    <mergeCell ref="A145:C146"/>
-    <mergeCell ref="T213:T215"/>
-    <mergeCell ref="U213:W215"/>
-    <mergeCell ref="H213:K215"/>
-    <mergeCell ref="R209:S212"/>
-    <mergeCell ref="T209:W210"/>
-    <mergeCell ref="T211:W212"/>
-    <mergeCell ref="P209:Q210"/>
-    <mergeCell ref="P211:Q212"/>
-    <mergeCell ref="L209:M210"/>
-    <mergeCell ref="L211:M212"/>
-    <mergeCell ref="N209:O210"/>
-    <mergeCell ref="N211:O212"/>
-    <mergeCell ref="Y221:Z222"/>
-    <mergeCell ref="H226:K227"/>
-    <mergeCell ref="D221:G221"/>
-    <mergeCell ref="D222:G222"/>
-    <mergeCell ref="L221:N222"/>
-    <mergeCell ref="O221:Q222"/>
-    <mergeCell ref="R221:T222"/>
-    <mergeCell ref="U221:V222"/>
-    <mergeCell ref="W221:X222"/>
+    <mergeCell ref="L218:O219"/>
+    <mergeCell ref="D207:G220"/>
+    <mergeCell ref="A203:C227"/>
+    <mergeCell ref="H216:K220"/>
+    <mergeCell ref="A81:C85"/>
+    <mergeCell ref="D102:G106"/>
+    <mergeCell ref="A94:C108"/>
+    <mergeCell ref="D114:G114"/>
+    <mergeCell ref="D204:G206"/>
+    <mergeCell ref="H224:K225"/>
+    <mergeCell ref="A117:C118"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A120:C123"/>
+    <mergeCell ref="A130:C131"/>
+    <mergeCell ref="D223:G227"/>
+    <mergeCell ref="D137:G137"/>
+    <mergeCell ref="D138:G138"/>
+    <mergeCell ref="D174:G177"/>
+    <mergeCell ref="D126:G127"/>
+    <mergeCell ref="A126:C129"/>
+    <mergeCell ref="D130:G131"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="A124:C125"/>
+    <mergeCell ref="K130:L131"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="A41:D48"/>
+    <mergeCell ref="A7:D14"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="A35:D40"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="A19:D34"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="A15:D18"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="E21:F24"/>
+    <mergeCell ref="E25:F33"/>
     <mergeCell ref="A50:C64"/>
     <mergeCell ref="A181:C202"/>
     <mergeCell ref="A174:C180"/>
@@ -19360,85 +19894,47 @@
     <mergeCell ref="D122:G122"/>
     <mergeCell ref="D132:G132"/>
     <mergeCell ref="D124:G125"/>
-    <mergeCell ref="A19:D34"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="A15:D18"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="E21:F24"/>
-    <mergeCell ref="E25:F33"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="A41:D48"/>
-    <mergeCell ref="A7:D14"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="A35:D40"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="L218:O219"/>
-    <mergeCell ref="D207:G220"/>
-    <mergeCell ref="A203:C227"/>
-    <mergeCell ref="H216:K220"/>
-    <mergeCell ref="A81:C85"/>
-    <mergeCell ref="D102:G106"/>
-    <mergeCell ref="A94:C108"/>
-    <mergeCell ref="D114:G114"/>
-    <mergeCell ref="D204:G206"/>
-    <mergeCell ref="H224:K225"/>
-    <mergeCell ref="A117:C118"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A120:C123"/>
-    <mergeCell ref="A130:C131"/>
-    <mergeCell ref="D223:G227"/>
-    <mergeCell ref="D137:G137"/>
-    <mergeCell ref="D138:G138"/>
-    <mergeCell ref="D174:G177"/>
-    <mergeCell ref="D126:G127"/>
-    <mergeCell ref="A126:C129"/>
-    <mergeCell ref="D130:G131"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="A124:C125"/>
-    <mergeCell ref="K130:L131"/>
+    <mergeCell ref="Y221:Z222"/>
+    <mergeCell ref="H226:K227"/>
+    <mergeCell ref="D221:G221"/>
+    <mergeCell ref="D222:G222"/>
+    <mergeCell ref="L221:N222"/>
+    <mergeCell ref="O221:Q222"/>
+    <mergeCell ref="R221:T222"/>
+    <mergeCell ref="U221:V222"/>
+    <mergeCell ref="W221:X222"/>
+    <mergeCell ref="T213:T215"/>
+    <mergeCell ref="U213:W215"/>
+    <mergeCell ref="H213:K215"/>
+    <mergeCell ref="R209:S212"/>
+    <mergeCell ref="T209:W210"/>
+    <mergeCell ref="T211:W212"/>
+    <mergeCell ref="P209:Q210"/>
+    <mergeCell ref="P211:Q212"/>
+    <mergeCell ref="L209:M210"/>
+    <mergeCell ref="L211:M212"/>
+    <mergeCell ref="N209:O210"/>
+    <mergeCell ref="N211:O212"/>
+    <mergeCell ref="M130:N131"/>
+    <mergeCell ref="S130:T131"/>
+    <mergeCell ref="O130:P131"/>
+    <mergeCell ref="Q130:R131"/>
+    <mergeCell ref="A132:C134"/>
+    <mergeCell ref="L175:Z177"/>
+    <mergeCell ref="A135:C140"/>
+    <mergeCell ref="A141:C142"/>
+    <mergeCell ref="A143:C144"/>
+    <mergeCell ref="D143:G144"/>
+    <mergeCell ref="A145:C146"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D117" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="H118" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="H119" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="P120" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="H129" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="H134" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="L175" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="D117" r:id="rId1"/>
+    <hyperlink ref="H118" r:id="rId2"/>
+    <hyperlink ref="H119" r:id="rId3"/>
+    <hyperlink ref="P120" r:id="rId4"/>
+    <hyperlink ref="H129" r:id="rId5"/>
+    <hyperlink ref="H134" r:id="rId6"/>
+    <hyperlink ref="L175" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId8"/>
@@ -19448,12 +19944,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.77734375" defaultRowHeight="18"/>
@@ -19471,7 +19967,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="273" customFormat="1">
+    <row r="2" spans="1:15" s="273" customFormat="1" hidden="1">
       <c r="A2" s="271" t="s">
         <v>539</v>
       </c>
@@ -19485,7 +19981,7 @@
         <v>543</v>
       </c>
       <c r="E2" s="272" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F2" s="272"/>
       <c r="G2" s="272"/>
@@ -19493,12 +19989,12 @@
       <c r="I2" s="272"/>
       <c r="J2" s="272"/>
       <c r="K2" s="272"/>
-      <c r="L2" s="395"/>
+      <c r="L2" s="283"/>
       <c r="M2" s="272"/>
       <c r="N2" s="272"/>
       <c r="O2" s="272"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" hidden="1">
       <c r="A3" s="264" t="s">
         <v>618</v>
       </c>
@@ -19511,9 +20007,9 @@
       <c r="F3" s="266"/>
       <c r="G3" s="266"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" hidden="1">
       <c r="A4" s="264" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B4" s="267" t="s">
         <v>594</v>
@@ -19528,7 +20024,7 @@
       <c r="F4" s="266"/>
       <c r="G4" s="266"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" hidden="1">
       <c r="A5" s="264" t="s">
         <v>593</v>
       </c>
@@ -19545,7 +20041,7 @@
       <c r="F5" s="266"/>
       <c r="G5" s="266"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" hidden="1">
       <c r="A6" s="264" t="s">
         <v>604</v>
       </c>
@@ -19560,7 +20056,7 @@
       </c>
       <c r="G6" s="266"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" hidden="1">
       <c r="A7" s="264" t="s">
         <v>605</v>
       </c>
@@ -19581,7 +20077,7 @@
       </c>
       <c r="G7" s="266"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" hidden="1">
       <c r="A8" s="264" t="s">
         <v>606</v>
       </c>
@@ -19594,7 +20090,7 @@
       <c r="F8" s="266"/>
       <c r="G8" s="266"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" hidden="1">
       <c r="A9" s="264" t="s">
         <v>607</v>
       </c>
@@ -19607,7 +20103,7 @@
       <c r="F9" s="266"/>
       <c r="G9" s="266"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" hidden="1">
       <c r="A10" s="264" t="s">
         <v>608</v>
       </c>
@@ -19620,26 +20116,26 @@
       <c r="F10" s="266"/>
       <c r="G10" s="266"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" hidden="1">
       <c r="A11" s="264" t="s">
+        <v>621</v>
+      </c>
+      <c r="B11" s="266" t="s">
         <v>622</v>
       </c>
-      <c r="B11" s="266" t="s">
+      <c r="C11" s="266" t="s">
         <v>623</v>
       </c>
-      <c r="C11" s="266" t="s">
+      <c r="D11" s="266" t="s">
         <v>624</v>
-      </c>
-      <c r="D11" s="266" t="s">
-        <v>625</v>
       </c>
       <c r="E11" s="266"/>
       <c r="F11" s="266"/>
       <c r="G11" s="266"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" hidden="1">
       <c r="A12" s="264" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B12" s="267" t="s">
         <v>572</v>
@@ -19650,12 +20146,12 @@
       <c r="F12" s="266"/>
       <c r="G12" s="266"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" hidden="1">
       <c r="A13" s="264" t="s">
+        <v>636</v>
+      </c>
+      <c r="B13" s="266" t="s">
         <v>637</v>
-      </c>
-      <c r="B13" s="266" t="s">
-        <v>638</v>
       </c>
       <c r="C13" s="266"/>
       <c r="D13" s="266"/>
@@ -19663,9 +20159,9 @@
       <c r="F13" s="266"/>
       <c r="G13" s="266"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" hidden="1">
       <c r="A14" s="264" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B14" s="267" t="s">
         <v>572</v>
@@ -19676,7 +20172,7 @@
       <c r="F14" s="266"/>
       <c r="G14" s="266"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" hidden="1">
       <c r="A15" s="264" t="s">
         <v>619</v>
       </c>
@@ -19691,7 +20187,7 @@
       <c r="F15" s="266"/>
       <c r="G15" s="266"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" hidden="1">
       <c r="A16" s="264" t="s">
         <v>620</v>
       </c>
@@ -19704,9 +20200,9 @@
       <c r="F16" s="266"/>
       <c r="G16" s="266"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" hidden="1">
       <c r="A17" s="264" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B17" s="266" t="s">
         <v>341</v>
@@ -19736,12 +20232,12 @@
         <v>557</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" hidden="1">
       <c r="A18" s="264" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B18" s="268" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C18" s="266"/>
       <c r="D18" s="266"/>
@@ -19749,9 +20245,9 @@
       <c r="F18" s="266"/>
       <c r="G18" s="266"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" hidden="1">
       <c r="A19" s="264" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B19" s="267" t="s">
         <v>572</v>
@@ -19762,33 +20258,33 @@
       <c r="F19" s="266"/>
       <c r="G19" s="266"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" hidden="1">
       <c r="A20" s="264" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B20" s="266" t="s">
+        <v>631</v>
+      </c>
+      <c r="C20" s="266" t="s">
         <v>632</v>
       </c>
-      <c r="C20" s="266" t="s">
+      <c r="D20" s="266" t="s">
         <v>633</v>
       </c>
-      <c r="D20" s="266" t="s">
+      <c r="E20" s="266" t="s">
         <v>634</v>
       </c>
-      <c r="E20" s="266" t="s">
+      <c r="F20" s="266" t="s">
         <v>635</v>
       </c>
-      <c r="F20" s="266" t="s">
-        <v>636</v>
-      </c>
       <c r="G20" s="266"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" hidden="1">
       <c r="A21" s="264" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B21" s="266" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C21" s="266"/>
       <c r="D21" s="266"/>
@@ -19796,9 +20292,9 @@
       <c r="F21" s="266"/>
       <c r="G21" s="266"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" hidden="1">
       <c r="A22" s="264" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B22" s="267" t="s">
         <v>572</v>
@@ -19809,12 +20305,12 @@
       <c r="F22" s="266"/>
       <c r="G22" s="266"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" hidden="1">
       <c r="A23" s="264" t="s">
+        <v>638</v>
+      </c>
+      <c r="B23" s="266" t="s">
         <v>639</v>
-      </c>
-      <c r="B23" s="266" t="s">
-        <v>640</v>
       </c>
       <c r="C23" s="266"/>
       <c r="D23" s="266"/>
@@ -19822,54 +20318,54 @@
       <c r="F23" s="266"/>
       <c r="G23" s="266"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" hidden="1">
       <c r="A24" s="264" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B24" s="266" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C24" s="266" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D24" s="266" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E24" s="266"/>
       <c r="F24" s="266"/>
       <c r="G24" s="266"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" hidden="1">
       <c r="A25" s="264" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B25" s="266" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C25" s="266" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D25" s="266"/>
       <c r="E25" s="266"/>
       <c r="F25" s="266"/>
       <c r="G25" s="266"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" hidden="1">
       <c r="A26" s="264" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B26" s="266" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C26" s="266" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D26" s="266"/>
       <c r="E26" s="266"/>
       <c r="F26" s="266"/>
       <c r="G26" s="266"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" hidden="1">
       <c r="A27" s="264" t="s">
         <v>156</v>
       </c>
@@ -19877,7 +20373,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" hidden="1">
       <c r="A28" s="264" t="s">
         <v>151</v>
       </c>
@@ -19885,7 +20381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" hidden="1">
       <c r="A29" s="264" t="s">
         <v>152</v>
       </c>
@@ -19897,7 +20393,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" hidden="1">
       <c r="A30" s="264" t="s">
         <v>153</v>
       </c>
@@ -19911,7 +20407,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" hidden="1">
       <c r="A31" s="264" t="s">
         <v>154</v>
       </c>
@@ -19925,7 +20421,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" hidden="1">
       <c r="A32" s="264" t="s">
         <v>155</v>
       </c>
@@ -19948,23 +20444,23 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="264" t="s">
-        <v>621</v>
+        <v>700</v>
       </c>
       <c r="B33" s="268" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" hidden="1">
       <c r="A34" s="264" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B34" s="267" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" hidden="1">
       <c r="A35" s="264" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B35" s="267" t="s">
         <v>614</v>
@@ -19972,63 +20468,63 @@
       <c r="L35" s="269"/>
       <c r="M35" s="269"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" hidden="1">
       <c r="A36" s="264" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B36" s="281" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" hidden="1">
       <c r="A37" s="264" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B37" s="267" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" hidden="1">
       <c r="A38" s="264" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B38" s="267" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" hidden="1">
       <c r="A39" s="264" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B39" s="281" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" hidden="1">
       <c r="A40" s="264" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B40" s="267" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" hidden="1">
       <c r="A41" s="264" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B41" s="281" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" hidden="1">
       <c r="A42" s="264" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B42" s="267" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" hidden="1">
       <c r="A43" s="270" t="s">
         <v>583</v>
       </c>
@@ -20036,7 +20532,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" hidden="1">
       <c r="A44" s="270" t="s">
         <v>584</v>
       </c>
@@ -20047,7 +20543,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" hidden="1">
       <c r="A45" s="270" t="s">
         <v>585</v>
       </c>
@@ -20055,7 +20551,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" hidden="1">
       <c r="A46" s="270" t="s">
         <v>586</v>
       </c>
@@ -20063,15 +20559,15 @@
         <v>570</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" hidden="1">
       <c r="A47" s="270" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B47" s="267" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" hidden="1">
       <c r="A48" s="270" t="s">
         <v>588</v>
       </c>
@@ -20079,15 +20575,15 @@
         <v>572</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" hidden="1">
       <c r="A49" s="270" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B49" s="267" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" hidden="1">
       <c r="A50" s="270" t="s">
         <v>587</v>
       </c>
@@ -20095,7 +20591,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" hidden="1">
       <c r="A51" s="270" t="s">
         <v>589</v>
       </c>
@@ -20103,7 +20599,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" hidden="1">
       <c r="A52" s="270" t="s">
         <v>590</v>
       </c>
@@ -20114,7 +20610,7 @@
       <c r="L52" s="269"/>
       <c r="M52" s="269"/>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" hidden="1">
       <c r="A53" s="270" t="s">
         <v>237</v>
       </c>
@@ -20122,7 +20618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" hidden="1">
       <c r="A54" s="270" t="s">
         <v>238</v>
       </c>
@@ -20130,7 +20626,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" hidden="1">
       <c r="A55" s="270" t="s">
         <v>591</v>
       </c>
@@ -20138,99 +20634,99 @@
         <v>572</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" hidden="1">
       <c r="A56" s="270" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B56" s="282" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" hidden="1">
       <c r="A57" s="270" t="s">
+        <v>648</v>
+      </c>
+      <c r="B57" s="265" t="s">
         <v>649</v>
       </c>
-      <c r="B57" s="265" t="s">
+      <c r="C57" s="265" t="s">
         <v>650</v>
       </c>
-      <c r="C57" s="265" t="s">
+    </row>
+    <row r="58" spans="1:13" hidden="1">
+      <c r="A58" s="270" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="270" t="s">
+      <c r="B58" s="265" t="s">
         <v>652</v>
       </c>
-      <c r="B58" s="265" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+    </row>
+    <row r="59" spans="1:13" hidden="1">
       <c r="A59" s="270" t="s">
+        <v>667</v>
+      </c>
+      <c r="B59" s="265" t="s">
         <v>668</v>
       </c>
-      <c r="B59" s="265" t="s">
+      <c r="C59" s="265" t="s">
         <v>669</v>
-      </c>
-      <c r="C59" s="265" t="s">
-        <v>670</v>
       </c>
       <c r="D59" s="265" t="s">
         <v>558</v>
       </c>
       <c r="E59" s="265" t="s">
+        <v>670</v>
+      </c>
+      <c r="F59" s="265" t="s">
         <v>671</v>
       </c>
-      <c r="F59" s="265" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+    </row>
+    <row r="60" spans="1:13" hidden="1">
       <c r="A60" s="270" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B60" s="267" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" hidden="1">
       <c r="A61" s="270" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B61" s="267" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" hidden="1">
       <c r="A62" s="270" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B62" s="267" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" hidden="1">
       <c r="A63" s="270" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B63" s="267" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" hidden="1">
       <c r="A64" s="270" t="s">
+        <v>676</v>
+      </c>
+      <c r="B64" s="268" t="s">
         <v>677</v>
       </c>
-      <c r="B64" s="268" t="s">
+    </row>
+    <row r="65" spans="1:5" hidden="1">
+      <c r="A65" s="270" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="270" t="s">
+      <c r="B65" s="265" t="s">
         <v>679</v>
-      </c>
-      <c r="B65" s="265" t="s">
-        <v>680</v>
       </c>
       <c r="C65" s="265" t="s">
         <v>569</v>
@@ -20242,9 +20738,9 @@
         <v>356</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" hidden="1">
       <c r="A66" s="270" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B66" s="265" t="s">
         <v>554</v>
@@ -20256,9 +20752,9 @@
         <v>541</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" hidden="1">
       <c r="A67" s="270" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B67" s="265" t="s">
         <v>554</v>
@@ -20267,16 +20763,22 @@
         <v>556</v>
       </c>
       <c r="D67" s="265" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E67" s="265" t="s">
         <v>541</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A62" xr:uid="{00000000-0001-0000-1500-000000000000}"/>
+  <autoFilter ref="A1:A67">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="opacity (background)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="B56" r:id="rId1" xr:uid="{023B2815-8188-444D-945D-B6801FF7D2C3}"/>
+    <hyperlink ref="B56" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -20285,7 +20787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9D18DA-C530-413B-84AD-F90AB25139B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O7"/>
   <sheetViews>
@@ -20455,4 +20957,149 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22.21875" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="36.88671875" style="407" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="397" customWidth="1"/>
+    <col min="3" max="15" width="22.21875" style="409"/>
+    <col min="16" max="16384" width="22.21875" style="410"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="405" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A1" s="404" t="s">
+        <v>684</v>
+      </c>
+      <c r="B1" s="398" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1" s="406" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="407" t="s">
+        <v>500</v>
+      </c>
+      <c r="B2" s="397" t="s">
+        <v>542</v>
+      </c>
+      <c r="C2" s="399" t="s">
+        <v>687</v>
+      </c>
+      <c r="D2" s="408"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="407" t="s">
+        <v>502</v>
+      </c>
+      <c r="B3" s="397" t="s">
+        <v>542</v>
+      </c>
+      <c r="C3" s="400" t="s">
+        <v>689</v>
+      </c>
+      <c r="D3" s="408"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="407" t="s">
+        <v>503</v>
+      </c>
+      <c r="B4" s="397" t="s">
+        <v>542</v>
+      </c>
+      <c r="C4" s="400" t="s">
+        <v>685</v>
+      </c>
+      <c r="D4" s="401" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="407" t="s">
+        <v>507</v>
+      </c>
+      <c r="B5" s="397" t="s">
+        <v>542</v>
+      </c>
+      <c r="C5" s="400" t="s">
+        <v>691</v>
+      </c>
+      <c r="D5" s="401" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="407" t="s">
+        <v>507</v>
+      </c>
+      <c r="B6" s="397" t="s">
+        <v>542</v>
+      </c>
+      <c r="C6" s="402" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="407" t="s">
+        <v>694</v>
+      </c>
+      <c r="B7" s="397" t="s">
+        <v>697</v>
+      </c>
+      <c r="C7" s="402" t="s">
+        <v>695</v>
+      </c>
+      <c r="D7" s="403" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="407" t="s">
+        <v>508</v>
+      </c>
+      <c r="B8" s="397" t="s">
+        <v>542</v>
+      </c>
+      <c r="C8" s="403" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="407" t="s">
+        <v>699</v>
+      </c>
+      <c r="B9" s="397" t="s">
+        <v>542</v>
+      </c>
+      <c r="C9" s="396" t="s">
+        <v>698</v>
+      </c>
+      <c r="D9" s="396" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="407" t="s">
+        <v>508</v>
+      </c>
+      <c r="B10" s="397" t="s">
+        <v>542</v>
+      </c>
+      <c r="C10" s="410"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CSS.xlsx
+++ b/CSS.xlsx
@@ -15,11 +15,14 @@
     <sheet name="CSS" sheetId="4" r:id="rId1"/>
     <sheet name="Property" sheetId="50" r:id="rId2"/>
     <sheet name="Value" sheetId="52" r:id="rId3"/>
-    <sheet name="Tips" sheetId="53" r:id="rId4"/>
+    <sheet name="|" sheetId="55" r:id="rId4"/>
+    <sheet name="Display" sheetId="54" r:id="rId5"/>
+    <sheet name="Tips" sheetId="53" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Display!$A$1:$A$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Property!$A$1:$A$67</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Tips!$A$1:$A$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Tips!$A$1:$A$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1427,7 +1430,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="703">
   <si>
     <t>CSS</t>
   </si>
@@ -8756,6 +8759,12 @@
       </rPr>
       <t xml:space="preserve"> (background) (image)</t>
     </r>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -11123,342 +11132,6 @@
     <xf numFmtId="0" fontId="68" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="53" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="67" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="64" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="64" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="8" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="49" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11501,6 +11174,342 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="64" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="64" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="67" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="53" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -12203,23 +12212,23 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="27.6" customHeight="1">
-      <c r="A3" s="377" t="s">
+      <c r="A3" s="340" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="377"/>
+      <c r="B3" s="340"/>
       <c r="C3" s="52"/>
-      <c r="D3" s="379" t="s">
+      <c r="D3" s="342" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="379"/>
-      <c r="F3" s="379"/>
+      <c r="E3" s="342"/>
+      <c r="F3" s="342"/>
       <c r="G3" s="52"/>
-      <c r="H3" s="379" t="s">
+      <c r="H3" s="342" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="379"/>
-      <c r="J3" s="379"/>
-      <c r="K3" s="379"/>
+      <c r="I3" s="342"/>
+      <c r="J3" s="342"/>
+      <c r="K3" s="342"/>
       <c r="L3" s="13"/>
       <c r="M3" s="49"/>
       <c r="N3" s="54" t="s">
@@ -12239,10 +12248,10 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="27.6" customHeight="1">
-      <c r="A4" s="378" t="s">
+      <c r="A4" s="341" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="378"/>
+      <c r="B4" s="341"/>
       <c r="C4" s="51" t="s">
         <v>18</v>
       </c>
@@ -12341,36 +12350,36 @@
       <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1" thickTop="1">
-      <c r="A7" s="381" t="s">
+      <c r="A7" s="350" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="381"/>
-      <c r="C7" s="381"/>
-      <c r="D7" s="382"/>
-      <c r="E7" s="380" t="s">
+      <c r="B7" s="350"/>
+      <c r="C7" s="350"/>
+      <c r="D7" s="351"/>
+      <c r="E7" s="343" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="359"/>
-      <c r="G7" s="359"/>
-      <c r="H7" s="360"/>
-      <c r="I7" s="359" t="s">
+      <c r="F7" s="344"/>
+      <c r="G7" s="344"/>
+      <c r="H7" s="345"/>
+      <c r="I7" s="344" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="359"/>
-      <c r="K7" s="359"/>
-      <c r="L7" s="360"/>
-      <c r="M7" s="356" t="s">
+      <c r="J7" s="344"/>
+      <c r="K7" s="344"/>
+      <c r="L7" s="345"/>
+      <c r="M7" s="366" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="357"/>
-      <c r="O7" s="357"/>
-      <c r="P7" s="358"/>
-      <c r="Q7" s="356" t="s">
+      <c r="N7" s="367"/>
+      <c r="O7" s="367"/>
+      <c r="P7" s="368"/>
+      <c r="Q7" s="366" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="357"/>
-      <c r="S7" s="357"/>
-      <c r="T7" s="358"/>
+      <c r="R7" s="367"/>
+      <c r="S7" s="367"/>
+      <c r="T7" s="368"/>
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
       <c r="W7" s="21"/>
@@ -12380,10 +12389,10 @@
       <c r="AA7" s="21"/>
     </row>
     <row r="8" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="381"/>
-      <c r="B8" s="381"/>
-      <c r="C8" s="381"/>
-      <c r="D8" s="382"/>
+      <c r="A8" s="350"/>
+      <c r="B8" s="350"/>
+      <c r="C8" s="350"/>
+      <c r="D8" s="351"/>
       <c r="E8" s="33" t="s">
         <v>33</v>
       </c>
@@ -12421,10 +12430,10 @@
       <c r="AA8" s="21"/>
     </row>
     <row r="9" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="381"/>
-      <c r="B9" s="381"/>
-      <c r="C9" s="381"/>
-      <c r="D9" s="382"/>
+      <c r="A9" s="350"/>
+      <c r="B9" s="350"/>
+      <c r="C9" s="350"/>
+      <c r="D9" s="351"/>
       <c r="E9" s="34" t="s">
         <v>31</v>
       </c>
@@ -12458,10 +12467,10 @@
       <c r="AA9" s="21"/>
     </row>
     <row r="10" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="381"/>
-      <c r="B10" s="381"/>
-      <c r="C10" s="381"/>
-      <c r="D10" s="382"/>
+      <c r="A10" s="350"/>
+      <c r="B10" s="350"/>
+      <c r="C10" s="350"/>
+      <c r="D10" s="351"/>
       <c r="E10" s="34" t="s">
         <v>32</v>
       </c>
@@ -12495,10 +12504,10 @@
       <c r="AA10" s="21"/>
     </row>
     <row r="11" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="381"/>
-      <c r="B11" s="381"/>
-      <c r="C11" s="381"/>
-      <c r="D11" s="382"/>
+      <c r="A11" s="350"/>
+      <c r="B11" s="350"/>
+      <c r="C11" s="350"/>
+      <c r="D11" s="351"/>
       <c r="E11" s="35" t="s">
         <v>13</v>
       </c>
@@ -12532,10 +12541,10 @@
       <c r="AA11" s="21"/>
     </row>
     <row r="12" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="381"/>
-      <c r="B12" s="381"/>
-      <c r="C12" s="381"/>
-      <c r="D12" s="382"/>
+      <c r="A12" s="350"/>
+      <c r="B12" s="350"/>
+      <c r="C12" s="350"/>
+      <c r="D12" s="351"/>
       <c r="E12" s="36"/>
       <c r="F12" s="21"/>
       <c r="G12" s="26"/>
@@ -12561,10 +12570,10 @@
       <c r="AA12" s="21"/>
     </row>
     <row r="13" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="381"/>
-      <c r="B13" s="381"/>
-      <c r="C13" s="381"/>
-      <c r="D13" s="382"/>
+      <c r="A13" s="350"/>
+      <c r="B13" s="350"/>
+      <c r="C13" s="350"/>
+      <c r="D13" s="351"/>
       <c r="E13" s="39" t="s">
         <v>35</v>
       </c>
@@ -12596,10 +12605,10 @@
       <c r="AA13" s="21"/>
     </row>
     <row r="14" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A14" s="383"/>
-      <c r="B14" s="383"/>
-      <c r="C14" s="383"/>
-      <c r="D14" s="384"/>
+      <c r="A14" s="352"/>
+      <c r="B14" s="352"/>
+      <c r="C14" s="352"/>
+      <c r="D14" s="353"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
@@ -12627,12 +12636,12 @@
       <c r="AA14" s="27"/>
     </row>
     <row r="15" spans="1:27" ht="18" customHeight="1" thickTop="1">
-      <c r="A15" s="350" t="s">
+      <c r="A15" s="346" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="350"/>
-      <c r="C15" s="350"/>
-      <c r="D15" s="351"/>
+      <c r="B15" s="346"/>
+      <c r="C15" s="346"/>
+      <c r="D15" s="347"/>
       <c r="E15" s="45" t="s">
         <v>44</v>
       </c>
@@ -12670,10 +12679,10 @@
       <c r="AA15" s="13"/>
     </row>
     <row r="16" spans="1:27" ht="18" customHeight="1">
-      <c r="A16" s="352"/>
-      <c r="B16" s="352"/>
-      <c r="C16" s="352"/>
-      <c r="D16" s="353"/>
+      <c r="A16" s="348"/>
+      <c r="B16" s="348"/>
+      <c r="C16" s="348"/>
+      <c r="D16" s="349"/>
       <c r="E16" s="45" t="s">
         <v>49</v>
       </c>
@@ -12711,10 +12720,10 @@
       <c r="AA16" s="13"/>
     </row>
     <row r="17" spans="1:45" ht="18" customHeight="1">
-      <c r="A17" s="352"/>
-      <c r="B17" s="352"/>
-      <c r="C17" s="352"/>
-      <c r="D17" s="353"/>
+      <c r="A17" s="348"/>
+      <c r="B17" s="348"/>
+      <c r="C17" s="348"/>
+      <c r="D17" s="349"/>
       <c r="E17" s="45" t="s">
         <v>53</v>
       </c>
@@ -12752,10 +12761,10 @@
       <c r="AA17" s="13"/>
     </row>
     <row r="18" spans="1:45" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A18" s="354"/>
-      <c r="B18" s="354"/>
-      <c r="C18" s="354"/>
-      <c r="D18" s="355"/>
+      <c r="A18" s="364"/>
+      <c r="B18" s="364"/>
+      <c r="C18" s="364"/>
+      <c r="D18" s="365"/>
       <c r="E18" s="62" t="s">
         <v>57</v>
       </c>
@@ -12793,12 +12802,12 @@
       <c r="AA18" s="27"/>
     </row>
     <row r="19" spans="1:45" s="74" customFormat="1" ht="18" customHeight="1" thickTop="1">
-      <c r="A19" s="350" t="s">
+      <c r="A19" s="346" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="350"/>
-      <c r="C19" s="350"/>
-      <c r="D19" s="351"/>
+      <c r="B19" s="346"/>
+      <c r="C19" s="346"/>
+      <c r="D19" s="347"/>
       <c r="E19" s="67" t="s">
         <v>61</v>
       </c>
@@ -12850,22 +12859,22 @@
       <c r="AS19" s="73"/>
     </row>
     <row r="20" spans="1:45" ht="18" customHeight="1">
-      <c r="A20" s="352"/>
-      <c r="B20" s="352"/>
-      <c r="C20" s="352"/>
-      <c r="D20" s="353"/>
+      <c r="A20" s="348"/>
+      <c r="B20" s="348"/>
+      <c r="C20" s="348"/>
+      <c r="D20" s="349"/>
       <c r="E20" s="79" t="s">
         <v>107</v>
       </c>
       <c r="F20" s="76"/>
-      <c r="G20" s="387" t="s">
+      <c r="G20" s="360" t="s">
         <v>83</v>
       </c>
-      <c r="H20" s="388"/>
-      <c r="I20" s="387" t="s">
+      <c r="H20" s="361"/>
+      <c r="I20" s="360" t="s">
         <v>84</v>
       </c>
-      <c r="J20" s="388"/>
+      <c r="J20" s="361"/>
       <c r="K20" s="80"/>
       <c r="L20" s="80"/>
       <c r="M20" s="80"/>
@@ -12899,18 +12908,18 @@
       <c r="AC20" s="5"/>
     </row>
     <row r="21" spans="1:45" ht="18" customHeight="1">
-      <c r="A21" s="352"/>
-      <c r="B21" s="352"/>
-      <c r="C21" s="352"/>
-      <c r="D21" s="353"/>
-      <c r="E21" s="371" t="s">
+      <c r="A21" s="348"/>
+      <c r="B21" s="348"/>
+      <c r="C21" s="348"/>
+      <c r="D21" s="349"/>
+      <c r="E21" s="373" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="372"/>
-      <c r="G21" s="361" t="s">
+      <c r="F21" s="374"/>
+      <c r="G21" s="355" t="s">
         <v>79</v>
       </c>
-      <c r="H21" s="362"/>
+      <c r="H21" s="363"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -12933,32 +12942,32 @@
       <c r="AC21" s="5"/>
     </row>
     <row r="22" spans="1:45" ht="18" customHeight="1">
-      <c r="A22" s="352"/>
-      <c r="B22" s="352"/>
-      <c r="C22" s="352"/>
-      <c r="D22" s="353"/>
-      <c r="E22" s="373"/>
-      <c r="F22" s="374"/>
-      <c r="G22" s="363" t="s">
+      <c r="A22" s="348"/>
+      <c r="B22" s="348"/>
+      <c r="C22" s="348"/>
+      <c r="D22" s="349"/>
+      <c r="E22" s="375"/>
+      <c r="F22" s="376"/>
+      <c r="G22" s="358" t="s">
         <v>81</v>
       </c>
-      <c r="H22" s="364"/>
-      <c r="I22" s="368" t="s">
+      <c r="H22" s="359"/>
+      <c r="I22" s="362" t="s">
         <v>88</v>
       </c>
-      <c r="J22" s="364"/>
-      <c r="K22" s="368" t="s">
+      <c r="J22" s="359"/>
+      <c r="K22" s="362" t="s">
         <v>92</v>
       </c>
-      <c r="L22" s="364"/>
-      <c r="M22" s="368" t="s">
+      <c r="L22" s="359"/>
+      <c r="M22" s="362" t="s">
         <v>97</v>
       </c>
-      <c r="N22" s="364"/>
-      <c r="O22" s="385" t="s">
+      <c r="N22" s="359"/>
+      <c r="O22" s="356" t="s">
         <v>93</v>
       </c>
-      <c r="P22" s="386"/>
+      <c r="P22" s="357"/>
       <c r="Q22" s="61"/>
       <c r="S22" s="85"/>
       <c r="T22" s="85"/>
@@ -12973,33 +12982,33 @@
       <c r="AC22" s="5"/>
     </row>
     <row r="23" spans="1:45" ht="18" customHeight="1">
-      <c r="A23" s="352"/>
-      <c r="B23" s="352"/>
-      <c r="C23" s="352"/>
-      <c r="D23" s="353"/>
-      <c r="E23" s="373"/>
-      <c r="F23" s="374"/>
-      <c r="G23" s="361" t="s">
+      <c r="A23" s="348"/>
+      <c r="B23" s="348"/>
+      <c r="C23" s="348"/>
+      <c r="D23" s="349"/>
+      <c r="E23" s="375"/>
+      <c r="F23" s="376"/>
+      <c r="G23" s="355" t="s">
         <v>82</v>
       </c>
-      <c r="H23" s="361"/>
-      <c r="I23" s="365" t="s">
+      <c r="H23" s="355"/>
+      <c r="I23" s="354" t="s">
         <v>89</v>
       </c>
-      <c r="J23" s="362"/>
-      <c r="K23" s="365" t="s">
+      <c r="J23" s="363"/>
+      <c r="K23" s="354" t="s">
         <v>95</v>
       </c>
-      <c r="L23" s="361"/>
-      <c r="M23" s="365" t="s">
+      <c r="L23" s="355"/>
+      <c r="M23" s="354" t="s">
         <v>96</v>
       </c>
-      <c r="N23" s="362"/>
-      <c r="O23" s="366" t="s">
+      <c r="N23" s="363"/>
+      <c r="O23" s="369" t="s">
         <v>94</v>
       </c>
-      <c r="P23" s="367"/>
-      <c r="Q23" s="367"/>
+      <c r="P23" s="370"/>
+      <c r="Q23" s="370"/>
       <c r="S23" s="85"/>
       <c r="T23" s="85"/>
       <c r="U23" s="85"/>
@@ -13013,16 +13022,16 @@
       <c r="AC23" s="5"/>
     </row>
     <row r="24" spans="1:45" ht="18" customHeight="1">
-      <c r="A24" s="352"/>
-      <c r="B24" s="352"/>
-      <c r="C24" s="352"/>
-      <c r="D24" s="353"/>
-      <c r="E24" s="375"/>
-      <c r="F24" s="376"/>
-      <c r="G24" s="363" t="s">
+      <c r="A24" s="348"/>
+      <c r="B24" s="348"/>
+      <c r="C24" s="348"/>
+      <c r="D24" s="349"/>
+      <c r="E24" s="377"/>
+      <c r="F24" s="378"/>
+      <c r="G24" s="358" t="s">
         <v>87</v>
       </c>
-      <c r="H24" s="364"/>
+      <c r="H24" s="359"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -13045,26 +13054,26 @@
       <c r="AC24" s="5"/>
     </row>
     <row r="25" spans="1:45" ht="18" customHeight="1">
-      <c r="A25" s="352"/>
-      <c r="B25" s="352"/>
-      <c r="C25" s="352"/>
-      <c r="D25" s="353"/>
-      <c r="E25" s="371" t="s">
+      <c r="A25" s="348"/>
+      <c r="B25" s="348"/>
+      <c r="C25" s="348"/>
+      <c r="D25" s="349"/>
+      <c r="E25" s="373" t="s">
         <v>109</v>
       </c>
-      <c r="F25" s="372"/>
-      <c r="G25" s="361" t="s">
+      <c r="F25" s="374"/>
+      <c r="G25" s="355" t="s">
         <v>76</v>
       </c>
-      <c r="H25" s="362"/>
-      <c r="I25" s="365" t="s">
+      <c r="H25" s="363"/>
+      <c r="I25" s="354" t="s">
         <v>90</v>
       </c>
-      <c r="J25" s="362"/>
-      <c r="K25" s="365" t="s">
+      <c r="J25" s="363"/>
+      <c r="K25" s="354" t="s">
         <v>106</v>
       </c>
-      <c r="L25" s="362"/>
+      <c r="L25" s="363"/>
       <c r="O25" s="4"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
@@ -13081,16 +13090,16 @@
       <c r="AC25" s="5"/>
     </row>
     <row r="26" spans="1:45" ht="18" customHeight="1">
-      <c r="A26" s="352"/>
-      <c r="B26" s="352"/>
-      <c r="C26" s="352"/>
-      <c r="D26" s="353"/>
-      <c r="E26" s="373"/>
-      <c r="F26" s="374"/>
-      <c r="G26" s="363" t="s">
+      <c r="A26" s="348"/>
+      <c r="B26" s="348"/>
+      <c r="C26" s="348"/>
+      <c r="D26" s="349"/>
+      <c r="E26" s="375"/>
+      <c r="F26" s="376"/>
+      <c r="G26" s="358" t="s">
         <v>77</v>
       </c>
-      <c r="H26" s="364"/>
+      <c r="H26" s="359"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -13113,20 +13122,20 @@
       <c r="AC26" s="5"/>
     </row>
     <row r="27" spans="1:45" ht="18" customHeight="1">
-      <c r="A27" s="352"/>
-      <c r="B27" s="352"/>
-      <c r="C27" s="352"/>
-      <c r="D27" s="353"/>
-      <c r="E27" s="373"/>
-      <c r="F27" s="374"/>
-      <c r="G27" s="361" t="s">
+      <c r="A27" s="348"/>
+      <c r="B27" s="348"/>
+      <c r="C27" s="348"/>
+      <c r="D27" s="349"/>
+      <c r="E27" s="375"/>
+      <c r="F27" s="376"/>
+      <c r="G27" s="355" t="s">
         <v>80</v>
       </c>
-      <c r="H27" s="361"/>
-      <c r="I27" s="361" t="s">
+      <c r="H27" s="355"/>
+      <c r="I27" s="355" t="s">
         <v>78</v>
       </c>
-      <c r="J27" s="361"/>
+      <c r="J27" s="355"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
@@ -13147,20 +13156,20 @@
       <c r="AC27" s="5"/>
     </row>
     <row r="28" spans="1:45" ht="18" customHeight="1">
-      <c r="A28" s="352"/>
-      <c r="B28" s="352"/>
-      <c r="C28" s="352"/>
-      <c r="D28" s="353"/>
-      <c r="E28" s="373"/>
-      <c r="F28" s="374"/>
-      <c r="G28" s="363" t="s">
+      <c r="A28" s="348"/>
+      <c r="B28" s="348"/>
+      <c r="C28" s="348"/>
+      <c r="D28" s="349"/>
+      <c r="E28" s="375"/>
+      <c r="F28" s="376"/>
+      <c r="G28" s="358" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="364"/>
-      <c r="I28" s="368" t="s">
+      <c r="H28" s="359"/>
+      <c r="I28" s="362" t="s">
         <v>99</v>
       </c>
-      <c r="J28" s="364"/>
+      <c r="J28" s="359"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
@@ -13181,20 +13190,20 @@
       <c r="AC28" s="5"/>
     </row>
     <row r="29" spans="1:45" ht="18" customHeight="1">
-      <c r="A29" s="352"/>
-      <c r="B29" s="352"/>
-      <c r="C29" s="352"/>
-      <c r="D29" s="353"/>
-      <c r="E29" s="373"/>
-      <c r="F29" s="374"/>
-      <c r="G29" s="361" t="s">
+      <c r="A29" s="348"/>
+      <c r="B29" s="348"/>
+      <c r="C29" s="348"/>
+      <c r="D29" s="349"/>
+      <c r="E29" s="375"/>
+      <c r="F29" s="376"/>
+      <c r="G29" s="355" t="s">
         <v>105</v>
       </c>
-      <c r="H29" s="362"/>
-      <c r="I29" s="361" t="s">
+      <c r="H29" s="363"/>
+      <c r="I29" s="355" t="s">
         <v>86</v>
       </c>
-      <c r="J29" s="362"/>
+      <c r="J29" s="363"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -13215,16 +13224,16 @@
       <c r="AC29" s="5"/>
     </row>
     <row r="30" spans="1:45" ht="18" customHeight="1">
-      <c r="A30" s="352"/>
-      <c r="B30" s="352"/>
-      <c r="C30" s="352"/>
-      <c r="D30" s="353"/>
-      <c r="E30" s="373"/>
-      <c r="F30" s="374"/>
-      <c r="G30" s="363" t="s">
+      <c r="A30" s="348"/>
+      <c r="B30" s="348"/>
+      <c r="C30" s="348"/>
+      <c r="D30" s="349"/>
+      <c r="E30" s="375"/>
+      <c r="F30" s="376"/>
+      <c r="G30" s="358" t="s">
         <v>104</v>
       </c>
-      <c r="H30" s="364"/>
+      <c r="H30" s="359"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -13248,20 +13257,20 @@
       <c r="AC30" s="5"/>
     </row>
     <row r="31" spans="1:45" ht="18" customHeight="1">
-      <c r="A31" s="352"/>
-      <c r="B31" s="352"/>
-      <c r="C31" s="352"/>
-      <c r="D31" s="353"/>
-      <c r="E31" s="373"/>
-      <c r="F31" s="374"/>
-      <c r="G31" s="361" t="s">
+      <c r="A31" s="348"/>
+      <c r="B31" s="348"/>
+      <c r="C31" s="348"/>
+      <c r="D31" s="349"/>
+      <c r="E31" s="375"/>
+      <c r="F31" s="376"/>
+      <c r="G31" s="355" t="s">
         <v>98</v>
       </c>
-      <c r="H31" s="362"/>
-      <c r="I31" s="365" t="s">
+      <c r="H31" s="363"/>
+      <c r="I31" s="354" t="s">
         <v>102</v>
       </c>
-      <c r="J31" s="362"/>
+      <c r="J31" s="363"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
@@ -13283,20 +13292,20 @@
       <c r="AC31" s="5"/>
     </row>
     <row r="32" spans="1:45" ht="18" customHeight="1">
-      <c r="A32" s="352"/>
-      <c r="B32" s="352"/>
-      <c r="C32" s="352"/>
-      <c r="D32" s="353"/>
-      <c r="E32" s="373"/>
-      <c r="F32" s="374"/>
-      <c r="G32" s="363" t="s">
+      <c r="A32" s="348"/>
+      <c r="B32" s="348"/>
+      <c r="C32" s="348"/>
+      <c r="D32" s="349"/>
+      <c r="E32" s="375"/>
+      <c r="F32" s="376"/>
+      <c r="G32" s="358" t="s">
         <v>100</v>
       </c>
-      <c r="H32" s="364"/>
-      <c r="I32" s="368" t="s">
+      <c r="H32" s="359"/>
+      <c r="I32" s="362" t="s">
         <v>101</v>
       </c>
-      <c r="J32" s="364"/>
+      <c r="J32" s="359"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -13318,16 +13327,16 @@
       <c r="AC32" s="5"/>
     </row>
     <row r="33" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="352"/>
-      <c r="B33" s="352"/>
-      <c r="C33" s="352"/>
-      <c r="D33" s="353"/>
-      <c r="E33" s="375"/>
-      <c r="F33" s="376"/>
-      <c r="G33" s="361" t="s">
+      <c r="A33" s="348"/>
+      <c r="B33" s="348"/>
+      <c r="C33" s="348"/>
+      <c r="D33" s="349"/>
+      <c r="E33" s="377"/>
+      <c r="F33" s="378"/>
+      <c r="G33" s="355" t="s">
         <v>91</v>
       </c>
-      <c r="H33" s="362"/>
+      <c r="H33" s="363"/>
       <c r="R33" s="59"/>
       <c r="S33" s="59"/>
       <c r="T33" s="59"/>
@@ -13340,27 +13349,27 @@
       <c r="AA33" s="59"/>
     </row>
     <row r="34" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A34" s="354"/>
-      <c r="B34" s="354"/>
-      <c r="C34" s="354"/>
-      <c r="D34" s="355"/>
+      <c r="A34" s="364"/>
+      <c r="B34" s="364"/>
+      <c r="C34" s="364"/>
+      <c r="D34" s="365"/>
       <c r="E34" s="81" t="s">
         <v>110</v>
       </c>
       <c r="F34" s="77"/>
-      <c r="G34" s="369" t="s">
+      <c r="G34" s="371" t="s">
         <v>103</v>
       </c>
-      <c r="H34" s="370"/>
+      <c r="H34" s="372"/>
       <c r="K34" s="78"/>
     </row>
     <row r="35" spans="1:27" ht="18" customHeight="1" thickTop="1">
-      <c r="A35" s="350" t="s">
+      <c r="A35" s="346" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="350"/>
-      <c r="C35" s="350"/>
-      <c r="D35" s="351"/>
+      <c r="B35" s="346"/>
+      <c r="C35" s="346"/>
+      <c r="D35" s="347"/>
       <c r="E35" s="67" t="s">
         <v>61</v>
       </c>
@@ -13381,10 +13390,10 @@
       </c>
     </row>
     <row r="36" spans="1:27" ht="18" customHeight="1">
-      <c r="A36" s="352"/>
-      <c r="B36" s="352"/>
-      <c r="C36" s="352"/>
-      <c r="D36" s="353"/>
+      <c r="A36" s="348"/>
+      <c r="B36" s="348"/>
+      <c r="C36" s="348"/>
+      <c r="D36" s="349"/>
       <c r="E36" s="55" t="s">
         <v>111</v>
       </c>
@@ -13404,10 +13413,10 @@
       <c r="O36" s="82"/>
     </row>
     <row r="37" spans="1:27" ht="18" customHeight="1">
-      <c r="A37" s="352"/>
-      <c r="B37" s="352"/>
-      <c r="C37" s="352"/>
-      <c r="D37" s="353"/>
+      <c r="A37" s="348"/>
+      <c r="B37" s="348"/>
+      <c r="C37" s="348"/>
+      <c r="D37" s="349"/>
       <c r="E37" s="55" t="s">
         <v>114</v>
       </c>
@@ -13427,10 +13436,10 @@
       <c r="O37" s="82"/>
     </row>
     <row r="38" spans="1:27" ht="18" customHeight="1">
-      <c r="A38" s="352"/>
-      <c r="B38" s="352"/>
-      <c r="C38" s="352"/>
-      <c r="D38" s="353"/>
+      <c r="A38" s="348"/>
+      <c r="B38" s="348"/>
+      <c r="C38" s="348"/>
+      <c r="D38" s="349"/>
       <c r="E38" s="55" t="s">
         <v>117</v>
       </c>
@@ -13450,10 +13459,10 @@
       <c r="O38" s="82"/>
     </row>
     <row r="39" spans="1:27" ht="18" customHeight="1">
-      <c r="A39" s="352"/>
-      <c r="B39" s="352"/>
-      <c r="C39" s="352"/>
-      <c r="D39" s="353"/>
+      <c r="A39" s="348"/>
+      <c r="B39" s="348"/>
+      <c r="C39" s="348"/>
+      <c r="D39" s="349"/>
       <c r="E39" s="55" t="s">
         <v>120</v>
       </c>
@@ -13473,10 +13482,10 @@
       <c r="O39" s="82"/>
     </row>
     <row r="40" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A40" s="354"/>
-      <c r="B40" s="354"/>
-      <c r="C40" s="354"/>
-      <c r="D40" s="355"/>
+      <c r="A40" s="364"/>
+      <c r="B40" s="364"/>
+      <c r="C40" s="364"/>
+      <c r="D40" s="365"/>
       <c r="E40" s="87" t="s">
         <v>123</v>
       </c>
@@ -13496,12 +13505,12 @@
       <c r="O40" s="88"/>
     </row>
     <row r="41" spans="1:27" ht="18" customHeight="1" thickTop="1">
-      <c r="A41" s="350" t="s">
+      <c r="A41" s="346" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="350"/>
-      <c r="C41" s="350"/>
-      <c r="D41" s="351"/>
+      <c r="B41" s="346"/>
+      <c r="C41" s="346"/>
+      <c r="D41" s="347"/>
       <c r="E41" s="67" t="s">
         <v>61</v>
       </c>
@@ -13522,10 +13531,10 @@
       </c>
     </row>
     <row r="42" spans="1:27" ht="18" customHeight="1">
-      <c r="A42" s="352"/>
-      <c r="B42" s="352"/>
-      <c r="C42" s="352"/>
-      <c r="D42" s="353"/>
+      <c r="A42" s="348"/>
+      <c r="B42" s="348"/>
+      <c r="C42" s="348"/>
+      <c r="D42" s="349"/>
       <c r="E42" s="55" t="s">
         <v>127</v>
       </c>
@@ -13551,10 +13560,10 @@
       <c r="U42" s="90"/>
     </row>
     <row r="43" spans="1:27" ht="18" customHeight="1">
-      <c r="A43" s="352"/>
-      <c r="B43" s="352"/>
-      <c r="C43" s="352"/>
-      <c r="D43" s="353"/>
+      <c r="A43" s="348"/>
+      <c r="B43" s="348"/>
+      <c r="C43" s="348"/>
+      <c r="D43" s="349"/>
       <c r="E43" s="55" t="s">
         <v>130</v>
       </c>
@@ -13580,10 +13589,10 @@
       <c r="U43" s="90"/>
     </row>
     <row r="44" spans="1:27" ht="18" customHeight="1">
-      <c r="A44" s="352"/>
-      <c r="B44" s="352"/>
-      <c r="C44" s="352"/>
-      <c r="D44" s="353"/>
+      <c r="A44" s="348"/>
+      <c r="B44" s="348"/>
+      <c r="C44" s="348"/>
+      <c r="D44" s="349"/>
       <c r="E44" s="55" t="s">
         <v>133</v>
       </c>
@@ -13609,10 +13618,10 @@
       <c r="U44" s="90"/>
     </row>
     <row r="45" spans="1:27" ht="18" customHeight="1">
-      <c r="A45" s="352"/>
-      <c r="B45" s="352"/>
-      <c r="C45" s="352"/>
-      <c r="D45" s="353"/>
+      <c r="A45" s="348"/>
+      <c r="B45" s="348"/>
+      <c r="C45" s="348"/>
+      <c r="D45" s="349"/>
       <c r="E45" s="55" t="s">
         <v>136</v>
       </c>
@@ -13638,10 +13647,10 @@
       <c r="U45" s="90"/>
     </row>
     <row r="46" spans="1:27" ht="18" customHeight="1">
-      <c r="A46" s="352"/>
-      <c r="B46" s="352"/>
-      <c r="C46" s="352"/>
-      <c r="D46" s="353"/>
+      <c r="A46" s="348"/>
+      <c r="B46" s="348"/>
+      <c r="C46" s="348"/>
+      <c r="D46" s="349"/>
       <c r="E46" s="55" t="s">
         <v>139</v>
       </c>
@@ -13667,10 +13676,10 @@
       <c r="U46" s="90"/>
     </row>
     <row r="47" spans="1:27" ht="18" customHeight="1">
-      <c r="A47" s="352"/>
-      <c r="B47" s="352"/>
-      <c r="C47" s="352"/>
-      <c r="D47" s="353"/>
+      <c r="A47" s="348"/>
+      <c r="B47" s="348"/>
+      <c r="C47" s="348"/>
+      <c r="D47" s="349"/>
       <c r="E47" s="55" t="s">
         <v>142</v>
       </c>
@@ -13696,10 +13705,10 @@
       <c r="U47" s="90"/>
     </row>
     <row r="48" spans="1:27" ht="18" customHeight="1" thickBot="1">
-      <c r="A48" s="352"/>
-      <c r="B48" s="352"/>
-      <c r="C48" s="352"/>
-      <c r="D48" s="353"/>
+      <c r="A48" s="348"/>
+      <c r="B48" s="348"/>
+      <c r="C48" s="348"/>
+      <c r="D48" s="349"/>
       <c r="E48" s="55" t="s">
         <v>145</v>
       </c>
@@ -13743,17 +13752,17 @@
       <c r="N49" s="10"/>
     </row>
     <row r="50" spans="1:27" ht="18" customHeight="1">
-      <c r="A50" s="293" t="s">
+      <c r="A50" s="312" t="s">
         <v>168</v>
       </c>
-      <c r="B50" s="293"/>
-      <c r="C50" s="294"/>
-      <c r="D50" s="346" t="s">
+      <c r="B50" s="312"/>
+      <c r="C50" s="313"/>
+      <c r="D50" s="395" t="s">
         <v>169</v>
       </c>
-      <c r="E50" s="347"/>
-      <c r="F50" s="347"/>
-      <c r="G50" s="348"/>
+      <c r="E50" s="396"/>
+      <c r="F50" s="396"/>
+      <c r="G50" s="397"/>
       <c r="H50" s="22" t="s">
         <v>170</v>
       </c>
@@ -13788,13 +13797,13 @@
       <c r="AA50" s="21"/>
     </row>
     <row r="51" spans="1:27" ht="18" customHeight="1">
-      <c r="A51" s="293"/>
-      <c r="B51" s="293"/>
-      <c r="C51" s="294"/>
-      <c r="D51" s="340"/>
-      <c r="E51" s="341"/>
-      <c r="F51" s="341"/>
-      <c r="G51" s="342"/>
+      <c r="A51" s="312"/>
+      <c r="B51" s="312"/>
+      <c r="C51" s="313"/>
+      <c r="D51" s="304"/>
+      <c r="E51" s="305"/>
+      <c r="F51" s="305"/>
+      <c r="G51" s="306"/>
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
       <c r="J51" s="21"/>
@@ -13827,13 +13836,13 @@
       <c r="AA51" s="21"/>
     </row>
     <row r="52" spans="1:27" ht="18" customHeight="1">
-      <c r="A52" s="293"/>
-      <c r="B52" s="293"/>
-      <c r="C52" s="294"/>
-      <c r="D52" s="340"/>
-      <c r="E52" s="341"/>
-      <c r="F52" s="341"/>
-      <c r="G52" s="342"/>
+      <c r="A52" s="312"/>
+      <c r="B52" s="312"/>
+      <c r="C52" s="313"/>
+      <c r="D52" s="304"/>
+      <c r="E52" s="305"/>
+      <c r="F52" s="305"/>
+      <c r="G52" s="306"/>
       <c r="H52" s="101"/>
       <c r="I52" s="102" t="s">
         <v>182</v>
@@ -13860,13 +13869,13 @@
       <c r="AA52" s="102"/>
     </row>
     <row r="53" spans="1:27" ht="18" customHeight="1">
-      <c r="A53" s="293"/>
-      <c r="B53" s="293"/>
-      <c r="C53" s="294"/>
-      <c r="D53" s="340"/>
-      <c r="E53" s="341"/>
-      <c r="F53" s="341"/>
-      <c r="G53" s="342"/>
+      <c r="A53" s="312"/>
+      <c r="B53" s="312"/>
+      <c r="C53" s="313"/>
+      <c r="D53" s="304"/>
+      <c r="E53" s="305"/>
+      <c r="F53" s="305"/>
+      <c r="G53" s="306"/>
       <c r="H53" s="24" t="s">
         <v>201</v>
       </c>
@@ -13891,13 +13900,13 @@
       <c r="AA53" s="13"/>
     </row>
     <row r="54" spans="1:27" ht="18" customHeight="1">
-      <c r="A54" s="293"/>
-      <c r="B54" s="293"/>
-      <c r="C54" s="294"/>
-      <c r="D54" s="340"/>
-      <c r="E54" s="341"/>
-      <c r="F54" s="341"/>
-      <c r="G54" s="342"/>
+      <c r="A54" s="312"/>
+      <c r="B54" s="312"/>
+      <c r="C54" s="313"/>
+      <c r="D54" s="304"/>
+      <c r="E54" s="305"/>
+      <c r="F54" s="305"/>
+      <c r="G54" s="306"/>
       <c r="H54" s="24" t="s">
         <v>202</v>
       </c>
@@ -13922,13 +13931,13 @@
       <c r="AA54" s="13"/>
     </row>
     <row r="55" spans="1:27" ht="18" customHeight="1">
-      <c r="A55" s="293"/>
-      <c r="B55" s="293"/>
-      <c r="C55" s="294"/>
-      <c r="D55" s="340"/>
-      <c r="E55" s="341"/>
-      <c r="F55" s="341"/>
-      <c r="G55" s="342"/>
+      <c r="A55" s="312"/>
+      <c r="B55" s="312"/>
+      <c r="C55" s="313"/>
+      <c r="D55" s="304"/>
+      <c r="E55" s="305"/>
+      <c r="F55" s="305"/>
+      <c r="G55" s="306"/>
       <c r="H55" s="24" t="s">
         <v>203</v>
       </c>
@@ -13953,13 +13962,13 @@
       <c r="AA55" s="13"/>
     </row>
     <row r="56" spans="1:27" ht="18" customHeight="1">
-      <c r="A56" s="293"/>
-      <c r="B56" s="293"/>
-      <c r="C56" s="294"/>
-      <c r="D56" s="343"/>
-      <c r="E56" s="344"/>
-      <c r="F56" s="344"/>
-      <c r="G56" s="345"/>
+      <c r="A56" s="312"/>
+      <c r="B56" s="312"/>
+      <c r="C56" s="313"/>
+      <c r="D56" s="392"/>
+      <c r="E56" s="393"/>
+      <c r="F56" s="393"/>
+      <c r="G56" s="394"/>
       <c r="H56" s="24" t="s">
         <v>204</v>
       </c>
@@ -13984,15 +13993,15 @@
       <c r="AA56" s="13"/>
     </row>
     <row r="57" spans="1:27" ht="18" customHeight="1">
-      <c r="A57" s="293"/>
-      <c r="B57" s="293"/>
-      <c r="C57" s="294"/>
-      <c r="D57" s="337" t="s">
+      <c r="A57" s="312"/>
+      <c r="B57" s="312"/>
+      <c r="C57" s="313"/>
+      <c r="D57" s="332" t="s">
         <v>194</v>
       </c>
-      <c r="E57" s="338"/>
-      <c r="F57" s="338"/>
-      <c r="G57" s="339"/>
+      <c r="E57" s="333"/>
+      <c r="F57" s="333"/>
+      <c r="G57" s="334"/>
       <c r="H57" s="110" t="s">
         <v>190</v>
       </c>
@@ -14023,13 +14032,13 @@
       <c r="AA57" s="111"/>
     </row>
     <row r="58" spans="1:27" ht="18" customHeight="1">
-      <c r="A58" s="293"/>
-      <c r="B58" s="293"/>
-      <c r="C58" s="294"/>
-      <c r="D58" s="340"/>
-      <c r="E58" s="341"/>
-      <c r="F58" s="341"/>
-      <c r="G58" s="342"/>
+      <c r="A58" s="312"/>
+      <c r="B58" s="312"/>
+      <c r="C58" s="313"/>
+      <c r="D58" s="304"/>
+      <c r="E58" s="305"/>
+      <c r="F58" s="305"/>
+      <c r="G58" s="306"/>
       <c r="H58" s="114"/>
       <c r="I58" s="21"/>
       <c r="J58" s="21"/>
@@ -14060,13 +14069,13 @@
       <c r="AA58" s="21"/>
     </row>
     <row r="59" spans="1:27" ht="18" customHeight="1">
-      <c r="A59" s="293"/>
-      <c r="B59" s="293"/>
-      <c r="C59" s="294"/>
-      <c r="D59" s="343"/>
-      <c r="E59" s="344"/>
-      <c r="F59" s="344"/>
-      <c r="G59" s="345"/>
+      <c r="A59" s="312"/>
+      <c r="B59" s="312"/>
+      <c r="C59" s="313"/>
+      <c r="D59" s="392"/>
+      <c r="E59" s="393"/>
+      <c r="F59" s="393"/>
+      <c r="G59" s="394"/>
       <c r="H59" s="109"/>
       <c r="I59" s="102"/>
       <c r="J59" s="102"/>
@@ -14095,9 +14104,9 @@
       <c r="AA59" s="102"/>
     </row>
     <row r="60" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A60" s="293"/>
-      <c r="B60" s="293"/>
-      <c r="C60" s="294"/>
+      <c r="A60" s="312"/>
+      <c r="B60" s="312"/>
+      <c r="C60" s="313"/>
       <c r="D60" s="117" t="s">
         <v>198</v>
       </c>
@@ -14136,15 +14145,15 @@
       <c r="AA60" s="102"/>
     </row>
     <row r="61" spans="1:27" ht="18" customHeight="1">
-      <c r="A61" s="293"/>
-      <c r="B61" s="293"/>
-      <c r="C61" s="294"/>
-      <c r="D61" s="323" t="s">
+      <c r="A61" s="312"/>
+      <c r="B61" s="312"/>
+      <c r="C61" s="313"/>
+      <c r="D61" s="301" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="324"/>
-      <c r="F61" s="324"/>
-      <c r="G61" s="325"/>
+      <c r="E61" s="302"/>
+      <c r="F61" s="302"/>
+      <c r="G61" s="303"/>
       <c r="H61" s="24" t="s">
         <v>377</v>
       </c>
@@ -14175,13 +14184,13 @@
       <c r="AA61" s="13"/>
     </row>
     <row r="62" spans="1:27" ht="18" customHeight="1">
-      <c r="A62" s="293"/>
-      <c r="B62" s="293"/>
-      <c r="C62" s="294"/>
-      <c r="D62" s="340"/>
-      <c r="E62" s="341"/>
-      <c r="F62" s="341"/>
-      <c r="G62" s="342"/>
+      <c r="A62" s="312"/>
+      <c r="B62" s="312"/>
+      <c r="C62" s="313"/>
+      <c r="D62" s="304"/>
+      <c r="E62" s="305"/>
+      <c r="F62" s="305"/>
+      <c r="G62" s="306"/>
       <c r="H62" s="24" t="s">
         <v>206</v>
       </c>
@@ -14208,13 +14217,13 @@
       <c r="AA62" s="13"/>
     </row>
     <row r="63" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A63" s="293"/>
-      <c r="B63" s="293"/>
-      <c r="C63" s="294"/>
-      <c r="D63" s="332"/>
-      <c r="E63" s="333"/>
-      <c r="F63" s="333"/>
-      <c r="G63" s="334"/>
+      <c r="A63" s="312"/>
+      <c r="B63" s="312"/>
+      <c r="C63" s="313"/>
+      <c r="D63" s="307"/>
+      <c r="E63" s="308"/>
+      <c r="F63" s="308"/>
+      <c r="G63" s="309"/>
       <c r="H63" s="101" t="s">
         <v>208</v>
       </c>
@@ -14241,9 +14250,9 @@
       <c r="AA63" s="102"/>
     </row>
     <row r="64" spans="1:27" s="28" customFormat="1" ht="18.600000000000001" thickBot="1">
-      <c r="A64" s="295"/>
-      <c r="B64" s="295"/>
-      <c r="C64" s="296"/>
+      <c r="A64" s="320"/>
+      <c r="B64" s="320"/>
+      <c r="C64" s="321"/>
       <c r="D64" s="126" t="s">
         <v>210</v>
       </c>
@@ -14276,11 +14285,11 @@
       <c r="AA64" s="27"/>
     </row>
     <row r="65" spans="1:27" s="136" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A65" s="291" t="s">
+      <c r="A65" s="310" t="s">
         <v>216</v>
       </c>
-      <c r="B65" s="291"/>
-      <c r="C65" s="292"/>
+      <c r="B65" s="310"/>
+      <c r="C65" s="311"/>
       <c r="D65" s="132"/>
       <c r="E65" s="133"/>
       <c r="F65" s="133"/>
@@ -14309,9 +14318,9 @@
       <c r="AA65" s="135"/>
     </row>
     <row r="66" spans="1:27" ht="18" customHeight="1">
-      <c r="A66" s="293"/>
-      <c r="B66" s="293"/>
-      <c r="C66" s="294"/>
+      <c r="A66" s="312"/>
+      <c r="B66" s="312"/>
+      <c r="C66" s="313"/>
       <c r="D66" s="104"/>
       <c r="E66" s="105"/>
       <c r="F66" s="105"/>
@@ -14340,9 +14349,9 @@
       <c r="AA66" s="102"/>
     </row>
     <row r="67" spans="1:27" ht="18" customHeight="1">
-      <c r="A67" s="293"/>
-      <c r="B67" s="293"/>
-      <c r="C67" s="294"/>
+      <c r="A67" s="312"/>
+      <c r="B67" s="312"/>
+      <c r="C67" s="313"/>
       <c r="D67" s="97"/>
       <c r="E67" s="98"/>
       <c r="F67" s="98"/>
@@ -14371,9 +14380,9 @@
       <c r="AA67" s="102"/>
     </row>
     <row r="68" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A68" s="293"/>
-      <c r="B68" s="293"/>
-      <c r="C68" s="294"/>
+      <c r="A68" s="312"/>
+      <c r="B68" s="312"/>
+      <c r="C68" s="313"/>
       <c r="D68" s="104"/>
       <c r="E68" s="105"/>
       <c r="F68" s="105"/>
@@ -14402,9 +14411,9 @@
       <c r="AA68" s="102"/>
     </row>
     <row r="69" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A69" s="295"/>
-      <c r="B69" s="295"/>
-      <c r="C69" s="296"/>
+      <c r="A69" s="320"/>
+      <c r="B69" s="320"/>
+      <c r="C69" s="321"/>
       <c r="D69" s="139"/>
       <c r="E69" s="87"/>
       <c r="F69" s="87"/>
@@ -14433,11 +14442,11 @@
       <c r="AA69" s="27"/>
     </row>
     <row r="70" spans="1:27" s="136" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A70" s="291" t="s">
+      <c r="A70" s="310" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="291"/>
-      <c r="C70" s="292"/>
+      <c r="B70" s="310"/>
+      <c r="C70" s="311"/>
       <c r="D70" s="132"/>
       <c r="E70" s="133"/>
       <c r="F70" s="133"/>
@@ -14466,9 +14475,9 @@
       <c r="AA70" s="135"/>
     </row>
     <row r="71" spans="1:27" ht="18" customHeight="1">
-      <c r="A71" s="293"/>
-      <c r="B71" s="293"/>
-      <c r="C71" s="294"/>
+      <c r="A71" s="312"/>
+      <c r="B71" s="312"/>
+      <c r="C71" s="313"/>
       <c r="D71" s="104"/>
       <c r="E71" s="105"/>
       <c r="F71" s="105"/>
@@ -14497,9 +14506,9 @@
       <c r="AA71" s="102"/>
     </row>
     <row r="72" spans="1:27" ht="18" customHeight="1">
-      <c r="A72" s="293"/>
-      <c r="B72" s="293"/>
-      <c r="C72" s="294"/>
+      <c r="A72" s="312"/>
+      <c r="B72" s="312"/>
+      <c r="C72" s="313"/>
       <c r="D72" s="97"/>
       <c r="E72" s="98"/>
       <c r="F72" s="98"/>
@@ -14528,9 +14537,9 @@
       <c r="AA72" s="102"/>
     </row>
     <row r="73" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A73" s="293"/>
-      <c r="B73" s="293"/>
-      <c r="C73" s="294"/>
+      <c r="A73" s="312"/>
+      <c r="B73" s="312"/>
+      <c r="C73" s="313"/>
       <c r="D73" s="104"/>
       <c r="E73" s="105"/>
       <c r="F73" s="105"/>
@@ -14561,9 +14570,9 @@
       <c r="AA73" s="102"/>
     </row>
     <row r="74" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A74" s="295"/>
-      <c r="B74" s="295"/>
-      <c r="C74" s="296"/>
+      <c r="A74" s="320"/>
+      <c r="B74" s="320"/>
+      <c r="C74" s="321"/>
       <c r="D74" s="139"/>
       <c r="E74" s="87"/>
       <c r="F74" s="87"/>
@@ -14596,11 +14605,11 @@
       <c r="AA74" s="27"/>
     </row>
     <row r="75" spans="1:27" s="136" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A75" s="291" t="s">
+      <c r="A75" s="310" t="s">
         <v>223</v>
       </c>
-      <c r="B75" s="291"/>
-      <c r="C75" s="292"/>
+      <c r="B75" s="310"/>
+      <c r="C75" s="311"/>
       <c r="D75" s="132"/>
       <c r="E75" s="133"/>
       <c r="F75" s="133"/>
@@ -14631,9 +14640,9 @@
       <c r="AA75" s="135"/>
     </row>
     <row r="76" spans="1:27" ht="18" customHeight="1">
-      <c r="A76" s="293"/>
-      <c r="B76" s="293"/>
-      <c r="C76" s="294"/>
+      <c r="A76" s="312"/>
+      <c r="B76" s="312"/>
+      <c r="C76" s="313"/>
       <c r="D76" s="104"/>
       <c r="E76" s="105"/>
       <c r="F76" s="105"/>
@@ -14664,9 +14673,9 @@
       <c r="AA76" s="102"/>
     </row>
     <row r="77" spans="1:27" ht="18" customHeight="1">
-      <c r="A77" s="293"/>
-      <c r="B77" s="293"/>
-      <c r="C77" s="294"/>
+      <c r="A77" s="312"/>
+      <c r="B77" s="312"/>
+      <c r="C77" s="313"/>
       <c r="D77" s="97"/>
       <c r="E77" s="98"/>
       <c r="F77" s="98"/>
@@ -14697,9 +14706,9 @@
       <c r="AA77" s="102"/>
     </row>
     <row r="78" spans="1:27" s="103" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A78" s="293"/>
-      <c r="B78" s="293"/>
-      <c r="C78" s="294"/>
+      <c r="A78" s="312"/>
+      <c r="B78" s="312"/>
+      <c r="C78" s="313"/>
       <c r="D78" s="104"/>
       <c r="E78" s="105"/>
       <c r="F78" s="105"/>
@@ -14730,9 +14739,9 @@
       <c r="AA78" s="102"/>
     </row>
     <row r="79" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A79" s="293"/>
-      <c r="B79" s="293"/>
-      <c r="C79" s="294"/>
+      <c r="A79" s="312"/>
+      <c r="B79" s="312"/>
+      <c r="C79" s="313"/>
       <c r="D79" s="104"/>
       <c r="E79" s="105"/>
       <c r="F79" s="105"/>
@@ -14763,9 +14772,9 @@
       <c r="AA79" s="102"/>
     </row>
     <row r="80" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A80" s="295"/>
-      <c r="B80" s="295"/>
-      <c r="C80" s="296"/>
+      <c r="A80" s="320"/>
+      <c r="B80" s="320"/>
+      <c r="C80" s="321"/>
       <c r="D80" s="139"/>
       <c r="E80" s="87"/>
       <c r="F80" s="87"/>
@@ -14794,11 +14803,11 @@
       <c r="AA80" s="27"/>
     </row>
     <row r="81" spans="1:27" s="136" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A81" s="291" t="s">
+      <c r="A81" s="310" t="s">
         <v>236</v>
       </c>
-      <c r="B81" s="291"/>
-      <c r="C81" s="292"/>
+      <c r="B81" s="310"/>
+      <c r="C81" s="311"/>
       <c r="D81" s="132"/>
       <c r="E81" s="133"/>
       <c r="F81" s="133"/>
@@ -14829,9 +14838,9 @@
       <c r="AA81" s="135"/>
     </row>
     <row r="82" spans="1:27" ht="18" customHeight="1">
-      <c r="A82" s="293"/>
-      <c r="B82" s="293"/>
-      <c r="C82" s="294"/>
+      <c r="A82" s="312"/>
+      <c r="B82" s="312"/>
+      <c r="C82" s="313"/>
       <c r="D82" s="104"/>
       <c r="E82" s="105"/>
       <c r="F82" s="105"/>
@@ -14862,9 +14871,9 @@
       <c r="AA82" s="102"/>
     </row>
     <row r="83" spans="1:27" ht="18" customHeight="1">
-      <c r="A83" s="293"/>
-      <c r="B83" s="293"/>
-      <c r="C83" s="294"/>
+      <c r="A83" s="312"/>
+      <c r="B83" s="312"/>
+      <c r="C83" s="313"/>
       <c r="D83" s="97"/>
       <c r="E83" s="98"/>
       <c r="F83" s="98"/>
@@ -14893,9 +14902,9 @@
       <c r="AA83" s="102"/>
     </row>
     <row r="84" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A84" s="293"/>
-      <c r="B84" s="293"/>
-      <c r="C84" s="294"/>
+      <c r="A84" s="312"/>
+      <c r="B84" s="312"/>
+      <c r="C84" s="313"/>
       <c r="D84" s="104"/>
       <c r="E84" s="105"/>
       <c r="F84" s="105"/>
@@ -14926,9 +14935,9 @@
       <c r="AA84" s="102"/>
     </row>
     <row r="85" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A85" s="295"/>
-      <c r="B85" s="295"/>
-      <c r="C85" s="296"/>
+      <c r="A85" s="320"/>
+      <c r="B85" s="320"/>
+      <c r="C85" s="321"/>
       <c r="D85" s="139"/>
       <c r="E85" s="87"/>
       <c r="F85" s="87"/>
@@ -14981,17 +14990,17 @@
       <c r="V86" s="159"/>
     </row>
     <row r="87" spans="1:27" s="12" customFormat="1" ht="18" customHeight="1">
-      <c r="A87" s="335" t="s">
+      <c r="A87" s="390" t="s">
         <v>150</v>
       </c>
-      <c r="B87" s="335"/>
-      <c r="C87" s="336"/>
-      <c r="D87" s="346" t="s">
+      <c r="B87" s="390"/>
+      <c r="C87" s="391"/>
+      <c r="D87" s="395" t="s">
         <v>151</v>
       </c>
-      <c r="E87" s="347"/>
-      <c r="F87" s="347"/>
-      <c r="G87" s="348"/>
+      <c r="E87" s="396"/>
+      <c r="F87" s="396"/>
+      <c r="G87" s="397"/>
       <c r="H87" s="100" t="s">
         <v>157</v>
       </c>
@@ -15016,13 +15025,13 @@
       <c r="AA87" s="25"/>
     </row>
     <row r="88" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A88" s="293"/>
-      <c r="B88" s="293"/>
-      <c r="C88" s="294"/>
-      <c r="D88" s="332"/>
-      <c r="E88" s="333"/>
-      <c r="F88" s="333"/>
-      <c r="G88" s="334"/>
+      <c r="A88" s="312"/>
+      <c r="B88" s="312"/>
+      <c r="C88" s="313"/>
+      <c r="D88" s="307"/>
+      <c r="E88" s="308"/>
+      <c r="F88" s="308"/>
+      <c r="G88" s="309"/>
       <c r="H88" s="101" t="s">
         <v>158</v>
       </c>
@@ -15047,9 +15056,9 @@
       <c r="AA88" s="102"/>
     </row>
     <row r="89" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A89" s="293"/>
-      <c r="B89" s="293"/>
-      <c r="C89" s="294"/>
+      <c r="A89" s="312"/>
+      <c r="B89" s="312"/>
+      <c r="C89" s="313"/>
       <c r="D89" s="104" t="s">
         <v>152</v>
       </c>
@@ -15080,9 +15089,9 @@
       <c r="AA89" s="102"/>
     </row>
     <row r="90" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A90" s="293"/>
-      <c r="B90" s="293"/>
-      <c r="C90" s="294"/>
+      <c r="A90" s="312"/>
+      <c r="B90" s="312"/>
+      <c r="C90" s="313"/>
       <c r="D90" s="104" t="s">
         <v>153</v>
       </c>
@@ -15117,9 +15126,9 @@
       <c r="AA90" s="102"/>
     </row>
     <row r="91" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A91" s="293"/>
-      <c r="B91" s="293"/>
-      <c r="C91" s="294"/>
+      <c r="A91" s="312"/>
+      <c r="B91" s="312"/>
+      <c r="C91" s="313"/>
       <c r="D91" s="97" t="s">
         <v>154</v>
       </c>
@@ -15152,9 +15161,9 @@
       <c r="AA91" s="102"/>
     </row>
     <row r="92" spans="1:27" ht="18" customHeight="1">
-      <c r="A92" s="293"/>
-      <c r="B92" s="293"/>
-      <c r="C92" s="294"/>
+      <c r="A92" s="312"/>
+      <c r="B92" s="312"/>
+      <c r="C92" s="313"/>
       <c r="D92" s="94" t="s">
         <v>155</v>
       </c>
@@ -15185,9 +15194,9 @@
       <c r="AA92" s="102"/>
     </row>
     <row r="93" spans="1:27" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A93" s="295"/>
-      <c r="B93" s="295"/>
-      <c r="C93" s="296"/>
+      <c r="A93" s="320"/>
+      <c r="B93" s="320"/>
+      <c r="C93" s="321"/>
       <c r="D93" s="122" t="s">
         <v>156</v>
       </c>
@@ -15222,11 +15231,11 @@
       <c r="AA93" s="27"/>
     </row>
     <row r="94" spans="1:27" s="136" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A94" s="291" t="s">
+      <c r="A94" s="310" t="s">
         <v>246</v>
       </c>
-      <c r="B94" s="291"/>
-      <c r="C94" s="292"/>
+      <c r="B94" s="310"/>
+      <c r="C94" s="311"/>
       <c r="D94" s="133" t="s">
         <v>265</v>
       </c>
@@ -15257,9 +15266,9 @@
       <c r="AA94" s="135"/>
     </row>
     <row r="95" spans="1:27" ht="18" customHeight="1">
-      <c r="A95" s="293"/>
-      <c r="B95" s="293"/>
-      <c r="C95" s="294"/>
+      <c r="A95" s="312"/>
+      <c r="B95" s="312"/>
+      <c r="C95" s="313"/>
       <c r="D95" s="129" t="s">
         <v>264</v>
       </c>
@@ -15290,9 +15299,9 @@
       <c r="AA95" s="102"/>
     </row>
     <row r="96" spans="1:27" ht="18" customHeight="1">
-      <c r="A96" s="293"/>
-      <c r="B96" s="293"/>
-      <c r="C96" s="294"/>
+      <c r="A96" s="312"/>
+      <c r="B96" s="312"/>
+      <c r="C96" s="313"/>
       <c r="D96" s="129" t="s">
         <v>248</v>
       </c>
@@ -15329,9 +15338,9 @@
       <c r="AA96" s="143"/>
     </row>
     <row r="97" spans="1:27" s="103" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A97" s="293"/>
-      <c r="B97" s="293"/>
-      <c r="C97" s="294"/>
+      <c r="A97" s="312"/>
+      <c r="B97" s="312"/>
+      <c r="C97" s="313"/>
       <c r="D97" s="129" t="s">
         <v>249</v>
       </c>
@@ -15372,9 +15381,9 @@
       <c r="AA97" s="143"/>
     </row>
     <row r="98" spans="1:27" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A98" s="293"/>
-      <c r="B98" s="293"/>
-      <c r="C98" s="294"/>
+      <c r="A98" s="312"/>
+      <c r="B98" s="312"/>
+      <c r="C98" s="313"/>
       <c r="D98" s="129" t="s">
         <v>247</v>
       </c>
@@ -15407,9 +15416,9 @@
       <c r="AA98" s="143"/>
     </row>
     <row r="99" spans="1:27" s="164" customFormat="1" ht="18" customHeight="1">
-      <c r="A99" s="293"/>
-      <c r="B99" s="293"/>
-      <c r="C99" s="294"/>
+      <c r="A99" s="312"/>
+      <c r="B99" s="312"/>
+      <c r="C99" s="313"/>
       <c r="D99" s="129" t="s">
         <v>262</v>
       </c>
@@ -15446,9 +15455,9 @@
       <c r="AA99" s="143"/>
     </row>
     <row r="100" spans="1:27" s="164" customFormat="1" ht="18" customHeight="1">
-      <c r="A100" s="293"/>
-      <c r="B100" s="293"/>
-      <c r="C100" s="294"/>
+      <c r="A100" s="312"/>
+      <c r="B100" s="312"/>
+      <c r="C100" s="313"/>
       <c r="D100" s="129" t="s">
         <v>269</v>
       </c>
@@ -15483,9 +15492,9 @@
       <c r="AA100" s="143"/>
     </row>
     <row r="101" spans="1:27" s="164" customFormat="1" ht="18" customHeight="1">
-      <c r="A101" s="293"/>
-      <c r="B101" s="293"/>
-      <c r="C101" s="294"/>
+      <c r="A101" s="312"/>
+      <c r="B101" s="312"/>
+      <c r="C101" s="313"/>
       <c r="D101" s="129" t="s">
         <v>270</v>
       </c>
@@ -15522,15 +15531,15 @@
       <c r="AA101" s="143"/>
     </row>
     <row r="102" spans="1:27" s="164" customFormat="1" ht="18" customHeight="1">
-      <c r="A102" s="293"/>
-      <c r="B102" s="293"/>
-      <c r="C102" s="294"/>
-      <c r="D102" s="315" t="s">
+      <c r="A102" s="312"/>
+      <c r="B102" s="312"/>
+      <c r="C102" s="313"/>
+      <c r="D102" s="322" t="s">
         <v>269</v>
       </c>
-      <c r="E102" s="316"/>
-      <c r="F102" s="316"/>
-      <c r="G102" s="317"/>
+      <c r="E102" s="323"/>
+      <c r="F102" s="323"/>
+      <c r="G102" s="324"/>
       <c r="H102" s="145" t="s">
         <v>275</v>
       </c>
@@ -15557,13 +15566,13 @@
       <c r="AA102" s="143"/>
     </row>
     <row r="103" spans="1:27" ht="18" customHeight="1">
-      <c r="A103" s="293"/>
-      <c r="B103" s="293"/>
-      <c r="C103" s="294"/>
-      <c r="D103" s="315"/>
-      <c r="E103" s="316"/>
-      <c r="F103" s="316"/>
-      <c r="G103" s="317"/>
+      <c r="A103" s="312"/>
+      <c r="B103" s="312"/>
+      <c r="C103" s="313"/>
+      <c r="D103" s="322"/>
+      <c r="E103" s="323"/>
+      <c r="F103" s="323"/>
+      <c r="G103" s="324"/>
       <c r="H103" s="145" t="s">
         <v>276</v>
       </c>
@@ -15590,13 +15599,13 @@
       <c r="AA103" s="143"/>
     </row>
     <row r="104" spans="1:27" ht="18" customHeight="1">
-      <c r="A104" s="293"/>
-      <c r="B104" s="293"/>
-      <c r="C104" s="294"/>
-      <c r="D104" s="315"/>
-      <c r="E104" s="316"/>
-      <c r="F104" s="316"/>
-      <c r="G104" s="317"/>
+      <c r="A104" s="312"/>
+      <c r="B104" s="312"/>
+      <c r="C104" s="313"/>
+      <c r="D104" s="322"/>
+      <c r="E104" s="323"/>
+      <c r="F104" s="323"/>
+      <c r="G104" s="324"/>
       <c r="H104" s="145" t="s">
         <v>278</v>
       </c>
@@ -15621,13 +15630,13 @@
       <c r="AA104" s="143"/>
     </row>
     <row r="105" spans="1:27" ht="18" customHeight="1">
-      <c r="A105" s="293"/>
-      <c r="B105" s="293"/>
-      <c r="C105" s="294"/>
-      <c r="D105" s="315"/>
-      <c r="E105" s="316"/>
-      <c r="F105" s="316"/>
-      <c r="G105" s="317"/>
+      <c r="A105" s="312"/>
+      <c r="B105" s="312"/>
+      <c r="C105" s="313"/>
+      <c r="D105" s="322"/>
+      <c r="E105" s="323"/>
+      <c r="F105" s="323"/>
+      <c r="G105" s="324"/>
       <c r="H105" s="145" t="s">
         <v>279</v>
       </c>
@@ -15652,13 +15661,13 @@
       <c r="AA105" s="143"/>
     </row>
     <row r="106" spans="1:27" ht="18" customHeight="1">
-      <c r="A106" s="293"/>
-      <c r="B106" s="293"/>
-      <c r="C106" s="294"/>
-      <c r="D106" s="315"/>
-      <c r="E106" s="316"/>
-      <c r="F106" s="316"/>
-      <c r="G106" s="317"/>
+      <c r="A106" s="312"/>
+      <c r="B106" s="312"/>
+      <c r="C106" s="313"/>
+      <c r="D106" s="322"/>
+      <c r="E106" s="323"/>
+      <c r="F106" s="323"/>
+      <c r="G106" s="324"/>
       <c r="H106" s="145" t="s">
         <v>280</v>
       </c>
@@ -15683,15 +15692,15 @@
       <c r="AA106" s="143"/>
     </row>
     <row r="107" spans="1:27">
-      <c r="A107" s="293"/>
-      <c r="B107" s="293"/>
-      <c r="C107" s="294"/>
-      <c r="D107" s="315" t="s">
+      <c r="A107" s="312"/>
+      <c r="B107" s="312"/>
+      <c r="C107" s="313"/>
+      <c r="D107" s="322" t="s">
         <v>285</v>
       </c>
-      <c r="E107" s="316"/>
-      <c r="F107" s="316"/>
-      <c r="G107" s="317"/>
+      <c r="E107" s="323"/>
+      <c r="F107" s="323"/>
+      <c r="G107" s="324"/>
       <c r="H107" s="138" t="s">
         <v>283</v>
       </c>
@@ -15720,13 +15729,13 @@
       <c r="AA107" s="143"/>
     </row>
     <row r="108" spans="1:27" s="28" customFormat="1" ht="18.600000000000001" thickBot="1">
-      <c r="A108" s="295"/>
-      <c r="B108" s="295"/>
-      <c r="C108" s="296"/>
-      <c r="D108" s="326"/>
-      <c r="E108" s="327"/>
-      <c r="F108" s="327"/>
-      <c r="G108" s="328"/>
+      <c r="A108" s="320"/>
+      <c r="B108" s="320"/>
+      <c r="C108" s="321"/>
+      <c r="D108" s="384"/>
+      <c r="E108" s="385"/>
+      <c r="F108" s="385"/>
+      <c r="G108" s="386"/>
       <c r="H108" s="141" t="s">
         <v>284</v>
       </c>
@@ -15751,17 +15760,17 @@
       <c r="AA108" s="144"/>
     </row>
     <row r="109" spans="1:27" s="136" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A109" s="291" t="s">
+      <c r="A109" s="310" t="s">
         <v>286</v>
       </c>
-      <c r="B109" s="291"/>
-      <c r="C109" s="292"/>
-      <c r="D109" s="329" t="s">
+      <c r="B109" s="310"/>
+      <c r="C109" s="311"/>
+      <c r="D109" s="387" t="s">
         <v>289</v>
       </c>
-      <c r="E109" s="330"/>
-      <c r="F109" s="330"/>
-      <c r="G109" s="331"/>
+      <c r="E109" s="388"/>
+      <c r="F109" s="388"/>
+      <c r="G109" s="389"/>
       <c r="H109" s="24" t="s">
         <v>287</v>
       </c>
@@ -15788,9 +15797,9 @@
       <c r="AA109" s="135"/>
     </row>
     <row r="110" spans="1:27" ht="18" customHeight="1">
-      <c r="A110" s="293"/>
-      <c r="B110" s="293"/>
-      <c r="C110" s="294"/>
+      <c r="A110" s="312"/>
+      <c r="B110" s="312"/>
+      <c r="C110" s="313"/>
       <c r="D110" s="104" t="s">
         <v>290</v>
       </c>
@@ -15827,9 +15836,9 @@
       <c r="AA110" s="102"/>
     </row>
     <row r="111" spans="1:27" ht="18" customHeight="1">
-      <c r="A111" s="293"/>
-      <c r="B111" s="293"/>
-      <c r="C111" s="294"/>
+      <c r="A111" s="312"/>
+      <c r="B111" s="312"/>
+      <c r="C111" s="313"/>
       <c r="D111" s="97" t="s">
         <v>291</v>
       </c>
@@ -15864,9 +15873,9 @@
       <c r="AA111" s="102"/>
     </row>
     <row r="112" spans="1:27" s="103" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A112" s="293"/>
-      <c r="B112" s="293"/>
-      <c r="C112" s="294"/>
+      <c r="A112" s="312"/>
+      <c r="B112" s="312"/>
+      <c r="C112" s="313"/>
       <c r="D112" s="104" t="s">
         <v>292</v>
       </c>
@@ -15901,9 +15910,9 @@
       <c r="AA112" s="102"/>
     </row>
     <row r="113" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A113" s="293"/>
-      <c r="B113" s="293"/>
-      <c r="C113" s="294"/>
+      <c r="A113" s="312"/>
+      <c r="B113" s="312"/>
+      <c r="C113" s="313"/>
       <c r="D113" s="104" t="s">
         <v>293</v>
       </c>
@@ -15942,15 +15951,15 @@
       <c r="AA113" s="102"/>
     </row>
     <row r="114" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A114" s="293"/>
-      <c r="B114" s="293"/>
-      <c r="C114" s="294"/>
-      <c r="D114" s="315" t="s">
+      <c r="A114" s="312"/>
+      <c r="B114" s="312"/>
+      <c r="C114" s="313"/>
+      <c r="D114" s="322" t="s">
         <v>307</v>
       </c>
-      <c r="E114" s="316"/>
-      <c r="F114" s="316"/>
-      <c r="G114" s="317"/>
+      <c r="E114" s="323"/>
+      <c r="F114" s="323"/>
+      <c r="G114" s="324"/>
       <c r="H114" s="168" t="s">
         <v>309</v>
       </c>
@@ -15977,15 +15986,15 @@
       <c r="AA114" s="102"/>
     </row>
     <row r="115" spans="1:27">
-      <c r="A115" s="293"/>
-      <c r="B115" s="293"/>
-      <c r="C115" s="294"/>
-      <c r="D115" s="323" t="s">
+      <c r="A115" s="312"/>
+      <c r="B115" s="312"/>
+      <c r="C115" s="313"/>
+      <c r="D115" s="301" t="s">
         <v>286</v>
       </c>
-      <c r="E115" s="324"/>
-      <c r="F115" s="324"/>
-      <c r="G115" s="325"/>
+      <c r="E115" s="302"/>
+      <c r="F115" s="302"/>
+      <c r="G115" s="303"/>
       <c r="H115" s="169" t="s">
         <v>314</v>
       </c>
@@ -16016,13 +16025,13 @@
       <c r="AA115" s="102"/>
     </row>
     <row r="116" spans="1:27" ht="18.600000000000001" thickBot="1">
-      <c r="A116" s="293"/>
-      <c r="B116" s="293"/>
-      <c r="C116" s="294"/>
-      <c r="D116" s="332"/>
-      <c r="E116" s="333"/>
-      <c r="F116" s="333"/>
-      <c r="G116" s="334"/>
+      <c r="A116" s="312"/>
+      <c r="B116" s="312"/>
+      <c r="C116" s="313"/>
+      <c r="D116" s="307"/>
+      <c r="E116" s="308"/>
+      <c r="F116" s="308"/>
+      <c r="G116" s="309"/>
       <c r="H116" s="141"/>
       <c r="I116" s="111"/>
       <c r="J116" s="189"/>
@@ -16049,17 +16058,17 @@
       <c r="AA116" s="111"/>
     </row>
     <row r="117" spans="1:27" s="136" customFormat="1" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A117" s="291" t="s">
+      <c r="A117" s="310" t="s">
         <v>431</v>
       </c>
-      <c r="B117" s="291"/>
-      <c r="C117" s="292"/>
-      <c r="D117" s="349" t="s">
+      <c r="B117" s="310"/>
+      <c r="C117" s="311"/>
+      <c r="D117" s="398" t="s">
         <v>432</v>
       </c>
-      <c r="E117" s="330"/>
-      <c r="F117" s="330"/>
-      <c r="G117" s="331"/>
+      <c r="E117" s="388"/>
+      <c r="F117" s="388"/>
+      <c r="G117" s="389"/>
       <c r="H117" s="24" t="s">
         <v>433</v>
       </c>
@@ -16084,9 +16093,9 @@
       <c r="AA117" s="135"/>
     </row>
     <row r="118" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A118" s="295"/>
-      <c r="B118" s="295"/>
-      <c r="C118" s="296"/>
+      <c r="A118" s="320"/>
+      <c r="B118" s="320"/>
+      <c r="C118" s="321"/>
       <c r="D118" s="139" t="s">
         <v>437</v>
       </c>
@@ -16117,11 +16126,11 @@
       <c r="AA118" s="27"/>
     </row>
     <row r="119" spans="1:27" s="226" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A119" s="394" t="s">
+      <c r="A119" s="327" t="s">
         <v>435</v>
       </c>
-      <c r="B119" s="394"/>
-      <c r="C119" s="395"/>
+      <c r="B119" s="327"/>
+      <c r="C119" s="328"/>
       <c r="D119" s="219" t="s">
         <v>437</v>
       </c>
@@ -16152,11 +16161,11 @@
       <c r="AA119" s="223"/>
     </row>
     <row r="120" spans="1:27" s="103" customFormat="1" ht="17.399999999999999" customHeight="1" thickTop="1">
-      <c r="A120" s="291" t="s">
+      <c r="A120" s="310" t="s">
         <v>12</v>
       </c>
-      <c r="B120" s="291"/>
-      <c r="C120" s="292"/>
+      <c r="B120" s="310"/>
+      <c r="C120" s="311"/>
       <c r="D120" s="205" t="s">
         <v>438</v>
       </c>
@@ -16197,9 +16206,9 @@
       <c r="AA120" s="102"/>
     </row>
     <row r="121" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A121" s="293"/>
-      <c r="B121" s="293"/>
-      <c r="C121" s="294"/>
+      <c r="A121" s="312"/>
+      <c r="B121" s="312"/>
+      <c r="C121" s="313"/>
       <c r="D121" s="205" t="s">
         <v>441</v>
       </c>
@@ -16232,15 +16241,15 @@
       <c r="AA121" s="102"/>
     </row>
     <row r="122" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A122" s="293"/>
-      <c r="B122" s="293"/>
-      <c r="C122" s="294"/>
-      <c r="D122" s="315" t="s">
+      <c r="A122" s="312"/>
+      <c r="B122" s="312"/>
+      <c r="C122" s="313"/>
+      <c r="D122" s="322" t="s">
         <v>444</v>
       </c>
-      <c r="E122" s="316"/>
-      <c r="F122" s="316"/>
-      <c r="G122" s="317"/>
+      <c r="E122" s="323"/>
+      <c r="F122" s="323"/>
+      <c r="G122" s="324"/>
       <c r="H122" s="24" t="s">
         <v>443</v>
       </c>
@@ -16269,15 +16278,15 @@
       <c r="AA122" s="102"/>
     </row>
     <row r="123" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A123" s="295"/>
-      <c r="B123" s="295"/>
-      <c r="C123" s="296"/>
-      <c r="D123" s="320" t="s">
+      <c r="A123" s="320"/>
+      <c r="B123" s="320"/>
+      <c r="C123" s="321"/>
+      <c r="D123" s="381" t="s">
         <v>452</v>
       </c>
-      <c r="E123" s="321"/>
-      <c r="F123" s="321"/>
-      <c r="G123" s="322"/>
+      <c r="E123" s="382"/>
+      <c r="F123" s="382"/>
+      <c r="G123" s="383"/>
       <c r="H123" s="125" t="s">
         <v>451</v>
       </c>
@@ -16302,17 +16311,17 @@
       <c r="AA123" s="27"/>
     </row>
     <row r="124" spans="1:27" ht="18" customHeight="1" thickTop="1">
-      <c r="A124" s="291" t="s">
+      <c r="A124" s="310" t="s">
         <v>9</v>
       </c>
-      <c r="B124" s="291"/>
-      <c r="C124" s="292"/>
-      <c r="D124" s="301" t="s">
+      <c r="B124" s="310"/>
+      <c r="C124" s="311"/>
+      <c r="D124" s="329" t="s">
         <v>168</v>
       </c>
-      <c r="E124" s="302"/>
-      <c r="F124" s="302"/>
-      <c r="G124" s="303"/>
+      <c r="E124" s="330"/>
+      <c r="F124" s="330"/>
+      <c r="G124" s="331"/>
       <c r="H124" s="109" t="s">
         <v>453</v>
       </c>
@@ -16337,13 +16346,13 @@
       <c r="AA124" s="102"/>
     </row>
     <row r="125" spans="1:27" ht="18" customHeight="1" thickBot="1">
-      <c r="A125" s="293"/>
-      <c r="B125" s="293"/>
-      <c r="C125" s="294"/>
-      <c r="D125" s="343"/>
-      <c r="E125" s="344"/>
-      <c r="F125" s="344"/>
-      <c r="G125" s="345"/>
+      <c r="A125" s="312"/>
+      <c r="B125" s="312"/>
+      <c r="C125" s="313"/>
+      <c r="D125" s="392"/>
+      <c r="E125" s="393"/>
+      <c r="F125" s="393"/>
+      <c r="G125" s="394"/>
       <c r="H125" s="138" t="s">
         <v>10</v>
       </c>
@@ -16370,17 +16379,17 @@
       <c r="AA125" s="102"/>
     </row>
     <row r="126" spans="1:27" ht="18" customHeight="1" thickTop="1">
-      <c r="A126" s="291" t="s">
+      <c r="A126" s="310" t="s">
         <v>471</v>
       </c>
-      <c r="B126" s="291"/>
-      <c r="C126" s="292"/>
-      <c r="D126" s="301" t="s">
+      <c r="B126" s="310"/>
+      <c r="C126" s="311"/>
+      <c r="D126" s="329" t="s">
         <v>473</v>
       </c>
-      <c r="E126" s="302"/>
-      <c r="F126" s="302"/>
-      <c r="G126" s="303"/>
+      <c r="E126" s="330"/>
+      <c r="F126" s="330"/>
+      <c r="G126" s="331"/>
       <c r="H126" s="24" t="s">
         <v>472</v>
       </c>
@@ -16415,13 +16424,13 @@
       <c r="AA126" s="102"/>
     </row>
     <row r="127" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A127" s="293"/>
-      <c r="B127" s="293"/>
-      <c r="C127" s="294"/>
-      <c r="D127" s="332"/>
-      <c r="E127" s="333"/>
-      <c r="F127" s="333"/>
-      <c r="G127" s="334"/>
+      <c r="A127" s="312"/>
+      <c r="B127" s="312"/>
+      <c r="C127" s="313"/>
+      <c r="D127" s="307"/>
+      <c r="E127" s="308"/>
+      <c r="F127" s="308"/>
+      <c r="G127" s="309"/>
       <c r="H127" s="24" t="s">
         <v>484</v>
       </c>
@@ -16452,9 +16461,9 @@
       <c r="AA127" s="102"/>
     </row>
     <row r="128" spans="1:27" s="103" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A128" s="293"/>
-      <c r="B128" s="293"/>
-      <c r="C128" s="294"/>
+      <c r="A128" s="312"/>
+      <c r="B128" s="312"/>
+      <c r="C128" s="313"/>
       <c r="D128" s="206" t="s">
         <v>474</v>
       </c>
@@ -16491,9 +16500,9 @@
       <c r="AA128" s="102"/>
     </row>
     <row r="129" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A129" s="295"/>
-      <c r="B129" s="295"/>
-      <c r="C129" s="296"/>
+      <c r="A129" s="320"/>
+      <c r="B129" s="320"/>
+      <c r="C129" s="321"/>
       <c r="D129" s="139" t="s">
         <v>482</v>
       </c>
@@ -16524,42 +16533,42 @@
       <c r="AA129" s="27"/>
     </row>
     <row r="130" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1" thickTop="1">
-      <c r="A130" s="291" t="s">
+      <c r="A130" s="310" t="s">
         <v>488</v>
       </c>
-      <c r="B130" s="291"/>
-      <c r="C130" s="292"/>
-      <c r="D130" s="337" t="s">
+      <c r="B130" s="310"/>
+      <c r="C130" s="311"/>
+      <c r="D130" s="332" t="s">
         <v>461</v>
       </c>
-      <c r="E130" s="338"/>
-      <c r="F130" s="338"/>
-      <c r="G130" s="339"/>
+      <c r="E130" s="333"/>
+      <c r="F130" s="333"/>
+      <c r="G130" s="334"/>
       <c r="H130" s="138" t="s">
         <v>462</v>
       </c>
       <c r="I130" s="143"/>
       <c r="J130" s="143"/>
-      <c r="K130" s="288" t="s">
+      <c r="K130" s="338" t="s">
         <v>165</v>
       </c>
-      <c r="L130" s="288"/>
-      <c r="M130" s="284" t="s">
+      <c r="L130" s="338"/>
+      <c r="M130" s="405" t="s">
         <v>181</v>
       </c>
-      <c r="N130" s="284"/>
-      <c r="O130" s="288" t="s">
+      <c r="N130" s="405"/>
+      <c r="O130" s="338" t="s">
         <v>463</v>
       </c>
-      <c r="P130" s="288"/>
-      <c r="Q130" s="288" t="s">
+      <c r="P130" s="338"/>
+      <c r="Q130" s="338" t="s">
         <v>464</v>
       </c>
-      <c r="R130" s="289"/>
-      <c r="S130" s="286" t="s">
+      <c r="R130" s="408"/>
+      <c r="S130" s="406" t="s">
         <v>465</v>
       </c>
-      <c r="T130" s="286"/>
+      <c r="T130" s="406"/>
       <c r="U130" s="143"/>
       <c r="V130" s="143"/>
       <c r="W130" s="143"/>
@@ -16569,28 +16578,28 @@
       <c r="AA130" s="102"/>
     </row>
     <row r="131" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A131" s="295"/>
-      <c r="B131" s="295"/>
-      <c r="C131" s="296"/>
-      <c r="D131" s="304"/>
-      <c r="E131" s="305"/>
-      <c r="F131" s="305"/>
-      <c r="G131" s="306"/>
+      <c r="A131" s="320"/>
+      <c r="B131" s="320"/>
+      <c r="C131" s="321"/>
+      <c r="D131" s="335"/>
+      <c r="E131" s="336"/>
+      <c r="F131" s="336"/>
+      <c r="G131" s="337"/>
       <c r="H131" s="125" t="s">
         <v>466</v>
       </c>
       <c r="I131" s="144"/>
       <c r="J131" s="144"/>
-      <c r="K131" s="285"/>
-      <c r="L131" s="285"/>
-      <c r="M131" s="285"/>
-      <c r="N131" s="285"/>
-      <c r="O131" s="285"/>
-      <c r="P131" s="285"/>
-      <c r="Q131" s="285"/>
-      <c r="R131" s="290"/>
-      <c r="S131" s="287"/>
-      <c r="T131" s="287"/>
+      <c r="K131" s="339"/>
+      <c r="L131" s="339"/>
+      <c r="M131" s="339"/>
+      <c r="N131" s="339"/>
+      <c r="O131" s="339"/>
+      <c r="P131" s="339"/>
+      <c r="Q131" s="339"/>
+      <c r="R131" s="409"/>
+      <c r="S131" s="407"/>
+      <c r="T131" s="407"/>
       <c r="U131" s="144"/>
       <c r="V131" s="144"/>
       <c r="W131" s="144"/>
@@ -16600,17 +16609,17 @@
       <c r="AA131" s="27"/>
     </row>
     <row r="132" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1" thickTop="1">
-      <c r="A132" s="291" t="s">
+      <c r="A132" s="310" t="s">
         <v>490</v>
       </c>
-      <c r="B132" s="291"/>
-      <c r="C132" s="292"/>
-      <c r="D132" s="332" t="s">
+      <c r="B132" s="310"/>
+      <c r="C132" s="311"/>
+      <c r="D132" s="307" t="s">
         <v>490</v>
       </c>
-      <c r="E132" s="333"/>
-      <c r="F132" s="333"/>
-      <c r="G132" s="334"/>
+      <c r="E132" s="308"/>
+      <c r="F132" s="308"/>
+      <c r="G132" s="309"/>
       <c r="H132" s="24" t="s">
         <v>491</v>
       </c>
@@ -16641,9 +16650,9 @@
       <c r="AA132" s="102"/>
     </row>
     <row r="133" spans="1:27" ht="18" customHeight="1">
-      <c r="A133" s="293"/>
-      <c r="B133" s="293"/>
-      <c r="C133" s="294"/>
+      <c r="A133" s="312"/>
+      <c r="B133" s="312"/>
+      <c r="C133" s="313"/>
       <c r="D133" s="205" t="s">
         <v>494</v>
       </c>
@@ -16682,9 +16691,9 @@
       <c r="AA133" s="102"/>
     </row>
     <row r="134" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A134" s="295"/>
-      <c r="B134" s="295"/>
-      <c r="C134" s="296"/>
+      <c r="A134" s="320"/>
+      <c r="B134" s="320"/>
+      <c r="C134" s="321"/>
       <c r="D134" s="230" t="s">
         <v>495</v>
       </c>
@@ -16715,11 +16724,11 @@
       <c r="AA134" s="27"/>
     </row>
     <row r="135" spans="1:27" s="103" customFormat="1" ht="17.399999999999999" customHeight="1" thickTop="1">
-      <c r="A135" s="291" t="s">
+      <c r="A135" s="310" t="s">
         <v>499</v>
       </c>
-      <c r="B135" s="291"/>
-      <c r="C135" s="292"/>
+      <c r="B135" s="310"/>
+      <c r="C135" s="311"/>
       <c r="D135" s="205" t="s">
         <v>500</v>
       </c>
@@ -16754,9 +16763,9 @@
       <c r="AA135" s="21"/>
     </row>
     <row r="136" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A136" s="293"/>
-      <c r="B136" s="293"/>
-      <c r="C136" s="294"/>
+      <c r="A136" s="312"/>
+      <c r="B136" s="312"/>
+      <c r="C136" s="313"/>
       <c r="D136" s="205" t="s">
         <v>502</v>
       </c>
@@ -16787,15 +16796,15 @@
       <c r="AA136" s="143"/>
     </row>
     <row r="137" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A137" s="293"/>
-      <c r="B137" s="293"/>
-      <c r="C137" s="294"/>
-      <c r="D137" s="315" t="s">
+      <c r="A137" s="312"/>
+      <c r="B137" s="312"/>
+      <c r="C137" s="313"/>
+      <c r="D137" s="322" t="s">
         <v>503</v>
       </c>
-      <c r="E137" s="316"/>
-      <c r="F137" s="316"/>
-      <c r="G137" s="317"/>
+      <c r="E137" s="323"/>
+      <c r="F137" s="323"/>
+      <c r="G137" s="324"/>
       <c r="H137" s="245" t="s">
         <v>516</v>
       </c>
@@ -16826,15 +16835,15 @@
       <c r="AA137" s="143"/>
     </row>
     <row r="138" spans="1:27" ht="18" customHeight="1">
-      <c r="A138" s="293"/>
-      <c r="B138" s="293"/>
-      <c r="C138" s="294"/>
-      <c r="D138" s="315" t="s">
+      <c r="A138" s="312"/>
+      <c r="B138" s="312"/>
+      <c r="C138" s="313"/>
+      <c r="D138" s="322" t="s">
         <v>507</v>
       </c>
-      <c r="E138" s="316"/>
-      <c r="F138" s="316"/>
-      <c r="G138" s="317"/>
+      <c r="E138" s="323"/>
+      <c r="F138" s="323"/>
+      <c r="G138" s="324"/>
       <c r="H138" s="245" t="s">
         <v>517</v>
       </c>
@@ -16861,9 +16870,9 @@
       <c r="AA138" s="143"/>
     </row>
     <row r="139" spans="1:27" ht="18" customHeight="1">
-      <c r="A139" s="293"/>
-      <c r="B139" s="293"/>
-      <c r="C139" s="294"/>
+      <c r="A139" s="312"/>
+      <c r="B139" s="312"/>
+      <c r="C139" s="313"/>
       <c r="D139" s="205" t="s">
         <v>508</v>
       </c>
@@ -16900,9 +16909,9 @@
       <c r="AA139" s="143"/>
     </row>
     <row r="140" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A140" s="295"/>
-      <c r="B140" s="295"/>
-      <c r="C140" s="296"/>
+      <c r="A140" s="320"/>
+      <c r="B140" s="320"/>
+      <c r="C140" s="321"/>
       <c r="D140" s="230" t="s">
         <v>509</v>
       </c>
@@ -16935,11 +16944,11 @@
       <c r="AA140" s="27"/>
     </row>
     <row r="141" spans="1:27" s="103" customFormat="1" ht="17.399999999999999" customHeight="1" thickTop="1">
-      <c r="A141" s="291" t="s">
+      <c r="A141" s="310" t="s">
         <v>512</v>
       </c>
-      <c r="B141" s="291"/>
-      <c r="C141" s="292"/>
+      <c r="B141" s="310"/>
+      <c r="C141" s="311"/>
       <c r="D141" s="205"/>
       <c r="E141" s="105"/>
       <c r="F141" s="105"/>
@@ -16968,9 +16977,9 @@
       <c r="AA141" s="102"/>
     </row>
     <row r="142" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A142" s="295"/>
-      <c r="B142" s="295"/>
-      <c r="C142" s="296"/>
+      <c r="A142" s="320"/>
+      <c r="B142" s="320"/>
+      <c r="C142" s="321"/>
       <c r="D142" s="230"/>
       <c r="E142" s="87"/>
       <c r="F142" s="87"/>
@@ -16999,17 +17008,17 @@
       <c r="AA142" s="27"/>
     </row>
     <row r="143" spans="1:27" ht="18" customHeight="1" thickTop="1">
-      <c r="A143" s="291" t="s">
+      <c r="A143" s="310" t="s">
         <v>524</v>
       </c>
-      <c r="B143" s="291"/>
-      <c r="C143" s="292"/>
-      <c r="D143" s="301" t="s">
+      <c r="B143" s="310"/>
+      <c r="C143" s="311"/>
+      <c r="D143" s="329" t="s">
         <v>525</v>
       </c>
-      <c r="E143" s="302"/>
-      <c r="F143" s="302"/>
-      <c r="G143" s="303"/>
+      <c r="E143" s="330"/>
+      <c r="F143" s="330"/>
+      <c r="G143" s="331"/>
       <c r="H143" s="109" t="s">
         <v>526</v>
       </c>
@@ -17036,13 +17045,13 @@
       <c r="AA143" s="102"/>
     </row>
     <row r="144" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A144" s="295"/>
-      <c r="B144" s="295"/>
-      <c r="C144" s="296"/>
-      <c r="D144" s="304"/>
-      <c r="E144" s="305"/>
-      <c r="F144" s="305"/>
-      <c r="G144" s="306"/>
+      <c r="A144" s="320"/>
+      <c r="B144" s="320"/>
+      <c r="C144" s="321"/>
+      <c r="D144" s="335"/>
+      <c r="E144" s="336"/>
+      <c r="F144" s="336"/>
+      <c r="G144" s="337"/>
       <c r="H144" s="141" t="s">
         <v>527</v>
       </c>
@@ -17071,11 +17080,11 @@
       <c r="AA144" s="27"/>
     </row>
     <row r="145" spans="1:27" s="103" customFormat="1" ht="17.399999999999999" customHeight="1" thickTop="1">
-      <c r="A145" s="291" t="s">
+      <c r="A145" s="310" t="s">
         <v>530</v>
       </c>
-      <c r="B145" s="291"/>
-      <c r="C145" s="292"/>
+      <c r="B145" s="310"/>
+      <c r="C145" s="311"/>
       <c r="D145" s="229"/>
       <c r="E145" s="105"/>
       <c r="F145" s="105"/>
@@ -17106,9 +17115,9 @@
       <c r="AA145" s="102"/>
     </row>
     <row r="146" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A146" s="295"/>
-      <c r="B146" s="295"/>
-      <c r="C146" s="296"/>
+      <c r="A146" s="320"/>
+      <c r="B146" s="320"/>
+      <c r="C146" s="321"/>
       <c r="D146" s="230" t="s">
         <v>532</v>
       </c>
@@ -17139,11 +17148,11 @@
       <c r="AA146" s="27"/>
     </row>
     <row r="147" spans="1:27" s="226" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A147" s="394" t="s">
+      <c r="A147" s="327" t="s">
         <v>535</v>
       </c>
-      <c r="B147" s="394"/>
-      <c r="C147" s="395"/>
+      <c r="B147" s="327"/>
+      <c r="C147" s="328"/>
       <c r="D147" s="219" t="s">
         <v>537</v>
       </c>
@@ -17917,17 +17926,17 @@
       <c r="V173" s="197"/>
     </row>
     <row r="174" spans="1:27" ht="18" customHeight="1">
-      <c r="A174" s="318" t="s">
+      <c r="A174" s="379" t="s">
         <v>359</v>
       </c>
-      <c r="B174" s="318"/>
-      <c r="C174" s="319"/>
-      <c r="D174" s="323" t="s">
+      <c r="B174" s="379"/>
+      <c r="C174" s="380"/>
+      <c r="D174" s="301" t="s">
         <v>1</v>
       </c>
-      <c r="E174" s="324"/>
-      <c r="F174" s="324"/>
-      <c r="G174" s="325"/>
+      <c r="E174" s="302"/>
+      <c r="F174" s="302"/>
+      <c r="G174" s="303"/>
       <c r="H174" s="145" t="s">
         <v>467</v>
       </c>
@@ -17954,110 +17963,110 @@
       <c r="AA174" s="187"/>
     </row>
     <row r="175" spans="1:27" ht="18" customHeight="1">
-      <c r="A175" s="293"/>
-      <c r="B175" s="293"/>
-      <c r="C175" s="294"/>
-      <c r="D175" s="340"/>
-      <c r="E175" s="341"/>
-      <c r="F175" s="341"/>
-      <c r="G175" s="342"/>
+      <c r="A175" s="312"/>
+      <c r="B175" s="312"/>
+      <c r="C175" s="313"/>
+      <c r="D175" s="304"/>
+      <c r="E175" s="305"/>
+      <c r="F175" s="305"/>
+      <c r="G175" s="306"/>
       <c r="H175" s="145" t="s">
         <v>469</v>
       </c>
       <c r="I175" s="187"/>
       <c r="J175" s="187"/>
       <c r="K175" s="187"/>
-      <c r="L175" s="297" t="s">
+      <c r="L175" s="410" t="s">
         <v>498</v>
       </c>
-      <c r="M175" s="298"/>
-      <c r="N175" s="298"/>
-      <c r="O175" s="298"/>
-      <c r="P175" s="298"/>
-      <c r="Q175" s="298"/>
-      <c r="R175" s="298"/>
-      <c r="S175" s="298"/>
-      <c r="T175" s="298"/>
-      <c r="U175" s="298"/>
-      <c r="V175" s="298"/>
-      <c r="W175" s="298"/>
-      <c r="X175" s="298"/>
-      <c r="Y175" s="298"/>
-      <c r="Z175" s="298"/>
+      <c r="M175" s="315"/>
+      <c r="N175" s="315"/>
+      <c r="O175" s="315"/>
+      <c r="P175" s="315"/>
+      <c r="Q175" s="315"/>
+      <c r="R175" s="315"/>
+      <c r="S175" s="315"/>
+      <c r="T175" s="315"/>
+      <c r="U175" s="315"/>
+      <c r="V175" s="315"/>
+      <c r="W175" s="315"/>
+      <c r="X175" s="315"/>
+      <c r="Y175" s="315"/>
+      <c r="Z175" s="315"/>
       <c r="AA175" s="187"/>
     </row>
     <row r="176" spans="1:27" ht="18" customHeight="1">
-      <c r="A176" s="293"/>
-      <c r="B176" s="293"/>
-      <c r="C176" s="294"/>
-      <c r="D176" s="340"/>
-      <c r="E176" s="341"/>
-      <c r="F176" s="341"/>
-      <c r="G176" s="342"/>
+      <c r="A176" s="312"/>
+      <c r="B176" s="312"/>
+      <c r="C176" s="313"/>
+      <c r="D176" s="304"/>
+      <c r="E176" s="305"/>
+      <c r="F176" s="305"/>
+      <c r="G176" s="306"/>
       <c r="H176" s="145" t="s">
         <v>470</v>
       </c>
       <c r="I176" s="187"/>
       <c r="J176" s="187"/>
       <c r="K176" s="187"/>
-      <c r="L176" s="299"/>
-      <c r="M176" s="299"/>
-      <c r="N176" s="299"/>
-      <c r="O176" s="299"/>
-      <c r="P176" s="299"/>
-      <c r="Q176" s="299"/>
-      <c r="R176" s="299"/>
-      <c r="S176" s="299"/>
-      <c r="T176" s="299"/>
-      <c r="U176" s="299"/>
-      <c r="V176" s="299"/>
-      <c r="W176" s="299"/>
-      <c r="X176" s="299"/>
-      <c r="Y176" s="299"/>
-      <c r="Z176" s="299"/>
+      <c r="L176" s="317"/>
+      <c r="M176" s="317"/>
+      <c r="N176" s="317"/>
+      <c r="O176" s="317"/>
+      <c r="P176" s="317"/>
+      <c r="Q176" s="317"/>
+      <c r="R176" s="317"/>
+      <c r="S176" s="317"/>
+      <c r="T176" s="317"/>
+      <c r="U176" s="317"/>
+      <c r="V176" s="317"/>
+      <c r="W176" s="317"/>
+      <c r="X176" s="317"/>
+      <c r="Y176" s="317"/>
+      <c r="Z176" s="317"/>
       <c r="AA176" s="187"/>
     </row>
     <row r="177" spans="1:27" ht="18" customHeight="1">
-      <c r="A177" s="293"/>
-      <c r="B177" s="293"/>
-      <c r="C177" s="294"/>
-      <c r="D177" s="332"/>
-      <c r="E177" s="333"/>
-      <c r="F177" s="333"/>
-      <c r="G177" s="334"/>
+      <c r="A177" s="312"/>
+      <c r="B177" s="312"/>
+      <c r="C177" s="313"/>
+      <c r="D177" s="307"/>
+      <c r="E177" s="308"/>
+      <c r="F177" s="308"/>
+      <c r="G177" s="309"/>
       <c r="H177" s="145" t="s">
         <v>497</v>
       </c>
       <c r="I177" s="187"/>
       <c r="J177" s="187"/>
       <c r="K177" s="187"/>
-      <c r="L177" s="300"/>
-      <c r="M177" s="300"/>
-      <c r="N177" s="300"/>
-      <c r="O177" s="300"/>
-      <c r="P177" s="300"/>
-      <c r="Q177" s="300"/>
-      <c r="R177" s="300"/>
-      <c r="S177" s="300"/>
-      <c r="T177" s="300"/>
-      <c r="U177" s="300"/>
-      <c r="V177" s="300"/>
-      <c r="W177" s="300"/>
-      <c r="X177" s="300"/>
-      <c r="Y177" s="300"/>
-      <c r="Z177" s="300"/>
+      <c r="L177" s="319"/>
+      <c r="M177" s="319"/>
+      <c r="N177" s="319"/>
+      <c r="O177" s="319"/>
+      <c r="P177" s="319"/>
+      <c r="Q177" s="319"/>
+      <c r="R177" s="319"/>
+      <c r="S177" s="319"/>
+      <c r="T177" s="319"/>
+      <c r="U177" s="319"/>
+      <c r="V177" s="319"/>
+      <c r="W177" s="319"/>
+      <c r="X177" s="319"/>
+      <c r="Y177" s="319"/>
+      <c r="Z177" s="319"/>
       <c r="AA177" s="187"/>
     </row>
     <row r="178" spans="1:27" ht="18" customHeight="1">
-      <c r="A178" s="293"/>
-      <c r="B178" s="293"/>
-      <c r="C178" s="294"/>
-      <c r="D178" s="315" t="s">
+      <c r="A178" s="312"/>
+      <c r="B178" s="312"/>
+      <c r="C178" s="313"/>
+      <c r="D178" s="322" t="s">
         <v>348</v>
       </c>
-      <c r="E178" s="316"/>
-      <c r="F178" s="316"/>
-      <c r="G178" s="317"/>
+      <c r="E178" s="323"/>
+      <c r="F178" s="323"/>
+      <c r="G178" s="324"/>
       <c r="H178" s="145" t="s">
         <v>317</v>
       </c>
@@ -18082,15 +18091,15 @@
       <c r="AA178" s="187"/>
     </row>
     <row r="179" spans="1:27" ht="18" customHeight="1">
-      <c r="A179" s="293"/>
-      <c r="B179" s="293"/>
-      <c r="C179" s="294"/>
-      <c r="D179" s="323" t="s">
+      <c r="A179" s="312"/>
+      <c r="B179" s="312"/>
+      <c r="C179" s="313"/>
+      <c r="D179" s="301" t="s">
         <v>360</v>
       </c>
-      <c r="E179" s="324"/>
-      <c r="F179" s="324"/>
-      <c r="G179" s="325"/>
+      <c r="E179" s="302"/>
+      <c r="F179" s="302"/>
+      <c r="G179" s="303"/>
       <c r="H179" s="145" t="s">
         <v>361</v>
       </c>
@@ -18115,13 +18124,13 @@
       <c r="AA179" s="171"/>
     </row>
     <row r="180" spans="1:27" s="28" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A180" s="295"/>
-      <c r="B180" s="295"/>
-      <c r="C180" s="296"/>
-      <c r="D180" s="304"/>
-      <c r="E180" s="305"/>
-      <c r="F180" s="305"/>
-      <c r="G180" s="306"/>
+      <c r="A180" s="320"/>
+      <c r="B180" s="320"/>
+      <c r="C180" s="321"/>
+      <c r="D180" s="335"/>
+      <c r="E180" s="336"/>
+      <c r="F180" s="336"/>
+      <c r="G180" s="337"/>
       <c r="H180" s="218" t="s">
         <v>362</v>
       </c>
@@ -18146,11 +18155,11 @@
       <c r="AA180" s="188"/>
     </row>
     <row r="181" spans="1:27" ht="18" customHeight="1" thickTop="1">
-      <c r="A181" s="293" t="s">
+      <c r="A181" s="312" t="s">
         <v>315</v>
       </c>
-      <c r="B181" s="293"/>
-      <c r="C181" s="294"/>
+      <c r="B181" s="312"/>
+      <c r="C181" s="313"/>
       <c r="D181" s="184" t="s">
         <v>316</v>
       </c>
@@ -18185,13 +18194,13 @@
       <c r="AA181" s="187"/>
     </row>
     <row r="182" spans="1:27" ht="18" customHeight="1">
-      <c r="A182" s="293"/>
-      <c r="B182" s="293"/>
-      <c r="C182" s="294"/>
-      <c r="D182" s="341"/>
-      <c r="E182" s="341"/>
-      <c r="F182" s="341"/>
-      <c r="G182" s="342"/>
+      <c r="A182" s="312"/>
+      <c r="B182" s="312"/>
+      <c r="C182" s="313"/>
+      <c r="D182" s="305"/>
+      <c r="E182" s="305"/>
+      <c r="F182" s="305"/>
+      <c r="G182" s="306"/>
       <c r="H182" s="145" t="s">
         <v>318</v>
       </c>
@@ -18220,13 +18229,13 @@
       <c r="AA182" s="171"/>
     </row>
     <row r="183" spans="1:27" ht="18" customHeight="1">
-      <c r="A183" s="293"/>
-      <c r="B183" s="293"/>
-      <c r="C183" s="294"/>
-      <c r="D183" s="341"/>
-      <c r="E183" s="341"/>
-      <c r="F183" s="341"/>
-      <c r="G183" s="342"/>
+      <c r="A183" s="312"/>
+      <c r="B183" s="312"/>
+      <c r="C183" s="313"/>
+      <c r="D183" s="305"/>
+      <c r="E183" s="305"/>
+      <c r="F183" s="305"/>
+      <c r="G183" s="306"/>
       <c r="H183" s="171"/>
       <c r="I183" s="143"/>
       <c r="J183" s="143"/>
@@ -18253,13 +18262,13 @@
       <c r="AA183" s="171"/>
     </row>
     <row r="184" spans="1:27" ht="18" customHeight="1">
-      <c r="A184" s="293"/>
-      <c r="B184" s="293"/>
-      <c r="C184" s="294"/>
-      <c r="D184" s="341"/>
-      <c r="E184" s="341"/>
-      <c r="F184" s="341"/>
-      <c r="G184" s="342"/>
+      <c r="A184" s="312"/>
+      <c r="B184" s="312"/>
+      <c r="C184" s="313"/>
+      <c r="D184" s="305"/>
+      <c r="E184" s="305"/>
+      <c r="F184" s="305"/>
+      <c r="G184" s="306"/>
       <c r="H184" s="145" t="s">
         <v>323</v>
       </c>
@@ -18290,13 +18299,13 @@
       <c r="AA184" s="171"/>
     </row>
     <row r="185" spans="1:27" ht="18" customHeight="1">
-      <c r="A185" s="293"/>
-      <c r="B185" s="293"/>
-      <c r="C185" s="294"/>
-      <c r="D185" s="341"/>
-      <c r="E185" s="341"/>
-      <c r="F185" s="341"/>
-      <c r="G185" s="342"/>
+      <c r="A185" s="312"/>
+      <c r="B185" s="312"/>
+      <c r="C185" s="313"/>
+      <c r="D185" s="305"/>
+      <c r="E185" s="305"/>
+      <c r="F185" s="305"/>
+      <c r="G185" s="306"/>
       <c r="H185" s="145" t="s">
         <v>327</v>
       </c>
@@ -18327,13 +18336,13 @@
       <c r="AA185" s="171"/>
     </row>
     <row r="186" spans="1:27" ht="18" customHeight="1">
-      <c r="A186" s="293"/>
-      <c r="B186" s="293"/>
-      <c r="C186" s="294"/>
-      <c r="D186" s="341"/>
-      <c r="E186" s="341"/>
-      <c r="F186" s="341"/>
-      <c r="G186" s="342"/>
+      <c r="A186" s="312"/>
+      <c r="B186" s="312"/>
+      <c r="C186" s="313"/>
+      <c r="D186" s="305"/>
+      <c r="E186" s="305"/>
+      <c r="F186" s="305"/>
+      <c r="G186" s="306"/>
       <c r="H186" s="145" t="s">
         <v>338</v>
       </c>
@@ -18364,13 +18373,13 @@
       <c r="AA186" s="143"/>
     </row>
     <row r="187" spans="1:27" ht="18" customHeight="1">
-      <c r="A187" s="293"/>
-      <c r="B187" s="293"/>
-      <c r="C187" s="294"/>
-      <c r="D187" s="341"/>
-      <c r="E187" s="341"/>
-      <c r="F187" s="341"/>
-      <c r="G187" s="342"/>
+      <c r="A187" s="312"/>
+      <c r="B187" s="312"/>
+      <c r="C187" s="313"/>
+      <c r="D187" s="305"/>
+      <c r="E187" s="305"/>
+      <c r="F187" s="305"/>
+      <c r="G187" s="306"/>
       <c r="H187" s="143"/>
       <c r="I187" s="143"/>
       <c r="J187" s="143"/>
@@ -18399,13 +18408,13 @@
       <c r="AA187" s="143"/>
     </row>
     <row r="188" spans="1:27" ht="18" customHeight="1">
-      <c r="A188" s="293"/>
-      <c r="B188" s="293"/>
-      <c r="C188" s="294"/>
-      <c r="D188" s="341"/>
-      <c r="E188" s="341"/>
-      <c r="F188" s="341"/>
-      <c r="G188" s="342"/>
+      <c r="A188" s="312"/>
+      <c r="B188" s="312"/>
+      <c r="C188" s="313"/>
+      <c r="D188" s="305"/>
+      <c r="E188" s="305"/>
+      <c r="F188" s="305"/>
+      <c r="G188" s="306"/>
       <c r="H188" s="143"/>
       <c r="I188" s="143"/>
       <c r="J188" s="143"/>
@@ -18432,13 +18441,13 @@
       <c r="AA188" s="143"/>
     </row>
     <row r="189" spans="1:27" ht="18" customHeight="1">
-      <c r="A189" s="293"/>
-      <c r="B189" s="293"/>
-      <c r="C189" s="294"/>
-      <c r="D189" s="341"/>
-      <c r="E189" s="341"/>
-      <c r="F189" s="341"/>
-      <c r="G189" s="342"/>
+      <c r="A189" s="312"/>
+      <c r="B189" s="312"/>
+      <c r="C189" s="313"/>
+      <c r="D189" s="305"/>
+      <c r="E189" s="305"/>
+      <c r="F189" s="305"/>
+      <c r="G189" s="306"/>
       <c r="H189" s="145" t="s">
         <v>342</v>
       </c>
@@ -18467,13 +18476,13 @@
       <c r="AA189" s="143"/>
     </row>
     <row r="190" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A190" s="293"/>
-      <c r="B190" s="293"/>
-      <c r="C190" s="294"/>
-      <c r="D190" s="341"/>
-      <c r="E190" s="341"/>
-      <c r="F190" s="341"/>
-      <c r="G190" s="342"/>
+      <c r="A190" s="312"/>
+      <c r="B190" s="312"/>
+      <c r="C190" s="313"/>
+      <c r="D190" s="305"/>
+      <c r="E190" s="305"/>
+      <c r="F190" s="305"/>
+      <c r="G190" s="306"/>
       <c r="H190" s="143"/>
       <c r="I190" s="143"/>
       <c r="J190" s="143"/>
@@ -18500,13 +18509,13 @@
       <c r="AA190" s="171"/>
     </row>
     <row r="191" spans="1:27" ht="18" customHeight="1">
-      <c r="A191" s="293"/>
-      <c r="B191" s="293"/>
-      <c r="C191" s="294"/>
-      <c r="D191" s="341"/>
-      <c r="E191" s="341"/>
-      <c r="F191" s="341"/>
-      <c r="G191" s="342"/>
+      <c r="A191" s="312"/>
+      <c r="B191" s="312"/>
+      <c r="C191" s="313"/>
+      <c r="D191" s="305"/>
+      <c r="E191" s="305"/>
+      <c r="F191" s="305"/>
+      <c r="G191" s="306"/>
       <c r="H191" s="143"/>
       <c r="I191" s="143"/>
       <c r="J191" s="143"/>
@@ -18531,13 +18540,13 @@
       <c r="AA191" s="143"/>
     </row>
     <row r="192" spans="1:27" ht="18" customHeight="1">
-      <c r="A192" s="293"/>
-      <c r="B192" s="293"/>
-      <c r="C192" s="294"/>
-      <c r="D192" s="341"/>
-      <c r="E192" s="341"/>
-      <c r="F192" s="341"/>
-      <c r="G192" s="342"/>
+      <c r="A192" s="312"/>
+      <c r="B192" s="312"/>
+      <c r="C192" s="313"/>
+      <c r="D192" s="305"/>
+      <c r="E192" s="305"/>
+      <c r="F192" s="305"/>
+      <c r="G192" s="306"/>
       <c r="H192" s="171"/>
       <c r="I192" s="171"/>
       <c r="J192" s="171"/>
@@ -18564,13 +18573,13 @@
       <c r="AA192" s="171"/>
     </row>
     <row r="193" spans="1:27" s="103" customFormat="1" ht="18" customHeight="1">
-      <c r="A193" s="293"/>
-      <c r="B193" s="293"/>
-      <c r="C193" s="294"/>
-      <c r="D193" s="341"/>
-      <c r="E193" s="341"/>
-      <c r="F193" s="341"/>
-      <c r="G193" s="342"/>
+      <c r="A193" s="312"/>
+      <c r="B193" s="312"/>
+      <c r="C193" s="313"/>
+      <c r="D193" s="305"/>
+      <c r="E193" s="305"/>
+      <c r="F193" s="305"/>
+      <c r="G193" s="306"/>
       <c r="H193" s="145" t="s">
         <v>343</v>
       </c>
@@ -18599,13 +18608,13 @@
       <c r="AA193" s="171"/>
     </row>
     <row r="194" spans="1:27" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A194" s="293"/>
-      <c r="B194" s="293"/>
-      <c r="C194" s="294"/>
-      <c r="D194" s="341"/>
-      <c r="E194" s="341"/>
-      <c r="F194" s="341"/>
-      <c r="G194" s="342"/>
+      <c r="A194" s="312"/>
+      <c r="B194" s="312"/>
+      <c r="C194" s="313"/>
+      <c r="D194" s="305"/>
+      <c r="E194" s="305"/>
+      <c r="F194" s="305"/>
+      <c r="G194" s="306"/>
       <c r="H194" s="143"/>
       <c r="I194" s="143"/>
       <c r="J194" s="143"/>
@@ -18632,13 +18641,13 @@
       <c r="AA194" s="143"/>
     </row>
     <row r="195" spans="1:27" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A195" s="293"/>
-      <c r="B195" s="293"/>
-      <c r="C195" s="294"/>
-      <c r="D195" s="341"/>
-      <c r="E195" s="341"/>
-      <c r="F195" s="341"/>
-      <c r="G195" s="342"/>
+      <c r="A195" s="312"/>
+      <c r="B195" s="312"/>
+      <c r="C195" s="313"/>
+      <c r="D195" s="305"/>
+      <c r="E195" s="305"/>
+      <c r="F195" s="305"/>
+      <c r="G195" s="306"/>
       <c r="H195" s="143"/>
       <c r="I195" s="143"/>
       <c r="J195" s="143"/>
@@ -18667,13 +18676,13 @@
       <c r="AA195" s="143"/>
     </row>
     <row r="196" spans="1:27" ht="18" customHeight="1">
-      <c r="A196" s="293"/>
-      <c r="B196" s="293"/>
-      <c r="C196" s="294"/>
-      <c r="D196" s="341"/>
-      <c r="E196" s="341"/>
-      <c r="F196" s="341"/>
-      <c r="G196" s="342"/>
+      <c r="A196" s="312"/>
+      <c r="B196" s="312"/>
+      <c r="C196" s="313"/>
+      <c r="D196" s="305"/>
+      <c r="E196" s="305"/>
+      <c r="F196" s="305"/>
+      <c r="G196" s="306"/>
       <c r="H196" s="143"/>
       <c r="I196" s="143"/>
       <c r="J196" s="143"/>
@@ -18700,15 +18709,15 @@
       <c r="AA196" s="143"/>
     </row>
     <row r="197" spans="1:27" ht="18" customHeight="1">
-      <c r="A197" s="293"/>
-      <c r="B197" s="293"/>
-      <c r="C197" s="294"/>
-      <c r="D197" s="324" t="s">
+      <c r="A197" s="312"/>
+      <c r="B197" s="312"/>
+      <c r="C197" s="313"/>
+      <c r="D197" s="302" t="s">
         <v>350</v>
       </c>
-      <c r="E197" s="324"/>
-      <c r="F197" s="324"/>
-      <c r="G197" s="325"/>
+      <c r="E197" s="302"/>
+      <c r="F197" s="302"/>
+      <c r="G197" s="303"/>
       <c r="H197" s="138" t="s">
         <v>344</v>
       </c>
@@ -18739,13 +18748,13 @@
       <c r="AA197" s="143"/>
     </row>
     <row r="198" spans="1:27" ht="18" customHeight="1">
-      <c r="A198" s="293"/>
-      <c r="B198" s="293"/>
-      <c r="C198" s="294"/>
-      <c r="D198" s="341"/>
-      <c r="E198" s="341"/>
-      <c r="F198" s="341"/>
-      <c r="G198" s="342"/>
+      <c r="A198" s="312"/>
+      <c r="B198" s="312"/>
+      <c r="C198" s="313"/>
+      <c r="D198" s="305"/>
+      <c r="E198" s="305"/>
+      <c r="F198" s="305"/>
+      <c r="G198" s="306"/>
       <c r="H198" s="138" t="s">
         <v>345</v>
       </c>
@@ -18776,13 +18785,13 @@
       <c r="AA198" s="143"/>
     </row>
     <row r="199" spans="1:27" ht="18" customHeight="1">
-      <c r="A199" s="293"/>
-      <c r="B199" s="293"/>
-      <c r="C199" s="294"/>
-      <c r="D199" s="341"/>
-      <c r="E199" s="341"/>
-      <c r="F199" s="341"/>
-      <c r="G199" s="342"/>
+      <c r="A199" s="312"/>
+      <c r="B199" s="312"/>
+      <c r="C199" s="313"/>
+      <c r="D199" s="305"/>
+      <c r="E199" s="305"/>
+      <c r="F199" s="305"/>
+      <c r="G199" s="306"/>
       <c r="H199" s="138" t="s">
         <v>346</v>
       </c>
@@ -18813,13 +18822,13 @@
       <c r="AA199" s="143"/>
     </row>
     <row r="200" spans="1:27" ht="18" customHeight="1">
-      <c r="A200" s="293"/>
-      <c r="B200" s="293"/>
-      <c r="C200" s="294"/>
-      <c r="D200" s="341"/>
-      <c r="E200" s="341"/>
-      <c r="F200" s="341"/>
-      <c r="G200" s="342"/>
+      <c r="A200" s="312"/>
+      <c r="B200" s="312"/>
+      <c r="C200" s="313"/>
+      <c r="D200" s="305"/>
+      <c r="E200" s="305"/>
+      <c r="F200" s="305"/>
+      <c r="G200" s="306"/>
       <c r="H200" s="138" t="s">
         <v>347</v>
       </c>
@@ -18846,13 +18855,13 @@
       <c r="AA200" s="143"/>
     </row>
     <row r="201" spans="1:27" ht="18" customHeight="1">
-      <c r="A201" s="293"/>
-      <c r="B201" s="293"/>
-      <c r="C201" s="294"/>
-      <c r="D201" s="341"/>
-      <c r="E201" s="341"/>
-      <c r="F201" s="341"/>
-      <c r="G201" s="342"/>
+      <c r="A201" s="312"/>
+      <c r="B201" s="312"/>
+      <c r="C201" s="313"/>
+      <c r="D201" s="305"/>
+      <c r="E201" s="305"/>
+      <c r="F201" s="305"/>
+      <c r="G201" s="306"/>
       <c r="H201" s="201" t="s">
         <v>348</v>
       </c>
@@ -18879,13 +18888,13 @@
       <c r="AA201" s="143"/>
     </row>
     <row r="202" spans="1:27" s="28" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A202" s="295"/>
-      <c r="B202" s="295"/>
-      <c r="C202" s="296"/>
-      <c r="D202" s="305"/>
-      <c r="E202" s="305"/>
-      <c r="F202" s="305"/>
-      <c r="G202" s="306"/>
+      <c r="A202" s="320"/>
+      <c r="B202" s="320"/>
+      <c r="C202" s="321"/>
+      <c r="D202" s="336"/>
+      <c r="E202" s="336"/>
+      <c r="F202" s="336"/>
+      <c r="G202" s="337"/>
       <c r="H202" s="141" t="s">
         <v>349</v>
       </c>
@@ -18926,11 +18935,11 @@
       <c r="AA202" s="144"/>
     </row>
     <row r="203" spans="1:27" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A203" s="291" t="s">
+      <c r="A203" s="310" t="s">
         <v>358</v>
       </c>
-      <c r="B203" s="291"/>
-      <c r="C203" s="292"/>
+      <c r="B203" s="310"/>
+      <c r="C203" s="311"/>
       <c r="D203" s="132" t="s">
         <v>358</v>
       </c>
@@ -18967,15 +18976,15 @@
       <c r="AA203" s="208"/>
     </row>
     <row r="204" spans="1:27" ht="18" customHeight="1">
-      <c r="A204" s="293"/>
-      <c r="B204" s="293"/>
-      <c r="C204" s="294"/>
-      <c r="D204" s="323" t="s">
+      <c r="A204" s="312"/>
+      <c r="B204" s="312"/>
+      <c r="C204" s="313"/>
+      <c r="D204" s="301" t="s">
         <v>363</v>
       </c>
-      <c r="E204" s="324"/>
-      <c r="F204" s="324"/>
-      <c r="G204" s="325"/>
+      <c r="E204" s="302"/>
+      <c r="F204" s="302"/>
+      <c r="G204" s="303"/>
       <c r="H204" s="138" t="s">
         <v>392</v>
       </c>
@@ -19004,13 +19013,13 @@
       <c r="AA204" s="171"/>
     </row>
     <row r="205" spans="1:27" ht="18" customHeight="1">
-      <c r="A205" s="293"/>
-      <c r="B205" s="293"/>
-      <c r="C205" s="294"/>
-      <c r="D205" s="340"/>
-      <c r="E205" s="341"/>
-      <c r="F205" s="341"/>
-      <c r="G205" s="342"/>
+      <c r="A205" s="312"/>
+      <c r="B205" s="312"/>
+      <c r="C205" s="313"/>
+      <c r="D205" s="304"/>
+      <c r="E205" s="305"/>
+      <c r="F205" s="305"/>
+      <c r="G205" s="306"/>
       <c r="H205" s="138" t="s">
         <v>393</v>
       </c>
@@ -19039,13 +19048,13 @@
       <c r="AA205" s="171"/>
     </row>
     <row r="206" spans="1:27" ht="18" customHeight="1">
-      <c r="A206" s="293"/>
-      <c r="B206" s="293"/>
-      <c r="C206" s="294"/>
-      <c r="D206" s="332"/>
-      <c r="E206" s="333"/>
-      <c r="F206" s="333"/>
-      <c r="G206" s="334"/>
+      <c r="A206" s="312"/>
+      <c r="B206" s="312"/>
+      <c r="C206" s="313"/>
+      <c r="D206" s="307"/>
+      <c r="E206" s="308"/>
+      <c r="F206" s="308"/>
+      <c r="G206" s="309"/>
       <c r="H206" s="138" t="s">
         <v>409</v>
       </c>
@@ -19080,15 +19089,15 @@
       <c r="AA206" s="171"/>
     </row>
     <row r="207" spans="1:27" ht="18" customHeight="1">
-      <c r="A207" s="293"/>
-      <c r="B207" s="293"/>
-      <c r="C207" s="294"/>
-      <c r="D207" s="323" t="s">
+      <c r="A207" s="312"/>
+      <c r="B207" s="312"/>
+      <c r="C207" s="313"/>
+      <c r="D207" s="301" t="s">
         <v>419</v>
       </c>
-      <c r="E207" s="324"/>
-      <c r="F207" s="324"/>
-      <c r="G207" s="325"/>
+      <c r="E207" s="302"/>
+      <c r="F207" s="302"/>
+      <c r="G207" s="303"/>
       <c r="H207" s="138" t="s">
         <v>410</v>
       </c>
@@ -19113,13 +19122,13 @@
       <c r="AA207" s="171"/>
     </row>
     <row r="208" spans="1:27" ht="18" customHeight="1">
-      <c r="A208" s="293"/>
-      <c r="B208" s="293"/>
-      <c r="C208" s="294"/>
-      <c r="D208" s="340"/>
-      <c r="E208" s="341"/>
-      <c r="F208" s="341"/>
-      <c r="G208" s="342"/>
+      <c r="A208" s="312"/>
+      <c r="B208" s="312"/>
+      <c r="C208" s="313"/>
+      <c r="D208" s="304"/>
+      <c r="E208" s="305"/>
+      <c r="F208" s="305"/>
+      <c r="G208" s="306"/>
       <c r="H208" s="138" t="s">
         <v>411</v>
       </c>
@@ -19144,161 +19153,161 @@
       <c r="AA208" s="143"/>
     </row>
     <row r="209" spans="1:27" ht="18" customHeight="1">
-      <c r="A209" s="293"/>
-      <c r="B209" s="293"/>
-      <c r="C209" s="294"/>
-      <c r="D209" s="340"/>
-      <c r="E209" s="341"/>
-      <c r="F209" s="341"/>
-      <c r="G209" s="342"/>
+      <c r="A209" s="312"/>
+      <c r="B209" s="312"/>
+      <c r="C209" s="313"/>
+      <c r="D209" s="304"/>
+      <c r="E209" s="305"/>
+      <c r="F209" s="305"/>
+      <c r="G209" s="306"/>
       <c r="H209" s="209" t="s">
         <v>369</v>
       </c>
       <c r="I209" s="171"/>
       <c r="J209" s="171"/>
       <c r="K209" s="203"/>
-      <c r="L209" s="311" t="s">
+      <c r="L209" s="402" t="s">
         <v>396</v>
       </c>
-      <c r="M209" s="308"/>
-      <c r="N209" s="312" t="s">
+      <c r="M209" s="401"/>
+      <c r="N209" s="399" t="s">
         <v>398</v>
       </c>
-      <c r="O209" s="312"/>
-      <c r="P209" s="312" t="s">
+      <c r="O209" s="399"/>
+      <c r="P209" s="399" t="s">
         <v>399</v>
       </c>
-      <c r="Q209" s="313"/>
-      <c r="R209" s="311" t="s">
+      <c r="Q209" s="403"/>
+      <c r="R209" s="402" t="s">
         <v>400</v>
       </c>
-      <c r="S209" s="308"/>
-      <c r="T209" s="312" t="s">
+      <c r="S209" s="401"/>
+      <c r="T209" s="399" t="s">
         <v>401</v>
       </c>
-      <c r="U209" s="312"/>
-      <c r="V209" s="312"/>
-      <c r="W209" s="312"/>
+      <c r="U209" s="399"/>
+      <c r="V209" s="399"/>
+      <c r="W209" s="399"/>
       <c r="X209" s="143"/>
       <c r="Y209" s="171"/>
       <c r="Z209" s="171"/>
       <c r="AA209" s="143"/>
     </row>
     <row r="210" spans="1:27" ht="18" customHeight="1">
-      <c r="A210" s="293"/>
-      <c r="B210" s="293"/>
-      <c r="C210" s="294"/>
-      <c r="D210" s="340"/>
-      <c r="E210" s="341"/>
-      <c r="F210" s="341"/>
-      <c r="G210" s="342"/>
+      <c r="A210" s="312"/>
+      <c r="B210" s="312"/>
+      <c r="C210" s="313"/>
+      <c r="D210" s="304"/>
+      <c r="E210" s="305"/>
+      <c r="F210" s="305"/>
+      <c r="G210" s="306"/>
       <c r="H210" s="209" t="s">
         <v>370</v>
       </c>
       <c r="I210" s="171"/>
       <c r="J210" s="171"/>
       <c r="K210" s="203"/>
-      <c r="L210" s="311"/>
-      <c r="M210" s="308"/>
-      <c r="N210" s="312"/>
-      <c r="O210" s="312"/>
-      <c r="P210" s="312"/>
-      <c r="Q210" s="313"/>
-      <c r="R210" s="311"/>
-      <c r="S210" s="308"/>
-      <c r="T210" s="312"/>
-      <c r="U210" s="312"/>
-      <c r="V210" s="312"/>
-      <c r="W210" s="312"/>
+      <c r="L210" s="402"/>
+      <c r="M210" s="401"/>
+      <c r="N210" s="399"/>
+      <c r="O210" s="399"/>
+      <c r="P210" s="399"/>
+      <c r="Q210" s="403"/>
+      <c r="R210" s="402"/>
+      <c r="S210" s="401"/>
+      <c r="T210" s="399"/>
+      <c r="U210" s="399"/>
+      <c r="V210" s="399"/>
+      <c r="W210" s="399"/>
       <c r="X210" s="143"/>
       <c r="Y210" s="143"/>
       <c r="Z210" s="143"/>
       <c r="AA210" s="171"/>
     </row>
     <row r="211" spans="1:27" ht="18" customHeight="1">
-      <c r="A211" s="293"/>
-      <c r="B211" s="293"/>
-      <c r="C211" s="294"/>
-      <c r="D211" s="340"/>
-      <c r="E211" s="341"/>
-      <c r="F211" s="341"/>
-      <c r="G211" s="342"/>
+      <c r="A211" s="312"/>
+      <c r="B211" s="312"/>
+      <c r="C211" s="313"/>
+      <c r="D211" s="304"/>
+      <c r="E211" s="305"/>
+      <c r="F211" s="305"/>
+      <c r="G211" s="306"/>
       <c r="H211" s="200" t="s">
         <v>371</v>
       </c>
       <c r="I211" s="143"/>
       <c r="J211" s="143"/>
       <c r="K211" s="204"/>
-      <c r="L211" s="314" t="s">
+      <c r="L211" s="404" t="s">
         <v>397</v>
       </c>
-      <c r="M211" s="310"/>
-      <c r="N211" s="312" t="s">
+      <c r="M211" s="326"/>
+      <c r="N211" s="399" t="s">
         <v>398</v>
       </c>
-      <c r="O211" s="312"/>
-      <c r="P211" s="312" t="s">
+      <c r="O211" s="399"/>
+      <c r="P211" s="399" t="s">
         <v>399</v>
       </c>
-      <c r="Q211" s="313"/>
-      <c r="R211" s="311"/>
-      <c r="S211" s="308"/>
-      <c r="T211" s="312" t="s">
+      <c r="Q211" s="403"/>
+      <c r="R211" s="402"/>
+      <c r="S211" s="401"/>
+      <c r="T211" s="399" t="s">
         <v>402</v>
       </c>
-      <c r="U211" s="312"/>
-      <c r="V211" s="312"/>
-      <c r="W211" s="312"/>
+      <c r="U211" s="399"/>
+      <c r="V211" s="399"/>
+      <c r="W211" s="399"/>
       <c r="X211" s="143"/>
       <c r="Y211" s="143"/>
       <c r="Z211" s="143"/>
       <c r="AA211" s="143"/>
     </row>
     <row r="212" spans="1:27" ht="18" customHeight="1">
-      <c r="A212" s="293"/>
-      <c r="B212" s="293"/>
-      <c r="C212" s="294"/>
-      <c r="D212" s="340"/>
-      <c r="E212" s="341"/>
-      <c r="F212" s="341"/>
-      <c r="G212" s="342"/>
+      <c r="A212" s="312"/>
+      <c r="B212" s="312"/>
+      <c r="C212" s="313"/>
+      <c r="D212" s="304"/>
+      <c r="E212" s="305"/>
+      <c r="F212" s="305"/>
+      <c r="G212" s="306"/>
       <c r="H212" s="138" t="s">
         <v>372</v>
       </c>
       <c r="I212" s="143"/>
       <c r="J212" s="143"/>
       <c r="K212" s="204"/>
-      <c r="L212" s="314"/>
-      <c r="M212" s="310"/>
-      <c r="N212" s="312"/>
-      <c r="O212" s="312"/>
-      <c r="P212" s="312"/>
-      <c r="Q212" s="313"/>
-      <c r="R212" s="311"/>
-      <c r="S212" s="308"/>
-      <c r="T212" s="312"/>
-      <c r="U212" s="312"/>
-      <c r="V212" s="312"/>
-      <c r="W212" s="312"/>
+      <c r="L212" s="404"/>
+      <c r="M212" s="326"/>
+      <c r="N212" s="399"/>
+      <c r="O212" s="399"/>
+      <c r="P212" s="399"/>
+      <c r="Q212" s="403"/>
+      <c r="R212" s="402"/>
+      <c r="S212" s="401"/>
+      <c r="T212" s="399"/>
+      <c r="U212" s="399"/>
+      <c r="V212" s="399"/>
+      <c r="W212" s="399"/>
       <c r="X212" s="171"/>
       <c r="Y212" s="171"/>
       <c r="Z212" s="171"/>
       <c r="AA212" s="171"/>
     </row>
     <row r="213" spans="1:27" ht="18" customHeight="1">
-      <c r="A213" s="293"/>
-      <c r="B213" s="293"/>
-      <c r="C213" s="294"/>
-      <c r="D213" s="340"/>
-      <c r="E213" s="341"/>
-      <c r="F213" s="341"/>
-      <c r="G213" s="342"/>
-      <c r="H213" s="309" t="s">
+      <c r="A213" s="312"/>
+      <c r="B213" s="312"/>
+      <c r="C213" s="313"/>
+      <c r="D213" s="304"/>
+      <c r="E213" s="305"/>
+      <c r="F213" s="305"/>
+      <c r="G213" s="306"/>
+      <c r="H213" s="325" t="s">
         <v>406</v>
       </c>
-      <c r="I213" s="310"/>
-      <c r="J213" s="310"/>
-      <c r="K213" s="310"/>
+      <c r="I213" s="326"/>
+      <c r="J213" s="326"/>
+      <c r="K213" s="326"/>
       <c r="L213" s="146" t="s">
         <v>407</v>
       </c>
@@ -19309,31 +19318,31 @@
       <c r="Q213" s="143"/>
       <c r="R213" s="143"/>
       <c r="S213" s="143"/>
-      <c r="T213" s="307" t="s">
+      <c r="T213" s="400" t="s">
         <v>403</v>
       </c>
-      <c r="U213" s="308" t="s">
+      <c r="U213" s="401" t="s">
         <v>404</v>
       </c>
-      <c r="V213" s="308"/>
-      <c r="W213" s="308"/>
+      <c r="V213" s="401"/>
+      <c r="W213" s="401"/>
       <c r="X213" s="143"/>
       <c r="Y213" s="171"/>
       <c r="Z213" s="171"/>
       <c r="AA213" s="171"/>
     </row>
     <row r="214" spans="1:27" ht="18" customHeight="1">
-      <c r="A214" s="293"/>
-      <c r="B214" s="293"/>
-      <c r="C214" s="294"/>
-      <c r="D214" s="340"/>
-      <c r="E214" s="341"/>
-      <c r="F214" s="341"/>
-      <c r="G214" s="342"/>
-      <c r="H214" s="309"/>
-      <c r="I214" s="310"/>
-      <c r="J214" s="310"/>
-      <c r="K214" s="310"/>
+      <c r="A214" s="312"/>
+      <c r="B214" s="312"/>
+      <c r="C214" s="313"/>
+      <c r="D214" s="304"/>
+      <c r="E214" s="305"/>
+      <c r="F214" s="305"/>
+      <c r="G214" s="306"/>
+      <c r="H214" s="325"/>
+      <c r="I214" s="326"/>
+      <c r="J214" s="326"/>
+      <c r="K214" s="326"/>
       <c r="L214" s="146" t="s">
         <v>405</v>
       </c>
@@ -19344,27 +19353,27 @@
       <c r="Q214" s="143"/>
       <c r="R214" s="143"/>
       <c r="S214" s="143"/>
-      <c r="T214" s="307"/>
-      <c r="U214" s="308"/>
-      <c r="V214" s="308"/>
-      <c r="W214" s="308"/>
+      <c r="T214" s="400"/>
+      <c r="U214" s="401"/>
+      <c r="V214" s="401"/>
+      <c r="W214" s="401"/>
       <c r="X214" s="143"/>
       <c r="Y214" s="171"/>
       <c r="Z214" s="171"/>
       <c r="AA214" s="171"/>
     </row>
     <row r="215" spans="1:27" ht="18" customHeight="1">
-      <c r="A215" s="293"/>
-      <c r="B215" s="293"/>
-      <c r="C215" s="294"/>
-      <c r="D215" s="340"/>
-      <c r="E215" s="341"/>
-      <c r="F215" s="341"/>
-      <c r="G215" s="342"/>
-      <c r="H215" s="309"/>
-      <c r="I215" s="310"/>
-      <c r="J215" s="310"/>
-      <c r="K215" s="310"/>
+      <c r="A215" s="312"/>
+      <c r="B215" s="312"/>
+      <c r="C215" s="313"/>
+      <c r="D215" s="304"/>
+      <c r="E215" s="305"/>
+      <c r="F215" s="305"/>
+      <c r="G215" s="306"/>
+      <c r="H215" s="325"/>
+      <c r="I215" s="326"/>
+      <c r="J215" s="326"/>
+      <c r="K215" s="326"/>
       <c r="L215" s="146" t="s">
         <v>408</v>
       </c>
@@ -19375,29 +19384,29 @@
       <c r="Q215" s="143"/>
       <c r="R215" s="143"/>
       <c r="S215" s="143"/>
-      <c r="T215" s="307"/>
-      <c r="U215" s="308"/>
-      <c r="V215" s="308"/>
-      <c r="W215" s="308"/>
+      <c r="T215" s="400"/>
+      <c r="U215" s="401"/>
+      <c r="V215" s="401"/>
+      <c r="W215" s="401"/>
       <c r="X215" s="143"/>
       <c r="Y215" s="143"/>
       <c r="Z215" s="143"/>
       <c r="AA215" s="143"/>
     </row>
     <row r="216" spans="1:27" ht="18" customHeight="1">
-      <c r="A216" s="293"/>
-      <c r="B216" s="293"/>
-      <c r="C216" s="294"/>
-      <c r="D216" s="340"/>
-      <c r="E216" s="341"/>
-      <c r="F216" s="341"/>
-      <c r="G216" s="342"/>
-      <c r="H216" s="391" t="s">
+      <c r="A216" s="312"/>
+      <c r="B216" s="312"/>
+      <c r="C216" s="313"/>
+      <c r="D216" s="304"/>
+      <c r="E216" s="305"/>
+      <c r="F216" s="305"/>
+      <c r="G216" s="306"/>
+      <c r="H216" s="314" t="s">
         <v>427</v>
       </c>
-      <c r="I216" s="298"/>
-      <c r="J216" s="298"/>
-      <c r="K216" s="298"/>
+      <c r="I216" s="315"/>
+      <c r="J216" s="315"/>
+      <c r="K216" s="315"/>
       <c r="L216" s="146" t="s">
         <v>420</v>
       </c>
@@ -19420,17 +19429,17 @@
       <c r="AA216" s="143"/>
     </row>
     <row r="217" spans="1:27" ht="18" customHeight="1">
-      <c r="A217" s="293"/>
-      <c r="B217" s="293"/>
-      <c r="C217" s="294"/>
-      <c r="D217" s="340"/>
-      <c r="E217" s="341"/>
-      <c r="F217" s="341"/>
-      <c r="G217" s="342"/>
-      <c r="H217" s="392"/>
-      <c r="I217" s="299"/>
-      <c r="J217" s="299"/>
-      <c r="K217" s="299"/>
+      <c r="A217" s="312"/>
+      <c r="B217" s="312"/>
+      <c r="C217" s="313"/>
+      <c r="D217" s="304"/>
+      <c r="E217" s="305"/>
+      <c r="F217" s="305"/>
+      <c r="G217" s="306"/>
+      <c r="H217" s="316"/>
+      <c r="I217" s="317"/>
+      <c r="J217" s="317"/>
+      <c r="K217" s="317"/>
       <c r="L217" s="146" t="s">
         <v>423</v>
       </c>
@@ -19455,23 +19464,23 @@
       <c r="AA217" s="143"/>
     </row>
     <row r="218" spans="1:27" ht="18" customHeight="1">
-      <c r="A218" s="293"/>
-      <c r="B218" s="293"/>
-      <c r="C218" s="294"/>
-      <c r="D218" s="340"/>
-      <c r="E218" s="341"/>
-      <c r="F218" s="341"/>
-      <c r="G218" s="342"/>
-      <c r="H218" s="392"/>
-      <c r="I218" s="299"/>
-      <c r="J218" s="299"/>
-      <c r="K218" s="299"/>
-      <c r="L218" s="389" t="s">
+      <c r="A218" s="312"/>
+      <c r="B218" s="312"/>
+      <c r="C218" s="313"/>
+      <c r="D218" s="304"/>
+      <c r="E218" s="305"/>
+      <c r="F218" s="305"/>
+      <c r="G218" s="306"/>
+      <c r="H218" s="316"/>
+      <c r="I218" s="317"/>
+      <c r="J218" s="317"/>
+      <c r="K218" s="317"/>
+      <c r="L218" s="299" t="s">
         <v>425</v>
       </c>
-      <c r="M218" s="390"/>
-      <c r="N218" s="390"/>
-      <c r="O218" s="390"/>
+      <c r="M218" s="300"/>
+      <c r="N218" s="300"/>
+      <c r="O218" s="300"/>
       <c r="P218" s="143"/>
       <c r="Q218" s="143"/>
       <c r="R218" s="143"/>
@@ -19486,21 +19495,21 @@
       <c r="AA218" s="143"/>
     </row>
     <row r="219" spans="1:27" ht="18" customHeight="1">
-      <c r="A219" s="293"/>
-      <c r="B219" s="293"/>
-      <c r="C219" s="294"/>
-      <c r="D219" s="340"/>
-      <c r="E219" s="341"/>
-      <c r="F219" s="341"/>
-      <c r="G219" s="342"/>
-      <c r="H219" s="392"/>
-      <c r="I219" s="299"/>
-      <c r="J219" s="299"/>
-      <c r="K219" s="299"/>
-      <c r="L219" s="390"/>
-      <c r="M219" s="390"/>
-      <c r="N219" s="390"/>
-      <c r="O219" s="390"/>
+      <c r="A219" s="312"/>
+      <c r="B219" s="312"/>
+      <c r="C219" s="313"/>
+      <c r="D219" s="304"/>
+      <c r="E219" s="305"/>
+      <c r="F219" s="305"/>
+      <c r="G219" s="306"/>
+      <c r="H219" s="316"/>
+      <c r="I219" s="317"/>
+      <c r="J219" s="317"/>
+      <c r="K219" s="317"/>
+      <c r="L219" s="300"/>
+      <c r="M219" s="300"/>
+      <c r="N219" s="300"/>
+      <c r="O219" s="300"/>
       <c r="P219" s="143"/>
       <c r="Q219" s="143"/>
       <c r="R219" s="143"/>
@@ -19515,17 +19524,17 @@
       <c r="AA219" s="143"/>
     </row>
     <row r="220" spans="1:27">
-      <c r="A220" s="293"/>
-      <c r="B220" s="293"/>
-      <c r="C220" s="294"/>
-      <c r="D220" s="332"/>
-      <c r="E220" s="333"/>
-      <c r="F220" s="333"/>
-      <c r="G220" s="334"/>
-      <c r="H220" s="393"/>
-      <c r="I220" s="300"/>
-      <c r="J220" s="300"/>
-      <c r="K220" s="300"/>
+      <c r="A220" s="312"/>
+      <c r="B220" s="312"/>
+      <c r="C220" s="313"/>
+      <c r="D220" s="307"/>
+      <c r="E220" s="308"/>
+      <c r="F220" s="308"/>
+      <c r="G220" s="309"/>
+      <c r="H220" s="318"/>
+      <c r="I220" s="319"/>
+      <c r="J220" s="319"/>
+      <c r="K220" s="319"/>
       <c r="L220" s="146" t="s">
         <v>426</v>
       </c>
@@ -19546,93 +19555,93 @@
       <c r="AA220" s="143"/>
     </row>
     <row r="221" spans="1:27">
-      <c r="A221" s="293"/>
-      <c r="B221" s="293"/>
-      <c r="C221" s="294"/>
-      <c r="D221" s="315" t="s">
+      <c r="A221" s="312"/>
+      <c r="B221" s="312"/>
+      <c r="C221" s="313"/>
+      <c r="D221" s="322" t="s">
         <v>390</v>
       </c>
-      <c r="E221" s="316"/>
-      <c r="F221" s="316"/>
-      <c r="G221" s="317"/>
+      <c r="E221" s="323"/>
+      <c r="F221" s="323"/>
+      <c r="G221" s="324"/>
       <c r="H221" s="138" t="s">
         <v>338</v>
       </c>
       <c r="I221" s="171"/>
       <c r="J221" s="171"/>
       <c r="K221" s="146"/>
-      <c r="L221" s="312" t="s">
+      <c r="L221" s="399" t="s">
         <v>384</v>
       </c>
-      <c r="M221" s="312"/>
-      <c r="N221" s="312"/>
-      <c r="O221" s="312" t="s">
+      <c r="M221" s="399"/>
+      <c r="N221" s="399"/>
+      <c r="O221" s="399" t="s">
         <v>385</v>
       </c>
-      <c r="P221" s="312"/>
-      <c r="Q221" s="312"/>
-      <c r="R221" s="312" t="s">
+      <c r="P221" s="399"/>
+      <c r="Q221" s="399"/>
+      <c r="R221" s="399" t="s">
         <v>386</v>
       </c>
-      <c r="S221" s="312"/>
-      <c r="T221" s="312"/>
-      <c r="U221" s="312" t="s">
+      <c r="S221" s="399"/>
+      <c r="T221" s="399"/>
+      <c r="U221" s="399" t="s">
         <v>387</v>
       </c>
-      <c r="V221" s="312"/>
-      <c r="W221" s="312" t="s">
+      <c r="V221" s="399"/>
+      <c r="W221" s="399" t="s">
         <v>388</v>
       </c>
-      <c r="X221" s="312"/>
-      <c r="Y221" s="312" t="s">
+      <c r="X221" s="399"/>
+      <c r="Y221" s="399" t="s">
         <v>389</v>
       </c>
-      <c r="Z221" s="312"/>
+      <c r="Z221" s="399"/>
       <c r="AA221" s="143"/>
     </row>
     <row r="222" spans="1:27">
-      <c r="A222" s="293"/>
-      <c r="B222" s="293"/>
-      <c r="C222" s="294"/>
-      <c r="D222" s="315" t="s">
+      <c r="A222" s="312"/>
+      <c r="B222" s="312"/>
+      <c r="C222" s="313"/>
+      <c r="D222" s="322" t="s">
         <v>394</v>
       </c>
-      <c r="E222" s="316"/>
-      <c r="F222" s="316"/>
-      <c r="G222" s="317"/>
+      <c r="E222" s="323"/>
+      <c r="F222" s="323"/>
+      <c r="G222" s="324"/>
       <c r="H222" s="138" t="s">
         <v>343</v>
       </c>
       <c r="I222" s="143"/>
       <c r="J222" s="143"/>
       <c r="K222" s="178"/>
-      <c r="L222" s="312"/>
-      <c r="M222" s="312"/>
-      <c r="N222" s="312"/>
-      <c r="O222" s="312"/>
-      <c r="P222" s="312"/>
-      <c r="Q222" s="312"/>
-      <c r="R222" s="312"/>
-      <c r="S222" s="312"/>
-      <c r="T222" s="312"/>
-      <c r="U222" s="312"/>
-      <c r="V222" s="312"/>
-      <c r="W222" s="312"/>
-      <c r="X222" s="312"/>
-      <c r="Y222" s="312"/>
-      <c r="Z222" s="312"/>
+      <c r="L222" s="399"/>
+      <c r="M222" s="399"/>
+      <c r="N222" s="399"/>
+      <c r="O222" s="399"/>
+      <c r="P222" s="399"/>
+      <c r="Q222" s="399"/>
+      <c r="R222" s="399"/>
+      <c r="S222" s="399"/>
+      <c r="T222" s="399"/>
+      <c r="U222" s="399"/>
+      <c r="V222" s="399"/>
+      <c r="W222" s="399"/>
+      <c r="X222" s="399"/>
+      <c r="Y222" s="399"/>
+      <c r="Z222" s="399"/>
       <c r="AA222" s="143"/>
     </row>
     <row r="223" spans="1:27">
-      <c r="A223" s="293"/>
-      <c r="B223" s="293"/>
-      <c r="C223" s="294"/>
-      <c r="D223" s="323" t="s">
+      <c r="A223" s="312"/>
+      <c r="B223" s="312"/>
+      <c r="C223" s="313"/>
+      <c r="D223" s="301" t="s">
         <v>412</v>
       </c>
-      <c r="E223" s="324"/>
-      <c r="F223" s="324"/>
-      <c r="G223" s="325"/>
+      <c r="E223" s="302"/>
+      <c r="F223" s="302"/>
+      <c r="G223" s="303"/>
       <c r="H223" s="138" t="s">
         <v>413</v>
       </c>
@@ -19667,19 +19676,19 @@
       <c r="AA223" s="143"/>
     </row>
     <row r="224" spans="1:27">
-      <c r="A224" s="293"/>
-      <c r="B224" s="293"/>
-      <c r="C224" s="294"/>
-      <c r="D224" s="340"/>
-      <c r="E224" s="341"/>
-      <c r="F224" s="341"/>
-      <c r="G224" s="342"/>
-      <c r="H224" s="309" t="s">
+      <c r="A224" s="312"/>
+      <c r="B224" s="312"/>
+      <c r="C224" s="313"/>
+      <c r="D224" s="304"/>
+      <c r="E224" s="305"/>
+      <c r="F224" s="305"/>
+      <c r="G224" s="306"/>
+      <c r="H224" s="325" t="s">
         <v>380</v>
       </c>
-      <c r="I224" s="310"/>
-      <c r="J224" s="310"/>
-      <c r="K224" s="310"/>
+      <c r="I224" s="326"/>
+      <c r="J224" s="326"/>
+      <c r="K224" s="326"/>
       <c r="L224" s="146" t="s">
         <v>381</v>
       </c>
@@ -19702,17 +19711,17 @@
       <c r="AA224" s="143"/>
     </row>
     <row r="225" spans="1:27">
-      <c r="A225" s="293"/>
-      <c r="B225" s="293"/>
-      <c r="C225" s="294"/>
-      <c r="D225" s="340"/>
-      <c r="E225" s="341"/>
-      <c r="F225" s="341"/>
-      <c r="G225" s="342"/>
-      <c r="H225" s="309"/>
-      <c r="I225" s="310"/>
-      <c r="J225" s="310"/>
-      <c r="K225" s="310"/>
+      <c r="A225" s="312"/>
+      <c r="B225" s="312"/>
+      <c r="C225" s="313"/>
+      <c r="D225" s="304"/>
+      <c r="E225" s="305"/>
+      <c r="F225" s="305"/>
+      <c r="G225" s="306"/>
+      <c r="H225" s="325"/>
+      <c r="I225" s="326"/>
+      <c r="J225" s="326"/>
+      <c r="K225" s="326"/>
       <c r="L225" s="173" t="s">
         <v>379</v>
       </c>
@@ -19733,19 +19742,19 @@
       <c r="AA225" s="143"/>
     </row>
     <row r="226" spans="1:27">
-      <c r="A226" s="293"/>
-      <c r="B226" s="293"/>
-      <c r="C226" s="294"/>
-      <c r="D226" s="340"/>
-      <c r="E226" s="341"/>
-      <c r="F226" s="341"/>
-      <c r="G226" s="342"/>
-      <c r="H226" s="309" t="s">
+      <c r="A226" s="312"/>
+      <c r="B226" s="312"/>
+      <c r="C226" s="313"/>
+      <c r="D226" s="304"/>
+      <c r="E226" s="305"/>
+      <c r="F226" s="305"/>
+      <c r="G226" s="306"/>
+      <c r="H226" s="325" t="s">
         <v>382</v>
       </c>
-      <c r="I226" s="310"/>
-      <c r="J226" s="310"/>
-      <c r="K226" s="310"/>
+      <c r="I226" s="326"/>
+      <c r="J226" s="326"/>
+      <c r="K226" s="326"/>
       <c r="L226" s="146" t="s">
         <v>381</v>
       </c>
@@ -19768,17 +19777,17 @@
       <c r="AA226" s="143"/>
     </row>
     <row r="227" spans="1:27">
-      <c r="A227" s="293"/>
-      <c r="B227" s="293"/>
-      <c r="C227" s="294"/>
-      <c r="D227" s="332"/>
-      <c r="E227" s="333"/>
-      <c r="F227" s="333"/>
-      <c r="G227" s="334"/>
-      <c r="H227" s="309"/>
-      <c r="I227" s="310"/>
-      <c r="J227" s="310"/>
-      <c r="K227" s="310"/>
+      <c r="A227" s="312"/>
+      <c r="B227" s="312"/>
+      <c r="C227" s="313"/>
+      <c r="D227" s="307"/>
+      <c r="E227" s="308"/>
+      <c r="F227" s="308"/>
+      <c r="G227" s="309"/>
+      <c r="H227" s="325"/>
+      <c r="I227" s="326"/>
+      <c r="J227" s="326"/>
+      <c r="K227" s="326"/>
       <c r="L227" s="173" t="s">
         <v>379</v>
       </c>
@@ -19800,6 +19809,108 @@
     </row>
   </sheetData>
   <mergeCells count="126">
+    <mergeCell ref="M130:N131"/>
+    <mergeCell ref="S130:T131"/>
+    <mergeCell ref="O130:P131"/>
+    <mergeCell ref="Q130:R131"/>
+    <mergeCell ref="A132:C134"/>
+    <mergeCell ref="L175:Z177"/>
+    <mergeCell ref="A135:C140"/>
+    <mergeCell ref="A141:C142"/>
+    <mergeCell ref="A143:C144"/>
+    <mergeCell ref="D143:G144"/>
+    <mergeCell ref="A145:C146"/>
+    <mergeCell ref="T213:T215"/>
+    <mergeCell ref="U213:W215"/>
+    <mergeCell ref="H213:K215"/>
+    <mergeCell ref="R209:S212"/>
+    <mergeCell ref="T209:W210"/>
+    <mergeCell ref="T211:W212"/>
+    <mergeCell ref="P209:Q210"/>
+    <mergeCell ref="P211:Q212"/>
+    <mergeCell ref="L209:M210"/>
+    <mergeCell ref="L211:M212"/>
+    <mergeCell ref="N209:O210"/>
+    <mergeCell ref="N211:O212"/>
+    <mergeCell ref="Y221:Z222"/>
+    <mergeCell ref="H226:K227"/>
+    <mergeCell ref="D221:G221"/>
+    <mergeCell ref="D222:G222"/>
+    <mergeCell ref="L221:N222"/>
+    <mergeCell ref="O221:Q222"/>
+    <mergeCell ref="R221:T222"/>
+    <mergeCell ref="U221:V222"/>
+    <mergeCell ref="W221:X222"/>
+    <mergeCell ref="A50:C64"/>
+    <mergeCell ref="A181:C202"/>
+    <mergeCell ref="A174:C180"/>
+    <mergeCell ref="D178:G178"/>
+    <mergeCell ref="D123:G123"/>
+    <mergeCell ref="D179:G180"/>
+    <mergeCell ref="A65:C69"/>
+    <mergeCell ref="A70:C74"/>
+    <mergeCell ref="A75:C80"/>
+    <mergeCell ref="D107:G108"/>
+    <mergeCell ref="D109:G109"/>
+    <mergeCell ref="A109:C116"/>
+    <mergeCell ref="D115:G116"/>
+    <mergeCell ref="A87:C93"/>
+    <mergeCell ref="D57:G59"/>
+    <mergeCell ref="D50:G56"/>
+    <mergeCell ref="D61:G63"/>
+    <mergeCell ref="D87:G88"/>
+    <mergeCell ref="D197:G202"/>
+    <mergeCell ref="D182:G196"/>
+    <mergeCell ref="D117:G117"/>
+    <mergeCell ref="D122:G122"/>
+    <mergeCell ref="D132:G132"/>
+    <mergeCell ref="D124:G125"/>
+    <mergeCell ref="A19:D34"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="A15:D18"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="E21:F24"/>
+    <mergeCell ref="E25:F33"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="A41:D48"/>
+    <mergeCell ref="A7:D14"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="A35:D40"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="K25:L25"/>
     <mergeCell ref="L218:O219"/>
     <mergeCell ref="D207:G220"/>
     <mergeCell ref="A203:C227"/>
@@ -19824,108 +19935,6 @@
     <mergeCell ref="A147:C147"/>
     <mergeCell ref="A124:C125"/>
     <mergeCell ref="K130:L131"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="A41:D48"/>
-    <mergeCell ref="A7:D14"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="A35:D40"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="A19:D34"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="A15:D18"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="E21:F24"/>
-    <mergeCell ref="E25:F33"/>
-    <mergeCell ref="A50:C64"/>
-    <mergeCell ref="A181:C202"/>
-    <mergeCell ref="A174:C180"/>
-    <mergeCell ref="D178:G178"/>
-    <mergeCell ref="D123:G123"/>
-    <mergeCell ref="D179:G180"/>
-    <mergeCell ref="A65:C69"/>
-    <mergeCell ref="A70:C74"/>
-    <mergeCell ref="A75:C80"/>
-    <mergeCell ref="D107:G108"/>
-    <mergeCell ref="D109:G109"/>
-    <mergeCell ref="A109:C116"/>
-    <mergeCell ref="D115:G116"/>
-    <mergeCell ref="A87:C93"/>
-    <mergeCell ref="D57:G59"/>
-    <mergeCell ref="D50:G56"/>
-    <mergeCell ref="D61:G63"/>
-    <mergeCell ref="D87:G88"/>
-    <mergeCell ref="D197:G202"/>
-    <mergeCell ref="D182:G196"/>
-    <mergeCell ref="D117:G117"/>
-    <mergeCell ref="D122:G122"/>
-    <mergeCell ref="D132:G132"/>
-    <mergeCell ref="D124:G125"/>
-    <mergeCell ref="Y221:Z222"/>
-    <mergeCell ref="H226:K227"/>
-    <mergeCell ref="D221:G221"/>
-    <mergeCell ref="D222:G222"/>
-    <mergeCell ref="L221:N222"/>
-    <mergeCell ref="O221:Q222"/>
-    <mergeCell ref="R221:T222"/>
-    <mergeCell ref="U221:V222"/>
-    <mergeCell ref="W221:X222"/>
-    <mergeCell ref="T213:T215"/>
-    <mergeCell ref="U213:W215"/>
-    <mergeCell ref="H213:K215"/>
-    <mergeCell ref="R209:S212"/>
-    <mergeCell ref="T209:W210"/>
-    <mergeCell ref="T211:W212"/>
-    <mergeCell ref="P209:Q210"/>
-    <mergeCell ref="P211:Q212"/>
-    <mergeCell ref="L209:M210"/>
-    <mergeCell ref="L211:M212"/>
-    <mergeCell ref="N209:O210"/>
-    <mergeCell ref="N211:O212"/>
-    <mergeCell ref="M130:N131"/>
-    <mergeCell ref="S130:T131"/>
-    <mergeCell ref="O130:P131"/>
-    <mergeCell ref="Q130:R131"/>
-    <mergeCell ref="A132:C134"/>
-    <mergeCell ref="L175:Z177"/>
-    <mergeCell ref="A135:C140"/>
-    <mergeCell ref="A141:C142"/>
-    <mergeCell ref="A143:C144"/>
-    <mergeCell ref="D143:G144"/>
-    <mergeCell ref="A145:C146"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D117" r:id="rId1"/>
@@ -19945,11 +19954,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.77734375" defaultRowHeight="18"/>
@@ -19967,7 +19976,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="273" customFormat="1" hidden="1">
+    <row r="2" spans="1:15" s="273" customFormat="1">
       <c r="A2" s="271" t="s">
         <v>539</v>
       </c>
@@ -19994,7 +20003,7 @@
       <c r="N2" s="272"/>
       <c r="O2" s="272"/>
     </row>
-    <row r="3" spans="1:15" hidden="1">
+    <row r="3" spans="1:15">
       <c r="A3" s="264" t="s">
         <v>618</v>
       </c>
@@ -20007,7 +20016,7 @@
       <c r="F3" s="266"/>
       <c r="G3" s="266"/>
     </row>
-    <row r="4" spans="1:15" hidden="1">
+    <row r="4" spans="1:15">
       <c r="A4" s="264" t="s">
         <v>658</v>
       </c>
@@ -20024,7 +20033,7 @@
       <c r="F4" s="266"/>
       <c r="G4" s="266"/>
     </row>
-    <row r="5" spans="1:15" hidden="1">
+    <row r="5" spans="1:15">
       <c r="A5" s="264" t="s">
         <v>593</v>
       </c>
@@ -20041,7 +20050,7 @@
       <c r="F5" s="266"/>
       <c r="G5" s="266"/>
     </row>
-    <row r="6" spans="1:15" hidden="1">
+    <row r="6" spans="1:15">
       <c r="A6" s="264" t="s">
         <v>604</v>
       </c>
@@ -20056,7 +20065,7 @@
       </c>
       <c r="G6" s="266"/>
     </row>
-    <row r="7" spans="1:15" hidden="1">
+    <row r="7" spans="1:15">
       <c r="A7" s="264" t="s">
         <v>605</v>
       </c>
@@ -20077,7 +20086,7 @@
       </c>
       <c r="G7" s="266"/>
     </row>
-    <row r="8" spans="1:15" hidden="1">
+    <row r="8" spans="1:15">
       <c r="A8" s="264" t="s">
         <v>606</v>
       </c>
@@ -20090,7 +20099,7 @@
       <c r="F8" s="266"/>
       <c r="G8" s="266"/>
     </row>
-    <row r="9" spans="1:15" hidden="1">
+    <row r="9" spans="1:15">
       <c r="A9" s="264" t="s">
         <v>607</v>
       </c>
@@ -20103,7 +20112,7 @@
       <c r="F9" s="266"/>
       <c r="G9" s="266"/>
     </row>
-    <row r="10" spans="1:15" hidden="1">
+    <row r="10" spans="1:15">
       <c r="A10" s="264" t="s">
         <v>608</v>
       </c>
@@ -20116,7 +20125,7 @@
       <c r="F10" s="266"/>
       <c r="G10" s="266"/>
     </row>
-    <row r="11" spans="1:15" hidden="1">
+    <row r="11" spans="1:15">
       <c r="A11" s="264" t="s">
         <v>621</v>
       </c>
@@ -20133,7 +20142,7 @@
       <c r="F11" s="266"/>
       <c r="G11" s="266"/>
     </row>
-    <row r="12" spans="1:15" hidden="1">
+    <row r="12" spans="1:15">
       <c r="A12" s="264" t="s">
         <v>625</v>
       </c>
@@ -20146,7 +20155,7 @@
       <c r="F12" s="266"/>
       <c r="G12" s="266"/>
     </row>
-    <row r="13" spans="1:15" hidden="1">
+    <row r="13" spans="1:15">
       <c r="A13" s="264" t="s">
         <v>636</v>
       </c>
@@ -20159,7 +20168,7 @@
       <c r="F13" s="266"/>
       <c r="G13" s="266"/>
     </row>
-    <row r="14" spans="1:15" hidden="1">
+    <row r="14" spans="1:15">
       <c r="A14" s="264" t="s">
         <v>626</v>
       </c>
@@ -20172,7 +20181,7 @@
       <c r="F14" s="266"/>
       <c r="G14" s="266"/>
     </row>
-    <row r="15" spans="1:15" hidden="1">
+    <row r="15" spans="1:15">
       <c r="A15" s="264" t="s">
         <v>619</v>
       </c>
@@ -20187,7 +20196,7 @@
       <c r="F15" s="266"/>
       <c r="G15" s="266"/>
     </row>
-    <row r="16" spans="1:15" hidden="1">
+    <row r="16" spans="1:15">
       <c r="A16" s="264" t="s">
         <v>620</v>
       </c>
@@ -20200,7 +20209,7 @@
       <c r="F16" s="266"/>
       <c r="G16" s="266"/>
     </row>
-    <row r="17" spans="1:10" hidden="1">
+    <row r="17" spans="1:10">
       <c r="A17" s="264" t="s">
         <v>659</v>
       </c>
@@ -20232,7 +20241,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1">
+    <row r="18" spans="1:10">
       <c r="A18" s="264" t="s">
         <v>627</v>
       </c>
@@ -20245,7 +20254,7 @@
       <c r="F18" s="266"/>
       <c r="G18" s="266"/>
     </row>
-    <row r="19" spans="1:10" hidden="1">
+    <row r="19" spans="1:10">
       <c r="A19" s="264" t="s">
         <v>628</v>
       </c>
@@ -20258,7 +20267,7 @@
       <c r="F19" s="266"/>
       <c r="G19" s="266"/>
     </row>
-    <row r="20" spans="1:10" hidden="1">
+    <row r="20" spans="1:10">
       <c r="A20" s="264" t="s">
         <v>629</v>
       </c>
@@ -20279,7 +20288,7 @@
       </c>
       <c r="G20" s="266"/>
     </row>
-    <row r="21" spans="1:10" hidden="1">
+    <row r="21" spans="1:10">
       <c r="A21" s="264" t="s">
         <v>653</v>
       </c>
@@ -20292,7 +20301,7 @@
       <c r="F21" s="266"/>
       <c r="G21" s="266"/>
     </row>
-    <row r="22" spans="1:10" hidden="1">
+    <row r="22" spans="1:10">
       <c r="A22" s="264" t="s">
         <v>645</v>
       </c>
@@ -20305,7 +20314,7 @@
       <c r="F22" s="266"/>
       <c r="G22" s="266"/>
     </row>
-    <row r="23" spans="1:10" hidden="1">
+    <row r="23" spans="1:10">
       <c r="A23" s="264" t="s">
         <v>638</v>
       </c>
@@ -20318,7 +20327,7 @@
       <c r="F23" s="266"/>
       <c r="G23" s="266"/>
     </row>
-    <row r="24" spans="1:10" hidden="1">
+    <row r="24" spans="1:10">
       <c r="A24" s="264" t="s">
         <v>643</v>
       </c>
@@ -20335,7 +20344,7 @@
       <c r="F24" s="266"/>
       <c r="G24" s="266"/>
     </row>
-    <row r="25" spans="1:10" hidden="1">
+    <row r="25" spans="1:10">
       <c r="A25" s="264" t="s">
         <v>654</v>
       </c>
@@ -20350,7 +20359,7 @@
       <c r="F25" s="266"/>
       <c r="G25" s="266"/>
     </row>
-    <row r="26" spans="1:10" hidden="1">
+    <row r="26" spans="1:10">
       <c r="A26" s="264" t="s">
         <v>655</v>
       </c>
@@ -20365,7 +20374,7 @@
       <c r="F26" s="266"/>
       <c r="G26" s="266"/>
     </row>
-    <row r="27" spans="1:10" hidden="1">
+    <row r="27" spans="1:10">
       <c r="A27" s="264" t="s">
         <v>156</v>
       </c>
@@ -20373,7 +20382,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1">
+    <row r="28" spans="1:10">
       <c r="A28" s="264" t="s">
         <v>151</v>
       </c>
@@ -20381,7 +20390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1">
+    <row r="29" spans="1:10">
       <c r="A29" s="264" t="s">
         <v>152</v>
       </c>
@@ -20393,7 +20402,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1">
+    <row r="30" spans="1:10">
       <c r="A30" s="264" t="s">
         <v>153</v>
       </c>
@@ -20407,7 +20416,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1">
+    <row r="31" spans="1:10">
       <c r="A31" s="264" t="s">
         <v>154</v>
       </c>
@@ -20421,7 +20430,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1">
+    <row r="32" spans="1:10">
       <c r="A32" s="264" t="s">
         <v>155</v>
       </c>
@@ -20450,7 +20459,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1">
+    <row r="34" spans="1:13">
       <c r="A34" s="264" t="s">
         <v>660</v>
       </c>
@@ -20458,7 +20467,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1">
+    <row r="35" spans="1:13">
       <c r="A35" s="264" t="s">
         <v>661</v>
       </c>
@@ -20468,7 +20477,7 @@
       <c r="L35" s="269"/>
       <c r="M35" s="269"/>
     </row>
-    <row r="36" spans="1:13" hidden="1">
+    <row r="36" spans="1:13">
       <c r="A36" s="264" t="s">
         <v>661</v>
       </c>
@@ -20476,7 +20485,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1">
+    <row r="37" spans="1:13">
       <c r="A37" s="264" t="s">
         <v>662</v>
       </c>
@@ -20484,7 +20493,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1">
+    <row r="38" spans="1:13">
       <c r="A38" s="264" t="s">
         <v>663</v>
       </c>
@@ -20492,7 +20501,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1">
+    <row r="39" spans="1:13">
       <c r="A39" s="264" t="s">
         <v>664</v>
       </c>
@@ -20500,7 +20509,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1">
+    <row r="40" spans="1:13">
       <c r="A40" s="264" t="s">
         <v>665</v>
       </c>
@@ -20508,7 +20517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1">
+    <row r="41" spans="1:13">
       <c r="A41" s="264" t="s">
         <v>665</v>
       </c>
@@ -20516,7 +20525,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1">
+    <row r="42" spans="1:13">
       <c r="A42" s="264" t="s">
         <v>666</v>
       </c>
@@ -20524,7 +20533,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1">
+    <row r="43" spans="1:13">
       <c r="A43" s="270" t="s">
         <v>583</v>
       </c>
@@ -20532,7 +20541,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1">
+    <row r="44" spans="1:13">
       <c r="A44" s="270" t="s">
         <v>584</v>
       </c>
@@ -20543,7 +20552,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1">
+    <row r="45" spans="1:13">
       <c r="A45" s="270" t="s">
         <v>585</v>
       </c>
@@ -20551,7 +20560,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1">
+    <row r="46" spans="1:13">
       <c r="A46" s="270" t="s">
         <v>586</v>
       </c>
@@ -20559,7 +20568,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1">
+    <row r="47" spans="1:13">
       <c r="A47" s="270" t="s">
         <v>657</v>
       </c>
@@ -20567,7 +20576,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1">
+    <row r="48" spans="1:13">
       <c r="A48" s="270" t="s">
         <v>588</v>
       </c>
@@ -20575,7 +20584,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1">
+    <row r="49" spans="1:13">
       <c r="A49" s="270" t="s">
         <v>656</v>
       </c>
@@ -20583,7 +20592,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1">
+    <row r="50" spans="1:13">
       <c r="A50" s="270" t="s">
         <v>587</v>
       </c>
@@ -20591,7 +20600,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1">
+    <row r="51" spans="1:13">
       <c r="A51" s="270" t="s">
         <v>589</v>
       </c>
@@ -20599,7 +20608,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1">
+    <row r="52" spans="1:13">
       <c r="A52" s="270" t="s">
         <v>590</v>
       </c>
@@ -20610,7 +20619,7 @@
       <c r="L52" s="269"/>
       <c r="M52" s="269"/>
     </row>
-    <row r="53" spans="1:13" hidden="1">
+    <row r="53" spans="1:13">
       <c r="A53" s="270" t="s">
         <v>237</v>
       </c>
@@ -20618,7 +20627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1">
+    <row r="54" spans="1:13">
       <c r="A54" s="270" t="s">
         <v>238</v>
       </c>
@@ -20626,7 +20635,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1">
+    <row r="55" spans="1:13">
       <c r="A55" s="270" t="s">
         <v>591</v>
       </c>
@@ -20634,7 +20643,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1">
+    <row r="56" spans="1:13">
       <c r="A56" s="270" t="s">
         <v>647</v>
       </c>
@@ -20642,7 +20651,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1">
+    <row r="57" spans="1:13">
       <c r="A57" s="270" t="s">
         <v>648</v>
       </c>
@@ -20653,7 +20662,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1">
+    <row r="58" spans="1:13">
       <c r="A58" s="270" t="s">
         <v>651</v>
       </c>
@@ -20661,7 +20670,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1">
+    <row r="59" spans="1:13">
       <c r="A59" s="270" t="s">
         <v>667</v>
       </c>
@@ -20681,7 +20690,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1">
+    <row r="60" spans="1:13">
       <c r="A60" s="270" t="s">
         <v>675</v>
       </c>
@@ -20689,7 +20698,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1">
+    <row r="61" spans="1:13">
       <c r="A61" s="270" t="s">
         <v>674</v>
       </c>
@@ -20697,7 +20706,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1">
+    <row r="62" spans="1:13">
       <c r="A62" s="270" t="s">
         <v>673</v>
       </c>
@@ -20705,7 +20714,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1">
+    <row r="63" spans="1:13">
       <c r="A63" s="270" t="s">
         <v>672</v>
       </c>
@@ -20713,7 +20722,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1">
+    <row r="64" spans="1:13">
       <c r="A64" s="270" t="s">
         <v>676</v>
       </c>
@@ -20721,7 +20730,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1">
+    <row r="65" spans="1:5">
       <c r="A65" s="270" t="s">
         <v>678</v>
       </c>
@@ -20738,7 +20747,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1">
+    <row r="66" spans="1:5">
       <c r="A66" s="270" t="s">
         <v>680</v>
       </c>
@@ -20752,7 +20761,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1">
+    <row r="67" spans="1:5">
       <c r="A67" s="270" t="s">
         <v>681</v>
       </c>
@@ -20770,13 +20779,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A67">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="opacity (background)"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:A67"/>
   <hyperlinks>
     <hyperlink ref="B56" r:id="rId1"/>
   </hyperlinks>
@@ -20961,6 +20964,54 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.77734375" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="36.88671875" style="270" customWidth="1"/>
+    <col min="2" max="15" width="14.77734375" style="265"/>
+    <col min="16" max="16384" width="14.77734375" style="266"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="261" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A1" s="260" t="s">
+        <v>359</v>
+      </c>
+      <c r="B1" s="261" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="270" t="s">
+        <v>702</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -20969,133 +21020,133 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.21875" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="36.88671875" style="407" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="397" customWidth="1"/>
-    <col min="3" max="15" width="22.21875" style="409"/>
-    <col min="16" max="16384" width="22.21875" style="410"/>
+    <col min="1" max="1" width="36.88671875" style="295" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="285" customWidth="1"/>
+    <col min="3" max="15" width="22.21875" style="297"/>
+    <col min="16" max="16384" width="22.21875" style="298"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="405" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A1" s="404" t="s">
+    <row r="1" spans="1:4" s="293" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A1" s="292" t="s">
         <v>684</v>
       </c>
-      <c r="B1" s="398" t="s">
+      <c r="B1" s="286" t="s">
         <v>359</v>
       </c>
-      <c r="C1" s="406" t="s">
+      <c r="C1" s="294" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="407" t="s">
+      <c r="A2" s="295" t="s">
         <v>500</v>
       </c>
-      <c r="B2" s="397" t="s">
+      <c r="B2" s="285" t="s">
         <v>542</v>
       </c>
-      <c r="C2" s="399" t="s">
+      <c r="C2" s="287" t="s">
         <v>687</v>
       </c>
-      <c r="D2" s="408"/>
+      <c r="D2" s="296"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="407" t="s">
+      <c r="A3" s="295" t="s">
         <v>502</v>
       </c>
-      <c r="B3" s="397" t="s">
+      <c r="B3" s="285" t="s">
         <v>542</v>
       </c>
-      <c r="C3" s="400" t="s">
+      <c r="C3" s="288" t="s">
         <v>689</v>
       </c>
-      <c r="D3" s="408"/>
+      <c r="D3" s="296"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="407" t="s">
+      <c r="A4" s="295" t="s">
         <v>503</v>
       </c>
-      <c r="B4" s="397" t="s">
+      <c r="B4" s="285" t="s">
         <v>542</v>
       </c>
-      <c r="C4" s="400" t="s">
+      <c r="C4" s="288" t="s">
         <v>685</v>
       </c>
-      <c r="D4" s="401" t="s">
+      <c r="D4" s="289" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="407" t="s">
+      <c r="A5" s="295" t="s">
         <v>507</v>
       </c>
-      <c r="B5" s="397" t="s">
+      <c r="B5" s="285" t="s">
         <v>542</v>
       </c>
-      <c r="C5" s="400" t="s">
+      <c r="C5" s="288" t="s">
         <v>691</v>
       </c>
-      <c r="D5" s="401" t="s">
+      <c r="D5" s="289" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="407" t="s">
+      <c r="A6" s="295" t="s">
         <v>507</v>
       </c>
-      <c r="B6" s="397" t="s">
+      <c r="B6" s="285" t="s">
         <v>542</v>
       </c>
-      <c r="C6" s="402" t="s">
+      <c r="C6" s="290" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="407" t="s">
+      <c r="A7" s="295" t="s">
         <v>694</v>
       </c>
-      <c r="B7" s="397" t="s">
+      <c r="B7" s="285" t="s">
         <v>697</v>
       </c>
-      <c r="C7" s="402" t="s">
+      <c r="C7" s="290" t="s">
         <v>695</v>
       </c>
-      <c r="D7" s="403" t="s">
+      <c r="D7" s="291" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="407" t="s">
+      <c r="A8" s="295" t="s">
         <v>508</v>
       </c>
-      <c r="B8" s="397" t="s">
+      <c r="B8" s="285" t="s">
         <v>542</v>
       </c>
-      <c r="C8" s="403" t="s">
+      <c r="C8" s="291" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="407" t="s">
+      <c r="A9" s="295" t="s">
         <v>699</v>
       </c>
-      <c r="B9" s="397" t="s">
+      <c r="B9" s="285" t="s">
         <v>542</v>
       </c>
-      <c r="C9" s="396" t="s">
+      <c r="C9" s="284" t="s">
         <v>698</v>
       </c>
-      <c r="D9" s="396" t="s">
+      <c r="D9" s="284" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="407" t="s">
+      <c r="A10" s="295" t="s">
         <v>508</v>
       </c>
-      <c r="B10" s="397" t="s">
+      <c r="B10" s="285" t="s">
         <v>542</v>
       </c>
-      <c r="C10" s="410"/>
+      <c r="C10" s="298"/>
     </row>
   </sheetData>
   <autoFilter ref="A1"/>
